--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Desktop\Trabajos\BAMESA ESPAÑA\Calculadoras\GALP Calculado Precio Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77A306D-F4C4-4692-86FD-3F05AFE3E5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC011033-9B63-4395-BD8F-2631749E70CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3350A494-7D0F-4E24-96BD-512094F7438F}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,7 +528,7 @@
         <v>25.391660000000002</v>
       </c>
       <c r="E2">
-        <v>0.96884999999999999</v>
+        <v>0.96879999999999999</v>
       </c>
       <c r="F2">
         <v>0</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Desktop\Trabajos\BAMESA ESPAÑA\Calculadoras\GALP Calculado Precio Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC011033-9B63-4395-BD8F-2631749E70CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2971DA15-8742-4FAB-BA2E-9E274F99524E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3350A494-7D0F-4E24-96BD-512094F7438F}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,7 +525,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>25.391660000000002</v>
+        <v>25.3916</v>
       </c>
       <c r="E2">
         <v>0.96879999999999999</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Desktop\Trabajos\BAMESA ESPAÑA\Calculadoras\GALP Calculado Precio Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Synology\bamesa-consulting\SynologyDrive\BAMESA CONSULTING\CALCULADORAS PRECIOS LEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2971DA15-8742-4FAB-BA2E-9E274F99524E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACE3F4D-106B-4B91-910F-585D16EFEC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3350A494-7D0F-4E24-96BD-512094F7438F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3350A494-7D0F-4E24-96BD-512094F7438F}"/>
   </bookViews>
   <sheets>
     <sheet name="data2" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>TARIFA</t>
-  </si>
-  <si>
-    <t>SEPTIEMBRE</t>
   </si>
   <si>
     <t>2.0TD</t>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>TerminoVariableP6</t>
+  </si>
+  <si>
+    <t>ENERO</t>
   </si>
 </sst>
 </file>
@@ -158,9 +158,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -198,7 +198,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -304,7 +304,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -446,7 +446,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -456,18 +456,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAC917C-D324-4D6B-8FB1-5CF7F1023A32}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="10" max="10" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,57 +478,57 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>25.3916</v>
+        <v>25.391660000000002</v>
       </c>
       <c r="E2">
-        <v>0.96879999999999999</v>
+        <v>0.96884999999999999</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -543,13 +543,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.201678</v>
+        <v>0.20331199999999999</v>
       </c>
       <c r="K2">
-        <v>0.14260100000000001</v>
+        <v>0.14380799999999999</v>
       </c>
       <c r="L2">
-        <v>0.105638</v>
+        <v>0.106798</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -561,15 +561,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>15.713050000000001</v>
@@ -590,33 +590,33 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J3">
-        <v>0.17991099999999999</v>
+        <v>0.18121300000000001</v>
       </c>
       <c r="K3">
-        <v>0.15943299999999999</v>
+        <v>0.16054499999999999</v>
       </c>
       <c r="L3">
-        <v>0.13609199999999999</v>
+        <v>0.13228400000000001</v>
       </c>
       <c r="M3">
-        <v>0.116408</v>
+        <v>0.121615</v>
       </c>
       <c r="N3">
-        <v>9.5323000000000005E-2</v>
+        <v>0.10729900000000001</v>
       </c>
       <c r="O3">
-        <v>0.10627</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.10727100000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>24.41441</v>
@@ -637,33 +637,33 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J4">
-        <v>0.15546499999999999</v>
+        <v>0.15689800000000001</v>
       </c>
       <c r="K4">
-        <v>0.13830700000000001</v>
+        <v>0.13939399999999999</v>
       </c>
       <c r="L4">
-        <v>0.121762</v>
+        <v>0.118483</v>
       </c>
       <c r="M4">
-        <v>0.102968</v>
+        <v>0.10645300000000001</v>
       </c>
       <c r="N4">
-        <v>8.2937999999999998E-2</v>
+        <v>9.1828000000000007E-2</v>
       </c>
       <c r="O4">
-        <v>9.3579999999999997E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.4153000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>12.287599999999999</v>
@@ -684,33 +684,33 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J5">
-        <v>0.13616800000000001</v>
+        <v>0.137571</v>
       </c>
       <c r="K5">
-        <v>0.12581100000000001</v>
+        <v>0.12687499999999999</v>
       </c>
       <c r="L5">
-        <v>0.11340600000000001</v>
+        <v>0.110135</v>
       </c>
       <c r="M5">
-        <v>9.7453999999999999E-2</v>
+        <v>0.10087</v>
       </c>
       <c r="N5">
-        <v>8.0759999999999998E-2</v>
+        <v>8.9530999999999999E-2</v>
       </c>
       <c r="O5">
-        <v>9.1036000000000006E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.1591000000000006E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>25.391660000000002</v>
@@ -731,13 +731,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.19773099999999999</v>
+        <v>0.19787399999999999</v>
       </c>
       <c r="K6">
-        <v>0.13886399999999999</v>
+        <v>0.13889499999999999</v>
       </c>
       <c r="L6">
-        <v>0.102018</v>
+        <v>0.10263</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -749,15 +749,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>15.713050000000001</v>
@@ -778,33 +778,33 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J7">
-        <v>0.17167099999999999</v>
+        <v>0.173151</v>
       </c>
       <c r="K7">
-        <v>0.15342800000000001</v>
+        <v>0.15448999999999999</v>
       </c>
       <c r="L7">
-        <v>0.12895999999999999</v>
+        <v>0.12704099999999999</v>
       </c>
       <c r="M7">
-        <v>0.115684</v>
+        <v>0.11605</v>
       </c>
       <c r="N7">
-        <v>0.10191</v>
+        <v>0.10329199999999999</v>
       </c>
       <c r="O7">
-        <v>0.10298499999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.102913</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>24.41441</v>
@@ -825,33 +825,33 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J8">
-        <v>0.14853</v>
+        <v>0.17991199999999999</v>
       </c>
       <c r="K8">
-        <v>0.13358</v>
+        <v>0.13446900000000001</v>
       </c>
       <c r="L8">
-        <v>0.116313</v>
+        <v>0.114818</v>
       </c>
       <c r="M8">
-        <v>0.10291599999999999</v>
+        <v>0.10316599999999999</v>
       </c>
       <c r="N8">
-        <v>8.8618000000000002E-2</v>
+        <v>8.9980000000000004E-2</v>
       </c>
       <c r="O8">
-        <v>9.1175000000000006E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.1123999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>12.287599999999999</v>
@@ -872,33 +872,33 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J9">
-        <v>0.129333</v>
+        <v>0.130689</v>
       </c>
       <c r="K9">
-        <v>0.121152</v>
+        <v>0.12202300000000001</v>
       </c>
       <c r="L9">
-        <v>0.10802299999999999</v>
+        <v>0.106531</v>
       </c>
       <c r="M9">
-        <v>9.7381999999999996E-2</v>
+        <v>9.7620999999999999E-2</v>
       </c>
       <c r="N9">
-        <v>8.6324999999999999E-2</v>
+        <v>8.7679000000000007E-2</v>
       </c>
       <c r="O9">
-        <v>8.8666999999999996E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>8.8614999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>25.391660000000002</v>
@@ -919,13 +919,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.19147700000000001</v>
+        <v>0.19212199999999999</v>
       </c>
       <c r="K10">
-        <v>0.13336799999999999</v>
+        <v>0.133877</v>
       </c>
       <c r="L10">
-        <v>9.7281999999999993E-2</v>
+        <v>9.7741999999999996E-2</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -937,15 +937,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>15.713050000000001</v>
@@ -966,33 +966,33 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J11">
-        <v>0.16541500000000001</v>
+        <v>0.166908</v>
       </c>
       <c r="K11">
-        <v>0.145533</v>
+        <v>0.14677899999999999</v>
       </c>
       <c r="L11">
-        <v>0.12388299999999999</v>
+        <v>0.122558</v>
       </c>
       <c r="M11">
-        <v>0.111014</v>
+        <v>0.11185</v>
       </c>
       <c r="N11">
-        <v>9.6860000000000002E-2</v>
+        <v>9.9045999999999995E-2</v>
       </c>
       <c r="O11">
-        <v>9.8118999999999998E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.8514000000000004E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>24.41441</v>
@@ -1013,33 +1013,33 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J12">
-        <v>0.142487</v>
+        <v>0.14389199999999999</v>
       </c>
       <c r="K12">
-        <v>0.12607599999999999</v>
+        <v>0.12717899999999999</v>
       </c>
       <c r="L12">
-        <v>0.111264</v>
+        <v>0.110307</v>
       </c>
       <c r="M12">
-        <v>9.8809999999999995E-2</v>
+        <v>9.9414000000000002E-2</v>
       </c>
       <c r="N12">
-        <v>8.4352999999999997E-2</v>
+        <v>8.6120000000000002E-2</v>
       </c>
       <c r="O12">
-        <v>8.6765999999999996E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>8.7125999999999995E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>12.287599999999999</v>
@@ -1060,25 +1060,25 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J13">
-        <v>0.123395</v>
+        <v>0.124774</v>
       </c>
       <c r="K13">
-        <v>0.11379400000000001</v>
+        <v>0.114875</v>
       </c>
       <c r="L13">
-        <v>0.103066</v>
+        <v>0.102108</v>
       </c>
       <c r="M13">
-        <v>9.3338000000000004E-2</v>
+        <v>9.3926999999999997E-2</v>
       </c>
       <c r="N13">
-        <v>8.2110000000000002E-2</v>
+        <v>8.3858000000000002E-2</v>
       </c>
       <c r="O13">
-        <v>8.4348000000000006E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <v>8.4703000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <v>25.391660000000002</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.20084099999999999</v>
+        <v>0.202769</v>
       </c>
       <c r="K14">
-        <v>0.14171900000000001</v>
+        <v>0.143294</v>
       </c>
       <c r="L14">
-        <v>0.104406</v>
+        <v>0.105625</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15">
         <v>15.713050000000001</v>
@@ -1154,25 +1154,25 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J15">
-        <v>0.17991099999999999</v>
+        <v>0.18121300000000001</v>
       </c>
       <c r="K15">
-        <v>0.15943299999999999</v>
+        <v>0.16054499999999999</v>
       </c>
       <c r="L15">
-        <v>0.13303799999999999</v>
+        <v>0.13228400000000001</v>
       </c>
       <c r="M15">
-        <v>0.114019</v>
+        <v>0.117285</v>
       </c>
       <c r="N15">
-        <v>9.5323000000000005E-2</v>
+        <v>0.101455</v>
       </c>
       <c r="O15">
-        <v>0.10495699999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.10621</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>24.41441</v>
@@ -1201,25 +1201,25 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J16">
-        <v>0.15546499999999999</v>
+        <v>0.15689800000000001</v>
       </c>
       <c r="K16">
-        <v>0.13830700000000001</v>
+        <v>0.13939399999999999</v>
       </c>
       <c r="L16">
-        <v>0.11906799999999999</v>
+        <v>0.118483</v>
       </c>
       <c r="M16">
-        <v>0.100588</v>
+        <v>0.102684</v>
       </c>
       <c r="N16">
-        <v>8.2937999999999998E-2</v>
+        <v>8.6711999999999997E-2</v>
       </c>
       <c r="O16">
-        <v>9.2283000000000004E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.3294000000000002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>12.287599999999999</v>
@@ -1248,25 +1248,25 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J17">
-        <v>0.13616800000000001</v>
+        <v>0.137571</v>
       </c>
       <c r="K17">
-        <v>0.12581100000000001</v>
+        <v>0.12687499999999999</v>
       </c>
       <c r="L17">
-        <v>0.110711</v>
+        <v>0.110135</v>
       </c>
       <c r="M17">
-        <v>9.5099000000000003E-2</v>
+        <v>9.7146999999999997E-2</v>
       </c>
       <c r="N17">
-        <v>8.0759999999999998E-2</v>
+        <v>8.4453E-2</v>
       </c>
       <c r="O17">
-        <v>8.9743000000000003E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.0734999999999996E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <v>25.391660000000002</v>
@@ -1295,13 +1295,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.19711000000000001</v>
+        <v>0.19728699999999999</v>
       </c>
       <c r="K18">
-        <v>0.13822799999999999</v>
+        <v>0.13835700000000001</v>
       </c>
       <c r="L18">
-        <v>0.101198</v>
+        <v>0.101241</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>15.713050000000001</v>
@@ -1342,25 +1342,25 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J19">
-        <v>0.17167099999999999</v>
+        <v>0.173151</v>
       </c>
       <c r="K19">
-        <v>0.15342800000000001</v>
+        <v>0.15448999999999999</v>
       </c>
       <c r="L19">
-        <v>0.126415</v>
+        <v>0.12704099999999999</v>
       </c>
       <c r="M19">
-        <v>0.114429</v>
+        <v>0.11311599999999999</v>
       </c>
       <c r="N19">
-        <v>0.10191</v>
+        <v>9.9265000000000006E-2</v>
       </c>
       <c r="O19">
-        <v>0.102145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.102162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>24.41441</v>
@@ -1389,25 +1389,25 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J20">
-        <v>0.14853</v>
+        <v>0.14991199999999999</v>
       </c>
       <c r="K20">
-        <v>0.13358</v>
+        <v>0.13446900000000001</v>
       </c>
       <c r="L20">
-        <v>0.114328</v>
+        <v>0.114818</v>
       </c>
       <c r="M20">
-        <v>0.10172399999999999</v>
+        <v>0.100923</v>
       </c>
       <c r="N20">
-        <v>8.8618000000000002E-2</v>
+        <v>8.7026000000000006E-2</v>
       </c>
       <c r="O20">
-        <v>9.0415999999999996E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.0566999999999995E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21">
         <v>12.287599999999999</v>
@@ -1436,25 +1436,25 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J21">
-        <v>0.129333</v>
+        <v>0.130689</v>
       </c>
       <c r="K21">
-        <v>0.121152</v>
+        <v>0.12202300000000001</v>
       </c>
       <c r="L21">
-        <v>0.106049</v>
+        <v>0.106531</v>
       </c>
       <c r="M21">
-        <v>9.6199999999999994E-2</v>
+        <v>9.5406000000000005E-2</v>
       </c>
       <c r="N21">
-        <v>8.6324999999999999E-2</v>
+        <v>8.4741999999999998E-2</v>
       </c>
       <c r="O21">
-        <v>8.7913000000000005E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+        <v>8.8062000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <v>25.391660000000002</v>
@@ -1483,13 +1483,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.19084499999999999</v>
+        <v>0.19150900000000001</v>
       </c>
       <c r="K22">
-        <v>0.13275300000000001</v>
+        <v>0.133327</v>
       </c>
       <c r="L22">
-        <v>9.6560000000000007E-2</v>
+        <v>9.7049999999999997E-2</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23">
         <v>15.713050000000001</v>
@@ -1530,25 +1530,25 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J23">
-        <v>0.16541500000000001</v>
+        <v>0.166908</v>
       </c>
       <c r="K23">
-        <v>0.145533</v>
+        <v>0.14677899999999999</v>
       </c>
       <c r="L23">
-        <v>0.12171999999999999</v>
+        <v>0.122558</v>
       </c>
       <c r="M23">
-        <v>0.109914</v>
+        <v>0.109509</v>
       </c>
       <c r="N23">
-        <v>9.6860000000000002E-2</v>
+        <v>9.5592999999999997E-2</v>
       </c>
       <c r="O23">
-        <v>9.7381999999999996E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.7863000000000006E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>24.41441</v>
@@ -1577,25 +1577,25 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J24">
-        <v>0.142487</v>
+        <v>0.14389199999999999</v>
       </c>
       <c r="K24">
-        <v>0.12607599999999999</v>
+        <v>0.12717899999999999</v>
       </c>
       <c r="L24">
-        <v>0.10956200000000001</v>
+        <v>0.110307</v>
       </c>
       <c r="M24">
-        <v>9.7813999999999998E-2</v>
+        <v>9.7654000000000005E-2</v>
       </c>
       <c r="N24">
-        <v>8.4352999999999997E-2</v>
+        <v>8.3641999999999994E-2</v>
       </c>
       <c r="O24">
-        <v>8.6126999999999995E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+        <v>8.6643999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25">
         <v>12.287599999999999</v>
@@ -1624,25 +1624,25 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J25">
-        <v>0.123395</v>
+        <v>0.124774</v>
       </c>
       <c r="K25">
-        <v>0.11379400000000001</v>
+        <v>0.114875</v>
       </c>
       <c r="L25">
-        <v>0.10137599999999999</v>
+        <v>0.102108</v>
       </c>
       <c r="M25">
-        <v>9.2350000000000002E-2</v>
+        <v>9.2188000000000006E-2</v>
       </c>
       <c r="N25">
-        <v>8.2110000000000002E-2</v>
+        <v>8.14E-2</v>
       </c>
       <c r="O25">
-        <v>8.3714999999999998E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+        <v>8.4223999999999993E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26">
         <v>25.391660000000002</v>
@@ -1671,13 +1671,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.20300499999999999</v>
+        <v>0.20327300000000001</v>
       </c>
       <c r="K26">
-        <v>0.143651</v>
+        <v>0.14372499999999999</v>
       </c>
       <c r="L26">
-        <v>0.10595</v>
+        <v>0.105935</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27">
         <v>15.713050000000001</v>
@@ -1718,25 +1718,25 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J27">
-        <v>0.17991099999999999</v>
+        <v>0.18121300000000001</v>
       </c>
       <c r="K27">
-        <v>0.15943299999999999</v>
+        <v>0.161884</v>
       </c>
       <c r="L27">
-        <v>0.13303799999999999</v>
+        <v>0.13303599999999999</v>
       </c>
       <c r="M27">
-        <v>0.11883299999999999</v>
+        <v>0.117285</v>
       </c>
       <c r="N27">
-        <v>0.103246</v>
+        <v>0.101455</v>
       </c>
       <c r="O27">
-        <v>0.10652</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.106584</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28">
         <v>24.41441</v>
@@ -1765,25 +1765,25 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J28">
-        <v>0.15546499999999999</v>
+        <v>0.15689800000000001</v>
       </c>
       <c r="K28">
-        <v>0.13830700000000001</v>
+        <v>0.14085700000000001</v>
       </c>
       <c r="L28">
-        <v>0.11906799999999999</v>
+        <v>0.119588</v>
       </c>
       <c r="M28">
-        <v>0.10402</v>
+        <v>0.102684</v>
       </c>
       <c r="N28">
-        <v>8.8147000000000003E-2</v>
+        <v>8.6711999999999997E-2</v>
       </c>
       <c r="O28">
-        <v>9.3451000000000006E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.3690999999999997E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29">
         <v>12.287599999999999</v>
@@ -1812,25 +1812,25 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J29">
-        <v>0.13616800000000001</v>
+        <v>0.137571</v>
       </c>
       <c r="K29">
-        <v>0.12581100000000001</v>
+        <v>0.12828800000000001</v>
       </c>
       <c r="L29">
-        <v>0.110711</v>
+        <v>0.111206</v>
       </c>
       <c r="M29">
-        <v>9.8461000000000007E-2</v>
+        <v>9.7146999999999997E-2</v>
       </c>
       <c r="N29">
-        <v>8.5868E-2</v>
+        <v>8.4453E-2</v>
       </c>
       <c r="O29">
-        <v>9.0891E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.1122999999999996E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30">
         <v>25.391660000000002</v>
@@ -1859,13 +1859,13 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.196407</v>
+        <v>0.19655900000000001</v>
       </c>
       <c r="K30">
-        <v>0.13760600000000001</v>
+        <v>0.13774</v>
       </c>
       <c r="L30">
-        <v>0.100568</v>
+        <v>0.10080699999999999</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31">
         <v>15.713050000000001</v>
@@ -1906,25 +1906,25 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J31">
-        <v>0.17167099999999999</v>
+        <v>0.173151</v>
       </c>
       <c r="K31">
-        <v>0.15342800000000001</v>
+        <v>0.15257599999999999</v>
       </c>
       <c r="L31">
-        <v>0.126415</v>
+        <v>0.12598500000000001</v>
       </c>
       <c r="M31">
-        <v>0.11268</v>
+        <v>0.11311599999999999</v>
       </c>
       <c r="N31">
-        <v>9.9071999999999993E-2</v>
+        <v>9.9265000000000006E-2</v>
       </c>
       <c r="O31">
-        <v>0.101498</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.101655</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32">
         <v>24.41441</v>
@@ -1953,25 +1953,25 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J32">
-        <v>0.14853</v>
+        <v>0.14991199999999999</v>
       </c>
       <c r="K32">
-        <v>0.13358</v>
+        <v>0.132414</v>
       </c>
       <c r="L32">
-        <v>0.114328</v>
+        <v>0.113285</v>
       </c>
       <c r="M32">
-        <v>0.100463</v>
+        <v>0.100923</v>
       </c>
       <c r="N32">
-        <v>8.6732000000000004E-2</v>
+        <v>8.7026000000000006E-2</v>
       </c>
       <c r="O32">
-        <v>8.9940999999999993E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.0035000000000004E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33">
         <v>12.287599999999999</v>
@@ -2000,25 +2000,25 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J33">
-        <v>0.129333</v>
+        <v>0.130689</v>
       </c>
       <c r="K33">
-        <v>0.121152</v>
+        <v>0.120001</v>
       </c>
       <c r="L33">
-        <v>0.106049</v>
+        <v>0.10502400000000001</v>
       </c>
       <c r="M33">
-        <v>9.4952999999999996E-2</v>
+        <v>9.5406000000000005E-2</v>
       </c>
       <c r="N33">
-        <v>8.4453E-2</v>
+        <v>8.4741999999999998E-2</v>
       </c>
       <c r="O33">
-        <v>8.7448999999999999E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+        <v>8.7539000000000006E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34">
         <v>25.391660000000002</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.19045599999999999</v>
+        <v>0.190912</v>
       </c>
       <c r="K34">
-        <v>0.13240299999999999</v>
+        <v>0.13281999999999999</v>
       </c>
       <c r="L34">
-        <v>9.6236000000000002E-2</v>
+        <v>9.6685999999999994E-2</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35">
         <v>15.713050000000001</v>
@@ -2094,25 +2094,25 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J35">
-        <v>0.16541500000000001</v>
+        <v>0.166908</v>
       </c>
       <c r="K35">
-        <v>0.145533</v>
+        <v>0.145205</v>
       </c>
       <c r="L35">
-        <v>0.12171999999999999</v>
+        <v>0.121698</v>
       </c>
       <c r="M35">
-        <v>0.108873</v>
+        <v>0.109509</v>
       </c>
       <c r="N35">
-        <v>9.5160999999999996E-2</v>
+        <v>9.5592999999999997E-2</v>
       </c>
       <c r="O35">
-        <v>9.7043000000000004E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.7434999999999994E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D36">
         <v>24.41441</v>
@@ -2141,25 +2141,25 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J36">
-        <v>0.142487</v>
+        <v>0.14389199999999999</v>
       </c>
       <c r="K36">
-        <v>0.12607599999999999</v>
+        <v>0.125504</v>
       </c>
       <c r="L36">
-        <v>0.10956200000000001</v>
+        <v>0.109067</v>
       </c>
       <c r="M36">
-        <v>9.7034999999999996E-2</v>
+        <v>9.7654000000000005E-2</v>
       </c>
       <c r="N36">
-        <v>8.3179000000000003E-2</v>
+        <v>8.3641999999999994E-2</v>
       </c>
       <c r="O36">
-        <v>8.5888000000000006E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+        <v>8.6194000000000007E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37">
         <v>12.287599999999999</v>
@@ -2188,33 +2188,33 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J37">
-        <v>0.123395</v>
+        <v>0.124774</v>
       </c>
       <c r="K37">
-        <v>0.11379400000000001</v>
+        <v>0.11323</v>
       </c>
       <c r="L37">
-        <v>0.10137599999999999</v>
+        <v>0.10088999999999999</v>
       </c>
       <c r="M37">
-        <v>9.1579999999999995E-2</v>
+        <v>9.2188000000000006E-2</v>
       </c>
       <c r="N37">
-        <v>8.0944000000000002E-2</v>
+        <v>8.14E-2</v>
       </c>
       <c r="O37">
-        <v>8.3484000000000003E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+        <v>8.3783999999999997E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B38">
         <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38">
         <v>25.391660000000002</v>
@@ -2235,13 +2235,13 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.20364399999999999</v>
+        <v>0.20316799999999999</v>
       </c>
       <c r="K38">
-        <v>0.14419499999999999</v>
+        <v>0.143622</v>
       </c>
       <c r="L38">
-        <v>0.106349</v>
+        <v>0.10587199999999999</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2253,15 +2253,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B39">
         <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39">
         <v>15.713050000000001</v>
@@ -2282,33 +2282,33 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J39">
-        <v>0.17991099999999999</v>
+        <v>0.18087500000000001</v>
       </c>
       <c r="K39">
-        <v>0.16113</v>
+        <v>0.16158400000000001</v>
       </c>
       <c r="L39">
-        <v>0.13399</v>
+        <v>0.13303599999999999</v>
       </c>
       <c r="M39">
-        <v>0.11883299999999999</v>
+        <v>0.117285</v>
       </c>
       <c r="N39">
-        <v>0.103246</v>
+        <v>0.101455</v>
       </c>
       <c r="O39">
-        <v>0.10699699999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.10653600000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B40">
         <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40">
         <v>24.41441</v>
@@ -2329,33 +2329,33 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J40">
-        <v>0.15546499999999999</v>
+        <v>0.156579</v>
       </c>
       <c r="K40">
-        <v>0.140156</v>
+        <v>0.14052100000000001</v>
       </c>
       <c r="L40">
-        <v>0.120464</v>
+        <v>0.119588</v>
       </c>
       <c r="M40">
-        <v>0.10402</v>
+        <v>0.102684</v>
       </c>
       <c r="N40">
-        <v>8.8147000000000003E-2</v>
+        <v>8.6711999999999997E-2</v>
       </c>
       <c r="O40">
-        <v>9.3954999999999997E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.3639E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B41">
         <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41">
         <v>12.287599999999999</v>
@@ -2376,33 +2376,33 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J41">
-        <v>0.13616800000000001</v>
+        <v>0.12794700000000001</v>
       </c>
       <c r="K41">
-        <v>0.12760199999999999</v>
+        <v>0.111206</v>
       </c>
       <c r="L41">
-        <v>0.112068</v>
+        <v>0.111206</v>
       </c>
       <c r="M41">
-        <v>9.8461000000000007E-2</v>
+        <v>9.7146999999999997E-2</v>
       </c>
       <c r="N41">
-        <v>8.5868E-2</v>
+        <v>8.4453E-2</v>
       </c>
       <c r="O41">
-        <v>9.1384000000000007E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.1070999999999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B42">
         <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42">
         <v>25.391660000000002</v>
@@ -2423,13 +2423,13 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0.19554199999999999</v>
+        <v>0.19556200000000001</v>
       </c>
       <c r="K42">
-        <v>0.136874</v>
+        <v>0.13686000000000001</v>
       </c>
       <c r="L42">
-        <v>0.100049</v>
+        <v>0.10007000000000001</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -2441,15 +2441,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B43">
         <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43">
         <v>15.713050000000001</v>
@@ -2470,33 +2470,33 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J43">
-        <v>0.17167099999999999</v>
+        <v>0.17035500000000001</v>
       </c>
       <c r="K43">
-        <v>0.15115899999999999</v>
+        <v>0.15084600000000001</v>
       </c>
       <c r="L43">
-        <v>0.12516099999999999</v>
+        <v>0.12598500000000001</v>
       </c>
       <c r="M43">
-        <v>0.11268</v>
+        <v>0.11311599999999999</v>
       </c>
       <c r="N43">
-        <v>9.9071999999999993E-2</v>
+        <v>9.9265000000000006E-2</v>
       </c>
       <c r="O43">
-        <v>0.10088900000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.100852</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B44">
         <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D44">
         <v>24.41441</v>
@@ -2517,33 +2517,33 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J44">
-        <v>0.14853</v>
+        <v>0.14690900000000001</v>
       </c>
       <c r="K44">
-        <v>0.13114400000000001</v>
+        <v>0.13068299999999999</v>
       </c>
       <c r="L44">
-        <v>0.112507</v>
+        <v>0.113285</v>
       </c>
       <c r="M44">
-        <v>0.100463</v>
+        <v>0.100923</v>
       </c>
       <c r="N44">
-        <v>8.6732000000000004E-2</v>
+        <v>8.7026000000000006E-2</v>
       </c>
       <c r="O44">
-        <v>8.9302000000000006E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+        <v>8.9277999999999996E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B45">
         <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D45">
         <v>12.287599999999999</v>
@@ -2564,33 +2564,33 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J45">
-        <v>0.129333</v>
+        <v>0.12773699999999999</v>
       </c>
       <c r="K45">
-        <v>0.118755</v>
+        <v>0.118298</v>
       </c>
       <c r="L45">
-        <v>0.10426000000000001</v>
+        <v>0.10502400000000001</v>
       </c>
       <c r="M45">
-        <v>9.4952999999999996E-2</v>
+        <v>9.5406000000000005E-2</v>
       </c>
       <c r="N45">
-        <v>8.4453E-2</v>
+        <v>8.4741999999999998E-2</v>
       </c>
       <c r="O45">
-        <v>8.6822999999999997E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+        <v>8.6801000000000003E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B46">
         <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46">
         <v>25.391660000000002</v>
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0.189806</v>
+        <v>0.19023200000000001</v>
       </c>
       <c r="K46">
-        <v>0.131851</v>
+        <v>0.13222900000000001</v>
       </c>
       <c r="L46">
-        <v>9.5838000000000007E-2</v>
+        <v>9.6197000000000005E-2</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -2629,15 +2629,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B47">
         <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47">
         <v>15.713050000000001</v>
@@ -2658,33 +2658,33 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J47">
-        <v>0.16541500000000001</v>
+        <v>0.16500100000000001</v>
       </c>
       <c r="K47">
-        <v>0.14382</v>
+        <v>0.14405000000000001</v>
       </c>
       <c r="L47">
-        <v>0.120782</v>
+        <v>0.121698</v>
       </c>
       <c r="M47">
-        <v>0.108873</v>
+        <v>0.109509</v>
       </c>
       <c r="N47">
-        <v>9.5160999999999996E-2</v>
+        <v>9.5592999999999997E-2</v>
       </c>
       <c r="O47">
-        <v>9.6574999999999994E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.6909999999999996E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B48">
         <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>24.41441</v>
@@ -2705,33 +2705,33 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J48">
-        <v>0.142487</v>
+        <v>0.141871</v>
       </c>
       <c r="K48">
-        <v>0.124252</v>
+        <v>0.12436700000000001</v>
       </c>
       <c r="L48">
-        <v>0.108209</v>
+        <v>0.109067</v>
       </c>
       <c r="M48">
-        <v>9.7034999999999996E-2</v>
+        <v>9.7654000000000005E-2</v>
       </c>
       <c r="N48">
-        <v>8.3179000000000003E-2</v>
+        <v>8.3641999999999994E-2</v>
       </c>
       <c r="O48">
-        <v>8.5394999999999999E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+        <v>8.5704000000000002E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B49">
         <v>36</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D49">
         <v>12.287599999999999</v>
@@ -2752,22 +2752,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J49">
-        <v>0.123395</v>
+        <v>0.122789</v>
       </c>
       <c r="K49">
-        <v>0.112001</v>
+        <v>0.112112</v>
       </c>
       <c r="L49">
-        <v>0.100048</v>
+        <v>0.10088999999999999</v>
       </c>
       <c r="M49">
-        <v>9.1579999999999995E-2</v>
+        <v>9.2188000000000006E-2</v>
       </c>
       <c r="N49">
-        <v>8.0944000000000002E-2</v>
+        <v>8.14E-2</v>
       </c>
       <c r="O49">
-        <v>8.3001000000000005E-2</v>
+        <v>8.3303000000000002E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Synology\bamesa-consulting\SynologyDrive\BAMESA CONSULTING\CALCULADORAS PRECIOS LEO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\PRECIOS CALCULADORA GALP LEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACE3F4D-106B-4B91-910F-585D16EFEC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADEC1A3-5926-48F3-9200-FB46DDB830E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3350A494-7D0F-4E24-96BD-512094F7438F}"/>
   </bookViews>
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAC917C-D324-4D6B-8FB1-5CF7F1023A32}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,13 +543,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.20331199999999999</v>
+        <v>0.20260700000000001</v>
       </c>
       <c r="K2">
-        <v>0.14380799999999999</v>
+        <v>0.14338799999999999</v>
       </c>
       <c r="L2">
-        <v>0.106798</v>
+        <v>0.106559</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -590,22 +590,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J3">
-        <v>0.18121300000000001</v>
+        <v>0.18088499999999999</v>
       </c>
       <c r="K3">
-        <v>0.16054499999999999</v>
+        <v>0.15994</v>
       </c>
       <c r="L3">
-        <v>0.13228400000000001</v>
+        <v>0.13515099999999999</v>
       </c>
       <c r="M3">
-        <v>0.121615</v>
+        <v>0.120005</v>
       </c>
       <c r="N3">
-        <v>0.10729900000000001</v>
+        <v>0.103148</v>
       </c>
       <c r="O3">
-        <v>0.10727100000000001</v>
+        <v>0.106865</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -637,22 +637,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J4">
-        <v>0.15689800000000001</v>
+        <v>0.15597900000000001</v>
       </c>
       <c r="K4">
-        <v>0.13939399999999999</v>
+        <v>0.13841899999999999</v>
       </c>
       <c r="L4">
-        <v>0.118483</v>
+        <v>0.12044299999999999</v>
       </c>
       <c r="M4">
-        <v>0.10645300000000001</v>
+        <v>0.105375</v>
       </c>
       <c r="N4">
-        <v>9.1828000000000007E-2</v>
+        <v>8.8899000000000006E-2</v>
       </c>
       <c r="O4">
-        <v>9.4153000000000001E-2</v>
+        <v>9.3661999999999995E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -684,22 +684,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J5">
-        <v>0.137571</v>
+        <v>0.13667599999999999</v>
       </c>
       <c r="K5">
-        <v>0.12687499999999999</v>
+        <v>0.12592300000000001</v>
       </c>
       <c r="L5">
-        <v>0.110135</v>
+        <v>0.112065</v>
       </c>
       <c r="M5">
-        <v>0.10087</v>
+        <v>9.9809999999999996E-2</v>
       </c>
       <c r="N5">
-        <v>8.9530999999999999E-2</v>
+        <v>8.6640999999999996E-2</v>
       </c>
       <c r="O5">
-        <v>9.1591000000000006E-2</v>
+        <v>9.1113E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -731,13 +731,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.19787399999999999</v>
+        <v>0.19803100000000001</v>
       </c>
       <c r="K6">
-        <v>0.13889499999999999</v>
+        <v>0.139159</v>
       </c>
       <c r="L6">
-        <v>0.10263</v>
+        <v>0.102369</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -778,22 +778,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J7">
-        <v>0.173151</v>
+        <v>0.17351800000000001</v>
       </c>
       <c r="K7">
-        <v>0.15448999999999999</v>
+        <v>0.15466099999999999</v>
       </c>
       <c r="L7">
-        <v>0.12704099999999999</v>
+        <v>0.12898699999999999</v>
       </c>
       <c r="M7">
-        <v>0.11605</v>
+        <v>0.115623</v>
       </c>
       <c r="N7">
-        <v>0.10329199999999999</v>
+        <v>0.101145</v>
       </c>
       <c r="O7">
-        <v>0.102913</v>
+        <v>0.103135</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -825,22 +825,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J8">
-        <v>0.17991199999999999</v>
+        <v>0.149927</v>
       </c>
       <c r="K8">
-        <v>0.13446900000000001</v>
+        <v>0.13439599999999999</v>
       </c>
       <c r="L8">
-        <v>0.114818</v>
+        <v>0.116255</v>
       </c>
       <c r="M8">
-        <v>0.10316599999999999</v>
+        <v>0.103032</v>
       </c>
       <c r="N8">
-        <v>8.9980000000000004E-2</v>
+        <v>8.8649000000000006E-2</v>
       </c>
       <c r="O8">
-        <v>9.1123999999999997E-2</v>
+        <v>9.1256000000000004E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -872,22 +872,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J9">
-        <v>0.130689</v>
+        <v>0.13070699999999999</v>
       </c>
       <c r="K9">
-        <v>0.12202300000000001</v>
+        <v>0.12195400000000001</v>
       </c>
       <c r="L9">
-        <v>0.106531</v>
+        <v>0.107944</v>
       </c>
       <c r="M9">
-        <v>9.7620999999999999E-2</v>
+        <v>9.7488000000000005E-2</v>
       </c>
       <c r="N9">
-        <v>8.7679000000000007E-2</v>
+        <v>8.6363999999999996E-2</v>
       </c>
       <c r="O9">
-        <v>8.8614999999999999E-2</v>
+        <v>8.8747000000000006E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -919,13 +919,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.19212199999999999</v>
+        <v>0.19273299999999999</v>
       </c>
       <c r="K10">
-        <v>0.133877</v>
+        <v>0.134519</v>
       </c>
       <c r="L10">
-        <v>9.7741999999999996E-2</v>
+        <v>9.8359000000000002E-2</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -966,22 +966,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J11">
-        <v>0.166908</v>
+        <v>0.16767099999999999</v>
       </c>
       <c r="K11">
-        <v>0.14677899999999999</v>
+        <v>0.147373</v>
       </c>
       <c r="L11">
-        <v>0.122558</v>
+        <v>0.124344</v>
       </c>
       <c r="M11">
-        <v>0.11185</v>
+        <v>0.11199000000000001</v>
       </c>
       <c r="N11">
-        <v>9.9045999999999995E-2</v>
+        <v>9.7849000000000005E-2</v>
       </c>
       <c r="O11">
-        <v>9.8514000000000004E-2</v>
+        <v>9.9077999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1013,22 +1013,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J12">
-        <v>0.14389199999999999</v>
+        <v>0.144372</v>
       </c>
       <c r="K12">
-        <v>0.12717899999999999</v>
+        <v>0.12756300000000001</v>
       </c>
       <c r="L12">
-        <v>0.110307</v>
+        <v>0.111709</v>
       </c>
       <c r="M12">
-        <v>9.9414000000000002E-2</v>
+        <v>9.9723999999999993E-2</v>
       </c>
       <c r="N12">
-        <v>8.6120000000000002E-2</v>
+        <v>8.5500999999999994E-2</v>
       </c>
       <c r="O12">
-        <v>8.7125999999999995E-2</v>
+        <v>8.7581999999999993E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1060,22 +1060,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J13">
-        <v>0.124774</v>
+        <v>0.125247</v>
       </c>
       <c r="K13">
-        <v>0.114875</v>
+        <v>0.115254</v>
       </c>
       <c r="L13">
-        <v>0.102108</v>
+        <v>0.103487</v>
       </c>
       <c r="M13">
-        <v>9.3926999999999997E-2</v>
+        <v>9.4231999999999996E-2</v>
       </c>
       <c r="N13">
-        <v>8.3858000000000002E-2</v>
+        <v>8.3248000000000003E-2</v>
       </c>
       <c r="O13">
-        <v>8.4703000000000001E-2</v>
+        <v>8.5149000000000002E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.202769</v>
+        <v>0.20372599999999999</v>
       </c>
       <c r="K14">
-        <v>0.143294</v>
+        <v>0.14438300000000001</v>
       </c>
       <c r="L14">
-        <v>0.105625</v>
+        <v>0.106674</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1154,22 +1154,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J15">
-        <v>0.18121300000000001</v>
+        <v>0.18088499999999999</v>
       </c>
       <c r="K15">
-        <v>0.16054499999999999</v>
+        <v>0.15994</v>
       </c>
       <c r="L15">
-        <v>0.13228400000000001</v>
+        <v>0.13515099999999999</v>
       </c>
       <c r="M15">
-        <v>0.117285</v>
+        <v>0.11916499999999999</v>
       </c>
       <c r="N15">
-        <v>0.101455</v>
+        <v>0.101715</v>
       </c>
       <c r="O15">
-        <v>0.10621</v>
+        <v>0.10709</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1201,22 +1201,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J16">
-        <v>0.15689800000000001</v>
+        <v>0.15597900000000001</v>
       </c>
       <c r="K16">
-        <v>0.13939399999999999</v>
+        <v>0.13841899999999999</v>
       </c>
       <c r="L16">
-        <v>0.118483</v>
+        <v>0.12044299999999999</v>
       </c>
       <c r="M16">
-        <v>0.102684</v>
+        <v>0.104185</v>
       </c>
       <c r="N16">
-        <v>8.6711999999999997E-2</v>
+        <v>8.6966000000000002E-2</v>
       </c>
       <c r="O16">
-        <v>9.3294000000000002E-2</v>
+        <v>9.3738000000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1248,22 +1248,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J17">
-        <v>0.137571</v>
+        <v>0.13667599999999999</v>
       </c>
       <c r="K17">
-        <v>0.12687499999999999</v>
+        <v>0.12592300000000001</v>
       </c>
       <c r="L17">
-        <v>0.110135</v>
+        <v>0.112065</v>
       </c>
       <c r="M17">
-        <v>9.7146999999999997E-2</v>
+        <v>9.8624000000000003E-2</v>
       </c>
       <c r="N17">
-        <v>8.4453E-2</v>
+        <v>8.4704000000000002E-2</v>
       </c>
       <c r="O17">
-        <v>9.0734999999999996E-2</v>
+        <v>9.1175000000000006E-2</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1295,13 +1295,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.19728699999999999</v>
+        <v>0.198328</v>
       </c>
       <c r="K18">
-        <v>0.13835700000000001</v>
+        <v>0.13941600000000001</v>
       </c>
       <c r="L18">
-        <v>0.101241</v>
+        <v>0.102217</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J19">
-        <v>0.173151</v>
+        <v>0.17351800000000001</v>
       </c>
       <c r="K19">
-        <v>0.15448999999999999</v>
+        <v>0.15466099999999999</v>
       </c>
       <c r="L19">
-        <v>0.12704099999999999</v>
+        <v>0.12898699999999999</v>
       </c>
       <c r="M19">
-        <v>0.11311599999999999</v>
+        <v>0.114609</v>
       </c>
       <c r="N19">
-        <v>9.9265000000000006E-2</v>
+        <v>9.9897E-2</v>
       </c>
       <c r="O19">
-        <v>0.102162</v>
+        <v>0.103057</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1389,22 +1389,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J20">
-        <v>0.14991199999999999</v>
+        <v>0.149927</v>
       </c>
       <c r="K20">
-        <v>0.13446900000000001</v>
+        <v>0.13439599999999999</v>
       </c>
       <c r="L20">
-        <v>0.114818</v>
+        <v>0.116255</v>
       </c>
       <c r="M20">
-        <v>0.100923</v>
+        <v>0.102185</v>
       </c>
       <c r="N20">
-        <v>8.7026000000000006E-2</v>
+        <v>8.7615999999999999E-2</v>
       </c>
       <c r="O20">
-        <v>9.0566999999999995E-2</v>
+        <v>9.1191999999999995E-2</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1436,22 +1436,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J21">
-        <v>0.130689</v>
+        <v>0.13070699999999999</v>
       </c>
       <c r="K21">
-        <v>0.12202300000000001</v>
+        <v>0.12195400000000001</v>
       </c>
       <c r="L21">
-        <v>0.106531</v>
+        <v>0.107944</v>
       </c>
       <c r="M21">
-        <v>9.5406000000000005E-2</v>
+        <v>9.6648999999999999E-2</v>
       </c>
       <c r="N21">
-        <v>8.4741999999999998E-2</v>
+        <v>8.5322999999999996E-2</v>
       </c>
       <c r="O21">
-        <v>8.8062000000000001E-2</v>
+        <v>8.8677000000000006E-2</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1483,13 +1483,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.19150900000000001</v>
+        <v>0.19272500000000001</v>
       </c>
       <c r="K22">
-        <v>0.133327</v>
+        <v>0.13451399999999999</v>
       </c>
       <c r="L22">
-        <v>9.7049999999999997E-2</v>
+        <v>9.8123000000000002E-2</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1530,22 +1530,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J23">
-        <v>0.166908</v>
+        <v>0.16767099999999999</v>
       </c>
       <c r="K23">
-        <v>0.14677899999999999</v>
+        <v>0.147373</v>
       </c>
       <c r="L23">
-        <v>0.122558</v>
+        <v>0.124344</v>
       </c>
       <c r="M23">
-        <v>0.109509</v>
+        <v>0.110984</v>
       </c>
       <c r="N23">
-        <v>9.5592999999999997E-2</v>
+        <v>9.6439999999999998E-2</v>
       </c>
       <c r="O23">
-        <v>9.7863000000000006E-2</v>
+        <v>9.8888000000000004E-2</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1577,22 +1577,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J24">
-        <v>0.14389199999999999</v>
+        <v>0.144372</v>
       </c>
       <c r="K24">
-        <v>0.12717899999999999</v>
+        <v>0.12756300000000001</v>
       </c>
       <c r="L24">
-        <v>0.110307</v>
+        <v>0.111709</v>
       </c>
       <c r="M24">
-        <v>9.7654000000000005E-2</v>
+        <v>9.8929000000000003E-2</v>
       </c>
       <c r="N24">
-        <v>8.3641999999999994E-2</v>
+        <v>8.4409999999999999E-2</v>
       </c>
       <c r="O24">
-        <v>8.6643999999999999E-2</v>
+        <v>8.7438000000000002E-2</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1624,22 +1624,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J25">
-        <v>0.124774</v>
+        <v>0.125247</v>
       </c>
       <c r="K25">
-        <v>0.114875</v>
+        <v>0.115254</v>
       </c>
       <c r="L25">
-        <v>0.102108</v>
+        <v>0.103487</v>
       </c>
       <c r="M25">
-        <v>9.2188000000000006E-2</v>
+        <v>9.3442999999999998E-2</v>
       </c>
       <c r="N25">
-        <v>8.14E-2</v>
+        <v>8.2156999999999994E-2</v>
       </c>
       <c r="O25">
-        <v>8.4223999999999993E-2</v>
+        <v>8.5003999999999996E-2</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1671,13 +1671,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.20327300000000001</v>
+        <v>0.20444300000000001</v>
       </c>
       <c r="K26">
-        <v>0.14372499999999999</v>
+        <v>0.14499400000000001</v>
       </c>
       <c r="L26">
-        <v>0.105935</v>
+        <v>0.107124</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -1718,22 +1718,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J27">
-        <v>0.18121300000000001</v>
+        <v>0.18088499999999999</v>
       </c>
       <c r="K27">
-        <v>0.161884</v>
+        <v>0.16184200000000001</v>
       </c>
       <c r="L27">
-        <v>0.13303599999999999</v>
+        <v>0.136217</v>
       </c>
       <c r="M27">
-        <v>0.117285</v>
+        <v>0.11916499999999999</v>
       </c>
       <c r="N27">
-        <v>0.101455</v>
+        <v>0.101715</v>
       </c>
       <c r="O27">
-        <v>0.106584</v>
+        <v>0.10763</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -1765,22 +1765,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J28">
-        <v>0.15689800000000001</v>
+        <v>0.15597900000000001</v>
       </c>
       <c r="K28">
-        <v>0.14085700000000001</v>
+        <v>0.140489</v>
       </c>
       <c r="L28">
-        <v>0.119588</v>
+        <v>0.122006</v>
       </c>
       <c r="M28">
-        <v>0.102684</v>
+        <v>0.104185</v>
       </c>
       <c r="N28">
-        <v>8.6711999999999997E-2</v>
+        <v>8.6966000000000002E-2</v>
       </c>
       <c r="O28">
-        <v>9.3690999999999997E-2</v>
+        <v>9.4310000000000005E-2</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -1812,22 +1812,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J29">
-        <v>0.137571</v>
+        <v>0.13667599999999999</v>
       </c>
       <c r="K29">
-        <v>0.12828800000000001</v>
+        <v>0.12792999999999999</v>
       </c>
       <c r="L29">
-        <v>0.111206</v>
+        <v>0.113584</v>
       </c>
       <c r="M29">
-        <v>9.7146999999999997E-2</v>
+        <v>9.8624000000000003E-2</v>
       </c>
       <c r="N29">
-        <v>8.4453E-2</v>
+        <v>8.4704000000000002E-2</v>
       </c>
       <c r="O29">
-        <v>9.1122999999999996E-2</v>
+        <v>9.1732999999999995E-2</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -1859,13 +1859,13 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.19655900000000001</v>
+        <v>0.197739</v>
       </c>
       <c r="K30">
-        <v>0.13774</v>
+        <v>0.13891899999999999</v>
       </c>
       <c r="L30">
-        <v>0.10080699999999999</v>
+        <v>0.10187599999999999</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -1906,22 +1906,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J31">
-        <v>0.173151</v>
+        <v>0.17351800000000001</v>
       </c>
       <c r="K31">
-        <v>0.15257599999999999</v>
+        <v>0.15312000000000001</v>
       </c>
       <c r="L31">
-        <v>0.12598500000000001</v>
+        <v>0.128135</v>
       </c>
       <c r="M31">
-        <v>0.11311599999999999</v>
+        <v>0.114609</v>
       </c>
       <c r="N31">
-        <v>9.9265000000000006E-2</v>
+        <v>9.9897E-2</v>
       </c>
       <c r="O31">
-        <v>0.101655</v>
+        <v>0.102659</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -1953,22 +1953,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J32">
-        <v>0.14991199999999999</v>
+        <v>0.149927</v>
       </c>
       <c r="K32">
-        <v>0.132414</v>
+        <v>0.132742</v>
       </c>
       <c r="L32">
-        <v>0.113285</v>
+        <v>0.115018</v>
       </c>
       <c r="M32">
-        <v>0.100923</v>
+        <v>0.102185</v>
       </c>
       <c r="N32">
-        <v>8.7026000000000006E-2</v>
+        <v>8.7615999999999999E-2</v>
       </c>
       <c r="O32">
-        <v>9.0035000000000004E-2</v>
+        <v>9.0773999999999994E-2</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2000,22 +2000,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J33">
-        <v>0.130689</v>
+        <v>0.13070699999999999</v>
       </c>
       <c r="K33">
-        <v>0.120001</v>
+        <v>0.120325</v>
       </c>
       <c r="L33">
-        <v>0.10502400000000001</v>
+        <v>0.106729</v>
       </c>
       <c r="M33">
-        <v>9.5406000000000005E-2</v>
+        <v>9.6648999999999999E-2</v>
       </c>
       <c r="N33">
-        <v>8.4741999999999998E-2</v>
+        <v>8.5322999999999996E-2</v>
       </c>
       <c r="O33">
-        <v>8.7539000000000006E-2</v>
+        <v>8.8266999999999998E-2</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.190912</v>
+        <v>0.19223299999999999</v>
       </c>
       <c r="K34">
-        <v>0.13281999999999999</v>
+        <v>0.13409499999999999</v>
       </c>
       <c r="L34">
-        <v>9.6685999999999994E-2</v>
+        <v>9.7827999999999998E-2</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J35">
-        <v>0.166908</v>
+        <v>0.16767099999999999</v>
       </c>
       <c r="K35">
-        <v>0.145205</v>
+        <v>0.14607400000000001</v>
       </c>
       <c r="L35">
-        <v>0.121698</v>
+        <v>0.12363300000000001</v>
       </c>
       <c r="M35">
-        <v>0.109509</v>
+        <v>0.110984</v>
       </c>
       <c r="N35">
-        <v>9.5592999999999997E-2</v>
+        <v>9.6439999999999998E-2</v>
       </c>
       <c r="O35">
-        <v>9.7434999999999994E-2</v>
+        <v>9.8541000000000004E-2</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2141,22 +2141,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J36">
-        <v>0.14389199999999999</v>
+        <v>0.144372</v>
       </c>
       <c r="K36">
-        <v>0.125504</v>
+        <v>0.12618399999999999</v>
       </c>
       <c r="L36">
-        <v>0.109067</v>
+        <v>0.110684</v>
       </c>
       <c r="M36">
-        <v>9.7654000000000005E-2</v>
+        <v>9.8929000000000003E-2</v>
       </c>
       <c r="N36">
-        <v>8.3641999999999994E-2</v>
+        <v>8.4409999999999999E-2</v>
       </c>
       <c r="O36">
-        <v>8.6194000000000007E-2</v>
+        <v>8.7072999999999998E-2</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2188,22 +2188,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J37">
-        <v>0.124774</v>
+        <v>0.125247</v>
       </c>
       <c r="K37">
-        <v>0.11323</v>
+        <v>0.1139</v>
       </c>
       <c r="L37">
-        <v>0.10088999999999999</v>
+        <v>0.102482</v>
       </c>
       <c r="M37">
-        <v>9.2188000000000006E-2</v>
+        <v>9.3442999999999998E-2</v>
       </c>
       <c r="N37">
-        <v>8.14E-2</v>
+        <v>8.2156999999999994E-2</v>
       </c>
       <c r="O37">
-        <v>8.3783999999999997E-2</v>
+        <v>8.4644999999999998E-2</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2235,13 +2235,13 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.20316799999999999</v>
+        <v>0.20483000000000001</v>
       </c>
       <c r="K38">
-        <v>0.143622</v>
+        <v>0.14532500000000001</v>
       </c>
       <c r="L38">
-        <v>0.10587199999999999</v>
+        <v>0.107469</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2282,22 +2282,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J39">
-        <v>0.18087500000000001</v>
+        <v>0.18190700000000001</v>
       </c>
       <c r="K39">
-        <v>0.16158400000000001</v>
+        <v>0.162382</v>
       </c>
       <c r="L39">
-        <v>0.13303599999999999</v>
+        <v>0.136217</v>
       </c>
       <c r="M39">
-        <v>0.117285</v>
+        <v>0.11916499999999999</v>
       </c>
       <c r="N39">
-        <v>0.101455</v>
+        <v>0.101715</v>
       </c>
       <c r="O39">
-        <v>0.10653600000000001</v>
+        <v>0.10802299999999999</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2329,22 +2329,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J40">
-        <v>0.156579</v>
+        <v>0.157114</v>
       </c>
       <c r="K40">
-        <v>0.14052100000000001</v>
+        <v>0.14097499999999999</v>
       </c>
       <c r="L40">
-        <v>0.119588</v>
+        <v>0.122006</v>
       </c>
       <c r="M40">
-        <v>0.102684</v>
+        <v>0.104185</v>
       </c>
       <c r="N40">
-        <v>8.6711999999999997E-2</v>
+        <v>8.6966000000000002E-2</v>
       </c>
       <c r="O40">
-        <v>9.3639E-2</v>
+        <v>9.4668000000000002E-2</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -2376,22 +2376,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J41">
-        <v>0.12794700000000001</v>
+        <v>0.137769</v>
       </c>
       <c r="K41">
-        <v>0.111206</v>
+        <v>0.12839700000000001</v>
       </c>
       <c r="L41">
-        <v>0.111206</v>
+        <v>0.113584</v>
       </c>
       <c r="M41">
-        <v>9.7146999999999997E-2</v>
+        <v>9.8624000000000003E-2</v>
       </c>
       <c r="N41">
-        <v>8.4453E-2</v>
+        <v>8.4704000000000002E-2</v>
       </c>
       <c r="O41">
-        <v>9.1070999999999999E-2</v>
+        <v>9.2079999999999995E-2</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -2423,13 +2423,13 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0.19556200000000001</v>
+        <v>0.19702500000000001</v>
       </c>
       <c r="K42">
-        <v>0.13686000000000001</v>
+        <v>0.13828699999999999</v>
       </c>
       <c r="L42">
-        <v>0.10007000000000001</v>
+        <v>0.101368</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -2470,22 +2470,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J43">
-        <v>0.17035500000000001</v>
+        <v>0.17150000000000001</v>
       </c>
       <c r="K43">
-        <v>0.15084600000000001</v>
+        <v>0.151865</v>
       </c>
       <c r="L43">
-        <v>0.12598500000000001</v>
+        <v>0.128135</v>
       </c>
       <c r="M43">
-        <v>0.11311599999999999</v>
+        <v>0.114609</v>
       </c>
       <c r="N43">
-        <v>9.9265000000000006E-2</v>
+        <v>9.9897E-2</v>
       </c>
       <c r="O43">
-        <v>0.100852</v>
+        <v>0.102105</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -2517,22 +2517,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J44">
-        <v>0.14690900000000001</v>
+        <v>0.147755</v>
       </c>
       <c r="K44">
-        <v>0.13068299999999999</v>
+        <v>0.13147700000000001</v>
       </c>
       <c r="L44">
-        <v>0.113285</v>
+        <v>0.115018</v>
       </c>
       <c r="M44">
-        <v>0.100923</v>
+        <v>0.102185</v>
       </c>
       <c r="N44">
-        <v>8.7026000000000006E-2</v>
+        <v>8.7615999999999999E-2</v>
       </c>
       <c r="O44">
-        <v>8.9277999999999996E-2</v>
+        <v>9.0249999999999997E-2</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -2564,22 +2564,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J45">
-        <v>0.12773699999999999</v>
+        <v>0.12856899999999999</v>
       </c>
       <c r="K45">
-        <v>0.118298</v>
+        <v>0.11908100000000001</v>
       </c>
       <c r="L45">
-        <v>0.10502400000000001</v>
+        <v>0.106729</v>
       </c>
       <c r="M45">
-        <v>9.5406000000000005E-2</v>
+        <v>9.6648999999999999E-2</v>
       </c>
       <c r="N45">
-        <v>8.4741999999999998E-2</v>
+        <v>8.5322999999999996E-2</v>
       </c>
       <c r="O45">
-        <v>8.6801000000000003E-2</v>
+        <v>8.7753999999999999E-2</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0.19023200000000001</v>
+        <v>0.19175200000000001</v>
       </c>
       <c r="K46">
-        <v>0.13222900000000001</v>
+        <v>0.13367999999999999</v>
       </c>
       <c r="L46">
-        <v>9.6197000000000005E-2</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -2658,22 +2658,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J47">
-        <v>0.16500100000000001</v>
+        <v>0.16632</v>
       </c>
       <c r="K47">
-        <v>0.14405000000000001</v>
+        <v>0.145256</v>
       </c>
       <c r="L47">
-        <v>0.121698</v>
+        <v>0.12363300000000001</v>
       </c>
       <c r="M47">
-        <v>0.109509</v>
+        <v>0.110984</v>
       </c>
       <c r="N47">
-        <v>9.5592999999999997E-2</v>
+        <v>9.6439999999999998E-2</v>
       </c>
       <c r="O47">
-        <v>9.6909999999999996E-2</v>
+        <v>9.8191000000000001E-2</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -2705,22 +2705,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J48">
-        <v>0.141871</v>
+        <v>0.14294599999999999</v>
       </c>
       <c r="K48">
-        <v>0.12436700000000001</v>
+        <v>0.12537699999999999</v>
       </c>
       <c r="L48">
-        <v>0.109067</v>
+        <v>0.110684</v>
       </c>
       <c r="M48">
-        <v>9.7654000000000005E-2</v>
+        <v>9.8929000000000003E-2</v>
       </c>
       <c r="N48">
-        <v>8.3641999999999994E-2</v>
+        <v>8.4409999999999999E-2</v>
       </c>
       <c r="O48">
-        <v>8.5704000000000002E-2</v>
+        <v>8.6745000000000003E-2</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -2752,22 +2752,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J49">
-        <v>0.122789</v>
+        <v>0.123845</v>
       </c>
       <c r="K49">
-        <v>0.112112</v>
+        <v>0.113104</v>
       </c>
       <c r="L49">
-        <v>0.10088999999999999</v>
+        <v>0.102482</v>
       </c>
       <c r="M49">
-        <v>9.2188000000000006E-2</v>
+        <v>9.3442999999999998E-2</v>
       </c>
       <c r="N49">
-        <v>8.14E-2</v>
+        <v>8.2156999999999994E-2</v>
       </c>
       <c r="O49">
-        <v>8.3303000000000002E-2</v>
+        <v>8.4324999999999997E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\PRECIOS CALCULADORA GALP LEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADEC1A3-5926-48F3-9200-FB46DDB830E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC821447-3F3D-477F-BE41-9002A6A24699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3350A494-7D0F-4E24-96BD-512094F7438F}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,13 +543,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.20260700000000001</v>
+        <v>0.205123</v>
       </c>
       <c r="K2">
-        <v>0.14338799999999999</v>
+        <v>0.14513000000000001</v>
       </c>
       <c r="L2">
-        <v>0.106559</v>
+        <v>0.10864699999999999</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -590,22 +590,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J3">
-        <v>0.18088499999999999</v>
+        <v>0.18449399999999999</v>
       </c>
       <c r="K3">
-        <v>0.15994</v>
+        <v>0.163712</v>
       </c>
       <c r="L3">
-        <v>0.13515099999999999</v>
+        <v>0.135213</v>
       </c>
       <c r="M3">
-        <v>0.120005</v>
+        <v>0.121048</v>
       </c>
       <c r="N3">
-        <v>0.103148</v>
+        <v>0.10598</v>
       </c>
       <c r="O3">
-        <v>0.106865</v>
+        <v>0.109026</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -637,22 +637,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J4">
-        <v>0.15597900000000001</v>
+        <v>0.159581</v>
       </c>
       <c r="K4">
-        <v>0.13841899999999999</v>
+        <v>0.14205200000000001</v>
       </c>
       <c r="L4">
-        <v>0.12044299999999999</v>
+        <v>0.120847</v>
       </c>
       <c r="M4">
-        <v>0.105375</v>
+        <v>0.10566300000000001</v>
       </c>
       <c r="N4">
-        <v>8.8899000000000006E-2</v>
+        <v>9.0468000000000007E-2</v>
       </c>
       <c r="O4">
-        <v>9.3661999999999995E-2</v>
+        <v>9.5361000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -684,22 +684,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J5">
-        <v>0.13667599999999999</v>
+        <v>0.140208</v>
       </c>
       <c r="K5">
-        <v>0.12592300000000001</v>
+        <v>0.12948599999999999</v>
       </c>
       <c r="L5">
-        <v>0.112065</v>
+        <v>0.112455</v>
       </c>
       <c r="M5">
-        <v>9.9809999999999996E-2</v>
+        <v>0.100093</v>
       </c>
       <c r="N5">
-        <v>8.6640999999999996E-2</v>
+        <v>8.8191000000000005E-2</v>
       </c>
       <c r="O5">
-        <v>9.1113E-2</v>
+        <v>9.2774999999999996E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -731,13 +731,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.19803100000000001</v>
+        <v>0.199767</v>
       </c>
       <c r="K6">
-        <v>0.139159</v>
+        <v>0.140316</v>
       </c>
       <c r="L6">
-        <v>0.102369</v>
+        <v>0.103904</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -778,22 +778,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J7">
-        <v>0.17351800000000001</v>
+        <v>0.17579600000000001</v>
       </c>
       <c r="K7">
-        <v>0.15466099999999999</v>
+        <v>0.15699399999999999</v>
       </c>
       <c r="L7">
-        <v>0.12898699999999999</v>
+        <v>0.129247</v>
       </c>
       <c r="M7">
-        <v>0.115623</v>
+        <v>0.11619400000000001</v>
       </c>
       <c r="N7">
-        <v>0.101145</v>
+        <v>0.10319399999999999</v>
       </c>
       <c r="O7">
-        <v>0.103135</v>
+        <v>0.10473300000000001</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -825,22 +825,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J8">
-        <v>0.149927</v>
+        <v>0.15215899999999999</v>
       </c>
       <c r="K8">
-        <v>0.13439599999999999</v>
+        <v>0.13661300000000001</v>
       </c>
       <c r="L8">
-        <v>0.116255</v>
+        <v>0.11670700000000001</v>
       </c>
       <c r="M8">
-        <v>0.103032</v>
+        <v>0.103226</v>
       </c>
       <c r="N8">
-        <v>8.8649000000000006E-2</v>
+        <v>8.9875999999999998E-2</v>
       </c>
       <c r="O8">
-        <v>9.1256000000000004E-2</v>
+        <v>9.2521999999999993E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -872,22 +872,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J9">
-        <v>0.13070699999999999</v>
+        <v>0.13289599999999999</v>
       </c>
       <c r="K9">
-        <v>0.12195400000000001</v>
+        <v>0.124129</v>
       </c>
       <c r="L9">
-        <v>0.107944</v>
+        <v>0.108385</v>
       </c>
       <c r="M9">
-        <v>9.7488000000000005E-2</v>
+        <v>9.7678000000000001E-2</v>
       </c>
       <c r="N9">
-        <v>8.6363999999999996E-2</v>
+        <v>8.7576000000000001E-2</v>
       </c>
       <c r="O9">
-        <v>8.8747000000000006E-2</v>
+        <v>8.9983999999999995E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -919,13 +919,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.19273299999999999</v>
+        <v>0.19484899999999999</v>
       </c>
       <c r="K10">
-        <v>0.134519</v>
+        <v>0.13607900000000001</v>
       </c>
       <c r="L10">
-        <v>9.8359000000000002E-2</v>
+        <v>0.100249</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -966,22 +966,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J11">
-        <v>0.16767099999999999</v>
+        <v>0.17016700000000001</v>
       </c>
       <c r="K11">
-        <v>0.147373</v>
+        <v>0.149752</v>
       </c>
       <c r="L11">
-        <v>0.124344</v>
+        <v>0.125364</v>
       </c>
       <c r="M11">
-        <v>0.11199000000000001</v>
+        <v>0.11301600000000001</v>
       </c>
       <c r="N11">
-        <v>9.7849000000000005E-2</v>
+        <v>0.100068</v>
       </c>
       <c r="O11">
-        <v>9.9077999999999999E-2</v>
+        <v>0.101026</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1013,22 +1013,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J12">
-        <v>0.144372</v>
+        <v>0.146728</v>
       </c>
       <c r="K12">
-        <v>0.12756300000000001</v>
+        <v>0.12975600000000001</v>
       </c>
       <c r="L12">
-        <v>0.111709</v>
+        <v>0.112779</v>
       </c>
       <c r="M12">
-        <v>9.9723999999999993E-2</v>
+        <v>0.100465</v>
       </c>
       <c r="N12">
-        <v>8.5500999999999994E-2</v>
+        <v>8.7045999999999998E-2</v>
       </c>
       <c r="O12">
-        <v>8.7581999999999993E-2</v>
+        <v>8.9171E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1060,22 +1060,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J13">
-        <v>0.125247</v>
+        <v>0.12755900000000001</v>
       </c>
       <c r="K13">
-        <v>0.115254</v>
+        <v>0.117406</v>
       </c>
       <c r="L13">
-        <v>0.103487</v>
+        <v>0.104537</v>
       </c>
       <c r="M13">
-        <v>9.4231999999999996E-2</v>
+        <v>9.4958000000000001E-2</v>
       </c>
       <c r="N13">
-        <v>8.3248000000000003E-2</v>
+        <v>8.4770999999999999E-2</v>
       </c>
       <c r="O13">
-        <v>8.5149000000000002E-2</v>
+        <v>8.6705000000000004E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.20372599999999999</v>
+        <v>0.20513999999999999</v>
       </c>
       <c r="K14">
-        <v>0.14438300000000001</v>
+        <v>0.14507900000000001</v>
       </c>
       <c r="L14">
-        <v>0.106674</v>
+        <v>0.10792400000000001</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1154,22 +1154,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J15">
-        <v>0.18088499999999999</v>
+        <v>0.18449399999999999</v>
       </c>
       <c r="K15">
-        <v>0.15994</v>
+        <v>0.163712</v>
       </c>
       <c r="L15">
-        <v>0.13515099999999999</v>
+        <v>0.135213</v>
       </c>
       <c r="M15">
-        <v>0.11916499999999999</v>
+        <v>0.117355</v>
       </c>
       <c r="N15">
-        <v>0.101715</v>
+        <v>0.10077999999999999</v>
       </c>
       <c r="O15">
-        <v>0.10709</v>
+        <v>0.10841000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1201,22 +1201,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J16">
-        <v>0.15597900000000001</v>
+        <v>0.159581</v>
       </c>
       <c r="K16">
-        <v>0.13841899999999999</v>
+        <v>0.14205200000000001</v>
       </c>
       <c r="L16">
-        <v>0.12044299999999999</v>
+        <v>0.120847</v>
       </c>
       <c r="M16">
-        <v>0.104185</v>
+        <v>0.102293</v>
       </c>
       <c r="N16">
-        <v>8.6966000000000002E-2</v>
+        <v>8.5711999999999997E-2</v>
       </c>
       <c r="O16">
-        <v>9.3738000000000002E-2</v>
+        <v>9.4799999999999995E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1248,22 +1248,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J17">
-        <v>0.13667599999999999</v>
+        <v>0.140208</v>
       </c>
       <c r="K17">
-        <v>0.12592300000000001</v>
+        <v>0.12948599999999999</v>
       </c>
       <c r="L17">
-        <v>0.112065</v>
+        <v>0.112455</v>
       </c>
       <c r="M17">
-        <v>9.8624000000000003E-2</v>
+        <v>9.6761E-2</v>
       </c>
       <c r="N17">
-        <v>8.4704000000000002E-2</v>
+        <v>8.3467E-2</v>
       </c>
       <c r="O17">
-        <v>9.1175000000000006E-2</v>
+        <v>9.221E-2</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1295,13 +1295,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.198328</v>
+        <v>0.199466</v>
       </c>
       <c r="K18">
-        <v>0.13941600000000001</v>
+        <v>0.140017</v>
       </c>
       <c r="L18">
-        <v>0.102217</v>
+        <v>0.10330499999999999</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J19">
-        <v>0.17351800000000001</v>
+        <v>0.17579600000000001</v>
       </c>
       <c r="K19">
-        <v>0.15466099999999999</v>
+        <v>0.15699399999999999</v>
       </c>
       <c r="L19">
-        <v>0.12898699999999999</v>
+        <v>0.129247</v>
       </c>
       <c r="M19">
-        <v>0.114609</v>
+        <v>0.113676</v>
       </c>
       <c r="N19">
-        <v>9.9897E-2</v>
+        <v>9.9810999999999997E-2</v>
       </c>
       <c r="O19">
-        <v>0.103057</v>
+        <v>0.10420599999999999</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1389,22 +1389,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J20">
-        <v>0.149927</v>
+        <v>0.15215899999999999</v>
       </c>
       <c r="K20">
-        <v>0.13439599999999999</v>
+        <v>0.13661300000000001</v>
       </c>
       <c r="L20">
-        <v>0.116255</v>
+        <v>0.11670700000000001</v>
       </c>
       <c r="M20">
-        <v>0.102185</v>
+        <v>0.101273</v>
       </c>
       <c r="N20">
-        <v>8.7615999999999999E-2</v>
+        <v>8.7339E-2</v>
       </c>
       <c r="O20">
-        <v>9.1191999999999995E-2</v>
+        <v>9.2121999999999996E-2</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1436,22 +1436,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J21">
-        <v>0.13070699999999999</v>
+        <v>0.13289599999999999</v>
       </c>
       <c r="K21">
-        <v>0.12195400000000001</v>
+        <v>0.124129</v>
       </c>
       <c r="L21">
-        <v>0.107944</v>
+        <v>0.108385</v>
       </c>
       <c r="M21">
-        <v>9.6648999999999999E-2</v>
+        <v>9.5749000000000001E-2</v>
       </c>
       <c r="N21">
-        <v>8.5322999999999996E-2</v>
+        <v>8.5049E-2</v>
       </c>
       <c r="O21">
-        <v>8.8677000000000006E-2</v>
+        <v>8.9582999999999996E-2</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1483,13 +1483,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.19272500000000001</v>
+        <v>0.19445699999999999</v>
       </c>
       <c r="K22">
-        <v>0.13451399999999999</v>
+        <v>0.135717</v>
       </c>
       <c r="L22">
-        <v>9.8123000000000002E-2</v>
+        <v>9.9727999999999997E-2</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1530,22 +1530,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J23">
-        <v>0.16767099999999999</v>
+        <v>0.17016700000000001</v>
       </c>
       <c r="K23">
-        <v>0.147373</v>
+        <v>0.149752</v>
       </c>
       <c r="L23">
-        <v>0.124344</v>
+        <v>0.125364</v>
       </c>
       <c r="M23">
-        <v>0.110984</v>
+        <v>0.111045</v>
       </c>
       <c r="N23">
-        <v>9.6439999999999998E-2</v>
+        <v>9.7241999999999995E-2</v>
       </c>
       <c r="O23">
-        <v>9.8888000000000004E-2</v>
+        <v>0.100549</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1577,22 +1577,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J24">
-        <v>0.144372</v>
+        <v>0.146728</v>
       </c>
       <c r="K24">
-        <v>0.12756300000000001</v>
+        <v>0.12975600000000001</v>
       </c>
       <c r="L24">
-        <v>0.111709</v>
+        <v>0.112779</v>
       </c>
       <c r="M24">
-        <v>9.8929000000000003E-2</v>
+        <v>9.8966999999999999E-2</v>
       </c>
       <c r="N24">
-        <v>8.4409999999999999E-2</v>
+        <v>8.4977999999999998E-2</v>
       </c>
       <c r="O24">
-        <v>8.7438000000000002E-2</v>
+        <v>8.8812000000000002E-2</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1624,22 +1624,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J25">
-        <v>0.125247</v>
+        <v>0.12755900000000001</v>
       </c>
       <c r="K25">
-        <v>0.115254</v>
+        <v>0.117406</v>
       </c>
       <c r="L25">
-        <v>0.103487</v>
+        <v>0.104537</v>
       </c>
       <c r="M25">
-        <v>9.3442999999999998E-2</v>
+        <v>9.3479000000000007E-2</v>
       </c>
       <c r="N25">
-        <v>8.2156999999999994E-2</v>
+        <v>8.2716999999999999E-2</v>
       </c>
       <c r="O25">
-        <v>8.5003999999999996E-2</v>
+        <v>8.6346999999999993E-2</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1671,13 +1671,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.20444300000000001</v>
+        <v>0.205591</v>
       </c>
       <c r="K26">
-        <v>0.14499400000000001</v>
+        <v>0.14546400000000001</v>
       </c>
       <c r="L26">
-        <v>0.107124</v>
+        <v>0.108198</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -1718,22 +1718,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J27">
-        <v>0.18088499999999999</v>
+        <v>0.18449399999999999</v>
       </c>
       <c r="K27">
-        <v>0.16184200000000001</v>
+        <v>0.164911</v>
       </c>
       <c r="L27">
-        <v>0.136217</v>
+        <v>0.13588700000000001</v>
       </c>
       <c r="M27">
-        <v>0.11916499999999999</v>
+        <v>0.117355</v>
       </c>
       <c r="N27">
-        <v>0.101715</v>
+        <v>0.10077999999999999</v>
       </c>
       <c r="O27">
-        <v>0.10763</v>
+        <v>0.10874399999999999</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -1765,22 +1765,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J28">
-        <v>0.15597900000000001</v>
+        <v>0.159581</v>
       </c>
       <c r="K28">
-        <v>0.140489</v>
+        <v>0.14336299999999999</v>
       </c>
       <c r="L28">
-        <v>0.122006</v>
+        <v>0.121837</v>
       </c>
       <c r="M28">
-        <v>0.104185</v>
+        <v>0.102293</v>
       </c>
       <c r="N28">
-        <v>8.6966000000000002E-2</v>
+        <v>8.5711999999999997E-2</v>
       </c>
       <c r="O28">
-        <v>9.4310000000000005E-2</v>
+        <v>9.5156000000000004E-2</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -1812,22 +1812,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J29">
-        <v>0.13667599999999999</v>
+        <v>0.140208</v>
       </c>
       <c r="K29">
-        <v>0.12792999999999999</v>
+        <v>0.130749</v>
       </c>
       <c r="L29">
-        <v>0.113584</v>
+        <v>0.113415</v>
       </c>
       <c r="M29">
-        <v>9.8624000000000003E-2</v>
+        <v>9.6761E-2</v>
       </c>
       <c r="N29">
-        <v>8.4704000000000002E-2</v>
+        <v>8.3467E-2</v>
       </c>
       <c r="O29">
-        <v>9.1732999999999995E-2</v>
+        <v>9.2558000000000001E-2</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -1859,13 +1859,13 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.197739</v>
+        <v>0.19875300000000001</v>
       </c>
       <c r="K30">
-        <v>0.13891899999999999</v>
+        <v>0.13941400000000001</v>
       </c>
       <c r="L30">
-        <v>0.10187599999999999</v>
+        <v>0.102883</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -1906,22 +1906,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J31">
-        <v>0.17351800000000001</v>
+        <v>0.17579600000000001</v>
       </c>
       <c r="K31">
-        <v>0.15312000000000001</v>
+        <v>0.15512000000000001</v>
       </c>
       <c r="L31">
-        <v>0.128135</v>
+        <v>0.12821399999999999</v>
       </c>
       <c r="M31">
-        <v>0.114609</v>
+        <v>0.113676</v>
       </c>
       <c r="N31">
-        <v>9.9897E-2</v>
+        <v>9.9810999999999997E-2</v>
       </c>
       <c r="O31">
-        <v>0.102659</v>
+        <v>0.103712</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -1953,22 +1953,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J32">
-        <v>0.149927</v>
+        <v>0.15215899999999999</v>
       </c>
       <c r="K32">
-        <v>0.132742</v>
+        <v>0.134602</v>
       </c>
       <c r="L32">
-        <v>0.115018</v>
+        <v>0.115208</v>
       </c>
       <c r="M32">
-        <v>0.102185</v>
+        <v>0.101273</v>
       </c>
       <c r="N32">
-        <v>8.7615999999999999E-2</v>
+        <v>8.7339E-2</v>
       </c>
       <c r="O32">
-        <v>9.0773999999999994E-2</v>
+        <v>9.1603000000000004E-2</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2000,22 +2000,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J33">
-        <v>0.13070699999999999</v>
+        <v>0.13289599999999999</v>
       </c>
       <c r="K33">
-        <v>0.120325</v>
+        <v>0.12214999999999999</v>
       </c>
       <c r="L33">
-        <v>0.106729</v>
+        <v>0.10691199999999999</v>
       </c>
       <c r="M33">
-        <v>9.6648999999999999E-2</v>
+        <v>9.5749000000000001E-2</v>
       </c>
       <c r="N33">
-        <v>8.5322999999999996E-2</v>
+        <v>8.5049E-2</v>
       </c>
       <c r="O33">
-        <v>8.8266999999999998E-2</v>
+        <v>8.9075000000000001E-2</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.19223299999999999</v>
+        <v>0.19394</v>
       </c>
       <c r="K34">
-        <v>0.13409499999999999</v>
+        <v>0.13527900000000001</v>
       </c>
       <c r="L34">
-        <v>9.7827999999999998E-2</v>
+        <v>9.9414000000000002E-2</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J35">
-        <v>0.16767099999999999</v>
+        <v>0.17016700000000001</v>
       </c>
       <c r="K35">
-        <v>0.14607400000000001</v>
+        <v>0.14838499999999999</v>
       </c>
       <c r="L35">
-        <v>0.12363300000000001</v>
+        <v>0.12461800000000001</v>
       </c>
       <c r="M35">
-        <v>0.110984</v>
+        <v>0.111045</v>
       </c>
       <c r="N35">
-        <v>9.6439999999999998E-2</v>
+        <v>9.7241999999999995E-2</v>
       </c>
       <c r="O35">
-        <v>9.8541000000000004E-2</v>
+        <v>0.10018000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2141,22 +2141,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J36">
-        <v>0.144372</v>
+        <v>0.146728</v>
       </c>
       <c r="K36">
-        <v>0.12618399999999999</v>
+        <v>0.128306</v>
       </c>
       <c r="L36">
-        <v>0.110684</v>
+        <v>0.111704</v>
       </c>
       <c r="M36">
-        <v>9.8929000000000003E-2</v>
+        <v>9.8966999999999999E-2</v>
       </c>
       <c r="N36">
-        <v>8.4409999999999999E-2</v>
+        <v>8.4977999999999998E-2</v>
       </c>
       <c r="O36">
-        <v>8.7072999999999998E-2</v>
+        <v>8.8423000000000002E-2</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2188,22 +2188,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J37">
-        <v>0.125247</v>
+        <v>0.12755900000000001</v>
       </c>
       <c r="K37">
-        <v>0.1139</v>
+        <v>0.115982</v>
       </c>
       <c r="L37">
-        <v>0.102482</v>
+        <v>0.103482</v>
       </c>
       <c r="M37">
-        <v>9.3442999999999998E-2</v>
+        <v>9.3479000000000007E-2</v>
       </c>
       <c r="N37">
-        <v>8.2156999999999994E-2</v>
+        <v>8.2716999999999999E-2</v>
       </c>
       <c r="O37">
-        <v>8.4644999999999998E-2</v>
+        <v>8.5966000000000001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2235,13 +2235,13 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.20483000000000001</v>
+        <v>0.20560400000000001</v>
       </c>
       <c r="K38">
-        <v>0.14532500000000001</v>
+        <v>0.14546500000000001</v>
       </c>
       <c r="L38">
-        <v>0.107469</v>
+        <v>0.108241</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2282,22 +2282,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J39">
-        <v>0.18190700000000001</v>
+        <v>0.18446100000000001</v>
       </c>
       <c r="K39">
-        <v>0.162382</v>
+        <v>0.1648</v>
       </c>
       <c r="L39">
-        <v>0.136217</v>
+        <v>0.13588700000000001</v>
       </c>
       <c r="M39">
-        <v>0.11916499999999999</v>
+        <v>0.117355</v>
       </c>
       <c r="N39">
-        <v>0.101715</v>
+        <v>0.10077999999999999</v>
       </c>
       <c r="O39">
-        <v>0.10802299999999999</v>
+        <v>0.108808</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2329,22 +2329,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J40">
-        <v>0.157114</v>
+        <v>0.159576</v>
       </c>
       <c r="K40">
-        <v>0.14097499999999999</v>
+        <v>0.143205</v>
       </c>
       <c r="L40">
-        <v>0.122006</v>
+        <v>0.121837</v>
       </c>
       <c r="M40">
-        <v>0.104185</v>
+        <v>0.102293</v>
       </c>
       <c r="N40">
-        <v>8.6966000000000002E-2</v>
+        <v>8.5711999999999997E-2</v>
       </c>
       <c r="O40">
-        <v>9.4668000000000002E-2</v>
+        <v>9.5207E-2</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -2376,22 +2376,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J41">
-        <v>0.137769</v>
+        <v>0.140184</v>
       </c>
       <c r="K41">
-        <v>0.12839700000000001</v>
+        <v>0.13058500000000001</v>
       </c>
       <c r="L41">
-        <v>0.113584</v>
+        <v>0.113415</v>
       </c>
       <c r="M41">
-        <v>9.8624000000000003E-2</v>
+        <v>9.6761E-2</v>
       </c>
       <c r="N41">
-        <v>8.4704000000000002E-2</v>
+        <v>8.3467E-2</v>
       </c>
       <c r="O41">
-        <v>9.2079999999999995E-2</v>
+        <v>9.2605999999999994E-2</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -2423,13 +2423,13 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0.19702500000000001</v>
+        <v>0.19785900000000001</v>
       </c>
       <c r="K42">
-        <v>0.13828699999999999</v>
+        <v>0.138624</v>
       </c>
       <c r="L42">
-        <v>0.101368</v>
+        <v>0.102231</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -2470,22 +2470,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J43">
-        <v>0.17150000000000001</v>
+        <v>0.17327799999999999</v>
       </c>
       <c r="K43">
-        <v>0.151865</v>
+        <v>0.15356</v>
       </c>
       <c r="L43">
-        <v>0.128135</v>
+        <v>0.12821399999999999</v>
       </c>
       <c r="M43">
-        <v>0.114609</v>
+        <v>0.113676</v>
       </c>
       <c r="N43">
-        <v>9.9897E-2</v>
+        <v>9.9810999999999997E-2</v>
       </c>
       <c r="O43">
-        <v>0.102105</v>
+        <v>0.103001</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -2517,22 +2517,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J44">
-        <v>0.147755</v>
+        <v>0.149452</v>
       </c>
       <c r="K44">
-        <v>0.13147700000000001</v>
+        <v>0.13303699999999999</v>
       </c>
       <c r="L44">
-        <v>0.115018</v>
+        <v>0.115208</v>
       </c>
       <c r="M44">
-        <v>0.102185</v>
+        <v>0.101273</v>
       </c>
       <c r="N44">
-        <v>8.7615999999999999E-2</v>
+        <v>8.7339E-2</v>
       </c>
       <c r="O44">
-        <v>9.0249999999999997E-2</v>
+        <v>9.0930999999999998E-2</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -2564,22 +2564,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J45">
-        <v>0.12856899999999999</v>
+        <v>0.13023399999999999</v>
       </c>
       <c r="K45">
-        <v>0.11908100000000001</v>
+        <v>0.120611</v>
       </c>
       <c r="L45">
-        <v>0.106729</v>
+        <v>0.10691199999999999</v>
       </c>
       <c r="M45">
-        <v>9.6648999999999999E-2</v>
+        <v>9.5749000000000001E-2</v>
       </c>
       <c r="N45">
-        <v>8.5322999999999996E-2</v>
+        <v>8.5049E-2</v>
       </c>
       <c r="O45">
-        <v>8.7753999999999999E-2</v>
+        <v>8.8419999999999999E-2</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0.19175200000000001</v>
+        <v>0.19340199999999999</v>
       </c>
       <c r="K46">
-        <v>0.13367999999999999</v>
+        <v>0.13481399999999999</v>
       </c>
       <c r="L46">
-        <v>9.7500000000000003E-2</v>
+        <v>9.9038000000000001E-2</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -2658,22 +2658,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J47">
-        <v>0.16632</v>
+        <v>0.168657</v>
       </c>
       <c r="K47">
-        <v>0.145256</v>
+        <v>0.14747099999999999</v>
       </c>
       <c r="L47">
-        <v>0.12363300000000001</v>
+        <v>0.12461800000000001</v>
       </c>
       <c r="M47">
-        <v>0.110984</v>
+        <v>0.111045</v>
       </c>
       <c r="N47">
-        <v>9.6439999999999998E-2</v>
+        <v>9.7241999999999995E-2</v>
       </c>
       <c r="O47">
-        <v>9.8191000000000001E-2</v>
+        <v>9.9779000000000007E-2</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -2705,22 +2705,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J48">
-        <v>0.14294599999999999</v>
+        <v>0.14513899999999999</v>
       </c>
       <c r="K48">
-        <v>0.12537699999999999</v>
+        <v>0.12740599999999999</v>
       </c>
       <c r="L48">
-        <v>0.110684</v>
+        <v>0.111704</v>
       </c>
       <c r="M48">
-        <v>9.8929000000000003E-2</v>
+        <v>9.8966999999999999E-2</v>
       </c>
       <c r="N48">
-        <v>8.4409999999999999E-2</v>
+        <v>8.4977999999999998E-2</v>
       </c>
       <c r="O48">
-        <v>8.6745000000000003E-2</v>
+        <v>8.8049000000000002E-2</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -2752,22 +2752,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J49">
-        <v>0.123845</v>
+        <v>0.125996</v>
       </c>
       <c r="K49">
-        <v>0.113104</v>
+        <v>0.115096</v>
       </c>
       <c r="L49">
-        <v>0.102482</v>
+        <v>0.103482</v>
       </c>
       <c r="M49">
-        <v>9.3442999999999998E-2</v>
+        <v>9.3479000000000007E-2</v>
       </c>
       <c r="N49">
-        <v>8.2156999999999994E-2</v>
+        <v>8.2716999999999999E-2</v>
       </c>
       <c r="O49">
-        <v>8.4324999999999997E-2</v>
+        <v>8.5599999999999996E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\PRECIOS CALCULADORA GALP LEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC821447-3F3D-477F-BE41-9002A6A24699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55B7E71-5B5F-4FB8-A859-DF2F3E1E018D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3350A494-7D0F-4E24-96BD-512094F7438F}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,13 +543,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.205123</v>
+        <v>0.20300099999999999</v>
       </c>
       <c r="K2">
-        <v>0.14513000000000001</v>
+        <v>0.14325199999999999</v>
       </c>
       <c r="L2">
-        <v>0.10864699999999999</v>
+        <v>0.106987</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -590,22 +590,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J3">
-        <v>0.18449399999999999</v>
+        <v>0.18176500000000001</v>
       </c>
       <c r="K3">
-        <v>0.163712</v>
+        <v>0.16167300000000001</v>
       </c>
       <c r="L3">
-        <v>0.135213</v>
+        <v>0.13415099999999999</v>
       </c>
       <c r="M3">
-        <v>0.121048</v>
+        <v>0.119036</v>
       </c>
       <c r="N3">
-        <v>0.10598</v>
+        <v>0.103713</v>
       </c>
       <c r="O3">
-        <v>0.109026</v>
+        <v>0.10736999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -637,22 +637,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J4">
-        <v>0.159581</v>
+        <v>0.15695600000000001</v>
       </c>
       <c r="K4">
-        <v>0.14205200000000001</v>
+        <v>0.140232</v>
       </c>
       <c r="L4">
-        <v>0.120847</v>
+        <v>0.120006</v>
       </c>
       <c r="M4">
-        <v>0.10566300000000001</v>
+        <v>0.104182</v>
       </c>
       <c r="N4">
-        <v>9.0468000000000007E-2</v>
+        <v>8.8888999999999996E-2</v>
       </c>
       <c r="O4">
-        <v>9.5361000000000001E-2</v>
+        <v>9.4004000000000004E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -684,22 +684,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J5">
-        <v>0.140208</v>
+        <v>0.13763300000000001</v>
       </c>
       <c r="K5">
-        <v>0.12948599999999999</v>
+        <v>0.12770200000000001</v>
       </c>
       <c r="L5">
-        <v>0.112455</v>
+        <v>0.11163099999999999</v>
       </c>
       <c r="M5">
-        <v>0.100093</v>
+        <v>9.8636000000000001E-2</v>
       </c>
       <c r="N5">
-        <v>8.8191000000000005E-2</v>
+        <v>8.6633000000000002E-2</v>
       </c>
       <c r="O5">
-        <v>9.2774999999999996E-2</v>
+        <v>9.1444999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -731,13 +731,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.199767</v>
+        <v>0.19825799999999999</v>
       </c>
       <c r="K6">
-        <v>0.140316</v>
+        <v>0.13897899999999999</v>
       </c>
       <c r="L6">
-        <v>0.103904</v>
+        <v>0.10274</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -778,22 +778,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J7">
-        <v>0.17579600000000001</v>
+        <v>0.173952</v>
       </c>
       <c r="K7">
-        <v>0.15699399999999999</v>
+        <v>0.15537699999999999</v>
       </c>
       <c r="L7">
-        <v>0.129247</v>
+        <v>0.12837799999999999</v>
       </c>
       <c r="M7">
-        <v>0.11619400000000001</v>
+        <v>0.114874</v>
       </c>
       <c r="N7">
-        <v>0.10319399999999999</v>
+        <v>0.10165</v>
       </c>
       <c r="O7">
-        <v>0.10473300000000001</v>
+        <v>0.103551</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -825,22 +825,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J8">
-        <v>0.15215899999999999</v>
+        <v>0.150363</v>
       </c>
       <c r="K8">
-        <v>0.13661300000000001</v>
+        <v>0.13511000000000001</v>
       </c>
       <c r="L8">
-        <v>0.11670700000000001</v>
+        <v>0.11591</v>
       </c>
       <c r="M8">
-        <v>0.103226</v>
+        <v>0.102233</v>
       </c>
       <c r="N8">
-        <v>8.9875999999999998E-2</v>
+        <v>8.8799000000000003E-2</v>
       </c>
       <c r="O8">
-        <v>9.2521999999999993E-2</v>
+        <v>9.1521000000000005E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -872,22 +872,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J9">
-        <v>0.13289599999999999</v>
+        <v>0.131135</v>
       </c>
       <c r="K9">
-        <v>0.124129</v>
+        <v>0.122656</v>
       </c>
       <c r="L9">
-        <v>0.108385</v>
+        <v>0.107602</v>
       </c>
       <c r="M9">
-        <v>9.7678000000000001E-2</v>
+        <v>9.6701999999999996E-2</v>
       </c>
       <c r="N9">
-        <v>8.7576000000000001E-2</v>
+        <v>8.6512000000000006E-2</v>
       </c>
       <c r="O9">
-        <v>8.9983999999999995E-2</v>
+        <v>8.9005000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -919,13 +919,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.19484899999999999</v>
+        <v>0.193831</v>
       </c>
       <c r="K10">
-        <v>0.13607900000000001</v>
+        <v>0.13517999999999999</v>
       </c>
       <c r="L10">
-        <v>0.100249</v>
+        <v>9.9471000000000004E-2</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -966,22 +966,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J11">
-        <v>0.17016700000000001</v>
+        <v>0.16892599999999999</v>
       </c>
       <c r="K11">
-        <v>0.149752</v>
+        <v>0.14865200000000001</v>
       </c>
       <c r="L11">
-        <v>0.125364</v>
+        <v>0.124805</v>
       </c>
       <c r="M11">
-        <v>0.11301600000000001</v>
+        <v>0.112126</v>
       </c>
       <c r="N11">
-        <v>0.100068</v>
+        <v>9.8974000000000006E-2</v>
       </c>
       <c r="O11">
-        <v>0.101026</v>
+        <v>0.100234</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1013,22 +1013,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J12">
-        <v>0.146728</v>
+        <v>0.145513</v>
       </c>
       <c r="K12">
-        <v>0.12975600000000001</v>
+        <v>0.12872700000000001</v>
       </c>
       <c r="L12">
-        <v>0.112779</v>
+        <v>0.112257</v>
       </c>
       <c r="M12">
-        <v>0.100465</v>
+        <v>9.9807000000000007E-2</v>
       </c>
       <c r="N12">
-        <v>8.7045999999999998E-2</v>
+        <v>8.6301000000000003E-2</v>
       </c>
       <c r="O12">
-        <v>8.9171E-2</v>
+        <v>8.8499999999999995E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1060,22 +1060,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J13">
-        <v>0.12755900000000001</v>
+        <v>0.12636700000000001</v>
       </c>
       <c r="K13">
-        <v>0.117406</v>
+        <v>0.116397</v>
       </c>
       <c r="L13">
-        <v>0.104537</v>
+        <v>0.10402400000000001</v>
       </c>
       <c r="M13">
-        <v>9.4958000000000001E-2</v>
+        <v>9.4312000000000007E-2</v>
       </c>
       <c r="N13">
-        <v>8.4770999999999999E-2</v>
+        <v>8.4037000000000001E-2</v>
       </c>
       <c r="O13">
-        <v>8.6705000000000004E-2</v>
+        <v>8.6047999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.20513999999999999</v>
+        <v>0.203402</v>
       </c>
       <c r="K14">
-        <v>0.14507900000000001</v>
+        <v>0.14355200000000001</v>
       </c>
       <c r="L14">
-        <v>0.10792400000000001</v>
+        <v>0.106572</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1154,22 +1154,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J15">
-        <v>0.18449399999999999</v>
+        <v>0.18176500000000001</v>
       </c>
       <c r="K15">
-        <v>0.163712</v>
+        <v>0.16167300000000001</v>
       </c>
       <c r="L15">
-        <v>0.135213</v>
+        <v>0.13415099999999999</v>
       </c>
       <c r="M15">
-        <v>0.117355</v>
+        <v>0.11622399999999999</v>
       </c>
       <c r="N15">
-        <v>0.10077999999999999</v>
+        <v>9.9728999999999998E-2</v>
       </c>
       <c r="O15">
-        <v>0.10841000000000001</v>
+        <v>0.10706599999999999</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1201,22 +1201,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J16">
-        <v>0.159581</v>
+        <v>0.15695600000000001</v>
       </c>
       <c r="K16">
-        <v>0.14205200000000001</v>
+        <v>0.140232</v>
       </c>
       <c r="L16">
-        <v>0.120847</v>
+        <v>0.120006</v>
       </c>
       <c r="M16">
-        <v>0.102293</v>
+        <v>0.10151499999999999</v>
       </c>
       <c r="N16">
-        <v>8.5711999999999997E-2</v>
+        <v>8.5096000000000005E-2</v>
       </c>
       <c r="O16">
-        <v>9.4799999999999995E-2</v>
+        <v>9.3681E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1248,22 +1248,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J17">
-        <v>0.140208</v>
+        <v>0.13763300000000001</v>
       </c>
       <c r="K17">
-        <v>0.12948599999999999</v>
+        <v>0.12770200000000001</v>
       </c>
       <c r="L17">
-        <v>0.112455</v>
+        <v>0.11163099999999999</v>
       </c>
       <c r="M17">
-        <v>9.6761E-2</v>
+        <v>9.5996999999999999E-2</v>
       </c>
       <c r="N17">
-        <v>8.3467E-2</v>
+        <v>8.2860000000000003E-2</v>
       </c>
       <c r="O17">
-        <v>9.221E-2</v>
+        <v>9.1114000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1295,13 +1295,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.199466</v>
+        <v>0.198185</v>
       </c>
       <c r="K18">
-        <v>0.140017</v>
+        <v>0.13888500000000001</v>
       </c>
       <c r="L18">
-        <v>0.10330499999999999</v>
+        <v>0.10231999999999999</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J19">
-        <v>0.17579600000000001</v>
+        <v>0.173952</v>
       </c>
       <c r="K19">
-        <v>0.15699399999999999</v>
+        <v>0.15537699999999999</v>
       </c>
       <c r="L19">
-        <v>0.129247</v>
+        <v>0.12837799999999999</v>
       </c>
       <c r="M19">
-        <v>0.113676</v>
+        <v>0.11289399999999999</v>
       </c>
       <c r="N19">
-        <v>9.9810999999999997E-2</v>
+        <v>9.9074999999999996E-2</v>
       </c>
       <c r="O19">
-        <v>0.10420599999999999</v>
+        <v>0.103204</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1389,22 +1389,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J20">
-        <v>0.15215899999999999</v>
+        <v>0.150363</v>
       </c>
       <c r="K20">
-        <v>0.13661300000000001</v>
+        <v>0.13511000000000001</v>
       </c>
       <c r="L20">
-        <v>0.11670700000000001</v>
+        <v>0.11591</v>
       </c>
       <c r="M20">
-        <v>0.101273</v>
+        <v>0.100686</v>
       </c>
       <c r="N20">
-        <v>8.7339E-2</v>
+        <v>8.6845000000000006E-2</v>
       </c>
       <c r="O20">
-        <v>9.2121999999999996E-2</v>
+        <v>9.1256000000000004E-2</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1436,22 +1436,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J21">
-        <v>0.13289599999999999</v>
+        <v>0.131135</v>
       </c>
       <c r="K21">
-        <v>0.124129</v>
+        <v>0.122656</v>
       </c>
       <c r="L21">
-        <v>0.108385</v>
+        <v>0.107602</v>
       </c>
       <c r="M21">
-        <v>9.5749000000000001E-2</v>
+        <v>9.5172999999999994E-2</v>
       </c>
       <c r="N21">
-        <v>8.5049E-2</v>
+        <v>8.4562999999999999E-2</v>
       </c>
       <c r="O21">
-        <v>8.9582999999999996E-2</v>
+        <v>8.8735999999999995E-2</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1483,13 +1483,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.19445699999999999</v>
+        <v>0.19361100000000001</v>
       </c>
       <c r="K22">
-        <v>0.135717</v>
+        <v>0.13497300000000001</v>
       </c>
       <c r="L22">
-        <v>9.9727999999999997E-2</v>
+        <v>9.9082000000000003E-2</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1530,22 +1530,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J23">
-        <v>0.17016700000000001</v>
+        <v>0.16892599999999999</v>
       </c>
       <c r="K23">
-        <v>0.149752</v>
+        <v>0.14865200000000001</v>
       </c>
       <c r="L23">
-        <v>0.125364</v>
+        <v>0.124805</v>
       </c>
       <c r="M23">
-        <v>0.111045</v>
+        <v>0.110554</v>
       </c>
       <c r="N23">
-        <v>9.7241999999999995E-2</v>
+        <v>9.6773999999999999E-2</v>
       </c>
       <c r="O23">
-        <v>0.100549</v>
+        <v>9.9890000000000007E-2</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1577,22 +1577,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J24">
-        <v>0.146728</v>
+        <v>0.145513</v>
       </c>
       <c r="K24">
-        <v>0.12975600000000001</v>
+        <v>0.12872700000000001</v>
       </c>
       <c r="L24">
-        <v>0.112779</v>
+        <v>0.112257</v>
       </c>
       <c r="M24">
-        <v>9.8966999999999999E-2</v>
+        <v>9.8603999999999997E-2</v>
       </c>
       <c r="N24">
-        <v>8.4977999999999998E-2</v>
+        <v>8.4669999999999995E-2</v>
       </c>
       <c r="O24">
-        <v>8.8812000000000002E-2</v>
+        <v>8.8239999999999999E-2</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1624,22 +1624,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J25">
-        <v>0.12755900000000001</v>
+        <v>0.12636700000000001</v>
       </c>
       <c r="K25">
-        <v>0.117406</v>
+        <v>0.116397</v>
       </c>
       <c r="L25">
-        <v>0.104537</v>
+        <v>0.10402400000000001</v>
       </c>
       <c r="M25">
-        <v>9.3479000000000007E-2</v>
+        <v>9.3121999999999996E-2</v>
       </c>
       <c r="N25">
-        <v>8.2716999999999999E-2</v>
+        <v>8.2413E-2</v>
       </c>
       <c r="O25">
-        <v>8.6346999999999993E-2</v>
+        <v>8.5787000000000002E-2</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1671,13 +1671,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.205591</v>
+        <v>0.20361499999999999</v>
       </c>
       <c r="K26">
-        <v>0.14546400000000001</v>
+        <v>0.143734</v>
       </c>
       <c r="L26">
-        <v>0.108198</v>
+        <v>0.10668999999999999</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -1718,22 +1718,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J27">
-        <v>0.18449399999999999</v>
+        <v>0.18176500000000001</v>
       </c>
       <c r="K27">
-        <v>0.164911</v>
+        <v>0.16223799999999999</v>
       </c>
       <c r="L27">
-        <v>0.13588700000000001</v>
+        <v>0.13447200000000001</v>
       </c>
       <c r="M27">
-        <v>0.117355</v>
+        <v>0.11622399999999999</v>
       </c>
       <c r="N27">
-        <v>0.10077999999999999</v>
+        <v>9.9728999999999998E-2</v>
       </c>
       <c r="O27">
-        <v>0.10874399999999999</v>
+        <v>0.107215</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -1765,22 +1765,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J28">
-        <v>0.159581</v>
+        <v>0.15695600000000001</v>
       </c>
       <c r="K28">
-        <v>0.14336299999999999</v>
+        <v>0.14086000000000001</v>
       </c>
       <c r="L28">
-        <v>0.121837</v>
+        <v>0.120481</v>
       </c>
       <c r="M28">
-        <v>0.102293</v>
+        <v>0.10151499999999999</v>
       </c>
       <c r="N28">
-        <v>8.5711999999999997E-2</v>
+        <v>8.5096000000000005E-2</v>
       </c>
       <c r="O28">
-        <v>9.5156000000000004E-2</v>
+        <v>9.3842999999999996E-2</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -1812,22 +1812,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J29">
-        <v>0.140208</v>
+        <v>0.13763300000000001</v>
       </c>
       <c r="K29">
-        <v>0.130749</v>
+        <v>0.12829299999999999</v>
       </c>
       <c r="L29">
-        <v>0.113415</v>
+        <v>0.112084</v>
       </c>
       <c r="M29">
-        <v>9.6761E-2</v>
+        <v>9.5996999999999999E-2</v>
       </c>
       <c r="N29">
-        <v>8.3467E-2</v>
+        <v>8.2860000000000003E-2</v>
       </c>
       <c r="O29">
-        <v>9.2558000000000001E-2</v>
+        <v>9.1273000000000007E-2</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -1859,13 +1859,13 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.19875300000000001</v>
+        <v>0.197435</v>
       </c>
       <c r="K30">
-        <v>0.13941400000000001</v>
+        <v>0.13825200000000001</v>
       </c>
       <c r="L30">
-        <v>0.102883</v>
+        <v>0.101872</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -1906,22 +1906,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J31">
-        <v>0.17579600000000001</v>
+        <v>0.173952</v>
       </c>
       <c r="K31">
-        <v>0.15512000000000001</v>
+        <v>0.15340899999999999</v>
       </c>
       <c r="L31">
-        <v>0.12821399999999999</v>
+        <v>0.12729099999999999</v>
       </c>
       <c r="M31">
-        <v>0.113676</v>
+        <v>0.11289399999999999</v>
       </c>
       <c r="N31">
-        <v>9.9810999999999997E-2</v>
+        <v>9.9074999999999996E-2</v>
       </c>
       <c r="O31">
-        <v>0.103712</v>
+        <v>0.10267999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -1953,22 +1953,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J32">
-        <v>0.15215899999999999</v>
+        <v>0.150363</v>
       </c>
       <c r="K32">
-        <v>0.134602</v>
+        <v>0.132996</v>
       </c>
       <c r="L32">
-        <v>0.115208</v>
+        <v>0.11433</v>
       </c>
       <c r="M32">
-        <v>0.101273</v>
+        <v>0.100686</v>
       </c>
       <c r="N32">
-        <v>8.7339E-2</v>
+        <v>8.6845000000000006E-2</v>
       </c>
       <c r="O32">
-        <v>9.1603000000000004E-2</v>
+        <v>9.0704999999999994E-2</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2000,22 +2000,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J33">
-        <v>0.13289599999999999</v>
+        <v>0.131135</v>
       </c>
       <c r="K33">
-        <v>0.12214999999999999</v>
+        <v>0.120575</v>
       </c>
       <c r="L33">
-        <v>0.10691199999999999</v>
+        <v>0.10605100000000001</v>
       </c>
       <c r="M33">
-        <v>9.5749000000000001E-2</v>
+        <v>9.5172999999999994E-2</v>
       </c>
       <c r="N33">
-        <v>8.5049E-2</v>
+        <v>8.4562999999999999E-2</v>
       </c>
       <c r="O33">
-        <v>8.9075000000000001E-2</v>
+        <v>8.8195999999999997E-2</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.19394</v>
+        <v>0.19308400000000001</v>
       </c>
       <c r="K34">
-        <v>0.13527900000000001</v>
+        <v>0.13452500000000001</v>
       </c>
       <c r="L34">
-        <v>9.9414000000000002E-2</v>
+        <v>9.8760000000000001E-2</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J35">
-        <v>0.17016700000000001</v>
+        <v>0.16892599999999999</v>
       </c>
       <c r="K35">
-        <v>0.14838499999999999</v>
+        <v>0.147259</v>
       </c>
       <c r="L35">
-        <v>0.12461800000000001</v>
+        <v>0.124043</v>
       </c>
       <c r="M35">
-        <v>0.111045</v>
+        <v>0.110554</v>
       </c>
       <c r="N35">
-        <v>9.7241999999999995E-2</v>
+        <v>9.6773999999999999E-2</v>
       </c>
       <c r="O35">
-        <v>0.10018000000000001</v>
+        <v>9.9512000000000003E-2</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2141,22 +2141,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J36">
-        <v>0.146728</v>
+        <v>0.145513</v>
       </c>
       <c r="K36">
-        <v>0.128306</v>
+        <v>0.127248</v>
       </c>
       <c r="L36">
-        <v>0.111704</v>
+        <v>0.11115999999999999</v>
       </c>
       <c r="M36">
-        <v>9.8966999999999999E-2</v>
+        <v>9.8603999999999997E-2</v>
       </c>
       <c r="N36">
-        <v>8.4977999999999998E-2</v>
+        <v>8.4669999999999995E-2</v>
       </c>
       <c r="O36">
-        <v>8.8423000000000002E-2</v>
+        <v>8.7841000000000002E-2</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2188,22 +2188,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J37">
-        <v>0.12755900000000001</v>
+        <v>0.12636700000000001</v>
       </c>
       <c r="K37">
-        <v>0.115982</v>
+        <v>0.11494500000000001</v>
       </c>
       <c r="L37">
-        <v>0.103482</v>
+        <v>0.102948</v>
       </c>
       <c r="M37">
-        <v>9.3479000000000007E-2</v>
+        <v>9.3121999999999996E-2</v>
       </c>
       <c r="N37">
-        <v>8.2716999999999999E-2</v>
+        <v>8.2413E-2</v>
       </c>
       <c r="O37">
-        <v>8.5966000000000001E-2</v>
+        <v>8.5396E-2</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2235,13 +2235,13 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.20560400000000001</v>
+        <v>0.203763</v>
       </c>
       <c r="K38">
-        <v>0.14546500000000001</v>
+        <v>0.14385700000000001</v>
       </c>
       <c r="L38">
-        <v>0.108241</v>
+        <v>0.106847</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2282,22 +2282,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J39">
-        <v>0.18446100000000001</v>
+        <v>0.182114</v>
       </c>
       <c r="K39">
-        <v>0.1648</v>
+        <v>0.16236600000000001</v>
       </c>
       <c r="L39">
-        <v>0.13588700000000001</v>
+        <v>0.13447200000000001</v>
       </c>
       <c r="M39">
-        <v>0.117355</v>
+        <v>0.11622399999999999</v>
       </c>
       <c r="N39">
-        <v>0.10077999999999999</v>
+        <v>9.9728999999999998E-2</v>
       </c>
       <c r="O39">
-        <v>0.108808</v>
+        <v>0.107403</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2329,22 +2329,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J40">
-        <v>0.159576</v>
+        <v>0.157357</v>
       </c>
       <c r="K40">
-        <v>0.143205</v>
+        <v>0.14093800000000001</v>
       </c>
       <c r="L40">
-        <v>0.121837</v>
+        <v>0.120481</v>
       </c>
       <c r="M40">
-        <v>0.102293</v>
+        <v>0.10151499999999999</v>
       </c>
       <c r="N40">
-        <v>8.5711999999999997E-2</v>
+        <v>8.5096000000000005E-2</v>
       </c>
       <c r="O40">
-        <v>9.5207E-2</v>
+        <v>9.4010999999999997E-2</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -2376,22 +2376,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J41">
-        <v>0.140184</v>
+        <v>0.13800599999999999</v>
       </c>
       <c r="K41">
-        <v>0.13058500000000001</v>
+        <v>0.12836</v>
       </c>
       <c r="L41">
-        <v>0.113415</v>
+        <v>0.112084</v>
       </c>
       <c r="M41">
-        <v>9.6761E-2</v>
+        <v>9.5996999999999999E-2</v>
       </c>
       <c r="N41">
-        <v>8.3467E-2</v>
+        <v>8.2860000000000003E-2</v>
       </c>
       <c r="O41">
-        <v>9.2605999999999994E-2</v>
+        <v>9.1435000000000002E-2</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -2423,13 +2423,13 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0.19785900000000001</v>
+        <v>0.19669300000000001</v>
       </c>
       <c r="K42">
-        <v>0.138624</v>
+        <v>0.137596</v>
       </c>
       <c r="L42">
-        <v>0.102231</v>
+        <v>0.101341</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -2470,22 +2470,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J43">
-        <v>0.17327799999999999</v>
+        <v>0.17185500000000001</v>
       </c>
       <c r="K43">
-        <v>0.15356</v>
+        <v>0.15210599999999999</v>
       </c>
       <c r="L43">
-        <v>0.12821399999999999</v>
+        <v>0.12729099999999999</v>
       </c>
       <c r="M43">
-        <v>0.113676</v>
+        <v>0.11289399999999999</v>
       </c>
       <c r="N43">
-        <v>9.9810999999999997E-2</v>
+        <v>9.9074999999999996E-2</v>
       </c>
       <c r="O43">
-        <v>0.103001</v>
+        <v>0.1021</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -2517,22 +2517,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J44">
-        <v>0.149452</v>
+        <v>0.14810799999999999</v>
       </c>
       <c r="K44">
-        <v>0.13303699999999999</v>
+        <v>0.131685</v>
       </c>
       <c r="L44">
-        <v>0.115208</v>
+        <v>0.11433</v>
       </c>
       <c r="M44">
-        <v>0.101273</v>
+        <v>0.100686</v>
       </c>
       <c r="N44">
-        <v>8.7339E-2</v>
+        <v>8.6845000000000006E-2</v>
       </c>
       <c r="O44">
-        <v>9.0930999999999998E-2</v>
+        <v>9.0156E-2</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -2564,22 +2564,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J45">
-        <v>0.13023399999999999</v>
+        <v>0.128916</v>
       </c>
       <c r="K45">
-        <v>0.120611</v>
+        <v>0.119285</v>
       </c>
       <c r="L45">
-        <v>0.10691199999999999</v>
+        <v>0.10605100000000001</v>
       </c>
       <c r="M45">
-        <v>9.5749000000000001E-2</v>
+        <v>9.5172999999999994E-2</v>
       </c>
       <c r="N45">
-        <v>8.5049E-2</v>
+        <v>8.4562999999999999E-2</v>
       </c>
       <c r="O45">
-        <v>8.8419999999999999E-2</v>
+        <v>8.7661000000000003E-2</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0.19340199999999999</v>
+        <v>0.19266</v>
       </c>
       <c r="K46">
-        <v>0.13481399999999999</v>
+        <v>0.134161</v>
       </c>
       <c r="L46">
-        <v>9.9038000000000001E-2</v>
+        <v>9.8474999999999993E-2</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -2658,22 +2658,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J47">
-        <v>0.168657</v>
+        <v>0.167735</v>
       </c>
       <c r="K47">
-        <v>0.14747099999999999</v>
+        <v>0.146539</v>
       </c>
       <c r="L47">
-        <v>0.12461800000000001</v>
+        <v>0.124043</v>
       </c>
       <c r="M47">
-        <v>0.111045</v>
+        <v>0.110554</v>
       </c>
       <c r="N47">
-        <v>9.7241999999999995E-2</v>
+        <v>9.6773999999999999E-2</v>
       </c>
       <c r="O47">
-        <v>9.9779000000000007E-2</v>
+        <v>9.9210000000000007E-2</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -2705,22 +2705,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J48">
-        <v>0.14513899999999999</v>
+        <v>0.14426800000000001</v>
       </c>
       <c r="K48">
-        <v>0.12740599999999999</v>
+        <v>0.12654099999999999</v>
       </c>
       <c r="L48">
-        <v>0.111704</v>
+        <v>0.11115999999999999</v>
       </c>
       <c r="M48">
-        <v>9.8966999999999999E-2</v>
+        <v>9.8603999999999997E-2</v>
       </c>
       <c r="N48">
-        <v>8.4977999999999998E-2</v>
+        <v>8.4669999999999995E-2</v>
       </c>
       <c r="O48">
-        <v>8.8049000000000002E-2</v>
+        <v>8.7558999999999998E-2</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -2752,22 +2752,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J49">
-        <v>0.125996</v>
+        <v>0.125141</v>
       </c>
       <c r="K49">
-        <v>0.115096</v>
+        <v>0.114248</v>
       </c>
       <c r="L49">
-        <v>0.103482</v>
+        <v>0.102948</v>
       </c>
       <c r="M49">
-        <v>9.3479000000000007E-2</v>
+        <v>9.3121999999999996E-2</v>
       </c>
       <c r="N49">
-        <v>8.2716999999999999E-2</v>
+        <v>8.2413E-2</v>
       </c>
       <c r="O49">
-        <v>8.5599999999999996E-2</v>
+        <v>8.5121000000000002E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\PRECIOS CALCULADORA GALP LEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55B7E71-5B5F-4FB8-A859-DF2F3E1E018D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A797E61-11D1-4A4F-B78C-83B4C436095C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3350A494-7D0F-4E24-96BD-512094F7438F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="22">
   <si>
     <t>MES</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>6.2TD</t>
-  </si>
-  <si>
-    <t>OCTUBRE</t>
   </si>
   <si>
     <t>NOVIEMBRE</t>
@@ -454,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAC917C-D324-4D6B-8FB1-5CF7F1023A32}">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,40 +475,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -543,13 +540,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.20300099999999999</v>
+        <v>0.202042</v>
       </c>
       <c r="K2">
-        <v>0.14325199999999999</v>
+        <v>0.14240700000000001</v>
       </c>
       <c r="L2">
-        <v>0.106987</v>
+        <v>0.105589</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -590,22 +587,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J3">
-        <v>0.18176500000000001</v>
+        <v>0.179755</v>
       </c>
       <c r="K3">
-        <v>0.16167300000000001</v>
+        <v>0.159391</v>
       </c>
       <c r="L3">
-        <v>0.13415099999999999</v>
+        <v>0.13320100000000001</v>
       </c>
       <c r="M3">
-        <v>0.119036</v>
+        <v>0.115818</v>
       </c>
       <c r="N3">
-        <v>0.103713</v>
+        <v>9.9441000000000002E-2</v>
       </c>
       <c r="O3">
-        <v>0.10736999999999999</v>
+        <v>0.106047</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -637,22 +634,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J4">
-        <v>0.15695600000000001</v>
+        <v>0.15497900000000001</v>
       </c>
       <c r="K4">
-        <v>0.140232</v>
+        <v>0.13805700000000001</v>
       </c>
       <c r="L4">
-        <v>0.120006</v>
+        <v>0.11897099999999999</v>
       </c>
       <c r="M4">
-        <v>0.104182</v>
+        <v>0.10119300000000001</v>
       </c>
       <c r="N4">
-        <v>8.8888999999999996E-2</v>
+        <v>8.4879999999999997E-2</v>
       </c>
       <c r="O4">
-        <v>9.4004000000000004E-2</v>
+        <v>9.2720999999999998E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -684,22 +681,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J5">
-        <v>0.13763300000000001</v>
+        <v>0.13569500000000001</v>
       </c>
       <c r="K5">
-        <v>0.12770200000000001</v>
+        <v>0.12556800000000001</v>
       </c>
       <c r="L5">
-        <v>0.11163099999999999</v>
+        <v>0.110614</v>
       </c>
       <c r="M5">
-        <v>9.8636000000000001E-2</v>
+        <v>9.5680000000000001E-2</v>
       </c>
       <c r="N5">
-        <v>8.6633000000000002E-2</v>
+        <v>8.2646999999999998E-2</v>
       </c>
       <c r="O5">
-        <v>9.1444999999999999E-2</v>
+        <v>9.0176999999999993E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -731,13 +728,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.19825799999999999</v>
+        <v>0.19781299999999999</v>
       </c>
       <c r="K6">
-        <v>0.13897899999999999</v>
+        <v>0.138599</v>
       </c>
       <c r="L6">
-        <v>0.10274</v>
+        <v>0.102087</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -778,22 +775,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J7">
-        <v>0.173952</v>
+        <v>0.17321900000000001</v>
       </c>
       <c r="K7">
-        <v>0.15537699999999999</v>
+        <v>0.15443899999999999</v>
       </c>
       <c r="L7">
-        <v>0.12837799999999999</v>
+        <v>0.12821099999999999</v>
       </c>
       <c r="M7">
-        <v>0.114874</v>
+        <v>0.113036</v>
       </c>
       <c r="N7">
-        <v>0.10165</v>
+        <v>9.9250000000000005E-2</v>
       </c>
       <c r="O7">
-        <v>0.103551</v>
+        <v>0.10295</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -825,22 +822,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J8">
-        <v>0.150363</v>
+        <v>0.14960499999999999</v>
       </c>
       <c r="K8">
-        <v>0.13511000000000001</v>
+        <v>0.134182</v>
       </c>
       <c r="L8">
-        <v>0.11591</v>
+        <v>0.115646</v>
       </c>
       <c r="M8">
-        <v>0.102233</v>
+        <v>0.10084799999999999</v>
       </c>
       <c r="N8">
-        <v>8.8799000000000003E-2</v>
+        <v>8.7030999999999997E-2</v>
       </c>
       <c r="O8">
-        <v>9.1521000000000005E-2</v>
+        <v>9.0997999999999996E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -872,22 +869,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J9">
-        <v>0.131135</v>
+        <v>0.13039100000000001</v>
       </c>
       <c r="K9">
-        <v>0.122656</v>
+        <v>0.12174500000000001</v>
       </c>
       <c r="L9">
-        <v>0.107602</v>
+        <v>0.10734299999999999</v>
       </c>
       <c r="M9">
-        <v>9.6701999999999996E-2</v>
+        <v>9.5330999999999999E-2</v>
       </c>
       <c r="N9">
-        <v>8.6512000000000006E-2</v>
+        <v>8.4747000000000003E-2</v>
       </c>
       <c r="O9">
-        <v>8.9005000000000001E-2</v>
+        <v>8.8484999999999994E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -919,13 +916,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.193831</v>
+        <v>0.193605</v>
       </c>
       <c r="K10">
-        <v>0.13517999999999999</v>
+        <v>0.13500200000000001</v>
       </c>
       <c r="L10">
-        <v>9.9471000000000004E-2</v>
+        <v>9.9122000000000002E-2</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -966,22 +963,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J11">
-        <v>0.16892599999999999</v>
+        <v>0.16867599999999999</v>
       </c>
       <c r="K11">
-        <v>0.14865200000000001</v>
+        <v>0.148262</v>
       </c>
       <c r="L11">
-        <v>0.124805</v>
+        <v>0.124926</v>
       </c>
       <c r="M11">
-        <v>0.112126</v>
+        <v>0.110857</v>
       </c>
       <c r="N11">
-        <v>9.8974000000000006E-2</v>
+        <v>9.7074999999999995E-2</v>
       </c>
       <c r="O11">
-        <v>0.100234</v>
+        <v>9.9918999999999994E-2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1013,22 +1010,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J12">
-        <v>0.145513</v>
+        <v>0.145228</v>
       </c>
       <c r="K12">
-        <v>0.12872700000000001</v>
+        <v>0.12832499999999999</v>
       </c>
       <c r="L12">
-        <v>0.112257</v>
+        <v>0.112298</v>
       </c>
       <c r="M12">
-        <v>9.9807000000000007E-2</v>
+        <v>9.8900000000000002E-2</v>
       </c>
       <c r="N12">
-        <v>8.6301000000000003E-2</v>
+        <v>8.4957000000000005E-2</v>
       </c>
       <c r="O12">
-        <v>8.8499999999999995E-2</v>
+        <v>8.8243000000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1060,22 +1057,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J13">
-        <v>0.12636700000000001</v>
+        <v>0.12608800000000001</v>
       </c>
       <c r="K13">
-        <v>0.116397</v>
+        <v>0.116003</v>
       </c>
       <c r="L13">
-        <v>0.10402400000000001</v>
+        <v>0.10406600000000001</v>
       </c>
       <c r="M13">
-        <v>9.4312000000000007E-2</v>
+        <v>9.3412999999999996E-2</v>
       </c>
       <c r="N13">
-        <v>8.4037000000000001E-2</v>
+        <v>8.2695000000000005E-2</v>
       </c>
       <c r="O13">
-        <v>8.6047999999999999E-2</v>
+        <v>8.5791000000000006E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1107,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.203402</v>
+        <v>0.20238400000000001</v>
       </c>
       <c r="K14">
-        <v>0.14355200000000001</v>
+        <v>0.14270099999999999</v>
       </c>
       <c r="L14">
-        <v>0.106572</v>
+        <v>0.105793</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1154,22 +1151,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J15">
-        <v>0.18176500000000001</v>
+        <v>0.179755</v>
       </c>
       <c r="K15">
-        <v>0.16167300000000001</v>
+        <v>0.160303</v>
       </c>
       <c r="L15">
-        <v>0.13415099999999999</v>
+        <v>0.133714</v>
       </c>
       <c r="M15">
-        <v>0.11622399999999999</v>
+        <v>0.115818</v>
       </c>
       <c r="N15">
-        <v>9.9728999999999998E-2</v>
+        <v>9.9441000000000002E-2</v>
       </c>
       <c r="O15">
-        <v>0.10706599999999999</v>
+        <v>0.106297</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1201,22 +1198,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J16">
-        <v>0.15695600000000001</v>
+        <v>0.15497900000000001</v>
       </c>
       <c r="K16">
-        <v>0.140232</v>
+        <v>0.13905899999999999</v>
       </c>
       <c r="L16">
-        <v>0.120006</v>
+        <v>0.119728</v>
       </c>
       <c r="M16">
-        <v>0.10151499999999999</v>
+        <v>0.10119300000000001</v>
       </c>
       <c r="N16">
-        <v>8.5096000000000005E-2</v>
+        <v>8.4879999999999997E-2</v>
       </c>
       <c r="O16">
-        <v>9.3681E-2</v>
+        <v>9.2990000000000003E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1248,22 +1245,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J17">
-        <v>0.13763300000000001</v>
+        <v>0.13569500000000001</v>
       </c>
       <c r="K17">
-        <v>0.12770200000000001</v>
+        <v>0.126527</v>
       </c>
       <c r="L17">
-        <v>0.11163099999999999</v>
+        <v>0.111343</v>
       </c>
       <c r="M17">
-        <v>9.5996999999999999E-2</v>
+        <v>9.5680000000000001E-2</v>
       </c>
       <c r="N17">
-        <v>8.2860000000000003E-2</v>
+        <v>8.2646999999999998E-2</v>
       </c>
       <c r="O17">
-        <v>9.1114000000000001E-2</v>
+        <v>9.0438000000000004E-2</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1295,13 +1292,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.198185</v>
+        <v>0.19717699999999999</v>
       </c>
       <c r="K18">
-        <v>0.13888500000000001</v>
+        <v>0.13806099999999999</v>
       </c>
       <c r="L18">
-        <v>0.10231999999999999</v>
+        <v>0.101712</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1342,22 +1339,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J19">
-        <v>0.173952</v>
+        <v>0.17321900000000001</v>
       </c>
       <c r="K19">
-        <v>0.15537699999999999</v>
+        <v>0.15276999999999999</v>
       </c>
       <c r="L19">
-        <v>0.12837799999999999</v>
+        <v>0.12728900000000001</v>
       </c>
       <c r="M19">
-        <v>0.11289399999999999</v>
+        <v>0.113036</v>
       </c>
       <c r="N19">
-        <v>9.9074999999999996E-2</v>
+        <v>9.9250000000000005E-2</v>
       </c>
       <c r="O19">
-        <v>0.103204</v>
+        <v>0.102511</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1389,22 +1386,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J20">
-        <v>0.150363</v>
+        <v>0.14960499999999999</v>
       </c>
       <c r="K20">
-        <v>0.13511000000000001</v>
+        <v>0.13238900000000001</v>
       </c>
       <c r="L20">
-        <v>0.11591</v>
+        <v>0.114306</v>
       </c>
       <c r="M20">
-        <v>0.100686</v>
+        <v>0.10084799999999999</v>
       </c>
       <c r="N20">
-        <v>8.6845000000000006E-2</v>
+        <v>8.7030999999999997E-2</v>
       </c>
       <c r="O20">
-        <v>9.1256000000000004E-2</v>
+        <v>9.0537000000000006E-2</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1436,22 +1433,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J21">
-        <v>0.131135</v>
+        <v>0.13039100000000001</v>
       </c>
       <c r="K21">
-        <v>0.122656</v>
+        <v>0.11998</v>
       </c>
       <c r="L21">
-        <v>0.107602</v>
+        <v>0.106027</v>
       </c>
       <c r="M21">
-        <v>9.5172999999999994E-2</v>
+        <v>9.5330999999999999E-2</v>
       </c>
       <c r="N21">
-        <v>8.4562999999999999E-2</v>
+        <v>8.4747000000000003E-2</v>
       </c>
       <c r="O21">
-        <v>8.8735999999999995E-2</v>
+        <v>8.8031999999999999E-2</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1483,13 +1480,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.19361100000000001</v>
+        <v>0.19315199999999999</v>
       </c>
       <c r="K22">
-        <v>0.13497300000000001</v>
+        <v>0.13461699999999999</v>
       </c>
       <c r="L22">
-        <v>9.9082000000000003E-2</v>
+        <v>9.8848000000000005E-2</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1530,22 +1527,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J23">
-        <v>0.16892599999999999</v>
+        <v>0.16867599999999999</v>
       </c>
       <c r="K23">
-        <v>0.14865200000000001</v>
+        <v>0.147064</v>
       </c>
       <c r="L23">
-        <v>0.124805</v>
+        <v>0.12427100000000001</v>
       </c>
       <c r="M23">
-        <v>0.110554</v>
+        <v>0.110857</v>
       </c>
       <c r="N23">
-        <v>9.6773999999999999E-2</v>
+        <v>9.7074999999999995E-2</v>
       </c>
       <c r="O23">
-        <v>9.9890000000000007E-2</v>
+        <v>9.9596000000000004E-2</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1577,22 +1574,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J24">
-        <v>0.145513</v>
+        <v>0.145228</v>
       </c>
       <c r="K24">
-        <v>0.12872700000000001</v>
+        <v>0.127057</v>
       </c>
       <c r="L24">
-        <v>0.112257</v>
+        <v>0.111357</v>
       </c>
       <c r="M24">
-        <v>9.8603999999999997E-2</v>
+        <v>9.8900000000000002E-2</v>
       </c>
       <c r="N24">
-        <v>8.4669999999999995E-2</v>
+        <v>8.4957000000000005E-2</v>
       </c>
       <c r="O24">
-        <v>8.8239999999999999E-2</v>
+        <v>8.7902999999999995E-2</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1624,27 +1621,27 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J25">
-        <v>0.12636700000000001</v>
+        <v>0.12608800000000001</v>
       </c>
       <c r="K25">
-        <v>0.116397</v>
+        <v>0.114757</v>
       </c>
       <c r="L25">
-        <v>0.10402400000000001</v>
+        <v>0.103141</v>
       </c>
       <c r="M25">
-        <v>9.3121999999999996E-2</v>
+        <v>9.3412999999999996E-2</v>
       </c>
       <c r="N25">
-        <v>8.2413E-2</v>
+        <v>8.2695000000000005E-2</v>
       </c>
       <c r="O25">
-        <v>8.5787000000000002E-2</v>
+        <v>8.5457000000000005E-2</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B26">
         <v>12</v>
@@ -1671,13 +1668,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.20361499999999999</v>
+        <v>0.20266899999999999</v>
       </c>
       <c r="K26">
-        <v>0.143734</v>
+        <v>0.14294299999999999</v>
       </c>
       <c r="L26">
-        <v>0.10668999999999999</v>
+        <v>0.106057</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -1691,7 +1688,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B27">
         <v>12</v>
@@ -1718,27 +1715,27 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J27">
-        <v>0.18176500000000001</v>
+        <v>0.18048600000000001</v>
       </c>
       <c r="K27">
-        <v>0.16223799999999999</v>
+        <v>0.16066800000000001</v>
       </c>
       <c r="L27">
-        <v>0.13447200000000001</v>
+        <v>0.133714</v>
       </c>
       <c r="M27">
-        <v>0.11622399999999999</v>
+        <v>0.115818</v>
       </c>
       <c r="N27">
-        <v>9.9728999999999998E-2</v>
+        <v>9.9441000000000002E-2</v>
       </c>
       <c r="O27">
-        <v>0.107215</v>
+        <v>0.106601</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B28">
         <v>12</v>
@@ -1765,27 +1762,27 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J28">
-        <v>0.15695600000000001</v>
+        <v>0.15579499999999999</v>
       </c>
       <c r="K28">
-        <v>0.14086000000000001</v>
+        <v>0.139372</v>
       </c>
       <c r="L28">
-        <v>0.120481</v>
+        <v>0.119728</v>
       </c>
       <c r="M28">
-        <v>0.10151499999999999</v>
+        <v>0.10119300000000001</v>
       </c>
       <c r="N28">
-        <v>8.5096000000000005E-2</v>
+        <v>8.4879999999999997E-2</v>
       </c>
       <c r="O28">
-        <v>9.3842999999999996E-2</v>
+        <v>9.3265000000000001E-2</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B29">
         <v>12</v>
@@ -1812,27 +1809,27 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J29">
-        <v>0.13763300000000001</v>
+        <v>0.13647500000000001</v>
       </c>
       <c r="K29">
-        <v>0.12829299999999999</v>
+        <v>0.12682299999999999</v>
       </c>
       <c r="L29">
-        <v>0.112084</v>
+        <v>0.111343</v>
       </c>
       <c r="M29">
-        <v>9.5996999999999999E-2</v>
+        <v>9.5680000000000001E-2</v>
       </c>
       <c r="N29">
-        <v>8.2860000000000003E-2</v>
+        <v>8.2646999999999998E-2</v>
       </c>
       <c r="O29">
-        <v>9.1273000000000007E-2</v>
+        <v>9.0704999999999994E-2</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B30">
         <v>24</v>
@@ -1859,13 +1856,13 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.197435</v>
+        <v>0.19655</v>
       </c>
       <c r="K30">
-        <v>0.13825200000000001</v>
+        <v>0.13750599999999999</v>
       </c>
       <c r="L30">
-        <v>0.101872</v>
+        <v>0.10127</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -1879,7 +1876,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B31">
         <v>24</v>
@@ -1906,27 +1903,27 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J31">
-        <v>0.173952</v>
+        <v>0.17143900000000001</v>
       </c>
       <c r="K31">
-        <v>0.15340899999999999</v>
+        <v>0.15166199999999999</v>
       </c>
       <c r="L31">
-        <v>0.12729099999999999</v>
+        <v>0.12728900000000001</v>
       </c>
       <c r="M31">
-        <v>0.11289399999999999</v>
+        <v>0.113036</v>
       </c>
       <c r="N31">
-        <v>9.9074999999999996E-2</v>
+        <v>9.9250000000000005E-2</v>
       </c>
       <c r="O31">
-        <v>0.10267999999999999</v>
+        <v>0.10203</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B32">
         <v>24</v>
@@ -1953,27 +1950,27 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J32">
-        <v>0.150363</v>
+        <v>0.14769299999999999</v>
       </c>
       <c r="K32">
-        <v>0.132996</v>
+        <v>0.131271</v>
       </c>
       <c r="L32">
-        <v>0.11433</v>
+        <v>0.114306</v>
       </c>
       <c r="M32">
-        <v>0.100686</v>
+        <v>0.10084799999999999</v>
       </c>
       <c r="N32">
-        <v>8.6845000000000006E-2</v>
+        <v>8.7030999999999997E-2</v>
       </c>
       <c r="O32">
-        <v>9.0704999999999994E-2</v>
+        <v>9.0080999999999994E-2</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B33">
         <v>24</v>
@@ -2000,27 +1997,27 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J33">
-        <v>0.131135</v>
+        <v>0.12850800000000001</v>
       </c>
       <c r="K33">
-        <v>0.120575</v>
+        <v>0.118879</v>
       </c>
       <c r="L33">
-        <v>0.10605100000000001</v>
+        <v>0.106027</v>
       </c>
       <c r="M33">
-        <v>9.5172999999999994E-2</v>
+        <v>9.5330999999999999E-2</v>
       </c>
       <c r="N33">
-        <v>8.4562999999999999E-2</v>
+        <v>8.4747000000000003E-2</v>
       </c>
       <c r="O33">
-        <v>8.8195999999999997E-2</v>
+        <v>8.7585999999999997E-2</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B34">
         <v>36</v>
@@ -2047,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.19308400000000001</v>
+        <v>0.192804</v>
       </c>
       <c r="K34">
-        <v>0.13452500000000001</v>
+        <v>0.13431999999999999</v>
       </c>
       <c r="L34">
-        <v>9.8760000000000001E-2</v>
+        <v>9.8624000000000003E-2</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2067,7 +2064,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B35">
         <v>36</v>
@@ -2094,27 +2091,27 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J35">
-        <v>0.16892599999999999</v>
+        <v>0.16769800000000001</v>
       </c>
       <c r="K35">
-        <v>0.147259</v>
+        <v>0.14647399999999999</v>
       </c>
       <c r="L35">
-        <v>0.124043</v>
+        <v>0.12427100000000001</v>
       </c>
       <c r="M35">
-        <v>0.110554</v>
+        <v>0.110857</v>
       </c>
       <c r="N35">
-        <v>9.6773999999999999E-2</v>
+        <v>9.7074999999999995E-2</v>
       </c>
       <c r="O35">
-        <v>9.9512000000000003E-2</v>
+        <v>9.9360000000000004E-2</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B36">
         <v>36</v>
@@ -2141,27 +2138,27 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J36">
-        <v>0.145513</v>
+        <v>0.14421100000000001</v>
       </c>
       <c r="K36">
-        <v>0.127248</v>
+        <v>0.12647600000000001</v>
       </c>
       <c r="L36">
-        <v>0.11115999999999999</v>
+        <v>0.111357</v>
       </c>
       <c r="M36">
-        <v>9.8603999999999997E-2</v>
+        <v>9.8900000000000002E-2</v>
       </c>
       <c r="N36">
-        <v>8.4669999999999995E-2</v>
+        <v>8.4957000000000005E-2</v>
       </c>
       <c r="O36">
-        <v>8.7841000000000002E-2</v>
+        <v>8.7682999999999997E-2</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -2188,586 +2185,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J37">
-        <v>0.12636700000000001</v>
+        <v>0.125086</v>
       </c>
       <c r="K37">
-        <v>0.11494500000000001</v>
+        <v>0.11418499999999999</v>
       </c>
       <c r="L37">
-        <v>0.102948</v>
+        <v>0.103141</v>
       </c>
       <c r="M37">
-        <v>9.3121999999999996E-2</v>
+        <v>9.3412999999999996E-2</v>
       </c>
       <c r="N37">
-        <v>8.2413E-2</v>
+        <v>8.2695000000000005E-2</v>
       </c>
       <c r="O37">
-        <v>8.5396E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38">
-        <v>12</v>
-      </c>
-      <c r="C38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38">
-        <v>25.391660000000002</v>
-      </c>
-      <c r="E38">
-        <v>0.96884999999999999</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0.203763</v>
-      </c>
-      <c r="K38">
-        <v>0.14385700000000001</v>
-      </c>
-      <c r="L38">
-        <v>0.106847</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39">
-        <v>12</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39">
-        <v>15.713050000000001</v>
-      </c>
-      <c r="E39">
-        <v>9.5470400000000009</v>
-      </c>
-      <c r="F39">
-        <v>4.6582100000000004</v>
-      </c>
-      <c r="G39">
-        <v>4.1425599999999996</v>
-      </c>
-      <c r="H39">
-        <v>2.2852100000000002</v>
-      </c>
-      <c r="I39">
-        <v>1.5536399999999999</v>
-      </c>
-      <c r="J39">
-        <v>0.182114</v>
-      </c>
-      <c r="K39">
-        <v>0.16236600000000001</v>
-      </c>
-      <c r="L39">
-        <v>0.13447200000000001</v>
-      </c>
-      <c r="M39">
-        <v>0.11622399999999999</v>
-      </c>
-      <c r="N39">
-        <v>9.9728999999999998E-2</v>
-      </c>
-      <c r="O39">
-        <v>0.107403</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40">
-        <v>12</v>
-      </c>
-      <c r="C40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40">
-        <v>24.41441</v>
-      </c>
-      <c r="E40">
-        <v>14.692909999999999</v>
-      </c>
-      <c r="F40">
-        <v>11.32864</v>
-      </c>
-      <c r="G40">
-        <v>9.2507599999999996</v>
-      </c>
-      <c r="H40">
-        <v>1.72753</v>
-      </c>
-      <c r="I40">
-        <v>0.96789999999999998</v>
-      </c>
-      <c r="J40">
-        <v>0.157357</v>
-      </c>
-      <c r="K40">
-        <v>0.14093800000000001</v>
-      </c>
-      <c r="L40">
-        <v>0.120481</v>
-      </c>
-      <c r="M40">
-        <v>0.10151499999999999</v>
-      </c>
-      <c r="N40">
-        <v>8.5096000000000005E-2</v>
-      </c>
-      <c r="O40">
-        <v>9.4010999999999997E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41">
-        <v>12</v>
-      </c>
-      <c r="C41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41">
-        <v>12.287599999999999</v>
-      </c>
-      <c r="E41">
-        <v>9.88476</v>
-      </c>
-      <c r="F41">
-        <v>6.4391999999999996</v>
-      </c>
-      <c r="G41">
-        <v>5.49465</v>
-      </c>
-      <c r="H41">
-        <v>1.0620000000000001</v>
-      </c>
-      <c r="I41">
-        <v>0.61592999999999998</v>
-      </c>
-      <c r="J41">
-        <v>0.13800599999999999</v>
-      </c>
-      <c r="K41">
-        <v>0.12836</v>
-      </c>
-      <c r="L41">
-        <v>0.112084</v>
-      </c>
-      <c r="M41">
-        <v>9.5996999999999999E-2</v>
-      </c>
-      <c r="N41">
-        <v>8.2860000000000003E-2</v>
-      </c>
-      <c r="O41">
-        <v>9.1435000000000002E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42">
-        <v>24</v>
-      </c>
-      <c r="C42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42">
-        <v>25.391660000000002</v>
-      </c>
-      <c r="E42">
-        <v>0.96884999999999999</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0.19669300000000001</v>
-      </c>
-      <c r="K42">
-        <v>0.137596</v>
-      </c>
-      <c r="L42">
-        <v>0.101341</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43">
-        <v>24</v>
-      </c>
-      <c r="C43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43">
-        <v>15.713050000000001</v>
-      </c>
-      <c r="E43">
-        <v>9.5470400000000009</v>
-      </c>
-      <c r="F43">
-        <v>4.6582100000000004</v>
-      </c>
-      <c r="G43">
-        <v>4.1425599999999996</v>
-      </c>
-      <c r="H43">
-        <v>2.2852100000000002</v>
-      </c>
-      <c r="I43">
-        <v>1.5536399999999999</v>
-      </c>
-      <c r="J43">
-        <v>0.17185500000000001</v>
-      </c>
-      <c r="K43">
-        <v>0.15210599999999999</v>
-      </c>
-      <c r="L43">
-        <v>0.12729099999999999</v>
-      </c>
-      <c r="M43">
-        <v>0.11289399999999999</v>
-      </c>
-      <c r="N43">
-        <v>9.9074999999999996E-2</v>
-      </c>
-      <c r="O43">
-        <v>0.1021</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44">
-        <v>24</v>
-      </c>
-      <c r="C44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44">
-        <v>24.41441</v>
-      </c>
-      <c r="E44">
-        <v>14.692909999999999</v>
-      </c>
-      <c r="F44">
-        <v>11.32864</v>
-      </c>
-      <c r="G44">
-        <v>9.2507599999999996</v>
-      </c>
-      <c r="H44">
-        <v>1.72753</v>
-      </c>
-      <c r="I44">
-        <v>0.96789999999999998</v>
-      </c>
-      <c r="J44">
-        <v>0.14810799999999999</v>
-      </c>
-      <c r="K44">
-        <v>0.131685</v>
-      </c>
-      <c r="L44">
-        <v>0.11433</v>
-      </c>
-      <c r="M44">
-        <v>0.100686</v>
-      </c>
-      <c r="N44">
-        <v>8.6845000000000006E-2</v>
-      </c>
-      <c r="O44">
-        <v>9.0156E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45">
-        <v>24</v>
-      </c>
-      <c r="C45" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45">
-        <v>12.287599999999999</v>
-      </c>
-      <c r="E45">
-        <v>9.88476</v>
-      </c>
-      <c r="F45">
-        <v>6.4391999999999996</v>
-      </c>
-      <c r="G45">
-        <v>5.49465</v>
-      </c>
-      <c r="H45">
-        <v>1.0620000000000001</v>
-      </c>
-      <c r="I45">
-        <v>0.61592999999999998</v>
-      </c>
-      <c r="J45">
-        <v>0.128916</v>
-      </c>
-      <c r="K45">
-        <v>0.119285</v>
-      </c>
-      <c r="L45">
-        <v>0.10605100000000001</v>
-      </c>
-      <c r="M45">
-        <v>9.5172999999999994E-2</v>
-      </c>
-      <c r="N45">
-        <v>8.4562999999999999E-2</v>
-      </c>
-      <c r="O45">
-        <v>8.7661000000000003E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46">
-        <v>36</v>
-      </c>
-      <c r="C46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46">
-        <v>25.391660000000002</v>
-      </c>
-      <c r="E46">
-        <v>0.96884999999999999</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0.19266</v>
-      </c>
-      <c r="K46">
-        <v>0.134161</v>
-      </c>
-      <c r="L46">
-        <v>9.8474999999999993E-2</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47">
-        <v>36</v>
-      </c>
-      <c r="C47" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47">
-        <v>15.713050000000001</v>
-      </c>
-      <c r="E47">
-        <v>9.5470400000000009</v>
-      </c>
-      <c r="F47">
-        <v>4.6582100000000004</v>
-      </c>
-      <c r="G47">
-        <v>4.1425599999999996</v>
-      </c>
-      <c r="H47">
-        <v>2.2852100000000002</v>
-      </c>
-      <c r="I47">
-        <v>1.5536399999999999</v>
-      </c>
-      <c r="J47">
-        <v>0.167735</v>
-      </c>
-      <c r="K47">
-        <v>0.146539</v>
-      </c>
-      <c r="L47">
-        <v>0.124043</v>
-      </c>
-      <c r="M47">
-        <v>0.110554</v>
-      </c>
-      <c r="N47">
-        <v>9.6773999999999999E-2</v>
-      </c>
-      <c r="O47">
-        <v>9.9210000000000007E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48">
-        <v>36</v>
-      </c>
-      <c r="C48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48">
-        <v>24.41441</v>
-      </c>
-      <c r="E48">
-        <v>14.692909999999999</v>
-      </c>
-      <c r="F48">
-        <v>11.32864</v>
-      </c>
-      <c r="G48">
-        <v>9.2507599999999996</v>
-      </c>
-      <c r="H48">
-        <v>1.72753</v>
-      </c>
-      <c r="I48">
-        <v>0.96789999999999998</v>
-      </c>
-      <c r="J48">
-        <v>0.14426800000000001</v>
-      </c>
-      <c r="K48">
-        <v>0.12654099999999999</v>
-      </c>
-      <c r="L48">
-        <v>0.11115999999999999</v>
-      </c>
-      <c r="M48">
-        <v>9.8603999999999997E-2</v>
-      </c>
-      <c r="N48">
-        <v>8.4669999999999995E-2</v>
-      </c>
-      <c r="O48">
-        <v>8.7558999999999998E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49">
-        <v>36</v>
-      </c>
-      <c r="C49" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49">
-        <v>12.287599999999999</v>
-      </c>
-      <c r="E49">
-        <v>9.88476</v>
-      </c>
-      <c r="F49">
-        <v>6.4391999999999996</v>
-      </c>
-      <c r="G49">
-        <v>5.49465</v>
-      </c>
-      <c r="H49">
-        <v>1.0620000000000001</v>
-      </c>
-      <c r="I49">
-        <v>0.61592999999999998</v>
-      </c>
-      <c r="J49">
-        <v>0.125141</v>
-      </c>
-      <c r="K49">
-        <v>0.114248</v>
-      </c>
-      <c r="L49">
-        <v>0.102948</v>
-      </c>
-      <c r="M49">
-        <v>9.3121999999999996E-2</v>
-      </c>
-      <c r="N49">
-        <v>8.2413E-2</v>
-      </c>
-      <c r="O49">
-        <v>8.5121000000000002E-2</v>
+        <v>8.5241999999999998E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\PRECIOS CALCULADORA GALP LEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A797E61-11D1-4A4F-B78C-83B4C436095C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8793AB23-7ACD-4F26-A7E0-F287C83B47DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3350A494-7D0F-4E24-96BD-512094F7438F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="23">
   <si>
     <t>MES</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>ENERO</t>
+  </si>
+  <si>
+    <t>FEBRERO</t>
   </si>
 </sst>
 </file>
@@ -451,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAC917C-D324-4D6B-8FB1-5CF7F1023A32}">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,13 +543,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.202042</v>
+        <v>0.20502999999999999</v>
       </c>
       <c r="K2">
-        <v>0.14240700000000001</v>
+        <v>0.14474400000000001</v>
       </c>
       <c r="L2">
-        <v>0.105589</v>
+        <v>0.106452</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -587,22 +590,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J3">
-        <v>0.179755</v>
+        <v>0.182339</v>
       </c>
       <c r="K3">
-        <v>0.159391</v>
+        <v>0.16641700000000001</v>
       </c>
       <c r="L3">
-        <v>0.13320100000000001</v>
+        <v>0.13614599999999999</v>
       </c>
       <c r="M3">
-        <v>0.115818</v>
+        <v>0.114367</v>
       </c>
       <c r="N3">
-        <v>9.9441000000000002E-2</v>
+        <v>9.7772999999999999E-2</v>
       </c>
       <c r="O3">
-        <v>0.106047</v>
+        <v>0.107074</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -634,22 +637,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J4">
-        <v>0.15497900000000001</v>
+        <v>0.15781100000000001</v>
       </c>
       <c r="K4">
-        <v>0.13805700000000001</v>
+        <v>0.14512900000000001</v>
       </c>
       <c r="L4">
-        <v>0.11897099999999999</v>
+        <v>0.123167</v>
       </c>
       <c r="M4">
-        <v>0.10119300000000001</v>
+        <v>0.100047</v>
       </c>
       <c r="N4">
-        <v>8.4879999999999997E-2</v>
+        <v>8.3676E-2</v>
       </c>
       <c r="O4">
-        <v>9.2720999999999998E-2</v>
+        <v>9.4085000000000002E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -681,22 +684,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J5">
-        <v>0.13569500000000001</v>
+        <v>0.13846900000000001</v>
       </c>
       <c r="K5">
-        <v>0.12556800000000001</v>
+        <v>0.13251099999999999</v>
       </c>
       <c r="L5">
-        <v>0.110614</v>
+        <v>0.114686</v>
       </c>
       <c r="M5">
-        <v>9.5680000000000001E-2</v>
+        <v>9.4550999999999996E-2</v>
       </c>
       <c r="N5">
-        <v>8.2646999999999998E-2</v>
+        <v>8.1460000000000005E-2</v>
       </c>
       <c r="O5">
-        <v>9.0176999999999993E-2</v>
+        <v>9.1499999999999998E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -728,13 +731,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.19781299999999999</v>
+        <v>0.19703799999999999</v>
       </c>
       <c r="K6">
-        <v>0.138599</v>
+        <v>0.137736</v>
       </c>
       <c r="L6">
-        <v>0.102087</v>
+        <v>0.100858</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -775,22 +778,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J7">
-        <v>0.17321900000000001</v>
+        <v>0.17280200000000001</v>
       </c>
       <c r="K7">
-        <v>0.15443899999999999</v>
+        <v>0.155032</v>
       </c>
       <c r="L7">
-        <v>0.12821099999999999</v>
+        <v>0.12736</v>
       </c>
       <c r="M7">
-        <v>0.113036</v>
+        <v>0.110855</v>
       </c>
       <c r="N7">
-        <v>9.9250000000000005E-2</v>
+        <v>9.7049999999999997E-2</v>
       </c>
       <c r="O7">
-        <v>0.10295</v>
+        <v>0.101713</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -822,22 +825,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J8">
-        <v>0.14960499999999999</v>
+        <v>0.14943500000000001</v>
       </c>
       <c r="K8">
-        <v>0.134182</v>
+        <v>0.13484299999999999</v>
       </c>
       <c r="L8">
-        <v>0.115646</v>
+        <v>0.115174</v>
       </c>
       <c r="M8">
-        <v>0.10084799999999999</v>
+        <v>9.8919999999999994E-2</v>
       </c>
       <c r="N8">
-        <v>8.7030999999999997E-2</v>
+        <v>8.5179000000000005E-2</v>
       </c>
       <c r="O8">
-        <v>9.0997999999999996E-2</v>
+        <v>9.0018000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -869,22 +872,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J9">
-        <v>0.13039100000000001</v>
+        <v>0.13022300000000001</v>
       </c>
       <c r="K9">
-        <v>0.12174500000000001</v>
+        <v>0.122402</v>
       </c>
       <c r="L9">
-        <v>0.10734299999999999</v>
+        <v>0.10686</v>
       </c>
       <c r="M9">
-        <v>9.5330999999999999E-2</v>
+        <v>9.3435000000000004E-2</v>
       </c>
       <c r="N9">
-        <v>8.4747000000000003E-2</v>
+        <v>8.2922999999999997E-2</v>
       </c>
       <c r="O9">
-        <v>8.8484999999999994E-2</v>
+        <v>8.7521000000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -916,13 +919,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.193605</v>
+        <v>0.192472</v>
       </c>
       <c r="K10">
-        <v>0.13500200000000001</v>
+        <v>0.133856</v>
       </c>
       <c r="L10">
-        <v>9.9122000000000002E-2</v>
+        <v>9.7795999999999994E-2</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -963,22 +966,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J11">
-        <v>0.16867599999999999</v>
+        <v>0.167658</v>
       </c>
       <c r="K11">
-        <v>0.148262</v>
+        <v>0.14826300000000001</v>
       </c>
       <c r="L11">
-        <v>0.124926</v>
+        <v>0.123816</v>
       </c>
       <c r="M11">
-        <v>0.110857</v>
+        <v>0.108838</v>
       </c>
       <c r="N11">
-        <v>9.7074999999999995E-2</v>
+        <v>9.5093999999999998E-2</v>
       </c>
       <c r="O11">
-        <v>9.9918999999999994E-2</v>
+        <v>9.8583000000000004E-2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1010,22 +1013,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J12">
-        <v>0.145228</v>
+        <v>0.14441999999999999</v>
       </c>
       <c r="K12">
-        <v>0.12832499999999999</v>
+        <v>0.12847600000000001</v>
       </c>
       <c r="L12">
-        <v>0.112298</v>
+        <v>0.111543</v>
       </c>
       <c r="M12">
-        <v>9.8900000000000002E-2</v>
+        <v>9.7106999999999999E-2</v>
       </c>
       <c r="N12">
-        <v>8.4957000000000005E-2</v>
+        <v>8.3276000000000003E-2</v>
       </c>
       <c r="O12">
-        <v>8.8243000000000002E-2</v>
+        <v>8.7147000000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1057,22 +1060,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J13">
-        <v>0.12608800000000001</v>
+        <v>0.12529299999999999</v>
       </c>
       <c r="K13">
-        <v>0.116003</v>
+        <v>0.116159</v>
       </c>
       <c r="L13">
-        <v>0.10406600000000001</v>
+        <v>0.10331</v>
       </c>
       <c r="M13">
-        <v>9.3412999999999996E-2</v>
+        <v>9.1648999999999994E-2</v>
       </c>
       <c r="N13">
-        <v>8.2695000000000005E-2</v>
+        <v>8.1039E-2</v>
       </c>
       <c r="O13">
-        <v>8.5791000000000006E-2</v>
+        <v>8.4714999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1104,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.20238400000000001</v>
+        <v>0.20258899999999999</v>
       </c>
       <c r="K14">
-        <v>0.14270099999999999</v>
+        <v>0.142733</v>
       </c>
       <c r="L14">
-        <v>0.105793</v>
+        <v>0.105841</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1151,22 +1154,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J15">
-        <v>0.179755</v>
+        <v>0.182339</v>
       </c>
       <c r="K15">
-        <v>0.160303</v>
+        <v>0.16197800000000001</v>
       </c>
       <c r="L15">
-        <v>0.133714</v>
+        <v>0.13284099999999999</v>
       </c>
       <c r="M15">
-        <v>0.115818</v>
+        <v>0.114367</v>
       </c>
       <c r="N15">
-        <v>9.9441000000000002E-2</v>
+        <v>9.7772999999999999E-2</v>
       </c>
       <c r="O15">
-        <v>0.106297</v>
+        <v>0.10639700000000001</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1198,22 +1201,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J16">
-        <v>0.15497900000000001</v>
+        <v>0.15781100000000001</v>
       </c>
       <c r="K16">
-        <v>0.13905899999999999</v>
+        <v>0.14066000000000001</v>
       </c>
       <c r="L16">
-        <v>0.119728</v>
+        <v>0.118963</v>
       </c>
       <c r="M16">
-        <v>0.10119300000000001</v>
+        <v>0.100047</v>
       </c>
       <c r="N16">
-        <v>8.4879999999999997E-2</v>
+        <v>8.3676E-2</v>
       </c>
       <c r="O16">
-        <v>9.2990000000000003E-2</v>
+        <v>9.3243000000000006E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1245,22 +1248,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J17">
-        <v>0.13569500000000001</v>
+        <v>0.13846900000000001</v>
       </c>
       <c r="K17">
-        <v>0.126527</v>
+        <v>0.12809400000000001</v>
       </c>
       <c r="L17">
-        <v>0.111343</v>
+        <v>0.110592</v>
       </c>
       <c r="M17">
-        <v>9.5680000000000001E-2</v>
+        <v>9.4550999999999996E-2</v>
       </c>
       <c r="N17">
-        <v>8.2646999999999998E-2</v>
+        <v>8.1460000000000005E-2</v>
       </c>
       <c r="O17">
-        <v>9.0438000000000004E-2</v>
+        <v>9.0681999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1292,13 +1295,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.19717699999999999</v>
+        <v>0.19558</v>
       </c>
       <c r="K18">
-        <v>0.13806099999999999</v>
+        <v>0.13653299999999999</v>
       </c>
       <c r="L18">
-        <v>0.101712</v>
+        <v>0.100381</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1339,22 +1342,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J19">
-        <v>0.17321900000000001</v>
+        <v>0.17280200000000001</v>
       </c>
       <c r="K19">
-        <v>0.15276999999999999</v>
+        <v>0.15191099999999999</v>
       </c>
       <c r="L19">
-        <v>0.12728900000000001</v>
+        <v>0.125307</v>
       </c>
       <c r="M19">
-        <v>0.113036</v>
+        <v>0.110855</v>
       </c>
       <c r="N19">
-        <v>9.9250000000000005E-2</v>
+        <v>9.7049999999999997E-2</v>
       </c>
       <c r="O19">
-        <v>0.102511</v>
+        <v>0.10118099999999999</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1386,22 +1389,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J20">
-        <v>0.14960499999999999</v>
+        <v>0.14943500000000001</v>
       </c>
       <c r="K20">
-        <v>0.13238900000000001</v>
+        <v>0.131637</v>
       </c>
       <c r="L20">
-        <v>0.114306</v>
+        <v>0.11248</v>
       </c>
       <c r="M20">
-        <v>0.10084799999999999</v>
+        <v>9.8919999999999994E-2</v>
       </c>
       <c r="N20">
-        <v>8.7030999999999997E-2</v>
+        <v>8.5179000000000005E-2</v>
       </c>
       <c r="O20">
-        <v>9.0537000000000006E-2</v>
+        <v>8.9426000000000005E-2</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1433,22 +1436,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J21">
-        <v>0.13039100000000001</v>
+        <v>0.13022300000000001</v>
       </c>
       <c r="K21">
-        <v>0.11998</v>
+        <v>0.11924</v>
       </c>
       <c r="L21">
-        <v>0.106027</v>
+        <v>0.10423200000000001</v>
       </c>
       <c r="M21">
-        <v>9.5330999999999999E-2</v>
+        <v>9.3435000000000004E-2</v>
       </c>
       <c r="N21">
-        <v>8.4747000000000003E-2</v>
+        <v>8.2922999999999997E-2</v>
       </c>
       <c r="O21">
-        <v>8.8031999999999999E-2</v>
+        <v>8.6943999999999994E-2</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1480,13 +1483,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.19315199999999999</v>
+        <v>0.19141</v>
       </c>
       <c r="K22">
-        <v>0.13461699999999999</v>
+        <v>0.13298099999999999</v>
       </c>
       <c r="L22">
-        <v>9.8848000000000005E-2</v>
+        <v>9.7416000000000003E-2</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1527,22 +1530,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J23">
-        <v>0.16867599999999999</v>
+        <v>0.167658</v>
       </c>
       <c r="K23">
-        <v>0.147064</v>
+        <v>0.14582000000000001</v>
       </c>
       <c r="L23">
-        <v>0.12427100000000001</v>
+        <v>0.122347</v>
       </c>
       <c r="M23">
-        <v>0.110857</v>
+        <v>0.108838</v>
       </c>
       <c r="N23">
-        <v>9.7074999999999995E-2</v>
+        <v>9.5093999999999998E-2</v>
       </c>
       <c r="O23">
-        <v>9.9596000000000004E-2</v>
+        <v>9.8154000000000005E-2</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1574,22 +1577,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J24">
-        <v>0.145228</v>
+        <v>0.14441999999999999</v>
       </c>
       <c r="K24">
-        <v>0.127057</v>
+        <v>0.12593799999999999</v>
       </c>
       <c r="L24">
-        <v>0.111357</v>
+        <v>0.109585</v>
       </c>
       <c r="M24">
-        <v>9.8900000000000002E-2</v>
+        <v>9.7106999999999999E-2</v>
       </c>
       <c r="N24">
-        <v>8.4957000000000005E-2</v>
+        <v>8.3276000000000003E-2</v>
       </c>
       <c r="O24">
-        <v>8.7902999999999995E-2</v>
+        <v>8.6673E-2</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1621,22 +1624,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J25">
-        <v>0.12608800000000001</v>
+        <v>0.12529299999999999</v>
       </c>
       <c r="K25">
-        <v>0.114757</v>
+        <v>0.11365699999999999</v>
       </c>
       <c r="L25">
-        <v>0.103141</v>
+        <v>0.101399</v>
       </c>
       <c r="M25">
-        <v>9.3412999999999996E-2</v>
+        <v>9.1648999999999994E-2</v>
       </c>
       <c r="N25">
-        <v>8.2695000000000005E-2</v>
+        <v>8.1039E-2</v>
       </c>
       <c r="O25">
-        <v>8.5457000000000005E-2</v>
+        <v>8.4251999999999994E-2</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1668,13 +1671,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.20266899999999999</v>
+        <v>0.20194699999999999</v>
       </c>
       <c r="K26">
-        <v>0.14294299999999999</v>
+        <v>0.14215800000000001</v>
       </c>
       <c r="L26">
-        <v>0.106057</v>
+        <v>0.105365</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -1715,22 +1718,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J27">
-        <v>0.18048600000000001</v>
+        <v>0.18049899999999999</v>
       </c>
       <c r="K27">
-        <v>0.16066800000000001</v>
+        <v>0.16075700000000001</v>
       </c>
       <c r="L27">
-        <v>0.133714</v>
+        <v>0.13284099999999999</v>
       </c>
       <c r="M27">
-        <v>0.115818</v>
+        <v>0.114367</v>
       </c>
       <c r="N27">
-        <v>9.9441000000000002E-2</v>
+        <v>9.7772999999999999E-2</v>
       </c>
       <c r="O27">
-        <v>0.106601</v>
+        <v>0.10589800000000001</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -1762,22 +1765,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J28">
-        <v>0.15579499999999999</v>
+        <v>0.155858</v>
       </c>
       <c r="K28">
-        <v>0.139372</v>
+        <v>0.13941000000000001</v>
       </c>
       <c r="L28">
-        <v>0.119728</v>
+        <v>0.118963</v>
       </c>
       <c r="M28">
-        <v>0.10119300000000001</v>
+        <v>0.100047</v>
       </c>
       <c r="N28">
-        <v>8.4879999999999997E-2</v>
+        <v>8.3676E-2</v>
       </c>
       <c r="O28">
-        <v>9.3265000000000001E-2</v>
+        <v>9.2767000000000002E-2</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -1809,22 +1812,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J29">
-        <v>0.13647500000000001</v>
+        <v>0.13653599999999999</v>
       </c>
       <c r="K29">
-        <v>0.12682299999999999</v>
+        <v>0.12686</v>
       </c>
       <c r="L29">
-        <v>0.111343</v>
+        <v>0.110592</v>
       </c>
       <c r="M29">
-        <v>9.5680000000000001E-2</v>
+        <v>9.4550999999999996E-2</v>
       </c>
       <c r="N29">
-        <v>8.2646999999999998E-2</v>
+        <v>8.1460000000000005E-2</v>
       </c>
       <c r="O29">
-        <v>9.0704999999999994E-2</v>
+        <v>9.0217000000000006E-2</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -1856,13 +1859,13 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.19655</v>
+        <v>0.194496</v>
       </c>
       <c r="K30">
-        <v>0.13750599999999999</v>
+        <v>0.135576</v>
       </c>
       <c r="L30">
-        <v>0.10127</v>
+        <v>9.9571999999999994E-2</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -1903,22 +1906,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J31">
-        <v>0.17143900000000001</v>
+        <v>0.169762</v>
       </c>
       <c r="K31">
-        <v>0.15166199999999999</v>
+        <v>0.150032</v>
       </c>
       <c r="L31">
-        <v>0.12728900000000001</v>
+        <v>0.125307</v>
       </c>
       <c r="M31">
-        <v>0.113036</v>
+        <v>0.110855</v>
       </c>
       <c r="N31">
-        <v>9.9250000000000005E-2</v>
+        <v>9.7049999999999997E-2</v>
       </c>
       <c r="O31">
-        <v>0.10203</v>
+        <v>0.1003</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -1950,22 +1953,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J32">
-        <v>0.14769299999999999</v>
+        <v>0.146173</v>
       </c>
       <c r="K32">
-        <v>0.131271</v>
+        <v>0.12976299999999999</v>
       </c>
       <c r="L32">
-        <v>0.114306</v>
+        <v>0.11248</v>
       </c>
       <c r="M32">
-        <v>0.10084799999999999</v>
+        <v>9.8919999999999994E-2</v>
       </c>
       <c r="N32">
-        <v>8.7030999999999997E-2</v>
+        <v>8.5179000000000005E-2</v>
       </c>
       <c r="O32">
-        <v>9.0080999999999994E-2</v>
+        <v>8.8596999999999995E-2</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -1997,22 +2000,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J33">
-        <v>0.12850800000000001</v>
+        <v>0.12701799999999999</v>
       </c>
       <c r="K33">
-        <v>0.118879</v>
+        <v>0.117397</v>
       </c>
       <c r="L33">
-        <v>0.106027</v>
+        <v>0.10423200000000001</v>
       </c>
       <c r="M33">
-        <v>9.5330999999999999E-2</v>
+        <v>9.3435000000000004E-2</v>
       </c>
       <c r="N33">
-        <v>8.4747000000000003E-2</v>
+        <v>8.2922999999999997E-2</v>
       </c>
       <c r="O33">
-        <v>8.7585999999999997E-2</v>
+        <v>8.6133000000000001E-2</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2044,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.192804</v>
+        <v>0.19078700000000001</v>
       </c>
       <c r="K34">
-        <v>0.13431999999999999</v>
+        <v>0.13244</v>
       </c>
       <c r="L34">
-        <v>9.8624000000000003E-2</v>
+        <v>9.6969E-2</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2091,22 +2094,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J35">
-        <v>0.16769800000000001</v>
+        <v>0.16591400000000001</v>
       </c>
       <c r="K35">
-        <v>0.14647399999999999</v>
+        <v>0.144764</v>
       </c>
       <c r="L35">
-        <v>0.12427100000000001</v>
+        <v>0.122347</v>
       </c>
       <c r="M35">
-        <v>0.110857</v>
+        <v>0.108838</v>
       </c>
       <c r="N35">
-        <v>9.7074999999999995E-2</v>
+        <v>9.5093999999999998E-2</v>
       </c>
       <c r="O35">
-        <v>9.9360000000000004E-2</v>
+        <v>9.7674999999999998E-2</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2138,22 +2141,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J36">
-        <v>0.14421100000000001</v>
+        <v>0.14258499999999999</v>
       </c>
       <c r="K36">
-        <v>0.12647600000000001</v>
+        <v>0.124903</v>
       </c>
       <c r="L36">
-        <v>0.111357</v>
+        <v>0.109585</v>
       </c>
       <c r="M36">
-        <v>9.8900000000000002E-2</v>
+        <v>9.7106999999999999E-2</v>
       </c>
       <c r="N36">
-        <v>8.4957000000000005E-2</v>
+        <v>8.3276000000000003E-2</v>
       </c>
       <c r="O36">
-        <v>8.7682999999999997E-2</v>
+        <v>8.6225999999999997E-2</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2185,22 +2188,586 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J37">
-        <v>0.125086</v>
+        <v>0.123491</v>
       </c>
       <c r="K37">
-        <v>0.11418499999999999</v>
+        <v>0.112639</v>
       </c>
       <c r="L37">
-        <v>0.103141</v>
+        <v>0.101399</v>
       </c>
       <c r="M37">
-        <v>9.3412999999999996E-2</v>
+        <v>9.1648999999999994E-2</v>
       </c>
       <c r="N37">
-        <v>8.2695000000000005E-2</v>
+        <v>8.1039E-2</v>
       </c>
       <c r="O37">
-        <v>8.5241999999999998E-2</v>
+        <v>8.3814E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>25.391660000000002</v>
+      </c>
+      <c r="E38">
+        <v>0.96884999999999999</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0.20060900000000001</v>
+      </c>
+      <c r="K38">
+        <v>0.14105500000000001</v>
+      </c>
+      <c r="L38">
+        <v>0.104462</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>15.713050000000001</v>
+      </c>
+      <c r="E39">
+        <v>9.5470400000000009</v>
+      </c>
+      <c r="F39">
+        <v>4.6582100000000004</v>
+      </c>
+      <c r="G39">
+        <v>4.1425599999999996</v>
+      </c>
+      <c r="H39">
+        <v>2.2852100000000002</v>
+      </c>
+      <c r="I39">
+        <v>1.5536399999999999</v>
+      </c>
+      <c r="J39">
+        <v>0.176672</v>
+      </c>
+      <c r="K39">
+        <v>0.15868299999999999</v>
+      </c>
+      <c r="L39">
+        <v>0.13284099999999999</v>
+      </c>
+      <c r="M39">
+        <v>0.114367</v>
+      </c>
+      <c r="N39">
+        <v>9.7772999999999999E-2</v>
+      </c>
+      <c r="O39">
+        <v>0.104979</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>24.41441</v>
+      </c>
+      <c r="E40">
+        <v>14.692909999999999</v>
+      </c>
+      <c r="F40">
+        <v>11.32864</v>
+      </c>
+      <c r="G40">
+        <v>9.2507599999999996</v>
+      </c>
+      <c r="H40">
+        <v>1.72753</v>
+      </c>
+      <c r="I40">
+        <v>0.96789999999999998</v>
+      </c>
+      <c r="J40">
+        <v>0.15212400000000001</v>
+      </c>
+      <c r="K40">
+        <v>0.13758799999999999</v>
+      </c>
+      <c r="L40">
+        <v>0.118963</v>
+      </c>
+      <c r="M40">
+        <v>0.100047</v>
+      </c>
+      <c r="N40">
+        <v>8.3676E-2</v>
+      </c>
+      <c r="O40">
+        <v>9.1884999999999994E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>12.287599999999999</v>
+      </c>
+      <c r="E41">
+        <v>9.88476</v>
+      </c>
+      <c r="F41">
+        <v>6.4391999999999996</v>
+      </c>
+      <c r="G41">
+        <v>5.49465</v>
+      </c>
+      <c r="H41">
+        <v>1.0620000000000001</v>
+      </c>
+      <c r="I41">
+        <v>0.61592999999999998</v>
+      </c>
+      <c r="J41">
+        <v>0.13287399999999999</v>
+      </c>
+      <c r="K41">
+        <v>0.12507099999999999</v>
+      </c>
+      <c r="L41">
+        <v>0.110592</v>
+      </c>
+      <c r="M41">
+        <v>9.4550999999999996E-2</v>
+      </c>
+      <c r="N41">
+        <v>8.1460000000000005E-2</v>
+      </c>
+      <c r="O41">
+        <v>8.9356000000000005E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42">
+        <v>24</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>25.391660000000002</v>
+      </c>
+      <c r="E42">
+        <v>0.96884999999999999</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0.193777</v>
+      </c>
+      <c r="K42">
+        <v>0.13500899999999999</v>
+      </c>
+      <c r="L42">
+        <v>9.9084000000000005E-2</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>15.713050000000001</v>
+      </c>
+      <c r="E43">
+        <v>9.5470400000000009</v>
+      </c>
+      <c r="F43">
+        <v>4.6582100000000004</v>
+      </c>
+      <c r="G43">
+        <v>4.1425599999999996</v>
+      </c>
+      <c r="H43">
+        <v>2.2852100000000002</v>
+      </c>
+      <c r="I43">
+        <v>1.5536399999999999</v>
+      </c>
+      <c r="J43">
+        <v>0.16775100000000001</v>
+      </c>
+      <c r="K43">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="L43">
+        <v>0.125307</v>
+      </c>
+      <c r="M43">
+        <v>0.110855</v>
+      </c>
+      <c r="N43">
+        <v>9.7049999999999997E-2</v>
+      </c>
+      <c r="O43">
+        <v>9.9807999999999994E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>24.41441</v>
+      </c>
+      <c r="E44">
+        <v>14.692909999999999</v>
+      </c>
+      <c r="F44">
+        <v>11.32864</v>
+      </c>
+      <c r="G44">
+        <v>9.2507599999999996</v>
+      </c>
+      <c r="H44">
+        <v>1.72753</v>
+      </c>
+      <c r="I44">
+        <v>0.96789999999999998</v>
+      </c>
+      <c r="J44">
+        <v>0.14418800000000001</v>
+      </c>
+      <c r="K44">
+        <v>0.128853</v>
+      </c>
+      <c r="L44">
+        <v>0.11248</v>
+      </c>
+      <c r="M44">
+        <v>9.8919999999999994E-2</v>
+      </c>
+      <c r="N44">
+        <v>8.5179000000000005E-2</v>
+      </c>
+      <c r="O44">
+        <v>8.8119000000000003E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <v>24</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>12.287599999999999</v>
+      </c>
+      <c r="E45">
+        <v>9.88476</v>
+      </c>
+      <c r="F45">
+        <v>6.4391999999999996</v>
+      </c>
+      <c r="G45">
+        <v>5.49465</v>
+      </c>
+      <c r="H45">
+        <v>1.0620000000000001</v>
+      </c>
+      <c r="I45">
+        <v>0.61592999999999998</v>
+      </c>
+      <c r="J45">
+        <v>0.12506900000000001</v>
+      </c>
+      <c r="K45">
+        <v>0.116504</v>
+      </c>
+      <c r="L45">
+        <v>0.10423200000000001</v>
+      </c>
+      <c r="M45">
+        <v>9.3435000000000004E-2</v>
+      </c>
+      <c r="N45">
+        <v>8.2922999999999997E-2</v>
+      </c>
+      <c r="O45">
+        <v>8.5668999999999995E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <v>36</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>25.391660000000002</v>
+      </c>
+      <c r="E46">
+        <v>0.96884999999999999</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0.18990199999999999</v>
+      </c>
+      <c r="K46">
+        <v>0.13183500000000001</v>
+      </c>
+      <c r="L46">
+        <v>9.6862000000000004E-2</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47">
+        <v>36</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>15.713050000000001</v>
+      </c>
+      <c r="E47">
+        <v>9.5470400000000009</v>
+      </c>
+      <c r="F47">
+        <v>4.6582100000000004</v>
+      </c>
+      <c r="G47">
+        <v>4.1425599999999996</v>
+      </c>
+      <c r="H47">
+        <v>2.2852100000000002</v>
+      </c>
+      <c r="I47">
+        <v>1.5536399999999999</v>
+      </c>
+      <c r="J47">
+        <v>0.163857</v>
+      </c>
+      <c r="K47">
+        <v>0.14405499999999999</v>
+      </c>
+      <c r="L47">
+        <v>0.122347</v>
+      </c>
+      <c r="M47">
+        <v>0.108838</v>
+      </c>
+      <c r="N47">
+        <v>9.5093999999999998E-2</v>
+      </c>
+      <c r="O47">
+        <v>9.7601999999999994E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48">
+        <v>36</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>24.41441</v>
+      </c>
+      <c r="E48">
+        <v>14.692909999999999</v>
+      </c>
+      <c r="F48">
+        <v>11.32864</v>
+      </c>
+      <c r="G48">
+        <v>9.2507599999999996</v>
+      </c>
+      <c r="H48">
+        <v>1.72753</v>
+      </c>
+      <c r="I48">
+        <v>0.96789999999999998</v>
+      </c>
+      <c r="J48">
+        <v>0.140684</v>
+      </c>
+      <c r="K48">
+        <v>0.124386</v>
+      </c>
+      <c r="L48">
+        <v>0.109585</v>
+      </c>
+      <c r="M48">
+        <v>9.7106999999999999E-2</v>
+      </c>
+      <c r="N48">
+        <v>8.3276000000000003E-2</v>
+      </c>
+      <c r="O48">
+        <v>8.6173E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49">
+        <v>36</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>12.287599999999999</v>
+      </c>
+      <c r="E49">
+        <v>9.88476</v>
+      </c>
+      <c r="F49">
+        <v>6.4391999999999996</v>
+      </c>
+      <c r="G49">
+        <v>5.49465</v>
+      </c>
+      <c r="H49">
+        <v>1.0620000000000001</v>
+      </c>
+      <c r="I49">
+        <v>0.61592999999999998</v>
+      </c>
+      <c r="J49">
+        <v>0.121631</v>
+      </c>
+      <c r="K49">
+        <v>0.112137</v>
+      </c>
+      <c r="L49">
+        <v>0.101399</v>
+      </c>
+      <c r="M49">
+        <v>9.1648999999999994E-2</v>
+      </c>
+      <c r="N49">
+        <v>8.1039E-2</v>
+      </c>
+      <c r="O49">
+        <v>8.3768999999999996E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\PRECIOS CALCULADORA GALP LEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8793AB23-7ACD-4F26-A7E0-F287C83B47DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACF5D07-8224-4D0F-A0AE-2162BF35DE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3350A494-7D0F-4E24-96BD-512094F7438F}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,13 +543,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.20502999999999999</v>
+        <v>0.20848900000000001</v>
       </c>
       <c r="K2">
-        <v>0.14474400000000001</v>
+        <v>0.147811</v>
       </c>
       <c r="L2">
-        <v>0.106452</v>
+        <v>0.10902299999999999</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -590,22 +590,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J3">
-        <v>0.182339</v>
+        <v>0.18532000000000001</v>
       </c>
       <c r="K3">
-        <v>0.16641700000000001</v>
+        <v>0.17178299999999999</v>
       </c>
       <c r="L3">
-        <v>0.13614599999999999</v>
+        <v>0.13969599999999999</v>
       </c>
       <c r="M3">
-        <v>0.114367</v>
+        <v>0.115941</v>
       </c>
       <c r="N3">
-        <v>9.7772999999999999E-2</v>
+        <v>9.9100999999999995E-2</v>
       </c>
       <c r="O3">
-        <v>0.107074</v>
+        <v>0.10981</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -637,22 +637,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J4">
-        <v>0.15781100000000001</v>
+        <v>0.16067699999999999</v>
       </c>
       <c r="K4">
-        <v>0.14512900000000001</v>
+        <v>0.15043200000000001</v>
       </c>
       <c r="L4">
-        <v>0.123167</v>
+        <v>0.12721099999999999</v>
       </c>
       <c r="M4">
-        <v>0.100047</v>
+        <v>0.101437</v>
       </c>
       <c r="N4">
-        <v>8.3676E-2</v>
+        <v>8.4832000000000005E-2</v>
       </c>
       <c r="O4">
-        <v>9.4085000000000002E-2</v>
+        <v>9.6638000000000002E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -684,22 +684,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J5">
-        <v>0.13846900000000001</v>
+        <v>0.14127899999999999</v>
       </c>
       <c r="K5">
-        <v>0.13251099999999999</v>
+        <v>0.13771900000000001</v>
       </c>
       <c r="L5">
-        <v>0.114686</v>
+        <v>0.118654</v>
       </c>
       <c r="M5">
-        <v>9.4550999999999996E-2</v>
+        <v>9.5919000000000004E-2</v>
       </c>
       <c r="N5">
-        <v>8.1460000000000005E-2</v>
+        <v>8.2599000000000006E-2</v>
       </c>
       <c r="O5">
-        <v>9.1499999999999998E-2</v>
+        <v>9.3998999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -731,13 +731,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.19703799999999999</v>
+        <v>0.19903299999999999</v>
       </c>
       <c r="K6">
-        <v>0.137736</v>
+        <v>0.13950699999999999</v>
       </c>
       <c r="L6">
-        <v>0.100858</v>
+        <v>0.10235</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -778,22 +778,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J7">
-        <v>0.17280200000000001</v>
+        <v>0.17461099999999999</v>
       </c>
       <c r="K7">
-        <v>0.155032</v>
+        <v>0.158133</v>
       </c>
       <c r="L7">
-        <v>0.12736</v>
+        <v>0.12934200000000001</v>
       </c>
       <c r="M7">
-        <v>0.110855</v>
+        <v>0.111794</v>
       </c>
       <c r="N7">
-        <v>9.7049999999999997E-2</v>
+        <v>9.7865999999999995E-2</v>
       </c>
       <c r="O7">
-        <v>0.101713</v>
+        <v>0.10330300000000001</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -825,22 +825,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J8">
-        <v>0.14943500000000001</v>
+        <v>0.15118699999999999</v>
       </c>
       <c r="K8">
-        <v>0.13484299999999999</v>
+        <v>0.13793</v>
       </c>
       <c r="L8">
-        <v>0.115174</v>
+        <v>0.117449</v>
       </c>
       <c r="M8">
-        <v>9.8919999999999994E-2</v>
+        <v>9.9753999999999995E-2</v>
       </c>
       <c r="N8">
-        <v>8.5179000000000005E-2</v>
+        <v>8.5891999999999996E-2</v>
       </c>
       <c r="O8">
-        <v>9.0018000000000001E-2</v>
+        <v>9.1504000000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -872,22 +872,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J9">
-        <v>0.13022300000000001</v>
+        <v>0.131941</v>
       </c>
       <c r="K9">
-        <v>0.122402</v>
+        <v>0.12543299999999999</v>
       </c>
       <c r="L9">
-        <v>0.10686</v>
+        <v>0.10909199999999999</v>
       </c>
       <c r="M9">
-        <v>9.3435000000000004E-2</v>
+        <v>9.4255000000000005E-2</v>
       </c>
       <c r="N9">
-        <v>8.2922999999999997E-2</v>
+        <v>8.3625000000000005E-2</v>
       </c>
       <c r="O9">
-        <v>8.7521000000000002E-2</v>
+        <v>8.8973999999999998E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -919,13 +919,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.192472</v>
+        <v>0.19339100000000001</v>
       </c>
       <c r="K10">
-        <v>0.133856</v>
+        <v>0.134658</v>
       </c>
       <c r="L10">
-        <v>9.7795999999999994E-2</v>
+        <v>9.8452999999999999E-2</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -966,22 +966,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J11">
-        <v>0.167658</v>
+        <v>0.168515</v>
       </c>
       <c r="K11">
-        <v>0.14826300000000001</v>
+        <v>0.15001600000000001</v>
       </c>
       <c r="L11">
-        <v>0.123816</v>
+        <v>0.124706</v>
       </c>
       <c r="M11">
-        <v>0.108838</v>
+        <v>0.109051</v>
       </c>
       <c r="N11">
-        <v>9.5093999999999998E-2</v>
+        <v>9.5280000000000004E-2</v>
       </c>
       <c r="O11">
-        <v>9.8583000000000004E-2</v>
+        <v>9.9307000000000006E-2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1013,22 +1013,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J12">
-        <v>0.14441999999999999</v>
+        <v>0.145287</v>
       </c>
       <c r="K12">
-        <v>0.12847600000000001</v>
+        <v>0.13026299999999999</v>
       </c>
       <c r="L12">
-        <v>0.111543</v>
+        <v>0.112676</v>
       </c>
       <c r="M12">
-        <v>9.7106999999999999E-2</v>
+        <v>9.7287999999999999E-2</v>
       </c>
       <c r="N12">
-        <v>8.3276000000000003E-2</v>
+        <v>8.3434999999999995E-2</v>
       </c>
       <c r="O12">
-        <v>8.7147000000000002E-2</v>
+        <v>8.7845999999999994E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1060,22 +1060,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J13">
-        <v>0.12529299999999999</v>
+        <v>0.12614400000000001</v>
       </c>
       <c r="K13">
-        <v>0.116159</v>
+        <v>0.11791500000000001</v>
       </c>
       <c r="L13">
-        <v>0.10331</v>
+        <v>0.104422</v>
       </c>
       <c r="M13">
-        <v>9.1648999999999994E-2</v>
+        <v>9.1828000000000007E-2</v>
       </c>
       <c r="N13">
-        <v>8.1039E-2</v>
+        <v>8.1196000000000004E-2</v>
       </c>
       <c r="O13">
-        <v>8.4714999999999999E-2</v>
+        <v>8.5398000000000002E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.20258899999999999</v>
+        <v>0.20483000000000001</v>
       </c>
       <c r="K14">
-        <v>0.142733</v>
+        <v>0.14476800000000001</v>
       </c>
       <c r="L14">
-        <v>0.105841</v>
+        <v>0.107637</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1154,22 +1154,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J15">
-        <v>0.182339</v>
+        <v>0.18532000000000001</v>
       </c>
       <c r="K15">
-        <v>0.16197800000000001</v>
+        <v>0.16445899999999999</v>
       </c>
       <c r="L15">
-        <v>0.13284099999999999</v>
+        <v>0.13464300000000001</v>
       </c>
       <c r="M15">
-        <v>0.114367</v>
+        <v>0.115941</v>
       </c>
       <c r="N15">
-        <v>9.7772999999999999E-2</v>
+        <v>9.9100999999999995E-2</v>
       </c>
       <c r="O15">
-        <v>0.10639700000000001</v>
+        <v>0.10822900000000001</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1201,22 +1201,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J16">
-        <v>0.15781100000000001</v>
+        <v>0.16067699999999999</v>
       </c>
       <c r="K16">
-        <v>0.14066000000000001</v>
+        <v>0.14294599999999999</v>
       </c>
       <c r="L16">
-        <v>0.118963</v>
+        <v>0.120591</v>
       </c>
       <c r="M16">
-        <v>0.100047</v>
+        <v>0.101437</v>
       </c>
       <c r="N16">
-        <v>8.3676E-2</v>
+        <v>8.4832000000000005E-2</v>
       </c>
       <c r="O16">
-        <v>9.3243000000000006E-2</v>
+        <v>9.4854999999999995E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1248,22 +1248,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J17">
-        <v>0.13846900000000001</v>
+        <v>0.14127899999999999</v>
       </c>
       <c r="K17">
-        <v>0.12809400000000001</v>
+        <v>0.13033600000000001</v>
       </c>
       <c r="L17">
-        <v>0.110592</v>
+        <v>0.112191</v>
       </c>
       <c r="M17">
-        <v>9.4550999999999996E-2</v>
+        <v>9.5919000000000004E-2</v>
       </c>
       <c r="N17">
-        <v>8.1460000000000005E-2</v>
+        <v>8.2599000000000006E-2</v>
       </c>
       <c r="O17">
-        <v>9.0681999999999999E-2</v>
+        <v>9.2260999999999996E-2</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1295,13 +1295,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.19558</v>
+        <v>0.19692299999999999</v>
       </c>
       <c r="K18">
-        <v>0.13653299999999999</v>
+        <v>0.13775200000000001</v>
       </c>
       <c r="L18">
-        <v>0.100381</v>
+        <v>0.101453</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J19">
-        <v>0.17280200000000001</v>
+        <v>0.17461099999999999</v>
       </c>
       <c r="K19">
-        <v>0.15191099999999999</v>
+        <v>0.15340100000000001</v>
       </c>
       <c r="L19">
-        <v>0.125307</v>
+        <v>0.12634999999999999</v>
       </c>
       <c r="M19">
-        <v>0.110855</v>
+        <v>0.111794</v>
       </c>
       <c r="N19">
-        <v>9.7049999999999997E-2</v>
+        <v>9.7865999999999995E-2</v>
       </c>
       <c r="O19">
-        <v>0.10118099999999999</v>
+        <v>0.10227799999999999</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1389,22 +1389,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J20">
-        <v>0.14943500000000001</v>
+        <v>0.15118699999999999</v>
       </c>
       <c r="K20">
-        <v>0.131637</v>
+        <v>0.13301399999999999</v>
       </c>
       <c r="L20">
-        <v>0.11248</v>
+        <v>0.113425</v>
       </c>
       <c r="M20">
-        <v>9.8919999999999994E-2</v>
+        <v>9.9753999999999995E-2</v>
       </c>
       <c r="N20">
-        <v>8.5179000000000005E-2</v>
+        <v>8.5891999999999996E-2</v>
       </c>
       <c r="O20">
-        <v>8.9426000000000005E-2</v>
+        <v>9.0396000000000004E-2</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1436,22 +1436,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J21">
-        <v>0.13022300000000001</v>
+        <v>0.131941</v>
       </c>
       <c r="K21">
-        <v>0.11924</v>
+        <v>0.120591</v>
       </c>
       <c r="L21">
-        <v>0.10423200000000001</v>
+        <v>0.105161</v>
       </c>
       <c r="M21">
-        <v>9.3435000000000004E-2</v>
+        <v>9.4255000000000005E-2</v>
       </c>
       <c r="N21">
-        <v>8.2922999999999997E-2</v>
+        <v>8.3625000000000005E-2</v>
       </c>
       <c r="O21">
-        <v>8.6943999999999994E-2</v>
+        <v>8.7891999999999998E-2</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1483,13 +1483,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.19141</v>
+        <v>0.19187299999999999</v>
       </c>
       <c r="K22">
-        <v>0.13298099999999999</v>
+        <v>0.13339599999999999</v>
       </c>
       <c r="L22">
-        <v>9.7416000000000003E-2</v>
+        <v>9.7776000000000002E-2</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1530,22 +1530,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J23">
-        <v>0.167658</v>
+        <v>0.168515</v>
       </c>
       <c r="K23">
-        <v>0.14582000000000001</v>
+        <v>0.146426</v>
       </c>
       <c r="L23">
-        <v>0.122347</v>
+        <v>0.122584</v>
       </c>
       <c r="M23">
-        <v>0.108838</v>
+        <v>0.109051</v>
       </c>
       <c r="N23">
-        <v>9.5093999999999998E-2</v>
+        <v>9.5280000000000004E-2</v>
       </c>
       <c r="O23">
-        <v>9.8154000000000005E-2</v>
+        <v>9.8528000000000004E-2</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1577,22 +1577,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J24">
-        <v>0.14441999999999999</v>
+        <v>0.145287</v>
       </c>
       <c r="K24">
-        <v>0.12593799999999999</v>
+        <v>0.12650700000000001</v>
       </c>
       <c r="L24">
-        <v>0.109585</v>
+        <v>0.10978599999999999</v>
       </c>
       <c r="M24">
-        <v>9.7106999999999999E-2</v>
+        <v>9.7287999999999999E-2</v>
       </c>
       <c r="N24">
-        <v>8.3276000000000003E-2</v>
+        <v>8.3434999999999995E-2</v>
       </c>
       <c r="O24">
-        <v>8.6673E-2</v>
+        <v>8.7006E-2</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1624,22 +1624,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J25">
-        <v>0.12529299999999999</v>
+        <v>0.12614400000000001</v>
       </c>
       <c r="K25">
-        <v>0.11365699999999999</v>
+        <v>0.114214</v>
       </c>
       <c r="L25">
-        <v>0.101399</v>
+        <v>0.10159700000000001</v>
       </c>
       <c r="M25">
-        <v>9.1648999999999994E-2</v>
+        <v>9.1828000000000007E-2</v>
       </c>
       <c r="N25">
-        <v>8.1039E-2</v>
+        <v>8.1196000000000004E-2</v>
       </c>
       <c r="O25">
-        <v>8.4251999999999994E-2</v>
+        <v>8.4578E-2</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1671,13 +1671,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.20194699999999999</v>
+        <v>0.20386799999999999</v>
       </c>
       <c r="K26">
-        <v>0.14215800000000001</v>
+        <v>0.14390900000000001</v>
       </c>
       <c r="L26">
-        <v>0.105365</v>
+        <v>0.106904</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -1718,22 +1718,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J27">
-        <v>0.18049899999999999</v>
+        <v>0.18259400000000001</v>
       </c>
       <c r="K27">
-        <v>0.16075700000000001</v>
+        <v>0.162691</v>
       </c>
       <c r="L27">
-        <v>0.13284099999999999</v>
+        <v>0.13464300000000001</v>
       </c>
       <c r="M27">
-        <v>0.114367</v>
+        <v>0.115941</v>
       </c>
       <c r="N27">
-        <v>9.7772999999999999E-2</v>
+        <v>9.9100999999999995E-2</v>
       </c>
       <c r="O27">
-        <v>0.10589800000000001</v>
+        <v>0.10745</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -1765,22 +1765,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J28">
-        <v>0.155858</v>
+        <v>0.157776</v>
       </c>
       <c r="K28">
-        <v>0.13941000000000001</v>
+        <v>0.14115800000000001</v>
       </c>
       <c r="L28">
-        <v>0.118963</v>
+        <v>0.120591</v>
       </c>
       <c r="M28">
-        <v>0.100047</v>
+        <v>0.101437</v>
       </c>
       <c r="N28">
-        <v>8.3676E-2</v>
+        <v>8.4832000000000005E-2</v>
       </c>
       <c r="O28">
-        <v>9.2767000000000002E-2</v>
+        <v>9.4118999999999994E-2</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -1812,22 +1812,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J29">
-        <v>0.13653599999999999</v>
+        <v>0.13841899999999999</v>
       </c>
       <c r="K29">
-        <v>0.12686</v>
+        <v>0.128576</v>
       </c>
       <c r="L29">
-        <v>0.110592</v>
+        <v>0.112191</v>
       </c>
       <c r="M29">
-        <v>9.4550999999999996E-2</v>
+        <v>9.5919000000000004E-2</v>
       </c>
       <c r="N29">
-        <v>8.1460000000000005E-2</v>
+        <v>8.2599000000000006E-2</v>
       </c>
       <c r="O29">
-        <v>9.0217000000000006E-2</v>
+        <v>9.1539999999999996E-2</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -1859,13 +1859,13 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.194496</v>
+        <v>0.19562599999999999</v>
       </c>
       <c r="K30">
-        <v>0.135576</v>
+        <v>0.13660700000000001</v>
       </c>
       <c r="L30">
-        <v>9.9571999999999994E-2</v>
+        <v>0.10047399999999999</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -1906,22 +1906,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J31">
-        <v>0.169762</v>
+        <v>0.170982</v>
       </c>
       <c r="K31">
-        <v>0.150032</v>
+        <v>0.15116099999999999</v>
       </c>
       <c r="L31">
-        <v>0.125307</v>
+        <v>0.12634999999999999</v>
       </c>
       <c r="M31">
-        <v>0.110855</v>
+        <v>0.111794</v>
       </c>
       <c r="N31">
-        <v>9.7049999999999997E-2</v>
+        <v>9.7865999999999995E-2</v>
       </c>
       <c r="O31">
-        <v>0.1003</v>
+        <v>0.101212</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -1953,22 +1953,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J32">
-        <v>0.146173</v>
+        <v>0.14729400000000001</v>
       </c>
       <c r="K32">
-        <v>0.12976299999999999</v>
+        <v>0.13078600000000001</v>
       </c>
       <c r="L32">
-        <v>0.11248</v>
+        <v>0.113425</v>
       </c>
       <c r="M32">
-        <v>9.8919999999999994E-2</v>
+        <v>9.9753999999999995E-2</v>
       </c>
       <c r="N32">
-        <v>8.5179000000000005E-2</v>
+        <v>8.5891999999999996E-2</v>
       </c>
       <c r="O32">
-        <v>8.8596999999999995E-2</v>
+        <v>8.9393E-2</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2000,22 +2000,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J33">
-        <v>0.12701799999999999</v>
+        <v>0.12811700000000001</v>
       </c>
       <c r="K33">
-        <v>0.117397</v>
+        <v>0.11840100000000001</v>
       </c>
       <c r="L33">
-        <v>0.10423200000000001</v>
+        <v>0.105161</v>
       </c>
       <c r="M33">
-        <v>9.3435000000000004E-2</v>
+        <v>9.4255000000000005E-2</v>
       </c>
       <c r="N33">
-        <v>8.2922999999999997E-2</v>
+        <v>8.3625000000000005E-2</v>
       </c>
       <c r="O33">
-        <v>8.6133000000000001E-2</v>
+        <v>8.6913000000000004E-2</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.19078700000000001</v>
+        <v>0.19106400000000001</v>
       </c>
       <c r="K34">
-        <v>0.13244</v>
+        <v>0.132692</v>
       </c>
       <c r="L34">
-        <v>9.6969E-2</v>
+        <v>9.7181000000000003E-2</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J35">
-        <v>0.16591400000000001</v>
+        <v>0.16625200000000001</v>
       </c>
       <c r="K35">
-        <v>0.144764</v>
+        <v>0.14505499999999999</v>
       </c>
       <c r="L35">
-        <v>0.122347</v>
+        <v>0.122584</v>
       </c>
       <c r="M35">
-        <v>0.108838</v>
+        <v>0.109051</v>
       </c>
       <c r="N35">
-        <v>9.5093999999999998E-2</v>
+        <v>9.5280000000000004E-2</v>
       </c>
       <c r="O35">
-        <v>9.7674999999999998E-2</v>
+        <v>9.7889000000000004E-2</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2141,22 +2141,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J36">
-        <v>0.14258499999999999</v>
+        <v>0.14289399999999999</v>
       </c>
       <c r="K36">
-        <v>0.124903</v>
+        <v>0.125162</v>
       </c>
       <c r="L36">
-        <v>0.109585</v>
+        <v>0.10978599999999999</v>
       </c>
       <c r="M36">
-        <v>9.7106999999999999E-2</v>
+        <v>9.7287999999999999E-2</v>
       </c>
       <c r="N36">
-        <v>8.3276000000000003E-2</v>
+        <v>8.3434999999999995E-2</v>
       </c>
       <c r="O36">
-        <v>8.6225999999999997E-2</v>
+        <v>8.6409E-2</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2188,22 +2188,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J37">
-        <v>0.123491</v>
+        <v>0.123795</v>
       </c>
       <c r="K37">
-        <v>0.112639</v>
+        <v>0.11289399999999999</v>
       </c>
       <c r="L37">
-        <v>0.101399</v>
+        <v>0.10159700000000001</v>
       </c>
       <c r="M37">
-        <v>9.1648999999999994E-2</v>
+        <v>9.1828000000000007E-2</v>
       </c>
       <c r="N37">
-        <v>8.1039E-2</v>
+        <v>8.1196000000000004E-2</v>
       </c>
       <c r="O37">
-        <v>8.3814E-2</v>
+        <v>8.3993999999999999E-2</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2235,13 +2235,13 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.20060900000000001</v>
+        <v>0.202399</v>
       </c>
       <c r="K38">
-        <v>0.14105500000000001</v>
+        <v>0.14269999999999999</v>
       </c>
       <c r="L38">
-        <v>0.104462</v>
+        <v>0.10591399999999999</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2282,22 +2282,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J39">
-        <v>0.176672</v>
+        <v>0.17838899999999999</v>
       </c>
       <c r="K39">
-        <v>0.15868299999999999</v>
+        <v>0.160409</v>
       </c>
       <c r="L39">
-        <v>0.13284099999999999</v>
+        <v>0.13464300000000001</v>
       </c>
       <c r="M39">
-        <v>0.114367</v>
+        <v>0.115941</v>
       </c>
       <c r="N39">
-        <v>9.7772999999999999E-2</v>
+        <v>9.9100999999999995E-2</v>
       </c>
       <c r="O39">
-        <v>0.104979</v>
+        <v>0.106446</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2329,22 +2329,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J40">
-        <v>0.15212400000000001</v>
+        <v>0.15368499999999999</v>
       </c>
       <c r="K40">
-        <v>0.13758799999999999</v>
+        <v>0.139154</v>
       </c>
       <c r="L40">
-        <v>0.118963</v>
+        <v>0.120591</v>
       </c>
       <c r="M40">
-        <v>0.100047</v>
+        <v>0.101437</v>
       </c>
       <c r="N40">
-        <v>8.3676E-2</v>
+        <v>8.4832000000000005E-2</v>
       </c>
       <c r="O40">
-        <v>9.1884999999999994E-2</v>
+        <v>9.3154000000000001E-2</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -2376,22 +2376,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J41">
-        <v>0.13287399999999999</v>
+        <v>0.134405</v>
       </c>
       <c r="K41">
-        <v>0.12507099999999999</v>
+        <v>0.126607</v>
       </c>
       <c r="L41">
-        <v>0.110592</v>
+        <v>0.112191</v>
       </c>
       <c r="M41">
-        <v>9.4550999999999996E-2</v>
+        <v>9.5919000000000004E-2</v>
       </c>
       <c r="N41">
-        <v>8.1460000000000005E-2</v>
+        <v>8.2599000000000006E-2</v>
       </c>
       <c r="O41">
-        <v>8.9356000000000005E-2</v>
+        <v>9.0597999999999998E-2</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -2423,13 +2423,13 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0.193777</v>
+        <v>0.194768</v>
       </c>
       <c r="K42">
-        <v>0.13500899999999999</v>
+        <v>0.13592499999999999</v>
       </c>
       <c r="L42">
-        <v>9.9084000000000005E-2</v>
+        <v>9.9890999999999994E-2</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -2470,22 +2470,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J43">
-        <v>0.16775100000000001</v>
+        <v>0.16856499999999999</v>
       </c>
       <c r="K43">
-        <v>0.14899999999999999</v>
+        <v>0.14990600000000001</v>
       </c>
       <c r="L43">
-        <v>0.125307</v>
+        <v>0.12634999999999999</v>
       </c>
       <c r="M43">
-        <v>0.110855</v>
+        <v>0.111794</v>
       </c>
       <c r="N43">
-        <v>9.7049999999999997E-2</v>
+        <v>9.7865999999999995E-2</v>
       </c>
       <c r="O43">
-        <v>9.9807999999999994E-2</v>
+        <v>0.10062500000000001</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -2517,22 +2517,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J44">
-        <v>0.14418800000000001</v>
+        <v>0.144923</v>
       </c>
       <c r="K44">
-        <v>0.128853</v>
+        <v>0.12967899999999999</v>
       </c>
       <c r="L44">
-        <v>0.11248</v>
+        <v>0.113425</v>
       </c>
       <c r="M44">
-        <v>9.8919999999999994E-2</v>
+        <v>9.9753999999999995E-2</v>
       </c>
       <c r="N44">
-        <v>8.5179000000000005E-2</v>
+        <v>8.5891999999999996E-2</v>
       </c>
       <c r="O44">
-        <v>8.8119000000000003E-2</v>
+        <v>8.8824E-2</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -2564,22 +2564,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J45">
-        <v>0.12506900000000001</v>
+        <v>0.12579000000000001</v>
       </c>
       <c r="K45">
-        <v>0.116504</v>
+        <v>0.117315</v>
       </c>
       <c r="L45">
-        <v>0.10423200000000001</v>
+        <v>0.105161</v>
       </c>
       <c r="M45">
-        <v>9.3435000000000004E-2</v>
+        <v>9.4255000000000005E-2</v>
       </c>
       <c r="N45">
-        <v>8.2922999999999997E-2</v>
+        <v>8.3625000000000005E-2</v>
       </c>
       <c r="O45">
-        <v>8.5668999999999995E-2</v>
+        <v>8.6359000000000005E-2</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0.18990199999999999</v>
+        <v>0.19012899999999999</v>
       </c>
       <c r="K46">
-        <v>0.13183500000000001</v>
+        <v>0.132046</v>
       </c>
       <c r="L46">
-        <v>9.6862000000000004E-2</v>
+        <v>9.7045000000000006E-2</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -2658,22 +2658,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J47">
-        <v>0.163857</v>
+        <v>0.164048</v>
       </c>
       <c r="K47">
-        <v>0.14405499999999999</v>
+        <v>0.14426900000000001</v>
       </c>
       <c r="L47">
-        <v>0.122347</v>
+        <v>0.122584</v>
       </c>
       <c r="M47">
-        <v>0.108838</v>
+        <v>0.109051</v>
       </c>
       <c r="N47">
-        <v>9.5093999999999998E-2</v>
+        <v>9.5280000000000004E-2</v>
       </c>
       <c r="O47">
-        <v>9.7601999999999994E-2</v>
+        <v>9.7786999999999999E-2</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -2705,22 +2705,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J48">
-        <v>0.140684</v>
+        <v>0.140849</v>
       </c>
       <c r="K48">
-        <v>0.124386</v>
+        <v>0.12457500000000001</v>
       </c>
       <c r="L48">
-        <v>0.109585</v>
+        <v>0.10978599999999999</v>
       </c>
       <c r="M48">
-        <v>9.7106999999999999E-2</v>
+        <v>9.7287999999999999E-2</v>
       </c>
       <c r="N48">
-        <v>8.3276000000000003E-2</v>
+        <v>8.3434999999999995E-2</v>
       </c>
       <c r="O48">
-        <v>8.6173E-2</v>
+        <v>8.6329000000000003E-2</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -2752,22 +2752,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J49">
-        <v>0.121631</v>
+        <v>0.121793</v>
       </c>
       <c r="K49">
-        <v>0.112137</v>
+        <v>0.11232200000000001</v>
       </c>
       <c r="L49">
-        <v>0.101399</v>
+        <v>0.10159700000000001</v>
       </c>
       <c r="M49">
-        <v>9.1648999999999994E-2</v>
+        <v>9.1828000000000007E-2</v>
       </c>
       <c r="N49">
-        <v>8.1039E-2</v>
+        <v>8.1196000000000004E-2</v>
       </c>
       <c r="O49">
-        <v>8.3768999999999996E-2</v>
+        <v>8.3920999999999996E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\PRECIOS CALCULADORA GALP LEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACF5D07-8224-4D0F-A0AE-2162BF35DE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5680C290-9916-4965-8E15-499781FC57F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3350A494-7D0F-4E24-96BD-512094F7438F}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="M2" sqref="M2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,13 +543,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.20848900000000001</v>
+        <v>0.213119</v>
       </c>
       <c r="K2">
-        <v>0.147811</v>
+        <v>0.152341</v>
       </c>
       <c r="L2">
-        <v>0.10902299999999999</v>
+        <v>0.112333</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -590,22 +590,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J3">
-        <v>0.18532000000000001</v>
+        <v>0.200687</v>
       </c>
       <c r="K3">
-        <v>0.17178299999999999</v>
+        <v>0.17354800000000001</v>
       </c>
       <c r="L3">
-        <v>0.13969599999999999</v>
+        <v>0.14028199999999999</v>
       </c>
       <c r="M3">
-        <v>0.115941</v>
+        <v>0.118981</v>
       </c>
       <c r="N3">
-        <v>9.9100999999999995E-2</v>
+        <v>0.102155</v>
       </c>
       <c r="O3">
-        <v>0.10981</v>
+        <v>0.113134</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -637,22 +637,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J4">
-        <v>0.16067699999999999</v>
+        <v>0.17571700000000001</v>
       </c>
       <c r="K4">
-        <v>0.15043200000000001</v>
+        <v>0.151697</v>
       </c>
       <c r="L4">
-        <v>0.12721099999999999</v>
+        <v>0.12637999999999999</v>
       </c>
       <c r="M4">
-        <v>0.101437</v>
+        <v>0.10470599999999999</v>
       </c>
       <c r="N4">
-        <v>8.4832000000000005E-2</v>
+        <v>8.788E-2</v>
       </c>
       <c r="O4">
-        <v>9.6638000000000002E-2</v>
+        <v>9.9490999999999996E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -684,22 +684,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J5">
-        <v>0.14127899999999999</v>
+        <v>0.156032</v>
       </c>
       <c r="K5">
-        <v>0.13771900000000001</v>
+        <v>0.13896</v>
       </c>
       <c r="L5">
-        <v>0.118654</v>
+        <v>0.117853</v>
       </c>
       <c r="M5">
-        <v>9.5919000000000004E-2</v>
+        <v>9.9137000000000003E-2</v>
       </c>
       <c r="N5">
-        <v>8.2599000000000006E-2</v>
+        <v>8.5615999999999998E-2</v>
       </c>
       <c r="O5">
-        <v>9.3998999999999999E-2</v>
+        <v>9.6790000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -731,13 +731,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.19903299999999999</v>
+        <v>0.202068</v>
       </c>
       <c r="K6">
-        <v>0.13950699999999999</v>
+        <v>0.142343</v>
       </c>
       <c r="L6">
-        <v>0.10235</v>
+        <v>0.104309</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -778,22 +778,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J7">
-        <v>0.17461099999999999</v>
+        <v>0.18276899999999999</v>
       </c>
       <c r="K7">
-        <v>0.158133</v>
+        <v>0.15953000000000001</v>
       </c>
       <c r="L7">
-        <v>0.12934200000000001</v>
+        <v>0.130103</v>
       </c>
       <c r="M7">
-        <v>0.111794</v>
+        <v>0.113885</v>
       </c>
       <c r="N7">
-        <v>9.7865999999999995E-2</v>
+        <v>0.100406</v>
       </c>
       <c r="O7">
-        <v>0.10330300000000001</v>
+        <v>0.10534300000000001</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -825,22 +825,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J8">
-        <v>0.15118699999999999</v>
+        <v>0.15912699999999999</v>
       </c>
       <c r="K8">
-        <v>0.13793</v>
+        <v>0.139018</v>
       </c>
       <c r="L8">
-        <v>0.117449</v>
+        <v>0.117427</v>
       </c>
       <c r="M8">
-        <v>9.9753999999999995E-2</v>
+        <v>0.102007</v>
       </c>
       <c r="N8">
-        <v>8.5891999999999996E-2</v>
+        <v>8.8264999999999996E-2</v>
       </c>
       <c r="O8">
-        <v>9.1504000000000002E-2</v>
+        <v>9.3278E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -872,22 +872,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J9">
-        <v>0.131941</v>
+        <v>0.13972899999999999</v>
       </c>
       <c r="K9">
-        <v>0.12543299999999999</v>
+        <v>0.126502</v>
       </c>
       <c r="L9">
-        <v>0.10909199999999999</v>
+        <v>0.10907799999999999</v>
       </c>
       <c r="M9">
-        <v>9.4255000000000005E-2</v>
+        <v>9.6472000000000002E-2</v>
       </c>
       <c r="N9">
-        <v>8.3625000000000005E-2</v>
+        <v>8.5967000000000002E-2</v>
       </c>
       <c r="O9">
-        <v>8.8973999999999998E-2</v>
+        <v>9.0707999999999997E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -919,13 +919,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.19339100000000001</v>
+        <v>0.196021</v>
       </c>
       <c r="K10">
-        <v>0.134658</v>
+        <v>0.13705300000000001</v>
       </c>
       <c r="L10">
-        <v>9.8452999999999999E-2</v>
+        <v>0.100037</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -966,22 +966,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J11">
-        <v>0.168515</v>
+        <v>0.174458</v>
       </c>
       <c r="K11">
-        <v>0.15001600000000001</v>
+        <v>0.151392</v>
       </c>
       <c r="L11">
-        <v>0.124706</v>
+        <v>0.125662</v>
       </c>
       <c r="M11">
-        <v>0.109051</v>
+        <v>0.11099000000000001</v>
       </c>
       <c r="N11">
-        <v>9.5280000000000004E-2</v>
+        <v>9.7845000000000001E-2</v>
       </c>
       <c r="O11">
-        <v>9.9307000000000006E-2</v>
+        <v>0.100995</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1013,22 +1013,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J12">
-        <v>0.145287</v>
+        <v>0.15103800000000001</v>
       </c>
       <c r="K12">
-        <v>0.13026299999999999</v>
+        <v>0.13139200000000001</v>
       </c>
       <c r="L12">
-        <v>0.112676</v>
+        <v>0.113067</v>
       </c>
       <c r="M12">
-        <v>9.7287999999999999E-2</v>
+        <v>9.9335000000000007E-2</v>
       </c>
       <c r="N12">
-        <v>8.3434999999999995E-2</v>
+        <v>8.5720000000000005E-2</v>
       </c>
       <c r="O12">
-        <v>8.7845999999999994E-2</v>
+        <v>8.9320999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1060,22 +1060,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J13">
-        <v>0.12614400000000001</v>
+        <v>0.13178400000000001</v>
       </c>
       <c r="K13">
-        <v>0.11791500000000001</v>
+        <v>0.119021</v>
       </c>
       <c r="L13">
-        <v>0.104422</v>
+        <v>0.10481</v>
       </c>
       <c r="M13">
-        <v>9.1828000000000007E-2</v>
+        <v>9.3840000000000007E-2</v>
       </c>
       <c r="N13">
-        <v>8.1196000000000004E-2</v>
+        <v>8.3446999999999993E-2</v>
       </c>
       <c r="O13">
-        <v>8.5398000000000002E-2</v>
+        <v>8.6840000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.20483000000000001</v>
+        <v>0.21023700000000001</v>
       </c>
       <c r="K14">
-        <v>0.14476800000000001</v>
+        <v>0.149979</v>
       </c>
       <c r="L14">
-        <v>0.107637</v>
+        <v>0.111481</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1154,22 +1154,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J15">
-        <v>0.18532000000000001</v>
+        <v>0.200687</v>
       </c>
       <c r="K15">
-        <v>0.16445899999999999</v>
+        <v>0.16784499999999999</v>
       </c>
       <c r="L15">
-        <v>0.13464300000000001</v>
+        <v>0.13602800000000001</v>
       </c>
       <c r="M15">
-        <v>0.115941</v>
+        <v>0.118981</v>
       </c>
       <c r="N15">
-        <v>9.9100999999999995E-2</v>
+        <v>0.102155</v>
       </c>
       <c r="O15">
-        <v>0.10822900000000001</v>
+        <v>0.112183</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1201,22 +1201,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J16">
-        <v>0.16067699999999999</v>
+        <v>0.17571700000000001</v>
       </c>
       <c r="K16">
-        <v>0.14294599999999999</v>
+        <v>0.14589299999999999</v>
       </c>
       <c r="L16">
-        <v>0.120591</v>
+        <v>0.120714</v>
       </c>
       <c r="M16">
-        <v>0.101437</v>
+        <v>0.10470599999999999</v>
       </c>
       <c r="N16">
-        <v>8.4832000000000005E-2</v>
+        <v>8.788E-2</v>
       </c>
       <c r="O16">
-        <v>9.4854999999999995E-2</v>
+        <v>9.8359000000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1248,22 +1248,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J17">
-        <v>0.14127899999999999</v>
+        <v>0.156032</v>
       </c>
       <c r="K17">
-        <v>0.13033600000000001</v>
+        <v>0.13322999999999999</v>
       </c>
       <c r="L17">
-        <v>0.112191</v>
+        <v>0.112328</v>
       </c>
       <c r="M17">
-        <v>9.5919000000000004E-2</v>
+        <v>9.9137000000000003E-2</v>
       </c>
       <c r="N17">
-        <v>8.2599000000000006E-2</v>
+        <v>8.5615999999999998E-2</v>
       </c>
       <c r="O17">
-        <v>9.2260999999999996E-2</v>
+        <v>9.5687999999999995E-2</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1295,13 +1295,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.19692299999999999</v>
+        <v>0.20030100000000001</v>
       </c>
       <c r="K18">
-        <v>0.13775200000000001</v>
+        <v>0.14088100000000001</v>
       </c>
       <c r="L18">
-        <v>0.101453</v>
+        <v>0.10363700000000001</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J19">
-        <v>0.17461099999999999</v>
+        <v>0.18276899999999999</v>
       </c>
       <c r="K19">
-        <v>0.15340100000000001</v>
+        <v>0.15557000000000001</v>
       </c>
       <c r="L19">
-        <v>0.12634999999999999</v>
+        <v>0.12751399999999999</v>
       </c>
       <c r="M19">
-        <v>0.111794</v>
+        <v>0.113885</v>
       </c>
       <c r="N19">
-        <v>9.7865999999999995E-2</v>
+        <v>0.100406</v>
       </c>
       <c r="O19">
-        <v>0.10227799999999999</v>
+        <v>0.104587</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1389,22 +1389,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J20">
-        <v>0.15118699999999999</v>
+        <v>0.15912699999999999</v>
       </c>
       <c r="K20">
-        <v>0.13301399999999999</v>
+        <v>0.13492100000000001</v>
       </c>
       <c r="L20">
-        <v>0.113425</v>
+        <v>0.11393499999999999</v>
       </c>
       <c r="M20">
-        <v>9.9753999999999995E-2</v>
+        <v>0.102007</v>
       </c>
       <c r="N20">
-        <v>8.5891999999999996E-2</v>
+        <v>8.8264999999999996E-2</v>
       </c>
       <c r="O20">
-        <v>9.0396000000000004E-2</v>
+        <v>9.2450000000000004E-2</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1436,22 +1436,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J21">
-        <v>0.131941</v>
+        <v>0.13972899999999999</v>
       </c>
       <c r="K21">
-        <v>0.120591</v>
+        <v>0.122463</v>
       </c>
       <c r="L21">
-        <v>0.105161</v>
+        <v>0.10567</v>
       </c>
       <c r="M21">
-        <v>9.4255000000000005E-2</v>
+        <v>9.6472000000000002E-2</v>
       </c>
       <c r="N21">
-        <v>8.3625000000000005E-2</v>
+        <v>8.5967000000000002E-2</v>
       </c>
       <c r="O21">
-        <v>8.7891999999999998E-2</v>
+        <v>8.9900999999999995E-2</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1483,13 +1483,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.19187299999999999</v>
+        <v>0.19472300000000001</v>
       </c>
       <c r="K22">
-        <v>0.13339599999999999</v>
+        <v>0.13597799999999999</v>
       </c>
       <c r="L22">
-        <v>9.7776000000000002E-2</v>
+        <v>9.9501999999999993E-2</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1530,22 +1530,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J23">
-        <v>0.168515</v>
+        <v>0.174458</v>
       </c>
       <c r="K23">
-        <v>0.146426</v>
+        <v>0.148317</v>
       </c>
       <c r="L23">
-        <v>0.122584</v>
+        <v>0.12381200000000001</v>
       </c>
       <c r="M23">
-        <v>0.109051</v>
+        <v>0.11099000000000001</v>
       </c>
       <c r="N23">
-        <v>9.5280000000000004E-2</v>
+        <v>9.7845000000000001E-2</v>
       </c>
       <c r="O23">
-        <v>9.8528000000000004E-2</v>
+        <v>0.100387</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1577,22 +1577,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J24">
-        <v>0.145287</v>
+        <v>0.15103800000000001</v>
       </c>
       <c r="K24">
-        <v>0.12650700000000001</v>
+        <v>0.12817999999999999</v>
       </c>
       <c r="L24">
-        <v>0.10978599999999999</v>
+        <v>0.11054899999999999</v>
       </c>
       <c r="M24">
-        <v>9.7287999999999999E-2</v>
+        <v>9.9335000000000007E-2</v>
       </c>
       <c r="N24">
-        <v>8.3434999999999995E-2</v>
+        <v>8.5720000000000005E-2</v>
       </c>
       <c r="O24">
-        <v>8.7006E-2</v>
+        <v>8.8660000000000003E-2</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1624,22 +1624,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J25">
-        <v>0.12614400000000001</v>
+        <v>0.13178400000000001</v>
       </c>
       <c r="K25">
-        <v>0.114214</v>
+        <v>0.115857</v>
       </c>
       <c r="L25">
-        <v>0.10159700000000001</v>
+        <v>0.102351</v>
       </c>
       <c r="M25">
-        <v>9.1828000000000007E-2</v>
+        <v>9.3840000000000007E-2</v>
       </c>
       <c r="N25">
-        <v>8.1196000000000004E-2</v>
+        <v>8.3446999999999993E-2</v>
       </c>
       <c r="O25">
-        <v>8.4578E-2</v>
+        <v>8.6193000000000006E-2</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1671,13 +1671,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.20386799999999999</v>
+        <v>0.20841399999999999</v>
       </c>
       <c r="K26">
-        <v>0.14390900000000001</v>
+        <v>0.14836099999999999</v>
       </c>
       <c r="L26">
-        <v>0.106904</v>
+        <v>0.110072</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -1718,22 +1718,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J27">
-        <v>0.18259400000000001</v>
+        <v>0.19548299999999999</v>
       </c>
       <c r="K27">
-        <v>0.162691</v>
+        <v>0.16462399999999999</v>
       </c>
       <c r="L27">
-        <v>0.13464300000000001</v>
+        <v>0.13602800000000001</v>
       </c>
       <c r="M27">
-        <v>0.115941</v>
+        <v>0.118981</v>
       </c>
       <c r="N27">
-        <v>9.9100999999999995E-2</v>
+        <v>0.102155</v>
       </c>
       <c r="O27">
-        <v>0.10745</v>
+        <v>0.11067100000000001</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -1765,22 +1765,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J28">
-        <v>0.157776</v>
+        <v>0.17008000000000001</v>
       </c>
       <c r="K28">
-        <v>0.14115800000000001</v>
+        <v>0.142681</v>
       </c>
       <c r="L28">
-        <v>0.120591</v>
+        <v>0.120714</v>
       </c>
       <c r="M28">
-        <v>0.101437</v>
+        <v>0.10470599999999999</v>
       </c>
       <c r="N28">
-        <v>8.4832000000000005E-2</v>
+        <v>8.788E-2</v>
       </c>
       <c r="O28">
-        <v>9.4118999999999994E-2</v>
+        <v>9.6934999999999993E-2</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -1812,22 +1812,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J29">
-        <v>0.13841899999999999</v>
+        <v>0.15049000000000001</v>
       </c>
       <c r="K29">
-        <v>0.128576</v>
+        <v>0.130075</v>
       </c>
       <c r="L29">
-        <v>0.112191</v>
+        <v>0.112328</v>
       </c>
       <c r="M29">
-        <v>9.5919000000000004E-2</v>
+        <v>9.9137000000000003E-2</v>
       </c>
       <c r="N29">
-        <v>8.2599000000000006E-2</v>
+        <v>8.5615999999999998E-2</v>
       </c>
       <c r="O29">
-        <v>9.1539999999999996E-2</v>
+        <v>9.4296000000000005E-2</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -1859,13 +1859,13 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.19562599999999999</v>
+        <v>0.19859299999999999</v>
       </c>
       <c r="K30">
-        <v>0.13660700000000001</v>
+        <v>0.139376</v>
       </c>
       <c r="L30">
-        <v>0.10047399999999999</v>
+        <v>0.10233100000000001</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -1906,22 +1906,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J31">
-        <v>0.170982</v>
+        <v>0.177984</v>
       </c>
       <c r="K31">
-        <v>0.15116099999999999</v>
+        <v>0.152642</v>
       </c>
       <c r="L31">
-        <v>0.12634999999999999</v>
+        <v>0.12751399999999999</v>
       </c>
       <c r="M31">
-        <v>0.111794</v>
+        <v>0.113885</v>
       </c>
       <c r="N31">
-        <v>9.7865999999999995E-2</v>
+        <v>0.100406</v>
       </c>
       <c r="O31">
-        <v>0.101212</v>
+        <v>0.10316599999999999</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -1953,22 +1953,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J32">
-        <v>0.14729400000000001</v>
+        <v>0.153978</v>
       </c>
       <c r="K32">
-        <v>0.13078600000000001</v>
+        <v>0.132018</v>
       </c>
       <c r="L32">
-        <v>0.113425</v>
+        <v>0.11393499999999999</v>
       </c>
       <c r="M32">
-        <v>9.9753999999999995E-2</v>
+        <v>0.102007</v>
       </c>
       <c r="N32">
-        <v>8.5891999999999996E-2</v>
+        <v>8.8264999999999996E-2</v>
       </c>
       <c r="O32">
-        <v>8.9393E-2</v>
+        <v>9.1115000000000002E-2</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2000,22 +2000,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J33">
-        <v>0.12811700000000001</v>
+        <v>0.13467499999999999</v>
       </c>
       <c r="K33">
-        <v>0.11840100000000001</v>
+        <v>0.119613</v>
       </c>
       <c r="L33">
-        <v>0.105161</v>
+        <v>0.10567</v>
       </c>
       <c r="M33">
-        <v>9.4255000000000005E-2</v>
+        <v>9.6472000000000002E-2</v>
       </c>
       <c r="N33">
-        <v>8.3625000000000005E-2</v>
+        <v>8.5967000000000002E-2</v>
       </c>
       <c r="O33">
-        <v>8.6913000000000004E-2</v>
+        <v>8.8596999999999995E-2</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.19106400000000001</v>
+        <v>0.19365299999999999</v>
       </c>
       <c r="K34">
-        <v>0.132692</v>
+        <v>0.135045</v>
       </c>
       <c r="L34">
-        <v>9.7181000000000003E-2</v>
+        <v>9.8699999999999996E-2</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J35">
-        <v>0.16625200000000001</v>
+        <v>0.171458</v>
       </c>
       <c r="K35">
-        <v>0.14505499999999999</v>
+        <v>0.146511</v>
       </c>
       <c r="L35">
-        <v>0.122584</v>
+        <v>0.12381200000000001</v>
       </c>
       <c r="M35">
-        <v>0.109051</v>
+        <v>0.11099000000000001</v>
       </c>
       <c r="N35">
-        <v>9.5280000000000004E-2</v>
+        <v>9.7845000000000001E-2</v>
       </c>
       <c r="O35">
-        <v>9.7889000000000004E-2</v>
+        <v>9.9521999999999999E-2</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2141,22 +2141,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J36">
-        <v>0.14289399999999999</v>
+        <v>0.14784800000000001</v>
       </c>
       <c r="K36">
-        <v>0.125162</v>
+        <v>0.12640999999999999</v>
       </c>
       <c r="L36">
-        <v>0.10978599999999999</v>
+        <v>0.11054899999999999</v>
       </c>
       <c r="M36">
-        <v>9.7287999999999999E-2</v>
+        <v>9.9335000000000007E-2</v>
       </c>
       <c r="N36">
-        <v>8.3434999999999995E-2</v>
+        <v>8.5720000000000005E-2</v>
       </c>
       <c r="O36">
-        <v>8.6409E-2</v>
+        <v>8.7850999999999999E-2</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2188,22 +2188,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J37">
-        <v>0.123795</v>
+        <v>0.12865399999999999</v>
       </c>
       <c r="K37">
-        <v>0.11289399999999999</v>
+        <v>0.114119</v>
       </c>
       <c r="L37">
-        <v>0.10159700000000001</v>
+        <v>0.102351</v>
       </c>
       <c r="M37">
-        <v>9.1828000000000007E-2</v>
+        <v>9.3840000000000007E-2</v>
       </c>
       <c r="N37">
-        <v>8.1196000000000004E-2</v>
+        <v>8.3446999999999993E-2</v>
       </c>
       <c r="O37">
-        <v>8.3993999999999999E-2</v>
+        <v>8.5403000000000007E-2</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2235,13 +2235,13 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.202399</v>
+        <v>0.204625</v>
       </c>
       <c r="K38">
-        <v>0.14269999999999999</v>
+        <v>0.14524599999999999</v>
       </c>
       <c r="L38">
-        <v>0.10591399999999999</v>
+        <v>0.107686</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2282,22 +2282,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J39">
-        <v>0.17838899999999999</v>
+        <v>0.18456</v>
       </c>
       <c r="K39">
-        <v>0.160409</v>
+        <v>0.158556</v>
       </c>
       <c r="L39">
-        <v>0.13464300000000001</v>
+        <v>0.13602800000000001</v>
       </c>
       <c r="M39">
-        <v>0.115941</v>
+        <v>0.118981</v>
       </c>
       <c r="N39">
-        <v>9.9100999999999995E-2</v>
+        <v>0.102155</v>
       </c>
       <c r="O39">
-        <v>0.106446</v>
+        <v>0.108246</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2329,22 +2329,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J40">
-        <v>0.15368499999999999</v>
+        <v>0.15951100000000001</v>
       </c>
       <c r="K40">
-        <v>0.139154</v>
+        <v>0.13725599999999999</v>
       </c>
       <c r="L40">
-        <v>0.120591</v>
+        <v>0.120714</v>
       </c>
       <c r="M40">
-        <v>0.101437</v>
+        <v>0.10470599999999999</v>
       </c>
       <c r="N40">
-        <v>8.4832000000000005E-2</v>
+        <v>8.788E-2</v>
       </c>
       <c r="O40">
-        <v>9.3154000000000001E-2</v>
+        <v>9.4606999999999997E-2</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -2376,22 +2376,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J41">
-        <v>0.134405</v>
+        <v>0.140124</v>
       </c>
       <c r="K41">
-        <v>0.126607</v>
+        <v>0.124752</v>
       </c>
       <c r="L41">
-        <v>0.112191</v>
+        <v>0.112328</v>
       </c>
       <c r="M41">
-        <v>9.5919000000000004E-2</v>
+        <v>9.9137000000000003E-2</v>
       </c>
       <c r="N41">
-        <v>8.2599000000000006E-2</v>
+        <v>8.5615999999999998E-2</v>
       </c>
       <c r="O41">
-        <v>9.0597999999999998E-2</v>
+        <v>9.2022999999999994E-2</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -2423,13 +2423,13 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0.194768</v>
+        <v>0.19659199999999999</v>
       </c>
       <c r="K42">
-        <v>0.13592499999999999</v>
+        <v>0.13775399999999999</v>
       </c>
       <c r="L42">
-        <v>9.9890999999999994E-2</v>
+        <v>0.101066</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -2470,22 +2470,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J43">
-        <v>0.16856499999999999</v>
+        <v>0.17224200000000001</v>
       </c>
       <c r="K43">
-        <v>0.14990600000000001</v>
+        <v>0.149534</v>
       </c>
       <c r="L43">
-        <v>0.12634999999999999</v>
+        <v>0.12751399999999999</v>
       </c>
       <c r="M43">
-        <v>0.111794</v>
+        <v>0.113885</v>
       </c>
       <c r="N43">
-        <v>9.7865999999999995E-2</v>
+        <v>0.100406</v>
       </c>
       <c r="O43">
-        <v>0.10062500000000001</v>
+        <v>0.101884</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -2517,22 +2517,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J44">
-        <v>0.144923</v>
+        <v>0.14838499999999999</v>
       </c>
       <c r="K44">
-        <v>0.12967899999999999</v>
+        <v>0.12923599999999999</v>
       </c>
       <c r="L44">
-        <v>0.113425</v>
+        <v>0.11393499999999999</v>
       </c>
       <c r="M44">
-        <v>9.9753999999999995E-2</v>
+        <v>0.102007</v>
       </c>
       <c r="N44">
-        <v>8.5891999999999996E-2</v>
+        <v>8.8264999999999996E-2</v>
       </c>
       <c r="O44">
-        <v>8.8824E-2</v>
+        <v>8.9879000000000001E-2</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -2564,22 +2564,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J45">
-        <v>0.12579000000000001</v>
+        <v>0.129187</v>
       </c>
       <c r="K45">
-        <v>0.117315</v>
+        <v>0.116884</v>
       </c>
       <c r="L45">
-        <v>0.105161</v>
+        <v>0.10567</v>
       </c>
       <c r="M45">
-        <v>9.4255000000000005E-2</v>
+        <v>9.6472000000000002E-2</v>
       </c>
       <c r="N45">
-        <v>8.3625000000000005E-2</v>
+        <v>8.5967000000000002E-2</v>
       </c>
       <c r="O45">
-        <v>8.6359000000000005E-2</v>
+        <v>8.7390999999999996E-2</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0.19012899999999999</v>
+        <v>0.19195400000000001</v>
       </c>
       <c r="K46">
-        <v>0.132046</v>
+        <v>0.133774</v>
       </c>
       <c r="L46">
-        <v>9.7045000000000006E-2</v>
+        <v>9.8108000000000001E-2</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -2658,22 +2658,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J47">
-        <v>0.164048</v>
+        <v>0.167097</v>
       </c>
       <c r="K47">
-        <v>0.14426900000000001</v>
+        <v>0.144432</v>
       </c>
       <c r="L47">
-        <v>0.122584</v>
+        <v>0.12381200000000001</v>
       </c>
       <c r="M47">
-        <v>0.109051</v>
+        <v>0.11099000000000001</v>
       </c>
       <c r="N47">
-        <v>9.5280000000000004E-2</v>
+        <v>9.7845000000000001E-2</v>
       </c>
       <c r="O47">
-        <v>9.7786999999999999E-2</v>
+        <v>9.8959000000000005E-2</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -2705,22 +2705,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J48">
-        <v>0.140849</v>
+        <v>0.14371400000000001</v>
       </c>
       <c r="K48">
-        <v>0.12457500000000001</v>
+        <v>0.124656</v>
       </c>
       <c r="L48">
-        <v>0.10978599999999999</v>
+        <v>0.11054899999999999</v>
       </c>
       <c r="M48">
-        <v>9.7287999999999999E-2</v>
+        <v>9.9335000000000007E-2</v>
       </c>
       <c r="N48">
-        <v>8.3434999999999995E-2</v>
+        <v>8.5720000000000005E-2</v>
       </c>
       <c r="O48">
-        <v>8.6329000000000003E-2</v>
+        <v>8.7328000000000003E-2</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -2752,22 +2752,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J49">
-        <v>0.121793</v>
+        <v>0.12460499999999999</v>
       </c>
       <c r="K49">
-        <v>0.11232200000000001</v>
+        <v>0.112405</v>
       </c>
       <c r="L49">
-        <v>0.10159700000000001</v>
+        <v>0.102351</v>
       </c>
       <c r="M49">
-        <v>9.1828000000000007E-2</v>
+        <v>9.3840000000000007E-2</v>
       </c>
       <c r="N49">
-        <v>8.1196000000000004E-2</v>
+        <v>8.3446999999999993E-2</v>
       </c>
       <c r="O49">
-        <v>8.3920999999999996E-2</v>
+        <v>8.4898000000000001E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\PRECIOS CALCULADORA GALP LEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5680C290-9916-4965-8E15-499781FC57F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3D0B9F-908B-4125-A590-E16C65A6D8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3350A494-7D0F-4E24-96BD-512094F7438F}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:O2"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,13 +543,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.213119</v>
+        <v>0.22065899999999999</v>
       </c>
       <c r="K2">
-        <v>0.152341</v>
+        <v>0.15898300000000001</v>
       </c>
       <c r="L2">
-        <v>0.112333</v>
+        <v>0.11788899999999999</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -590,22 +590,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J3">
-        <v>0.200687</v>
+        <v>0.21010899999999999</v>
       </c>
       <c r="K3">
-        <v>0.17354800000000001</v>
+        <v>0.182395</v>
       </c>
       <c r="L3">
-        <v>0.14028199999999999</v>
+        <v>0.14532999999999999</v>
       </c>
       <c r="M3">
-        <v>0.118981</v>
+        <v>0.124255</v>
       </c>
       <c r="N3">
-        <v>0.102155</v>
+        <v>0.108344</v>
       </c>
       <c r="O3">
-        <v>0.113134</v>
+        <v>0.118906</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -637,22 +637,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J4">
-        <v>0.17571700000000001</v>
+        <v>0.18492600000000001</v>
       </c>
       <c r="K4">
-        <v>0.151697</v>
+        <v>0.160025</v>
       </c>
       <c r="L4">
-        <v>0.12637999999999999</v>
+        <v>0.13161200000000001</v>
       </c>
       <c r="M4">
-        <v>0.10470599999999999</v>
+        <v>0.109421</v>
       </c>
       <c r="N4">
-        <v>8.788E-2</v>
+        <v>9.3012999999999998E-2</v>
       </c>
       <c r="O4">
-        <v>9.9490999999999996E-2</v>
+        <v>0.104783</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -684,22 +684,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J5">
-        <v>0.156032</v>
+        <v>0.16506499999999999</v>
       </c>
       <c r="K5">
-        <v>0.13896</v>
+        <v>0.14713300000000001</v>
       </c>
       <c r="L5">
-        <v>0.117853</v>
+        <v>0.122988</v>
       </c>
       <c r="M5">
-        <v>9.9137000000000003E-2</v>
+        <v>0.10377599999999999</v>
       </c>
       <c r="N5">
-        <v>8.5615999999999998E-2</v>
+        <v>9.0675000000000006E-2</v>
       </c>
       <c r="O5">
-        <v>9.6790000000000001E-2</v>
+        <v>0.101968</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -731,13 +731,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.202068</v>
+        <v>0.207563</v>
       </c>
       <c r="K6">
-        <v>0.142343</v>
+        <v>0.14701700000000001</v>
       </c>
       <c r="L6">
-        <v>0.104309</v>
+        <v>0.108246</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -778,22 +778,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J7">
-        <v>0.18276899999999999</v>
+        <v>0.19154499999999999</v>
       </c>
       <c r="K7">
-        <v>0.15953000000000001</v>
+        <v>0.167715</v>
       </c>
       <c r="L7">
-        <v>0.130103</v>
+        <v>0.13347100000000001</v>
       </c>
       <c r="M7">
-        <v>0.113885</v>
+        <v>0.116025</v>
       </c>
       <c r="N7">
-        <v>0.100406</v>
+        <v>0.10243099999999999</v>
       </c>
       <c r="O7">
-        <v>0.10534300000000001</v>
+        <v>0.109361</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -825,22 +825,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J8">
-        <v>0.15912699999999999</v>
+        <v>0.167661</v>
       </c>
       <c r="K8">
-        <v>0.139018</v>
+        <v>0.14666899999999999</v>
       </c>
       <c r="L8">
-        <v>0.117427</v>
+        <v>0.12084399999999999</v>
       </c>
       <c r="M8">
-        <v>0.102007</v>
+        <v>0.103313</v>
       </c>
       <c r="N8">
-        <v>8.8264999999999996E-2</v>
+        <v>8.9235999999999996E-2</v>
       </c>
       <c r="O8">
-        <v>9.3278E-2</v>
+        <v>9.6826999999999996E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -872,22 +872,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J9">
-        <v>0.13972899999999999</v>
+        <v>0.14809700000000001</v>
       </c>
       <c r="K9">
-        <v>0.126502</v>
+        <v>0.13400899999999999</v>
       </c>
       <c r="L9">
-        <v>0.10907799999999999</v>
+        <v>0.112431</v>
       </c>
       <c r="M9">
-        <v>9.6472000000000002E-2</v>
+        <v>9.7756999999999997E-2</v>
       </c>
       <c r="N9">
-        <v>8.5967000000000002E-2</v>
+        <v>8.6928000000000005E-2</v>
       </c>
       <c r="O9">
-        <v>9.0707999999999997E-2</v>
+        <v>9.418E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -919,13 +919,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.196021</v>
+        <v>0.19988500000000001</v>
       </c>
       <c r="K10">
-        <v>0.13705300000000001</v>
+        <v>0.140348</v>
       </c>
       <c r="L10">
-        <v>0.100037</v>
+        <v>0.102814</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -966,22 +966,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J11">
-        <v>0.174458</v>
+        <v>0.18063899999999999</v>
       </c>
       <c r="K11">
-        <v>0.151392</v>
+        <v>0.15718099999999999</v>
       </c>
       <c r="L11">
-        <v>0.125662</v>
+        <v>0.12801599999999999</v>
       </c>
       <c r="M11">
-        <v>0.11099000000000001</v>
+        <v>0.112513</v>
       </c>
       <c r="N11">
-        <v>9.7845000000000001E-2</v>
+        <v>9.9297999999999997E-2</v>
       </c>
       <c r="O11">
-        <v>0.100995</v>
+        <v>0.103837</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1013,22 +1013,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J12">
-        <v>0.15103800000000001</v>
+        <v>0.157059</v>
       </c>
       <c r="K12">
-        <v>0.13139200000000001</v>
+        <v>0.13681599999999999</v>
       </c>
       <c r="L12">
-        <v>0.113067</v>
+        <v>0.11545999999999999</v>
       </c>
       <c r="M12">
-        <v>9.9335000000000007E-2</v>
+        <v>0.10029</v>
       </c>
       <c r="N12">
-        <v>8.5720000000000005E-2</v>
+        <v>8.6448999999999998E-2</v>
       </c>
       <c r="O12">
-        <v>8.9320999999999998E-2</v>
+        <v>9.1837000000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1060,22 +1060,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J13">
-        <v>0.13178400000000001</v>
+        <v>0.13768900000000001</v>
       </c>
       <c r="K13">
-        <v>0.119021</v>
+        <v>0.124344</v>
       </c>
       <c r="L13">
-        <v>0.10481</v>
+        <v>0.107158</v>
       </c>
       <c r="M13">
-        <v>9.3840000000000007E-2</v>
+        <v>9.4780000000000003E-2</v>
       </c>
       <c r="N13">
-        <v>8.3446999999999993E-2</v>
+        <v>8.4168000000000007E-2</v>
       </c>
       <c r="O13">
-        <v>8.6840000000000001E-2</v>
+        <v>8.9300000000000004E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.21023700000000001</v>
+        <v>0.21759800000000001</v>
       </c>
       <c r="K14">
-        <v>0.149979</v>
+        <v>0.15646299999999999</v>
       </c>
       <c r="L14">
-        <v>0.111481</v>
+        <v>0.11697</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1154,22 +1154,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J15">
-        <v>0.200687</v>
+        <v>0.21010899999999999</v>
       </c>
       <c r="K15">
-        <v>0.16784499999999999</v>
+        <v>0.176481</v>
       </c>
       <c r="L15">
-        <v>0.13602800000000001</v>
+        <v>0.140649</v>
       </c>
       <c r="M15">
-        <v>0.118981</v>
+        <v>0.124255</v>
       </c>
       <c r="N15">
-        <v>0.102155</v>
+        <v>0.108344</v>
       </c>
       <c r="O15">
-        <v>0.112183</v>
+        <v>0.11788899999999999</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1201,22 +1201,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J16">
-        <v>0.17571700000000001</v>
+        <v>0.18492600000000001</v>
       </c>
       <c r="K16">
-        <v>0.14589299999999999</v>
+        <v>0.154062</v>
       </c>
       <c r="L16">
-        <v>0.120714</v>
+        <v>0.12543299999999999</v>
       </c>
       <c r="M16">
-        <v>0.10470599999999999</v>
+        <v>0.109421</v>
       </c>
       <c r="N16">
-        <v>8.788E-2</v>
+        <v>9.3012999999999998E-2</v>
       </c>
       <c r="O16">
-        <v>9.8359000000000002E-2</v>
+        <v>0.10359</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1248,22 +1248,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J17">
-        <v>0.156032</v>
+        <v>0.16506499999999999</v>
       </c>
       <c r="K17">
-        <v>0.13322999999999999</v>
+        <v>0.14124400000000001</v>
       </c>
       <c r="L17">
-        <v>0.112328</v>
+        <v>0.116961</v>
       </c>
       <c r="M17">
-        <v>9.9137000000000003E-2</v>
+        <v>0.10377599999999999</v>
       </c>
       <c r="N17">
-        <v>8.5615999999999998E-2</v>
+        <v>9.0675000000000006E-2</v>
       </c>
       <c r="O17">
-        <v>9.5687999999999995E-2</v>
+        <v>0.10080500000000001</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1295,13 +1295,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.20030100000000001</v>
+        <v>0.20564499999999999</v>
       </c>
       <c r="K18">
-        <v>0.14088100000000001</v>
+        <v>0.145422</v>
       </c>
       <c r="L18">
-        <v>0.10363700000000001</v>
+        <v>0.107491</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J19">
-        <v>0.18276899999999999</v>
+        <v>0.19154499999999999</v>
       </c>
       <c r="K19">
-        <v>0.15557000000000001</v>
+        <v>0.16359799999999999</v>
       </c>
       <c r="L19">
-        <v>0.12751399999999999</v>
+        <v>0.13059100000000001</v>
       </c>
       <c r="M19">
-        <v>0.113885</v>
+        <v>0.116025</v>
       </c>
       <c r="N19">
-        <v>0.100406</v>
+        <v>0.10243099999999999</v>
       </c>
       <c r="O19">
-        <v>0.104587</v>
+        <v>0.10850799999999999</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1389,22 +1389,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J20">
-        <v>0.15912699999999999</v>
+        <v>0.167661</v>
       </c>
       <c r="K20">
-        <v>0.13492100000000001</v>
+        <v>0.142428</v>
       </c>
       <c r="L20">
-        <v>0.11393499999999999</v>
+        <v>0.11695800000000001</v>
       </c>
       <c r="M20">
-        <v>0.102007</v>
+        <v>0.103313</v>
       </c>
       <c r="N20">
-        <v>8.8264999999999996E-2</v>
+        <v>8.9235999999999996E-2</v>
       </c>
       <c r="O20">
-        <v>9.2450000000000004E-2</v>
+        <v>9.5894999999999994E-2</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1436,22 +1436,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J21">
-        <v>0.13972899999999999</v>
+        <v>0.14809700000000001</v>
       </c>
       <c r="K21">
-        <v>0.122463</v>
+        <v>0.129827</v>
       </c>
       <c r="L21">
-        <v>0.10567</v>
+        <v>0.108636</v>
       </c>
       <c r="M21">
-        <v>9.6472000000000002E-2</v>
+        <v>9.7756999999999997E-2</v>
       </c>
       <c r="N21">
-        <v>8.5967000000000002E-2</v>
+        <v>8.6928000000000005E-2</v>
       </c>
       <c r="O21">
-        <v>8.9900999999999995E-2</v>
+        <v>9.3270000000000006E-2</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1483,13 +1483,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.19472300000000001</v>
+        <v>0.19845599999999999</v>
       </c>
       <c r="K22">
-        <v>0.13597799999999999</v>
+        <v>0.139158</v>
       </c>
       <c r="L22">
-        <v>9.9501999999999993E-2</v>
+        <v>0.102199</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1530,22 +1530,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J23">
-        <v>0.174458</v>
+        <v>0.18063899999999999</v>
       </c>
       <c r="K23">
-        <v>0.148317</v>
+        <v>0.15387100000000001</v>
       </c>
       <c r="L23">
-        <v>0.12381200000000001</v>
+        <v>0.125941</v>
       </c>
       <c r="M23">
-        <v>0.11099000000000001</v>
+        <v>0.112513</v>
       </c>
       <c r="N23">
-        <v>9.7845000000000001E-2</v>
+        <v>9.9297999999999997E-2</v>
       </c>
       <c r="O23">
-        <v>0.100387</v>
+        <v>0.10313700000000001</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1577,22 +1577,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J24">
-        <v>0.15103800000000001</v>
+        <v>0.157059</v>
       </c>
       <c r="K24">
-        <v>0.12817999999999999</v>
+        <v>0.13336600000000001</v>
       </c>
       <c r="L24">
-        <v>0.11054899999999999</v>
+        <v>0.11262800000000001</v>
       </c>
       <c r="M24">
-        <v>9.9335000000000007E-2</v>
+        <v>0.10029</v>
       </c>
       <c r="N24">
-        <v>8.5720000000000005E-2</v>
+        <v>8.6448999999999998E-2</v>
       </c>
       <c r="O24">
-        <v>8.8660000000000003E-2</v>
+        <v>9.1077000000000005E-2</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1624,22 +1624,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J25">
-        <v>0.13178400000000001</v>
+        <v>0.13768900000000001</v>
       </c>
       <c r="K25">
-        <v>0.115857</v>
+        <v>0.120945</v>
       </c>
       <c r="L25">
-        <v>0.102351</v>
+        <v>0.104393</v>
       </c>
       <c r="M25">
-        <v>9.3840000000000007E-2</v>
+        <v>9.4780000000000003E-2</v>
       </c>
       <c r="N25">
-        <v>8.3446999999999993E-2</v>
+        <v>8.4168000000000007E-2</v>
       </c>
       <c r="O25">
-        <v>8.6193000000000006E-2</v>
+        <v>8.8557999999999998E-2</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1671,13 +1671,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.20841399999999999</v>
+        <v>0.21551799999999999</v>
       </c>
       <c r="K26">
-        <v>0.14836099999999999</v>
+        <v>0.15462000000000001</v>
       </c>
       <c r="L26">
-        <v>0.110072</v>
+        <v>0.115344</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -1718,22 +1718,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J27">
-        <v>0.19548299999999999</v>
+        <v>0.20418800000000001</v>
       </c>
       <c r="K27">
-        <v>0.16462399999999999</v>
+        <v>0.17281299999999999</v>
       </c>
       <c r="L27">
-        <v>0.13602800000000001</v>
+        <v>0.140649</v>
       </c>
       <c r="M27">
-        <v>0.118981</v>
+        <v>0.124255</v>
       </c>
       <c r="N27">
-        <v>0.102155</v>
+        <v>0.108344</v>
       </c>
       <c r="O27">
-        <v>0.11067100000000001</v>
+        <v>0.116145</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -1765,22 +1765,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J28">
-        <v>0.17008000000000001</v>
+        <v>0.17852399999999999</v>
       </c>
       <c r="K28">
-        <v>0.142681</v>
+        <v>0.15040899999999999</v>
       </c>
       <c r="L28">
-        <v>0.120714</v>
+        <v>0.12543299999999999</v>
       </c>
       <c r="M28">
-        <v>0.10470599999999999</v>
+        <v>0.109421</v>
       </c>
       <c r="N28">
-        <v>8.788E-2</v>
+        <v>9.3012999999999998E-2</v>
       </c>
       <c r="O28">
-        <v>9.6934999999999993E-2</v>
+        <v>0.101949</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -1812,22 +1812,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J29">
-        <v>0.15049000000000001</v>
+        <v>0.158771</v>
       </c>
       <c r="K29">
-        <v>0.130075</v>
+        <v>0.137657</v>
       </c>
       <c r="L29">
-        <v>0.112328</v>
+        <v>0.116961</v>
       </c>
       <c r="M29">
-        <v>9.9137000000000003E-2</v>
+        <v>0.10377599999999999</v>
       </c>
       <c r="N29">
-        <v>8.5615999999999998E-2</v>
+        <v>9.0675000000000006E-2</v>
       </c>
       <c r="O29">
-        <v>9.4296000000000005E-2</v>
+        <v>9.9204000000000001E-2</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -1859,13 +1859,13 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.19859299999999999</v>
+        <v>0.203573</v>
       </c>
       <c r="K30">
-        <v>0.139376</v>
+        <v>0.143594</v>
       </c>
       <c r="L30">
-        <v>0.10233100000000001</v>
+        <v>0.105896</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -1906,22 +1906,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J31">
-        <v>0.177984</v>
+        <v>0.18573400000000001</v>
       </c>
       <c r="K31">
-        <v>0.152642</v>
+        <v>0.16004099999999999</v>
       </c>
       <c r="L31">
-        <v>0.12751399999999999</v>
+        <v>0.13059100000000001</v>
       </c>
       <c r="M31">
-        <v>0.113885</v>
+        <v>0.116025</v>
       </c>
       <c r="N31">
-        <v>0.100406</v>
+        <v>0.10243099999999999</v>
       </c>
       <c r="O31">
-        <v>0.10316599999999999</v>
+        <v>0.10677399999999999</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -1953,22 +1953,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J32">
-        <v>0.153978</v>
+        <v>0.16139800000000001</v>
       </c>
       <c r="K32">
-        <v>0.132018</v>
+        <v>0.1389</v>
       </c>
       <c r="L32">
-        <v>0.11393499999999999</v>
+        <v>0.11695800000000001</v>
       </c>
       <c r="M32">
-        <v>0.102007</v>
+        <v>0.103313</v>
       </c>
       <c r="N32">
-        <v>8.8264999999999996E-2</v>
+        <v>8.9235999999999996E-2</v>
       </c>
       <c r="O32">
-        <v>9.1115000000000002E-2</v>
+        <v>9.4266000000000003E-2</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2000,22 +2000,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J33">
-        <v>0.13467499999999999</v>
+        <v>0.14195199999999999</v>
       </c>
       <c r="K33">
-        <v>0.119613</v>
+        <v>0.126364</v>
       </c>
       <c r="L33">
-        <v>0.10567</v>
+        <v>0.108636</v>
       </c>
       <c r="M33">
-        <v>9.6472000000000002E-2</v>
+        <v>9.7756999999999997E-2</v>
       </c>
       <c r="N33">
-        <v>8.5967000000000002E-2</v>
+        <v>8.6928000000000005E-2</v>
       </c>
       <c r="O33">
-        <v>8.8596999999999995E-2</v>
+        <v>9.1677999999999996E-2</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.19365299999999999</v>
+        <v>0.19708500000000001</v>
       </c>
       <c r="K34">
-        <v>0.135045</v>
+        <v>0.137958</v>
       </c>
       <c r="L34">
-        <v>9.8699999999999996E-2</v>
+        <v>0.101159</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J35">
-        <v>0.171458</v>
+        <v>0.176787</v>
       </c>
       <c r="K35">
-        <v>0.146511</v>
+        <v>0.15154699999999999</v>
       </c>
       <c r="L35">
-        <v>0.12381200000000001</v>
+        <v>0.125941</v>
       </c>
       <c r="M35">
-        <v>0.11099000000000001</v>
+        <v>0.112513</v>
       </c>
       <c r="N35">
-        <v>9.7845000000000001E-2</v>
+        <v>9.9297999999999997E-2</v>
       </c>
       <c r="O35">
-        <v>9.9521999999999999E-2</v>
+        <v>0.10201200000000001</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2141,22 +2141,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J36">
-        <v>0.14784800000000001</v>
+        <v>0.152945</v>
       </c>
       <c r="K36">
-        <v>0.12640999999999999</v>
+        <v>0.13108300000000001</v>
       </c>
       <c r="L36">
-        <v>0.11054899999999999</v>
+        <v>0.11262800000000001</v>
       </c>
       <c r="M36">
-        <v>9.9335000000000007E-2</v>
+        <v>0.10029</v>
       </c>
       <c r="N36">
-        <v>8.5720000000000005E-2</v>
+        <v>8.6448999999999998E-2</v>
       </c>
       <c r="O36">
-        <v>8.7850999999999999E-2</v>
+        <v>9.0025999999999995E-2</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2188,22 +2188,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J37">
-        <v>0.12865399999999999</v>
+        <v>0.13365299999999999</v>
       </c>
       <c r="K37">
-        <v>0.114119</v>
+        <v>0.11870600000000001</v>
       </c>
       <c r="L37">
-        <v>0.102351</v>
+        <v>0.104393</v>
       </c>
       <c r="M37">
-        <v>9.3840000000000007E-2</v>
+        <v>9.4780000000000003E-2</v>
       </c>
       <c r="N37">
-        <v>8.3446999999999993E-2</v>
+        <v>8.4168000000000007E-2</v>
       </c>
       <c r="O37">
-        <v>8.5403000000000007E-2</v>
+        <v>8.7530999999999998E-2</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2235,13 +2235,13 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.204625</v>
+        <v>0.211284</v>
       </c>
       <c r="K38">
-        <v>0.14524599999999999</v>
+        <v>0.15113699999999999</v>
       </c>
       <c r="L38">
-        <v>0.107686</v>
+        <v>0.112706</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2282,22 +2282,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J39">
-        <v>0.18456</v>
+        <v>0.19197400000000001</v>
       </c>
       <c r="K39">
-        <v>0.158556</v>
+        <v>0.16602900000000001</v>
       </c>
       <c r="L39">
-        <v>0.13602800000000001</v>
+        <v>0.140649</v>
       </c>
       <c r="M39">
-        <v>0.118981</v>
+        <v>0.124255</v>
       </c>
       <c r="N39">
-        <v>0.102155</v>
+        <v>0.108344</v>
       </c>
       <c r="O39">
-        <v>0.108246</v>
+        <v>0.11346000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2329,22 +2329,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J40">
-        <v>0.15951100000000001</v>
+        <v>0.16667799999999999</v>
       </c>
       <c r="K40">
-        <v>0.13725599999999999</v>
+        <v>0.14433199999999999</v>
       </c>
       <c r="L40">
-        <v>0.120714</v>
+        <v>0.12543299999999999</v>
       </c>
       <c r="M40">
-        <v>0.10470599999999999</v>
+        <v>0.109421</v>
       </c>
       <c r="N40">
-        <v>8.788E-2</v>
+        <v>9.3012999999999998E-2</v>
       </c>
       <c r="O40">
-        <v>9.4606999999999997E-2</v>
+        <v>9.9374000000000004E-2</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -2376,22 +2376,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J41">
-        <v>0.140124</v>
+        <v>0.14715400000000001</v>
       </c>
       <c r="K41">
-        <v>0.124752</v>
+        <v>0.13169400000000001</v>
       </c>
       <c r="L41">
-        <v>0.112328</v>
+        <v>0.116961</v>
       </c>
       <c r="M41">
-        <v>9.9137000000000003E-2</v>
+        <v>0.10377599999999999</v>
       </c>
       <c r="N41">
-        <v>8.5615999999999998E-2</v>
+        <v>9.0675000000000006E-2</v>
       </c>
       <c r="O41">
-        <v>9.2022999999999994E-2</v>
+        <v>9.6688999999999997E-2</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -2423,13 +2423,13 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0.19659199999999999</v>
+        <v>0.200937</v>
       </c>
       <c r="K42">
-        <v>0.13775399999999999</v>
+        <v>0.14145099999999999</v>
       </c>
       <c r="L42">
-        <v>0.101066</v>
+        <v>0.10423399999999999</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -2470,22 +2470,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J43">
-        <v>0.17224200000000001</v>
+        <v>0.17815700000000001</v>
       </c>
       <c r="K43">
-        <v>0.149534</v>
+        <v>0.15593099999999999</v>
       </c>
       <c r="L43">
-        <v>0.12751399999999999</v>
+        <v>0.13059100000000001</v>
       </c>
       <c r="M43">
-        <v>0.113885</v>
+        <v>0.116025</v>
       </c>
       <c r="N43">
-        <v>0.100406</v>
+        <v>0.10243099999999999</v>
       </c>
       <c r="O43">
-        <v>0.101884</v>
+        <v>0.10509</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -2517,22 +2517,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J44">
-        <v>0.14838499999999999</v>
+        <v>0.15404300000000001</v>
       </c>
       <c r="K44">
-        <v>0.12923599999999999</v>
+        <v>0.13522700000000001</v>
       </c>
       <c r="L44">
-        <v>0.11393499999999999</v>
+        <v>0.11695800000000001</v>
       </c>
       <c r="M44">
-        <v>0.102007</v>
+        <v>0.103313</v>
       </c>
       <c r="N44">
-        <v>8.8264999999999996E-2</v>
+        <v>8.9235999999999996E-2</v>
       </c>
       <c r="O44">
-        <v>8.9879000000000001E-2</v>
+        <v>9.2643000000000003E-2</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -2564,22 +2564,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J45">
-        <v>0.129187</v>
+        <v>0.13473599999999999</v>
       </c>
       <c r="K45">
-        <v>0.116884</v>
+        <v>0.122761</v>
       </c>
       <c r="L45">
-        <v>0.10567</v>
+        <v>0.108636</v>
       </c>
       <c r="M45">
-        <v>9.6472000000000002E-2</v>
+        <v>9.7756999999999997E-2</v>
       </c>
       <c r="N45">
-        <v>8.5967000000000002E-2</v>
+        <v>8.6928000000000005E-2</v>
       </c>
       <c r="O45">
-        <v>8.7390999999999996E-2</v>
+        <v>9.0095999999999996E-2</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0.19195400000000001</v>
+        <v>0.19501499999999999</v>
       </c>
       <c r="K46">
-        <v>0.133774</v>
+        <v>0.136383</v>
       </c>
       <c r="L46">
-        <v>9.8108000000000001E-2</v>
+        <v>0.100357</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -2658,22 +2658,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J47">
-        <v>0.167097</v>
+        <v>0.17144300000000001</v>
       </c>
       <c r="K47">
-        <v>0.144432</v>
+        <v>0.14896499999999999</v>
       </c>
       <c r="L47">
-        <v>0.12381200000000001</v>
+        <v>0.125941</v>
       </c>
       <c r="M47">
-        <v>0.11099000000000001</v>
+        <v>0.112513</v>
       </c>
       <c r="N47">
-        <v>9.7845000000000001E-2</v>
+        <v>9.9297999999999997E-2</v>
       </c>
       <c r="O47">
-        <v>9.8959000000000005E-2</v>
+        <v>0.101234</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -2705,22 +2705,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J48">
-        <v>0.14371400000000001</v>
+        <v>0.14787400000000001</v>
       </c>
       <c r="K48">
-        <v>0.124656</v>
+        <v>0.128887</v>
       </c>
       <c r="L48">
-        <v>0.11054899999999999</v>
+        <v>0.11262800000000001</v>
       </c>
       <c r="M48">
-        <v>9.9335000000000007E-2</v>
+        <v>0.10029</v>
       </c>
       <c r="N48">
-        <v>8.5720000000000005E-2</v>
+        <v>8.6448999999999998E-2</v>
       </c>
       <c r="O48">
-        <v>8.7328000000000003E-2</v>
+        <v>8.9297000000000001E-2</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -2752,22 +2752,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J49">
-        <v>0.12460499999999999</v>
+        <v>0.12868399999999999</v>
       </c>
       <c r="K49">
-        <v>0.112405</v>
+        <v>0.11655600000000001</v>
       </c>
       <c r="L49">
-        <v>0.102351</v>
+        <v>0.104393</v>
       </c>
       <c r="M49">
-        <v>9.3840000000000007E-2</v>
+        <v>9.4780000000000003E-2</v>
       </c>
       <c r="N49">
-        <v>8.3446999999999993E-2</v>
+        <v>8.4168000000000007E-2</v>
       </c>
       <c r="O49">
-        <v>8.4898000000000001E-2</v>
+        <v>8.6823999999999998E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\PRECIOS CALCULADORA GALP LEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3D0B9F-908B-4125-A590-E16C65A6D8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28A37E2-5E77-4945-8F89-6F99CFF2E05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3350A494-7D0F-4E24-96BD-512094F7438F}"/>
   </bookViews>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>6.2TD</t>
-  </si>
-  <si>
-    <t>NOVIEMBRE</t>
   </si>
   <si>
     <t>DICIEMBRE</t>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>FEBRERO</t>
+  </si>
+  <si>
+    <t>MARZO</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,40 +478,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -543,13 +543,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.22065899999999999</v>
+        <v>0.21934200000000001</v>
       </c>
       <c r="K2">
-        <v>0.15898300000000001</v>
+        <v>0.158031</v>
       </c>
       <c r="L2">
-        <v>0.11788899999999999</v>
+        <v>0.117797</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -590,22 +590,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J3">
-        <v>0.21010899999999999</v>
+        <v>0.21248700000000001</v>
       </c>
       <c r="K3">
-        <v>0.182395</v>
+        <v>0.17860200000000001</v>
       </c>
       <c r="L3">
-        <v>0.14532999999999999</v>
+        <v>0.13938400000000001</v>
       </c>
       <c r="M3">
-        <v>0.124255</v>
+        <v>0.123141</v>
       </c>
       <c r="N3">
-        <v>0.108344</v>
+        <v>0.107488</v>
       </c>
       <c r="O3">
-        <v>0.118906</v>
+        <v>0.11867800000000001</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -637,22 +637,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J4">
-        <v>0.18492600000000001</v>
+        <v>0.18617</v>
       </c>
       <c r="K4">
-        <v>0.160025</v>
+        <v>0.15557199999999999</v>
       </c>
       <c r="L4">
-        <v>0.13161200000000001</v>
+        <v>0.124303</v>
       </c>
       <c r="M4">
-        <v>0.109421</v>
+        <v>0.10830099999999999</v>
       </c>
       <c r="N4">
-        <v>9.3012999999999998E-2</v>
+        <v>9.2104000000000005E-2</v>
       </c>
       <c r="O4">
-        <v>0.104783</v>
+        <v>0.104384</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -684,22 +684,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J5">
-        <v>0.16506499999999999</v>
+        <v>0.16622300000000001</v>
       </c>
       <c r="K5">
-        <v>0.14713300000000001</v>
+        <v>0.142683</v>
       </c>
       <c r="L5">
-        <v>0.122988</v>
+        <v>0.115851</v>
       </c>
       <c r="M5">
-        <v>0.10377599999999999</v>
+        <v>0.102675</v>
       </c>
       <c r="N5">
-        <v>9.0675000000000006E-2</v>
+        <v>8.9778999999999998E-2</v>
       </c>
       <c r="O5">
-        <v>0.101968</v>
+        <v>0.101551</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -731,13 +731,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.207563</v>
+        <v>0.205955</v>
       </c>
       <c r="K6">
-        <v>0.14701700000000001</v>
+        <v>0.14566000000000001</v>
       </c>
       <c r="L6">
-        <v>0.108246</v>
+        <v>0.10746699999999999</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -778,22 +778,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J7">
-        <v>0.19154499999999999</v>
+        <v>0.19212699999999999</v>
       </c>
       <c r="K7">
-        <v>0.167715</v>
+        <v>0.164274</v>
       </c>
       <c r="L7">
-        <v>0.13347100000000001</v>
+        <v>0.12979299999999999</v>
       </c>
       <c r="M7">
-        <v>0.116025</v>
+        <v>0.115133</v>
       </c>
       <c r="N7">
-        <v>0.10243099999999999</v>
+        <v>0.10169400000000001</v>
       </c>
       <c r="O7">
-        <v>0.109361</v>
+        <v>0.108408</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -825,22 +825,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J8">
-        <v>0.167661</v>
+        <v>0.167631</v>
       </c>
       <c r="K8">
-        <v>0.14666899999999999</v>
+        <v>0.14279900000000001</v>
       </c>
       <c r="L8">
-        <v>0.12084399999999999</v>
+        <v>0.11627800000000001</v>
       </c>
       <c r="M8">
-        <v>0.103313</v>
+        <v>0.102271</v>
       </c>
       <c r="N8">
-        <v>8.9235999999999996E-2</v>
+        <v>8.8279999999999997E-2</v>
       </c>
       <c r="O8">
-        <v>9.6826999999999996E-2</v>
+        <v>9.5774999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -872,22 +872,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J9">
-        <v>0.14809700000000001</v>
+        <v>0.14804300000000001</v>
       </c>
       <c r="K9">
-        <v>0.13400899999999999</v>
+        <v>0.13017400000000001</v>
       </c>
       <c r="L9">
-        <v>0.112431</v>
+        <v>0.10796600000000001</v>
       </c>
       <c r="M9">
-        <v>9.7756999999999997E-2</v>
+        <v>9.6734000000000001E-2</v>
       </c>
       <c r="N9">
-        <v>8.6928000000000005E-2</v>
+        <v>8.5986999999999994E-2</v>
       </c>
       <c r="O9">
-        <v>9.418E-2</v>
+        <v>9.3137999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -919,13 +919,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.19988500000000001</v>
+        <v>0.19896</v>
       </c>
       <c r="K10">
-        <v>0.140348</v>
+        <v>0.13958499999999999</v>
       </c>
       <c r="L10">
-        <v>0.102814</v>
+        <v>0.102433</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -966,22 +966,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J11">
-        <v>0.18063899999999999</v>
+        <v>0.18183099999999999</v>
       </c>
       <c r="K11">
-        <v>0.15718099999999999</v>
+        <v>0.15485699999999999</v>
       </c>
       <c r="L11">
-        <v>0.12801599999999999</v>
+        <v>0.125551</v>
       </c>
       <c r="M11">
-        <v>0.112513</v>
+        <v>0.112043</v>
       </c>
       <c r="N11">
-        <v>9.9297999999999997E-2</v>
+        <v>9.8912E-2</v>
       </c>
       <c r="O11">
-        <v>0.103837</v>
+        <v>0.10334400000000001</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1013,22 +1013,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J12">
-        <v>0.157059</v>
+        <v>0.157943</v>
       </c>
       <c r="K12">
-        <v>0.13681599999999999</v>
+        <v>0.134161</v>
       </c>
       <c r="L12">
-        <v>0.11545999999999999</v>
+        <v>0.112307</v>
       </c>
       <c r="M12">
-        <v>0.10029</v>
+        <v>9.9709000000000006E-2</v>
       </c>
       <c r="N12">
-        <v>8.6448999999999998E-2</v>
+        <v>8.5902999999999993E-2</v>
       </c>
       <c r="O12">
-        <v>9.1837000000000002E-2</v>
+        <v>9.1256000000000004E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1060,27 +1060,27 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J13">
-        <v>0.13768900000000001</v>
+        <v>0.138541</v>
       </c>
       <c r="K13">
-        <v>0.124344</v>
+        <v>0.121711</v>
       </c>
       <c r="L13">
-        <v>0.107158</v>
+        <v>0.104076</v>
       </c>
       <c r="M13">
-        <v>9.4780000000000003E-2</v>
+        <v>9.4209000000000001E-2</v>
       </c>
       <c r="N13">
-        <v>8.4168000000000007E-2</v>
+        <v>8.3630999999999997E-2</v>
       </c>
       <c r="O13">
-        <v>8.9300000000000004E-2</v>
+        <v>8.8720999999999994E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.21759800000000001</v>
+        <v>0.21507999999999999</v>
       </c>
       <c r="K14">
-        <v>0.15646299999999999</v>
+        <v>0.15413199999999999</v>
       </c>
       <c r="L14">
-        <v>0.11697</v>
+        <v>0.114833</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>12</v>
@@ -1154,27 +1154,27 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J15">
-        <v>0.21010899999999999</v>
+        <v>0.20518700000000001</v>
       </c>
       <c r="K15">
-        <v>0.176481</v>
+        <v>0.173098</v>
       </c>
       <c r="L15">
-        <v>0.140649</v>
+        <v>0.13938400000000001</v>
       </c>
       <c r="M15">
-        <v>0.124255</v>
+        <v>0.123141</v>
       </c>
       <c r="N15">
-        <v>0.108344</v>
+        <v>0.107488</v>
       </c>
       <c r="O15">
-        <v>0.11788899999999999</v>
+        <v>0.11562500000000001</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>12</v>
@@ -1201,27 +1201,27 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J16">
-        <v>0.18492600000000001</v>
+        <v>0.179595</v>
       </c>
       <c r="K16">
-        <v>0.154062</v>
+        <v>0.15071000000000001</v>
       </c>
       <c r="L16">
-        <v>0.12543299999999999</v>
+        <v>0.124303</v>
       </c>
       <c r="M16">
-        <v>0.109421</v>
+        <v>0.10830099999999999</v>
       </c>
       <c r="N16">
-        <v>9.3012999999999998E-2</v>
+        <v>9.2104000000000005E-2</v>
       </c>
       <c r="O16">
-        <v>0.10359</v>
+        <v>0.101518</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>12</v>
@@ -1248,27 +1248,27 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J17">
-        <v>0.16506499999999999</v>
+        <v>0.15981999999999999</v>
       </c>
       <c r="K17">
-        <v>0.14124400000000001</v>
+        <v>0.13795199999999999</v>
       </c>
       <c r="L17">
-        <v>0.116961</v>
+        <v>0.115851</v>
       </c>
       <c r="M17">
-        <v>0.10377599999999999</v>
+        <v>0.102675</v>
       </c>
       <c r="N17">
-        <v>9.0675000000000006E-2</v>
+        <v>8.9778999999999998E-2</v>
       </c>
       <c r="O17">
-        <v>0.10080500000000001</v>
+        <v>9.8779000000000006E-2</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>24</v>
@@ -1295,13 +1295,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.20564499999999999</v>
+        <v>0.20341500000000001</v>
       </c>
       <c r="K18">
-        <v>0.145422</v>
+        <v>0.143349</v>
       </c>
       <c r="L18">
-        <v>0.107491</v>
+        <v>0.10563599999999999</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>24</v>
@@ -1342,27 +1342,27 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J19">
-        <v>0.19154499999999999</v>
+        <v>0.18670700000000001</v>
       </c>
       <c r="K19">
-        <v>0.16359799999999999</v>
+        <v>0.160742</v>
       </c>
       <c r="L19">
-        <v>0.13059100000000001</v>
+        <v>0.12979299999999999</v>
       </c>
       <c r="M19">
-        <v>0.116025</v>
+        <v>0.115133</v>
       </c>
       <c r="N19">
-        <v>0.10243099999999999</v>
+        <v>0.10169400000000001</v>
       </c>
       <c r="O19">
-        <v>0.10850799999999999</v>
+        <v>0.106499</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>24</v>
@@ -1389,27 +1389,27 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J20">
-        <v>0.167661</v>
+        <v>0.16241700000000001</v>
       </c>
       <c r="K20">
-        <v>0.142428</v>
+        <v>0.13959199999999999</v>
       </c>
       <c r="L20">
-        <v>0.11695800000000001</v>
+        <v>0.11627800000000001</v>
       </c>
       <c r="M20">
-        <v>0.103313</v>
+        <v>0.102271</v>
       </c>
       <c r="N20">
-        <v>8.9235999999999996E-2</v>
+        <v>8.8279999999999997E-2</v>
       </c>
       <c r="O20">
-        <v>9.5894999999999994E-2</v>
+        <v>9.4006000000000006E-2</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>24</v>
@@ -1436,27 +1436,27 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J21">
-        <v>0.14809700000000001</v>
+        <v>0.14294899999999999</v>
       </c>
       <c r="K21">
-        <v>0.129827</v>
+        <v>0.12704499999999999</v>
       </c>
       <c r="L21">
-        <v>0.108636</v>
+        <v>0.10796600000000001</v>
       </c>
       <c r="M21">
-        <v>9.7756999999999997E-2</v>
+        <v>9.6734000000000001E-2</v>
       </c>
       <c r="N21">
-        <v>8.6928000000000005E-2</v>
+        <v>8.5986999999999994E-2</v>
       </c>
       <c r="O21">
-        <v>9.3270000000000006E-2</v>
+        <v>9.1423000000000004E-2</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>36</v>
@@ -1483,13 +1483,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.19845599999999999</v>
+        <v>0.19712199999999999</v>
       </c>
       <c r="K22">
-        <v>0.139158</v>
+        <v>0.13792699999999999</v>
       </c>
       <c r="L22">
-        <v>0.102199</v>
+        <v>0.101101</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>36</v>
@@ -1530,27 +1530,27 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J23">
-        <v>0.18063899999999999</v>
+        <v>0.17758699999999999</v>
       </c>
       <c r="K23">
-        <v>0.15387100000000001</v>
+        <v>0.15215200000000001</v>
       </c>
       <c r="L23">
-        <v>0.125941</v>
+        <v>0.125551</v>
       </c>
       <c r="M23">
-        <v>0.112513</v>
+        <v>0.112043</v>
       </c>
       <c r="N23">
-        <v>9.9297999999999997E-2</v>
+        <v>9.8912E-2</v>
       </c>
       <c r="O23">
-        <v>0.10313700000000001</v>
+        <v>0.10194599999999999</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B24">
         <v>36</v>
@@ -1577,27 +1577,27 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J24">
-        <v>0.157059</v>
+        <v>0.15376300000000001</v>
       </c>
       <c r="K24">
-        <v>0.13336600000000001</v>
+        <v>0.13167200000000001</v>
       </c>
       <c r="L24">
-        <v>0.11262800000000001</v>
+        <v>0.112307</v>
       </c>
       <c r="M24">
-        <v>0.10029</v>
+        <v>9.9709000000000006E-2</v>
       </c>
       <c r="N24">
-        <v>8.6448999999999998E-2</v>
+        <v>8.5902999999999993E-2</v>
       </c>
       <c r="O24">
-        <v>9.1077000000000005E-2</v>
+        <v>8.9956999999999995E-2</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B25">
         <v>36</v>
@@ -1624,22 +1624,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J25">
-        <v>0.13768900000000001</v>
+        <v>0.13445499999999999</v>
       </c>
       <c r="K25">
-        <v>0.120945</v>
+        <v>0.119283</v>
       </c>
       <c r="L25">
-        <v>0.104393</v>
+        <v>0.104076</v>
       </c>
       <c r="M25">
-        <v>9.4780000000000003E-2</v>
+        <v>9.4209000000000001E-2</v>
       </c>
       <c r="N25">
-        <v>8.4168000000000007E-2</v>
+        <v>8.3630999999999997E-2</v>
       </c>
       <c r="O25">
-        <v>8.8557999999999998E-2</v>
+        <v>8.7464E-2</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1671,13 +1671,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.21551799999999999</v>
+        <v>0.21048800000000001</v>
       </c>
       <c r="K26">
-        <v>0.15462000000000001</v>
+        <v>0.15035399999999999</v>
       </c>
       <c r="L26">
-        <v>0.115344</v>
+        <v>0.11199099999999999</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -1718,22 +1718,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J27">
-        <v>0.20418800000000001</v>
+        <v>0.19193499999999999</v>
       </c>
       <c r="K27">
-        <v>0.17281299999999999</v>
+        <v>0.165737</v>
       </c>
       <c r="L27">
-        <v>0.140649</v>
+        <v>0.13938400000000001</v>
       </c>
       <c r="M27">
-        <v>0.124255</v>
+        <v>0.123141</v>
       </c>
       <c r="N27">
-        <v>0.108344</v>
+        <v>0.107488</v>
       </c>
       <c r="O27">
-        <v>0.116145</v>
+        <v>0.112731</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -1765,22 +1765,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J28">
-        <v>0.17852399999999999</v>
+        <v>0.16673499999999999</v>
       </c>
       <c r="K28">
-        <v>0.15040899999999999</v>
+        <v>0.14410700000000001</v>
       </c>
       <c r="L28">
-        <v>0.12543299999999999</v>
+        <v>0.124303</v>
       </c>
       <c r="M28">
-        <v>0.109421</v>
+        <v>0.10830099999999999</v>
       </c>
       <c r="N28">
-        <v>9.3012999999999998E-2</v>
+        <v>9.2104000000000005E-2</v>
       </c>
       <c r="O28">
-        <v>0.101949</v>
+        <v>9.8742999999999997E-2</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -1812,22 +1812,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J29">
-        <v>0.158771</v>
+        <v>0.14720900000000001</v>
       </c>
       <c r="K29">
-        <v>0.137657</v>
+        <v>0.13147300000000001</v>
       </c>
       <c r="L29">
-        <v>0.116961</v>
+        <v>0.115851</v>
       </c>
       <c r="M29">
-        <v>0.10377599999999999</v>
+        <v>0.102675</v>
       </c>
       <c r="N29">
-        <v>9.0675000000000006E-2</v>
+        <v>8.9778999999999998E-2</v>
       </c>
       <c r="O29">
-        <v>9.9204000000000001E-2</v>
+        <v>9.6070000000000003E-2</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -1859,13 +1859,13 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.203573</v>
+        <v>0.20055700000000001</v>
       </c>
       <c r="K30">
-        <v>0.143594</v>
+        <v>0.14102300000000001</v>
       </c>
       <c r="L30">
-        <v>0.105896</v>
+        <v>0.10384500000000001</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -1906,22 +1906,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J31">
-        <v>0.18573400000000001</v>
+        <v>0.17848700000000001</v>
       </c>
       <c r="K31">
-        <v>0.16004099999999999</v>
+        <v>0.156277</v>
       </c>
       <c r="L31">
-        <v>0.13059100000000001</v>
+        <v>0.12979299999999999</v>
       </c>
       <c r="M31">
-        <v>0.116025</v>
+        <v>0.115133</v>
       </c>
       <c r="N31">
-        <v>0.10243099999999999</v>
+        <v>0.10169400000000001</v>
       </c>
       <c r="O31">
-        <v>0.10677399999999999</v>
+        <v>0.104684</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -1953,22 +1953,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J32">
-        <v>0.16139800000000001</v>
+        <v>0.15443699999999999</v>
       </c>
       <c r="K32">
-        <v>0.1389</v>
+        <v>0.135602</v>
       </c>
       <c r="L32">
-        <v>0.11695800000000001</v>
+        <v>0.11627800000000001</v>
       </c>
       <c r="M32">
-        <v>0.103313</v>
+        <v>0.102271</v>
       </c>
       <c r="N32">
-        <v>8.9235999999999996E-2</v>
+        <v>8.8279999999999997E-2</v>
       </c>
       <c r="O32">
-        <v>9.4266000000000003E-2</v>
+        <v>9.2258000000000007E-2</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2000,22 +2000,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J33">
-        <v>0.14195199999999999</v>
+        <v>0.13512299999999999</v>
       </c>
       <c r="K33">
-        <v>0.126364</v>
+        <v>0.123129</v>
       </c>
       <c r="L33">
-        <v>0.108636</v>
+        <v>0.10796600000000001</v>
       </c>
       <c r="M33">
-        <v>9.7756999999999997E-2</v>
+        <v>9.6734000000000001E-2</v>
       </c>
       <c r="N33">
-        <v>8.6928000000000005E-2</v>
+        <v>8.5986999999999994E-2</v>
       </c>
       <c r="O33">
-        <v>9.1677999999999996E-2</v>
+        <v>8.9718999999999993E-2</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.19708500000000001</v>
+        <v>0.19489200000000001</v>
       </c>
       <c r="K34">
-        <v>0.137958</v>
+        <v>0.136217</v>
       </c>
       <c r="L34">
-        <v>0.101159</v>
+        <v>0.100201</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J35">
-        <v>0.176787</v>
+        <v>0.17179900000000001</v>
       </c>
       <c r="K35">
-        <v>0.15154699999999999</v>
+        <v>0.14933099999999999</v>
       </c>
       <c r="L35">
-        <v>0.125941</v>
+        <v>0.125551</v>
       </c>
       <c r="M35">
-        <v>0.112513</v>
+        <v>0.112043</v>
       </c>
       <c r="N35">
-        <v>9.9297999999999997E-2</v>
+        <v>9.8912E-2</v>
       </c>
       <c r="O35">
-        <v>0.10201200000000001</v>
+        <v>0.10106900000000001</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2141,22 +2141,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J36">
-        <v>0.152945</v>
+        <v>0.14826600000000001</v>
       </c>
       <c r="K36">
-        <v>0.13108300000000001</v>
+        <v>0.12926299999999999</v>
       </c>
       <c r="L36">
-        <v>0.11262800000000001</v>
+        <v>0.112307</v>
       </c>
       <c r="M36">
-        <v>0.10029</v>
+        <v>9.9709000000000006E-2</v>
       </c>
       <c r="N36">
-        <v>8.6448999999999998E-2</v>
+        <v>8.5902999999999993E-2</v>
       </c>
       <c r="O36">
-        <v>9.0025999999999995E-2</v>
+        <v>8.9131000000000002E-2</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2188,22 +2188,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J37">
-        <v>0.13365299999999999</v>
+        <v>0.12906999999999999</v>
       </c>
       <c r="K37">
-        <v>0.11870600000000001</v>
+        <v>0.116924</v>
       </c>
       <c r="L37">
-        <v>0.104393</v>
+        <v>0.104076</v>
       </c>
       <c r="M37">
-        <v>9.4780000000000003E-2</v>
+        <v>9.4209000000000001E-2</v>
       </c>
       <c r="N37">
-        <v>8.4168000000000007E-2</v>
+        <v>8.3630999999999997E-2</v>
       </c>
       <c r="O37">
-        <v>8.7530999999999998E-2</v>
+        <v>8.6662000000000003E-2</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2235,13 +2235,13 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.211284</v>
+        <v>0.20807700000000001</v>
       </c>
       <c r="K38">
-        <v>0.15113699999999999</v>
+        <v>0.14825199999999999</v>
       </c>
       <c r="L38">
-        <v>0.112706</v>
+        <v>0.110249</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2282,22 +2282,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J39">
-        <v>0.19197400000000001</v>
+        <v>0.18466299999999999</v>
       </c>
       <c r="K39">
-        <v>0.16602900000000001</v>
+        <v>0.16163</v>
       </c>
       <c r="L39">
-        <v>0.140649</v>
+        <v>0.13938400000000001</v>
       </c>
       <c r="M39">
-        <v>0.124255</v>
+        <v>0.123141</v>
       </c>
       <c r="N39">
-        <v>0.108344</v>
+        <v>0.107488</v>
       </c>
       <c r="O39">
-        <v>0.11346000000000001</v>
+        <v>0.110948</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2329,22 +2329,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J40">
-        <v>0.16667799999999999</v>
+        <v>0.15928400000000001</v>
       </c>
       <c r="K40">
-        <v>0.14433199999999999</v>
+        <v>0.140102</v>
       </c>
       <c r="L40">
-        <v>0.12543299999999999</v>
+        <v>0.124303</v>
       </c>
       <c r="M40">
-        <v>0.109421</v>
+        <v>0.10830099999999999</v>
       </c>
       <c r="N40">
-        <v>9.3012999999999998E-2</v>
+        <v>9.2104000000000005E-2</v>
       </c>
       <c r="O40">
-        <v>9.9374000000000004E-2</v>
+        <v>9.6809999999999993E-2</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -2376,22 +2376,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J41">
-        <v>0.14715400000000001</v>
+        <v>0.139873</v>
       </c>
       <c r="K41">
-        <v>0.13169400000000001</v>
+        <v>0.127529</v>
       </c>
       <c r="L41">
-        <v>0.116961</v>
+        <v>0.115851</v>
       </c>
       <c r="M41">
-        <v>0.10377599999999999</v>
+        <v>0.102675</v>
       </c>
       <c r="N41">
-        <v>9.0675000000000006E-2</v>
+        <v>8.9778999999999998E-2</v>
       </c>
       <c r="O41">
-        <v>9.6688999999999997E-2</v>
+        <v>9.4182000000000002E-2</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -2423,13 +2423,13 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0.200937</v>
+        <v>0.19845699999999999</v>
       </c>
       <c r="K42">
-        <v>0.14145099999999999</v>
+        <v>0.13919599999999999</v>
       </c>
       <c r="L42">
-        <v>0.10423399999999999</v>
+        <v>0.102337</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -2470,22 +2470,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J43">
-        <v>0.17815700000000001</v>
+        <v>0.17214099999999999</v>
       </c>
       <c r="K43">
-        <v>0.15593099999999999</v>
+        <v>0.15273800000000001</v>
       </c>
       <c r="L43">
-        <v>0.13059100000000001</v>
+        <v>0.12979299999999999</v>
       </c>
       <c r="M43">
-        <v>0.116025</v>
+        <v>0.115133</v>
       </c>
       <c r="N43">
-        <v>0.10243099999999999</v>
+        <v>0.10169400000000001</v>
       </c>
       <c r="O43">
-        <v>0.10509</v>
+        <v>0.103142</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -2517,22 +2517,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J44">
-        <v>0.15404300000000001</v>
+        <v>0.147922</v>
       </c>
       <c r="K44">
-        <v>0.13522700000000001</v>
+        <v>0.13213800000000001</v>
       </c>
       <c r="L44">
-        <v>0.11695800000000001</v>
+        <v>0.11627800000000001</v>
       </c>
       <c r="M44">
-        <v>0.103313</v>
+        <v>0.102271</v>
       </c>
       <c r="N44">
-        <v>8.9235999999999996E-2</v>
+        <v>8.8279999999999997E-2</v>
       </c>
       <c r="O44">
-        <v>9.2643000000000003E-2</v>
+        <v>9.0584999999999999E-2</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -2564,22 +2564,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J45">
-        <v>0.13473599999999999</v>
+        <v>0.128723</v>
       </c>
       <c r="K45">
-        <v>0.122761</v>
+        <v>0.119727</v>
       </c>
       <c r="L45">
-        <v>0.108636</v>
+        <v>0.10796600000000001</v>
       </c>
       <c r="M45">
-        <v>9.7756999999999997E-2</v>
+        <v>9.6734000000000001E-2</v>
       </c>
       <c r="N45">
-        <v>8.6928000000000005E-2</v>
+        <v>8.5986999999999994E-2</v>
       </c>
       <c r="O45">
-        <v>9.0095999999999996E-2</v>
+        <v>8.8083999999999996E-2</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0.19501499999999999</v>
+        <v>0.193803</v>
       </c>
       <c r="K46">
-        <v>0.136383</v>
+        <v>0.13531699999999999</v>
       </c>
       <c r="L46">
-        <v>0.100357</v>
+        <v>9.9414000000000002E-2</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -2658,22 +2658,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J47">
-        <v>0.17144300000000001</v>
+        <v>0.168874</v>
       </c>
       <c r="K47">
-        <v>0.14896499999999999</v>
+        <v>0.148038</v>
       </c>
       <c r="L47">
-        <v>0.125941</v>
+        <v>0.125551</v>
       </c>
       <c r="M47">
-        <v>0.112513</v>
+        <v>0.112043</v>
       </c>
       <c r="N47">
-        <v>9.9297999999999997E-2</v>
+        <v>9.8912E-2</v>
       </c>
       <c r="O47">
-        <v>0.101234</v>
+        <v>0.100287</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -2705,22 +2705,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J48">
-        <v>0.14787400000000001</v>
+        <v>0.14538000000000001</v>
       </c>
       <c r="K48">
-        <v>0.128887</v>
+        <v>0.12812000000000001</v>
       </c>
       <c r="L48">
-        <v>0.11262800000000001</v>
+        <v>0.112307</v>
       </c>
       <c r="M48">
-        <v>0.10029</v>
+        <v>9.9709000000000006E-2</v>
       </c>
       <c r="N48">
-        <v>8.6448999999999998E-2</v>
+        <v>8.5902999999999993E-2</v>
       </c>
       <c r="O48">
-        <v>8.9297000000000001E-2</v>
+        <v>8.8289999999999993E-2</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -2752,22 +2752,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J49">
-        <v>0.12868399999999999</v>
+        <v>0.12623899999999999</v>
       </c>
       <c r="K49">
-        <v>0.11655600000000001</v>
+        <v>0.11580500000000001</v>
       </c>
       <c r="L49">
-        <v>0.104393</v>
+        <v>0.104076</v>
       </c>
       <c r="M49">
-        <v>9.4780000000000003E-2</v>
+        <v>9.4209000000000001E-2</v>
       </c>
       <c r="N49">
-        <v>8.4168000000000007E-2</v>
+        <v>8.3630999999999997E-2</v>
       </c>
       <c r="O49">
-        <v>8.6823999999999998E-2</v>
+        <v>8.5846000000000006E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\PRECIOS CALCULADORA GALP LEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28A37E2-5E77-4945-8F89-6F99CFF2E05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232A4FCA-DADE-4FB7-B716-33D03048E8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3350A494-7D0F-4E24-96BD-512094F7438F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3350A494-7D0F-4E24-96BD-512094F7438F}"/>
   </bookViews>
   <sheets>
     <sheet name="data2" sheetId="1" r:id="rId1"/>
@@ -457,14 +457,13 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -543,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.21934200000000001</v>
+        <v>0.214333</v>
       </c>
       <c r="K2">
-        <v>0.158031</v>
+        <v>0.153562</v>
       </c>
       <c r="L2">
-        <v>0.117797</v>
+        <v>0.11400200000000001</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -590,22 +589,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J3">
-        <v>0.21248700000000001</v>
+        <v>0.20596300000000001</v>
       </c>
       <c r="K3">
-        <v>0.17860200000000001</v>
+        <v>0.17291500000000001</v>
       </c>
       <c r="L3">
-        <v>0.13938400000000001</v>
+        <v>0.13535</v>
       </c>
       <c r="M3">
-        <v>0.123141</v>
+        <v>0.119824</v>
       </c>
       <c r="N3">
-        <v>0.107488</v>
+        <v>0.10471</v>
       </c>
       <c r="O3">
-        <v>0.11867800000000001</v>
+        <v>0.114868</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -637,22 +636,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J4">
-        <v>0.18617</v>
+        <v>0.180178</v>
       </c>
       <c r="K4">
-        <v>0.15557199999999999</v>
+        <v>0.15043000000000001</v>
       </c>
       <c r="L4">
-        <v>0.124303</v>
+        <v>0.12063500000000001</v>
       </c>
       <c r="M4">
-        <v>0.10830099999999999</v>
+        <v>0.105522</v>
       </c>
       <c r="N4">
-        <v>9.2104000000000005E-2</v>
+        <v>8.9882000000000004E-2</v>
       </c>
       <c r="O4">
-        <v>0.104384</v>
+        <v>0.101035</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -684,22 +683,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J5">
-        <v>0.16622300000000001</v>
+        <v>0.16034599999999999</v>
       </c>
       <c r="K5">
-        <v>0.142683</v>
+        <v>0.13763700000000001</v>
       </c>
       <c r="L5">
-        <v>0.115851</v>
+        <v>0.112246</v>
       </c>
       <c r="M5">
-        <v>0.102675</v>
+        <v>9.9940000000000001E-2</v>
       </c>
       <c r="N5">
-        <v>8.9778999999999998E-2</v>
+        <v>8.7589E-2</v>
       </c>
       <c r="O5">
-        <v>0.101551</v>
+        <v>9.8274E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -731,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.205955</v>
+        <v>0.20142499999999999</v>
       </c>
       <c r="K6">
-        <v>0.14566000000000001</v>
+        <v>0.141843</v>
       </c>
       <c r="L6">
-        <v>0.10746699999999999</v>
+        <v>0.104208</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -778,22 +777,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J7">
-        <v>0.19212699999999999</v>
+        <v>0.18457000000000001</v>
       </c>
       <c r="K7">
-        <v>0.164274</v>
+        <v>0.15712499999999999</v>
       </c>
       <c r="L7">
-        <v>0.12979299999999999</v>
+        <v>0.12669900000000001</v>
       </c>
       <c r="M7">
-        <v>0.115133</v>
+        <v>0.113861</v>
       </c>
       <c r="N7">
-        <v>0.10169400000000001</v>
+        <v>0.101298</v>
       </c>
       <c r="O7">
-        <v>0.108408</v>
+        <v>0.105197</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -825,22 +824,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J8">
-        <v>0.167631</v>
+        <v>0.16059499999999999</v>
       </c>
       <c r="K8">
-        <v>0.14279900000000001</v>
+        <v>0.13627500000000001</v>
       </c>
       <c r="L8">
-        <v>0.11627800000000001</v>
+        <v>0.11344799999999999</v>
       </c>
       <c r="M8">
-        <v>0.102271</v>
+        <v>0.101997</v>
       </c>
       <c r="N8">
-        <v>8.8279999999999997E-2</v>
+        <v>8.8898000000000005E-2</v>
       </c>
       <c r="O8">
-        <v>9.5774999999999999E-2</v>
+        <v>9.3090999999999993E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -872,22 +871,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J9">
-        <v>0.14804300000000001</v>
+        <v>0.14114099999999999</v>
       </c>
       <c r="K9">
-        <v>0.13017400000000001</v>
+        <v>0.12377199999999999</v>
       </c>
       <c r="L9">
-        <v>0.10796600000000001</v>
+        <v>0.105189</v>
       </c>
       <c r="M9">
-        <v>9.6734000000000001E-2</v>
+        <v>9.6462000000000006E-2</v>
       </c>
       <c r="N9">
-        <v>8.5986999999999994E-2</v>
+        <v>8.6593000000000003E-2</v>
       </c>
       <c r="O9">
-        <v>9.3137999999999999E-2</v>
+        <v>9.0512999999999996E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -919,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.19896</v>
+        <v>0.19472600000000001</v>
       </c>
       <c r="K10">
-        <v>0.13958499999999999</v>
+        <v>0.135937</v>
       </c>
       <c r="L10">
-        <v>0.102433</v>
+        <v>9.9293000000000006E-2</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -966,22 +965,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J11">
-        <v>0.18183099999999999</v>
+        <v>0.17546</v>
       </c>
       <c r="K11">
-        <v>0.15485699999999999</v>
+        <v>0.14888799999999999</v>
       </c>
       <c r="L11">
-        <v>0.125551</v>
+        <v>0.122374</v>
       </c>
       <c r="M11">
-        <v>0.112043</v>
+        <v>0.11014599999999999</v>
       </c>
       <c r="N11">
-        <v>9.8912E-2</v>
+        <v>9.7703999999999999E-2</v>
       </c>
       <c r="O11">
-        <v>0.10334400000000001</v>
+        <v>0.100218</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1013,22 +1012,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J12">
-        <v>0.157943</v>
+        <v>0.15201100000000001</v>
       </c>
       <c r="K12">
-        <v>0.134161</v>
+        <v>0.128715</v>
       </c>
       <c r="L12">
-        <v>0.112307</v>
+        <v>0.109392</v>
       </c>
       <c r="M12">
-        <v>9.9709000000000006E-2</v>
+        <v>9.8579E-2</v>
       </c>
       <c r="N12">
-        <v>8.5902999999999993E-2</v>
+        <v>8.5496000000000003E-2</v>
       </c>
       <c r="O12">
-        <v>9.1256000000000004E-2</v>
+        <v>8.8598999999999997E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1060,22 +1059,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J13">
-        <v>0.138541</v>
+        <v>0.13272200000000001</v>
       </c>
       <c r="K13">
-        <v>0.121711</v>
+        <v>0.116366</v>
       </c>
       <c r="L13">
-        <v>0.104076</v>
+        <v>0.101214</v>
       </c>
       <c r="M13">
-        <v>9.4209000000000001E-2</v>
+        <v>9.3095999999999998E-2</v>
       </c>
       <c r="N13">
-        <v>8.3630999999999997E-2</v>
+        <v>8.3227999999999996E-2</v>
       </c>
       <c r="O13">
-        <v>8.8720999999999994E-2</v>
+        <v>8.6122000000000004E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1107,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.21507999999999999</v>
+        <v>0.209813</v>
       </c>
       <c r="K14">
-        <v>0.15413199999999999</v>
+        <v>0.149446</v>
       </c>
       <c r="L14">
-        <v>0.114833</v>
+        <v>0.110814</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1154,22 +1153,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J15">
-        <v>0.20518700000000001</v>
+        <v>0.19767199999999999</v>
       </c>
       <c r="K15">
-        <v>0.173098</v>
+        <v>0.166854</v>
       </c>
       <c r="L15">
-        <v>0.13938400000000001</v>
+        <v>0.13535</v>
       </c>
       <c r="M15">
-        <v>0.123141</v>
+        <v>0.119824</v>
       </c>
       <c r="N15">
-        <v>0.107488</v>
+        <v>0.10471</v>
       </c>
       <c r="O15">
-        <v>0.11562500000000001</v>
+        <v>0.111568</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1201,22 +1200,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J16">
-        <v>0.179595</v>
+        <v>0.172515</v>
       </c>
       <c r="K16">
-        <v>0.15071000000000001</v>
+        <v>0.145008</v>
       </c>
       <c r="L16">
-        <v>0.124303</v>
+        <v>0.12063500000000001</v>
       </c>
       <c r="M16">
-        <v>0.10830099999999999</v>
+        <v>0.105522</v>
       </c>
       <c r="N16">
-        <v>9.2104000000000005E-2</v>
+        <v>8.9882000000000004E-2</v>
       </c>
       <c r="O16">
-        <v>0.101518</v>
+        <v>9.7941E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1248,22 +1247,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J17">
-        <v>0.15981999999999999</v>
+        <v>0.15287500000000001</v>
       </c>
       <c r="K17">
-        <v>0.13795199999999999</v>
+        <v>0.132356</v>
       </c>
       <c r="L17">
-        <v>0.115851</v>
+        <v>0.112246</v>
       </c>
       <c r="M17">
-        <v>0.102675</v>
+        <v>9.9940000000000001E-2</v>
       </c>
       <c r="N17">
-        <v>8.9778999999999998E-2</v>
+        <v>8.7589E-2</v>
       </c>
       <c r="O17">
-        <v>9.8779000000000006E-2</v>
+        <v>9.5278000000000002E-2</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1295,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.20341500000000001</v>
+        <v>0.198769</v>
       </c>
       <c r="K18">
-        <v>0.143349</v>
+        <v>0.13944200000000001</v>
       </c>
       <c r="L18">
-        <v>0.10563599999999999</v>
+        <v>0.102284</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1342,22 +1341,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J19">
-        <v>0.18670700000000001</v>
+        <v>0.178564</v>
       </c>
       <c r="K19">
-        <v>0.160742</v>
+        <v>0.15323300000000001</v>
       </c>
       <c r="L19">
-        <v>0.12979299999999999</v>
+        <v>0.12669900000000001</v>
       </c>
       <c r="M19">
-        <v>0.115133</v>
+        <v>0.113861</v>
       </c>
       <c r="N19">
-        <v>0.10169400000000001</v>
+        <v>0.101298</v>
       </c>
       <c r="O19">
-        <v>0.106499</v>
+        <v>0.103188</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1389,22 +1388,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J20">
-        <v>0.16241700000000001</v>
+        <v>0.154724</v>
       </c>
       <c r="K20">
-        <v>0.13959199999999999</v>
+        <v>0.13270399999999999</v>
       </c>
       <c r="L20">
-        <v>0.11627800000000001</v>
+        <v>0.11344799999999999</v>
       </c>
       <c r="M20">
-        <v>0.102271</v>
+        <v>0.101997</v>
       </c>
       <c r="N20">
-        <v>8.8279999999999997E-2</v>
+        <v>8.8898000000000005E-2</v>
       </c>
       <c r="O20">
-        <v>9.4006000000000006E-2</v>
+        <v>9.1233999999999996E-2</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1436,22 +1435,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J21">
-        <v>0.14294899999999999</v>
+        <v>0.135404</v>
       </c>
       <c r="K21">
-        <v>0.12704499999999999</v>
+        <v>0.120285</v>
       </c>
       <c r="L21">
-        <v>0.10796600000000001</v>
+        <v>0.105189</v>
       </c>
       <c r="M21">
-        <v>9.6734000000000001E-2</v>
+        <v>9.6462000000000006E-2</v>
       </c>
       <c r="N21">
-        <v>8.5986999999999994E-2</v>
+        <v>8.6593000000000003E-2</v>
       </c>
       <c r="O21">
-        <v>9.1423000000000004E-2</v>
+        <v>8.8711999999999999E-2</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1483,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.19712199999999999</v>
+        <v>0.19281799999999999</v>
       </c>
       <c r="K22">
-        <v>0.13792699999999999</v>
+        <v>0.13422100000000001</v>
       </c>
       <c r="L22">
-        <v>0.101101</v>
+        <v>9.7902000000000003E-2</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1530,22 +1529,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J23">
-        <v>0.17758699999999999</v>
+        <v>0.17088800000000001</v>
       </c>
       <c r="K23">
-        <v>0.15215200000000001</v>
+        <v>0.14598700000000001</v>
       </c>
       <c r="L23">
-        <v>0.125551</v>
+        <v>0.122374</v>
       </c>
       <c r="M23">
-        <v>0.112043</v>
+        <v>0.11014599999999999</v>
       </c>
       <c r="N23">
-        <v>9.8912E-2</v>
+        <v>9.7703999999999999E-2</v>
       </c>
       <c r="O23">
-        <v>0.10194599999999999</v>
+        <v>9.8755999999999997E-2</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1577,22 +1576,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J24">
-        <v>0.15376300000000001</v>
+        <v>0.14746600000000001</v>
       </c>
       <c r="K24">
-        <v>0.13167200000000001</v>
+        <v>0.126027</v>
       </c>
       <c r="L24">
-        <v>0.112307</v>
+        <v>0.109392</v>
       </c>
       <c r="M24">
-        <v>9.9709000000000006E-2</v>
+        <v>9.8579E-2</v>
       </c>
       <c r="N24">
-        <v>8.5902999999999993E-2</v>
+        <v>8.5496000000000003E-2</v>
       </c>
       <c r="O24">
-        <v>8.9956999999999995E-2</v>
+        <v>8.7243000000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1624,22 +1623,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J25">
-        <v>0.13445499999999999</v>
+        <v>0.128277</v>
       </c>
       <c r="K25">
-        <v>0.119283</v>
+        <v>0.113744</v>
       </c>
       <c r="L25">
-        <v>0.104076</v>
+        <v>0.101214</v>
       </c>
       <c r="M25">
-        <v>9.4209000000000001E-2</v>
+        <v>9.3095999999999998E-2</v>
       </c>
       <c r="N25">
-        <v>8.3630999999999997E-2</v>
+        <v>8.3227999999999996E-2</v>
       </c>
       <c r="O25">
-        <v>8.7464E-2</v>
+        <v>8.4806999999999994E-2</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1671,13 +1670,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.21048800000000001</v>
+        <v>0.20507400000000001</v>
       </c>
       <c r="K26">
-        <v>0.15035399999999999</v>
+        <v>0.14554900000000001</v>
       </c>
       <c r="L26">
-        <v>0.11199099999999999</v>
+        <v>0.107853</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -1718,22 +1717,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J27">
-        <v>0.19193499999999999</v>
+        <v>0.18396999999999999</v>
       </c>
       <c r="K27">
-        <v>0.165737</v>
+        <v>0.159249</v>
       </c>
       <c r="L27">
-        <v>0.13938400000000001</v>
+        <v>0.13535</v>
       </c>
       <c r="M27">
-        <v>0.123141</v>
+        <v>0.119824</v>
       </c>
       <c r="N27">
-        <v>0.107488</v>
+        <v>0.10471</v>
       </c>
       <c r="O27">
-        <v>0.112731</v>
+        <v>0.108557</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -1765,22 +1764,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J28">
-        <v>0.16673499999999999</v>
+        <v>0.15926199999999999</v>
       </c>
       <c r="K28">
-        <v>0.14410700000000001</v>
+        <v>0.138208</v>
       </c>
       <c r="L28">
-        <v>0.124303</v>
+        <v>0.12063500000000001</v>
       </c>
       <c r="M28">
-        <v>0.10830099999999999</v>
+        <v>0.105522</v>
       </c>
       <c r="N28">
-        <v>9.2104000000000005E-2</v>
+        <v>8.9882000000000004E-2</v>
       </c>
       <c r="O28">
-        <v>9.8742999999999997E-2</v>
+        <v>9.5049999999999996E-2</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -1812,22 +1811,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J29">
-        <v>0.14720900000000001</v>
+        <v>0.139876</v>
       </c>
       <c r="K29">
-        <v>0.13147300000000001</v>
+        <v>0.12568399999999999</v>
       </c>
       <c r="L29">
-        <v>0.115851</v>
+        <v>0.112246</v>
       </c>
       <c r="M29">
-        <v>0.102675</v>
+        <v>9.9940000000000001E-2</v>
       </c>
       <c r="N29">
-        <v>8.9778999999999998E-2</v>
+        <v>8.7589E-2</v>
       </c>
       <c r="O29">
-        <v>9.6070000000000003E-2</v>
+        <v>9.2454999999999996E-2</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -1859,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.20055700000000001</v>
+        <v>0.196214</v>
       </c>
       <c r="K30">
-        <v>0.14102300000000001</v>
+        <v>0.13736699999999999</v>
       </c>
       <c r="L30">
-        <v>0.10384500000000001</v>
+        <v>0.100678</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -1906,22 +1905,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J31">
-        <v>0.17848700000000001</v>
+        <v>0.17119799999999999</v>
       </c>
       <c r="K31">
-        <v>0.156277</v>
+        <v>0.14923600000000001</v>
       </c>
       <c r="L31">
-        <v>0.12979299999999999</v>
+        <v>0.12669900000000001</v>
       </c>
       <c r="M31">
-        <v>0.115133</v>
+        <v>0.113861</v>
       </c>
       <c r="N31">
-        <v>0.10169400000000001</v>
+        <v>0.101298</v>
       </c>
       <c r="O31">
-        <v>0.104684</v>
+        <v>0.10156</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -1953,22 +1952,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J32">
-        <v>0.15443699999999999</v>
+        <v>0.147565</v>
       </c>
       <c r="K32">
-        <v>0.135602</v>
+        <v>0.12912699999999999</v>
       </c>
       <c r="L32">
-        <v>0.11627800000000001</v>
+        <v>0.11344799999999999</v>
       </c>
       <c r="M32">
-        <v>0.102271</v>
+        <v>0.101997</v>
       </c>
       <c r="N32">
-        <v>8.8279999999999997E-2</v>
+        <v>8.8898000000000005E-2</v>
       </c>
       <c r="O32">
-        <v>9.2258000000000007E-2</v>
+        <v>8.9666999999999997E-2</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2000,22 +1999,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J33">
-        <v>0.13512299999999999</v>
+        <v>0.128381</v>
       </c>
       <c r="K33">
-        <v>0.123129</v>
+        <v>0.116775</v>
       </c>
       <c r="L33">
-        <v>0.10796600000000001</v>
+        <v>0.105189</v>
       </c>
       <c r="M33">
-        <v>9.6734000000000001E-2</v>
+        <v>9.6462000000000006E-2</v>
       </c>
       <c r="N33">
-        <v>8.5986999999999994E-2</v>
+        <v>8.6593000000000003E-2</v>
       </c>
       <c r="O33">
-        <v>8.9718999999999993E-2</v>
+        <v>8.7181999999999996E-2</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2047,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.19489200000000001</v>
+        <v>0.190801</v>
       </c>
       <c r="K34">
-        <v>0.136217</v>
+        <v>0.132687</v>
       </c>
       <c r="L34">
-        <v>0.100201</v>
+        <v>9.7115999999999994E-2</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2094,22 +2093,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J35">
-        <v>0.17179900000000001</v>
+        <v>0.16555900000000001</v>
       </c>
       <c r="K35">
-        <v>0.14933099999999999</v>
+        <v>0.143396</v>
       </c>
       <c r="L35">
-        <v>0.125551</v>
+        <v>0.122374</v>
       </c>
       <c r="M35">
-        <v>0.112043</v>
+        <v>0.11014599999999999</v>
       </c>
       <c r="N35">
-        <v>9.8912E-2</v>
+        <v>9.7703999999999999E-2</v>
       </c>
       <c r="O35">
-        <v>0.10106900000000001</v>
+        <v>9.7994999999999999E-2</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2141,22 +2140,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J36">
-        <v>0.14826600000000001</v>
+        <v>0.142399</v>
       </c>
       <c r="K36">
-        <v>0.12926299999999999</v>
+        <v>0.123817</v>
       </c>
       <c r="L36">
-        <v>0.112307</v>
+        <v>0.109392</v>
       </c>
       <c r="M36">
-        <v>9.9709000000000006E-2</v>
+        <v>9.8579E-2</v>
       </c>
       <c r="N36">
-        <v>8.5902999999999993E-2</v>
+        <v>8.5496000000000003E-2</v>
       </c>
       <c r="O36">
-        <v>8.9131000000000002E-2</v>
+        <v>8.6530999999999997E-2</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2188,22 +2187,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J37">
-        <v>0.12906999999999999</v>
+        <v>0.12331400000000001</v>
       </c>
       <c r="K37">
-        <v>0.116924</v>
+        <v>0.111581</v>
       </c>
       <c r="L37">
-        <v>0.104076</v>
+        <v>0.101214</v>
       </c>
       <c r="M37">
-        <v>9.4209000000000001E-2</v>
+        <v>9.3095999999999998E-2</v>
       </c>
       <c r="N37">
-        <v>8.3630999999999997E-2</v>
+        <v>8.3227999999999996E-2</v>
       </c>
       <c r="O37">
-        <v>8.6662000000000003E-2</v>
+        <v>8.4116999999999997E-2</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2235,13 +2234,13 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.20807700000000001</v>
+        <v>0.202436</v>
       </c>
       <c r="K38">
-        <v>0.14825199999999999</v>
+        <v>0.14325099999999999</v>
       </c>
       <c r="L38">
-        <v>0.110249</v>
+        <v>0.105948</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2282,22 +2281,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J39">
-        <v>0.18466299999999999</v>
+        <v>0.17601700000000001</v>
       </c>
       <c r="K39">
-        <v>0.16163</v>
+        <v>0.15476000000000001</v>
       </c>
       <c r="L39">
-        <v>0.13938400000000001</v>
+        <v>0.13535</v>
       </c>
       <c r="M39">
-        <v>0.123141</v>
+        <v>0.119824</v>
       </c>
       <c r="N39">
-        <v>0.107488</v>
+        <v>0.10471</v>
       </c>
       <c r="O39">
-        <v>0.110948</v>
+        <v>0.106609</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2329,22 +2328,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J40">
-        <v>0.15928400000000001</v>
+        <v>0.15110799999999999</v>
       </c>
       <c r="K40">
-        <v>0.140102</v>
+        <v>0.133827</v>
       </c>
       <c r="L40">
-        <v>0.124303</v>
+        <v>0.12063500000000001</v>
       </c>
       <c r="M40">
-        <v>0.10830099999999999</v>
+        <v>0.105522</v>
       </c>
       <c r="N40">
-        <v>9.2104000000000005E-2</v>
+        <v>8.9882000000000004E-2</v>
       </c>
       <c r="O40">
-        <v>9.6809999999999993E-2</v>
+        <v>9.2937000000000006E-2</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -2376,22 +2375,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J41">
-        <v>0.139873</v>
+        <v>0.131854</v>
       </c>
       <c r="K41">
-        <v>0.127529</v>
+        <v>0.121374</v>
       </c>
       <c r="L41">
-        <v>0.115851</v>
+        <v>0.112246</v>
       </c>
       <c r="M41">
-        <v>0.102675</v>
+        <v>9.9940000000000001E-2</v>
       </c>
       <c r="N41">
-        <v>8.9778999999999998E-2</v>
+        <v>8.7589E-2</v>
       </c>
       <c r="O41">
-        <v>9.4182000000000002E-2</v>
+        <v>9.0389999999999998E-2</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -2423,13 +2422,13 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0.19845699999999999</v>
+        <v>0.19434299999999999</v>
       </c>
       <c r="K42">
-        <v>0.13919599999999999</v>
+        <v>0.135738</v>
       </c>
       <c r="L42">
-        <v>0.102337</v>
+        <v>9.9332000000000004E-2</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -2470,22 +2469,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J43">
-        <v>0.17214099999999999</v>
+        <v>0.16553699999999999</v>
       </c>
       <c r="K43">
-        <v>0.15273800000000001</v>
+        <v>0.14607899999999999</v>
       </c>
       <c r="L43">
-        <v>0.12979299999999999</v>
+        <v>0.12669900000000001</v>
       </c>
       <c r="M43">
-        <v>0.115133</v>
+        <v>0.113861</v>
       </c>
       <c r="N43">
-        <v>0.10169400000000001</v>
+        <v>0.101298</v>
       </c>
       <c r="O43">
-        <v>0.103142</v>
+        <v>0.100184</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -2517,22 +2516,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J44">
-        <v>0.147922</v>
+        <v>0.14175499999999999</v>
       </c>
       <c r="K44">
-        <v>0.13213800000000001</v>
+        <v>0.12603900000000001</v>
       </c>
       <c r="L44">
-        <v>0.11627800000000001</v>
+        <v>0.11344799999999999</v>
       </c>
       <c r="M44">
-        <v>0.102271</v>
+        <v>0.101997</v>
       </c>
       <c r="N44">
-        <v>8.8279999999999997E-2</v>
+        <v>8.8898000000000005E-2</v>
       </c>
       <c r="O44">
-        <v>9.0584999999999999E-2</v>
+        <v>8.8173000000000001E-2</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -2564,22 +2563,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J45">
-        <v>0.128723</v>
+        <v>0.12267400000000001</v>
       </c>
       <c r="K45">
-        <v>0.119727</v>
+        <v>0.11374099999999999</v>
       </c>
       <c r="L45">
-        <v>0.10796600000000001</v>
+        <v>0.105189</v>
       </c>
       <c r="M45">
-        <v>9.6734000000000001E-2</v>
+        <v>9.6462000000000006E-2</v>
       </c>
       <c r="N45">
-        <v>8.5986999999999994E-2</v>
+        <v>8.6593000000000003E-2</v>
       </c>
       <c r="O45">
-        <v>8.8083999999999996E-2</v>
+        <v>8.5724999999999996E-2</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -2611,13 +2610,13 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0.193803</v>
+        <v>0.189855</v>
       </c>
       <c r="K46">
-        <v>0.13531699999999999</v>
+        <v>0.131914</v>
       </c>
       <c r="L46">
-        <v>9.9414000000000002E-2</v>
+        <v>9.6434000000000006E-2</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -2658,22 +2657,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J47">
-        <v>0.168874</v>
+        <v>0.16291600000000001</v>
       </c>
       <c r="K47">
-        <v>0.148038</v>
+        <v>0.142238</v>
       </c>
       <c r="L47">
-        <v>0.125551</v>
+        <v>0.122374</v>
       </c>
       <c r="M47">
-        <v>0.112043</v>
+        <v>0.11014599999999999</v>
       </c>
       <c r="N47">
-        <v>9.8912E-2</v>
+        <v>9.7703999999999999E-2</v>
       </c>
       <c r="O47">
-        <v>0.100287</v>
+        <v>9.7321000000000005E-2</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -2705,22 +2704,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J48">
-        <v>0.14538000000000001</v>
+        <v>0.139788</v>
       </c>
       <c r="K48">
-        <v>0.12812000000000001</v>
+        <v>0.122798</v>
       </c>
       <c r="L48">
-        <v>0.112307</v>
+        <v>0.109392</v>
       </c>
       <c r="M48">
-        <v>9.9709000000000006E-2</v>
+        <v>9.8579E-2</v>
       </c>
       <c r="N48">
-        <v>8.5902999999999993E-2</v>
+        <v>8.5496000000000003E-2</v>
       </c>
       <c r="O48">
-        <v>8.8289999999999993E-2</v>
+        <v>8.5809999999999997E-2</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -2752,22 +2751,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J49">
-        <v>0.12623899999999999</v>
+        <v>0.120754</v>
       </c>
       <c r="K49">
-        <v>0.11580500000000001</v>
+        <v>0.110583</v>
       </c>
       <c r="L49">
-        <v>0.104076</v>
+        <v>0.101214</v>
       </c>
       <c r="M49">
-        <v>9.4209000000000001E-2</v>
+        <v>9.3095999999999998E-2</v>
       </c>
       <c r="N49">
-        <v>8.3630999999999997E-2</v>
+        <v>8.3227999999999996E-2</v>
       </c>
       <c r="O49">
-        <v>8.5846000000000006E-2</v>
+        <v>8.3419999999999994E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\PRECIOS CALCULADORA GALP LEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232A4FCA-DADE-4FB7-B716-33D03048E8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90338A4C-DA7C-475B-B4F2-DAC47C1C5292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3350A494-7D0F-4E24-96BD-512094F7438F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3350A494-7D0F-4E24-96BD-512094F7438F}"/>
   </bookViews>
   <sheets>
     <sheet name="data2" sheetId="1" r:id="rId1"/>
@@ -457,16 +457,16 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="M2" sqref="M2:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="10" max="15" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="10" max="15" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +513,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.214333</v>
+        <v>0.20242099999999999</v>
       </c>
       <c r="K2">
-        <v>0.153562</v>
+        <v>0.14300499999999999</v>
       </c>
       <c r="L2">
-        <v>0.11400200000000001</v>
+        <v>0.105286</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -589,25 +589,25 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J3">
-        <v>0.20596300000000001</v>
+        <v>0.18978200000000001</v>
       </c>
       <c r="K3">
-        <v>0.17291500000000001</v>
+        <v>0.159742</v>
       </c>
       <c r="L3">
-        <v>0.13535</v>
+        <v>0.12617999999999999</v>
       </c>
       <c r="M3">
-        <v>0.119824</v>
+        <v>0.11219899999999999</v>
       </c>
       <c r="N3">
-        <v>0.10471</v>
+        <v>9.8669000000000007E-2</v>
       </c>
       <c r="O3">
-        <v>0.114868</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.106113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -636,25 +636,25 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J4">
-        <v>0.180178</v>
+        <v>0.16514200000000001</v>
       </c>
       <c r="K4">
-        <v>0.15043000000000001</v>
+        <v>0.13853099999999999</v>
       </c>
       <c r="L4">
-        <v>0.12063500000000001</v>
+        <v>0.11248</v>
       </c>
       <c r="M4">
-        <v>0.105522</v>
+        <v>9.8528000000000004E-2</v>
       </c>
       <c r="N4">
-        <v>8.9882000000000004E-2</v>
+        <v>8.4253999999999996E-2</v>
       </c>
       <c r="O4">
-        <v>0.101035</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.3326000000000006E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -683,25 +683,25 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J5">
-        <v>0.16034599999999999</v>
+        <v>0.145596</v>
       </c>
       <c r="K5">
-        <v>0.13763700000000001</v>
+        <v>0.125967</v>
       </c>
       <c r="L5">
-        <v>0.112246</v>
+        <v>0.10423300000000001</v>
       </c>
       <c r="M5">
-        <v>9.9940000000000001E-2</v>
+        <v>9.3060000000000004E-2</v>
       </c>
       <c r="N5">
-        <v>8.7589E-2</v>
+        <v>8.2041000000000003E-2</v>
       </c>
       <c r="O5">
-        <v>9.8274E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.0729000000000004E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.20142499999999999</v>
+        <v>0.19381399999999999</v>
       </c>
       <c r="K6">
-        <v>0.141843</v>
+        <v>0.13517100000000001</v>
       </c>
       <c r="L6">
-        <v>0.104208</v>
+        <v>9.8771999999999999E-2</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -777,25 +777,25 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J7">
-        <v>0.18457000000000001</v>
+        <v>0.174568</v>
       </c>
       <c r="K7">
-        <v>0.15712499999999999</v>
+        <v>0.14862600000000001</v>
       </c>
       <c r="L7">
-        <v>0.12669900000000001</v>
+        <v>0.120853</v>
       </c>
       <c r="M7">
-        <v>0.113861</v>
+        <v>0.108857</v>
       </c>
       <c r="N7">
-        <v>0.101298</v>
+        <v>9.7110000000000002E-2</v>
       </c>
       <c r="O7">
-        <v>0.105197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.9725999999999995E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -824,25 +824,25 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J8">
-        <v>0.16059499999999999</v>
+        <v>0.15120500000000001</v>
       </c>
       <c r="K8">
-        <v>0.13627500000000001</v>
+        <v>0.12854499999999999</v>
       </c>
       <c r="L8">
-        <v>0.11344799999999999</v>
+        <v>0.108182</v>
       </c>
       <c r="M8">
-        <v>0.101997</v>
+        <v>9.74E-2</v>
       </c>
       <c r="N8">
-        <v>8.8898000000000005E-2</v>
+        <v>8.5029999999999994E-2</v>
       </c>
       <c r="O8">
-        <v>9.3090999999999993E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.8295999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -871,25 +871,25 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J9">
-        <v>0.14114099999999999</v>
+        <v>0.13192999999999999</v>
       </c>
       <c r="K9">
-        <v>0.12377199999999999</v>
+        <v>0.116188</v>
       </c>
       <c r="L9">
-        <v>0.105189</v>
+        <v>0.10001500000000001</v>
       </c>
       <c r="M9">
-        <v>9.6462000000000006E-2</v>
+        <v>9.1939999999999994E-2</v>
       </c>
       <c r="N9">
-        <v>8.6593000000000003E-2</v>
+        <v>8.2780999999999993E-2</v>
       </c>
       <c r="O9">
-        <v>9.0512999999999996E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.5819000000000006E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.19472600000000001</v>
+        <v>0.18936900000000001</v>
       </c>
       <c r="K10">
-        <v>0.135937</v>
+        <v>0.131295</v>
       </c>
       <c r="L10">
-        <v>9.9293000000000006E-2</v>
+        <v>9.5598000000000002E-2</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -965,25 +965,25 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J11">
-        <v>0.17546</v>
+        <v>0.16842799999999999</v>
       </c>
       <c r="K11">
-        <v>0.14888799999999999</v>
+        <v>0.14277500000000001</v>
       </c>
       <c r="L11">
-        <v>0.122374</v>
+        <v>0.118336</v>
       </c>
       <c r="M11">
-        <v>0.11014599999999999</v>
+        <v>0.106695</v>
       </c>
       <c r="N11">
-        <v>9.7703999999999999E-2</v>
+        <v>9.4779000000000002E-2</v>
       </c>
       <c r="O11">
-        <v>0.100218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.6506999999999996E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1012,25 +1012,25 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J12">
-        <v>0.15201100000000001</v>
+        <v>0.14538300000000001</v>
       </c>
       <c r="K12">
-        <v>0.128715</v>
+        <v>0.123139</v>
       </c>
       <c r="L12">
-        <v>0.109392</v>
+        <v>0.10575</v>
       </c>
       <c r="M12">
-        <v>9.8579E-2</v>
+        <v>9.5412999999999998E-2</v>
       </c>
       <c r="N12">
-        <v>8.5496000000000003E-2</v>
+        <v>8.2804000000000003E-2</v>
       </c>
       <c r="O12">
-        <v>8.8598999999999997E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.5370000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1059,25 +1059,25 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J13">
-        <v>0.13272200000000001</v>
+        <v>0.126219</v>
       </c>
       <c r="K13">
-        <v>0.116366</v>
+        <v>0.11089400000000001</v>
       </c>
       <c r="L13">
-        <v>0.101214</v>
+        <v>9.7633999999999999E-2</v>
       </c>
       <c r="M13">
-        <v>9.3095999999999998E-2</v>
+        <v>8.9981000000000005E-2</v>
       </c>
       <c r="N13">
-        <v>8.3227999999999996E-2</v>
+        <v>8.0574000000000007E-2</v>
       </c>
       <c r="O13">
-        <v>8.6122000000000004E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.2960999999999993E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.209813</v>
+        <v>0.19838900000000001</v>
       </c>
       <c r="K14">
-        <v>0.149446</v>
+        <v>0.139346</v>
       </c>
       <c r="L14">
-        <v>0.110814</v>
+        <v>0.10248599999999999</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1153,25 +1153,25 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J15">
-        <v>0.19767199999999999</v>
+        <v>0.18202499999999999</v>
       </c>
       <c r="K15">
-        <v>0.166854</v>
+        <v>0.15425700000000001</v>
       </c>
       <c r="L15">
-        <v>0.13535</v>
+        <v>0.12617999999999999</v>
       </c>
       <c r="M15">
-        <v>0.119824</v>
+        <v>0.11219899999999999</v>
       </c>
       <c r="N15">
-        <v>0.10471</v>
+        <v>9.8669000000000007E-2</v>
       </c>
       <c r="O15">
-        <v>0.111568</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.103224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1200,25 +1200,25 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J16">
-        <v>0.172515</v>
+        <v>0.15790799999999999</v>
       </c>
       <c r="K16">
-        <v>0.145008</v>
+        <v>0.133632</v>
       </c>
       <c r="L16">
-        <v>0.12063500000000001</v>
+        <v>0.11248</v>
       </c>
       <c r="M16">
-        <v>0.105522</v>
+        <v>9.8528000000000004E-2</v>
       </c>
       <c r="N16">
-        <v>8.9882000000000004E-2</v>
+        <v>8.4253999999999996E-2</v>
       </c>
       <c r="O16">
-        <v>9.7941E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.0617000000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1247,25 +1247,25 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J17">
-        <v>0.15287500000000001</v>
+        <v>0.138542</v>
       </c>
       <c r="K17">
-        <v>0.132356</v>
+        <v>0.121196</v>
       </c>
       <c r="L17">
-        <v>0.112246</v>
+        <v>0.10423300000000001</v>
       </c>
       <c r="M17">
-        <v>9.9940000000000001E-2</v>
+        <v>9.3060000000000004E-2</v>
       </c>
       <c r="N17">
-        <v>8.7589E-2</v>
+        <v>8.2041000000000003E-2</v>
       </c>
       <c r="O17">
-        <v>9.5278000000000002E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.8107000000000005E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.198769</v>
+        <v>0.19153400000000001</v>
       </c>
       <c r="K18">
-        <v>0.13944200000000001</v>
+        <v>0.13311000000000001</v>
       </c>
       <c r="L18">
-        <v>0.102284</v>
+        <v>9.7152000000000002E-2</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1341,25 +1341,25 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J19">
-        <v>0.178564</v>
+        <v>0.16936000000000001</v>
       </c>
       <c r="K19">
-        <v>0.15323300000000001</v>
+        <v>0.14528099999999999</v>
       </c>
       <c r="L19">
-        <v>0.12669900000000001</v>
+        <v>0.120853</v>
       </c>
       <c r="M19">
-        <v>0.113861</v>
+        <v>0.108857</v>
       </c>
       <c r="N19">
-        <v>0.101298</v>
+        <v>9.7110000000000002E-2</v>
       </c>
       <c r="O19">
-        <v>0.103188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.8044999999999993E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1388,25 +1388,25 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J20">
-        <v>0.154724</v>
+        <v>0.14613000000000001</v>
       </c>
       <c r="K20">
-        <v>0.13270399999999999</v>
+        <v>0.12549099999999999</v>
       </c>
       <c r="L20">
-        <v>0.11344799999999999</v>
+        <v>0.108182</v>
       </c>
       <c r="M20">
-        <v>0.101997</v>
+        <v>9.74E-2</v>
       </c>
       <c r="N20">
-        <v>8.8898000000000005E-2</v>
+        <v>8.5029999999999994E-2</v>
       </c>
       <c r="O20">
-        <v>9.1233999999999996E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.6747000000000005E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1435,25 +1435,25 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J21">
-        <v>0.135404</v>
+        <v>0.126972</v>
       </c>
       <c r="K21">
-        <v>0.120285</v>
+        <v>0.113207</v>
       </c>
       <c r="L21">
-        <v>0.105189</v>
+        <v>0.10001500000000001</v>
       </c>
       <c r="M21">
-        <v>9.6462000000000006E-2</v>
+        <v>9.1939999999999994E-2</v>
       </c>
       <c r="N21">
-        <v>8.6593000000000003E-2</v>
+        <v>8.2780999999999993E-2</v>
       </c>
       <c r="O21">
-        <v>8.8711999999999999E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.4318000000000004E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.19281799999999999</v>
+        <v>0.18775600000000001</v>
       </c>
       <c r="K22">
-        <v>0.13422100000000001</v>
+        <v>0.12984599999999999</v>
       </c>
       <c r="L22">
-        <v>9.7902000000000003E-2</v>
+        <v>9.4449000000000005E-2</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1529,25 +1529,25 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J23">
-        <v>0.17088800000000001</v>
+        <v>0.16456699999999999</v>
       </c>
       <c r="K23">
-        <v>0.14598700000000001</v>
+        <v>0.14032700000000001</v>
       </c>
       <c r="L23">
-        <v>0.122374</v>
+        <v>0.118336</v>
       </c>
       <c r="M23">
-        <v>0.11014599999999999</v>
+        <v>0.106695</v>
       </c>
       <c r="N23">
-        <v>9.7703999999999999E-2</v>
+        <v>9.4779000000000002E-2</v>
       </c>
       <c r="O23">
-        <v>9.8755999999999997E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.5307000000000003E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1576,25 +1576,25 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J24">
-        <v>0.14746600000000001</v>
+        <v>0.141564</v>
       </c>
       <c r="K24">
-        <v>0.126027</v>
+        <v>0.120883</v>
       </c>
       <c r="L24">
-        <v>0.109392</v>
+        <v>0.10575</v>
       </c>
       <c r="M24">
-        <v>9.8579E-2</v>
+        <v>9.5412999999999998E-2</v>
       </c>
       <c r="N24">
-        <v>8.5496000000000003E-2</v>
+        <v>8.2804000000000003E-2</v>
       </c>
       <c r="O24">
-        <v>8.7243000000000001E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.4261000000000003E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1623,25 +1623,25 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J25">
-        <v>0.128277</v>
+        <v>0.122487</v>
       </c>
       <c r="K25">
-        <v>0.113744</v>
+        <v>0.108695</v>
       </c>
       <c r="L25">
-        <v>0.101214</v>
+        <v>9.7633999999999999E-2</v>
       </c>
       <c r="M25">
-        <v>9.3095999999999998E-2</v>
+        <v>8.9981000000000005E-2</v>
       </c>
       <c r="N25">
-        <v>8.3227999999999996E-2</v>
+        <v>8.0574000000000007E-2</v>
       </c>
       <c r="O25">
-        <v>8.4806999999999994E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.1886E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1670,13 +1670,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.20507400000000001</v>
+        <v>0.195629</v>
       </c>
       <c r="K26">
-        <v>0.14554900000000001</v>
+        <v>0.137076</v>
       </c>
       <c r="L26">
-        <v>0.107853</v>
+        <v>0.100743</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1717,25 +1717,25 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J27">
-        <v>0.18396999999999999</v>
+        <v>0.17407500000000001</v>
       </c>
       <c r="K27">
-        <v>0.159249</v>
+        <v>0.14984800000000001</v>
       </c>
       <c r="L27">
-        <v>0.13535</v>
+        <v>0.12617999999999999</v>
       </c>
       <c r="M27">
-        <v>0.119824</v>
+        <v>0.11219899999999999</v>
       </c>
       <c r="N27">
-        <v>0.10471</v>
+        <v>9.8669000000000007E-2</v>
       </c>
       <c r="O27">
-        <v>0.108557</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.10145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1764,25 +1764,25 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J28">
-        <v>0.15926199999999999</v>
+        <v>0.15019199999999999</v>
       </c>
       <c r="K28">
-        <v>0.138208</v>
+        <v>0.129689</v>
       </c>
       <c r="L28">
-        <v>0.12063500000000001</v>
+        <v>0.11248</v>
       </c>
       <c r="M28">
-        <v>0.105522</v>
+        <v>9.8528000000000004E-2</v>
       </c>
       <c r="N28">
-        <v>8.9882000000000004E-2</v>
+        <v>8.4253999999999996E-2</v>
       </c>
       <c r="O28">
-        <v>9.5049999999999996E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.8914999999999994E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1811,25 +1811,25 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J29">
-        <v>0.139876</v>
+        <v>0.13097300000000001</v>
       </c>
       <c r="K29">
-        <v>0.12568399999999999</v>
+        <v>0.117325</v>
       </c>
       <c r="L29">
-        <v>0.112246</v>
+        <v>0.10423300000000001</v>
       </c>
       <c r="M29">
-        <v>9.9940000000000001E-2</v>
+        <v>9.3060000000000004E-2</v>
       </c>
       <c r="N29">
-        <v>8.7589E-2</v>
+        <v>8.2041000000000003E-2</v>
       </c>
       <c r="O29">
-        <v>9.2454999999999996E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.6445999999999995E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.196214</v>
+        <v>0.19006400000000001</v>
       </c>
       <c r="K30">
-        <v>0.13736699999999999</v>
+        <v>0.13192499999999999</v>
       </c>
       <c r="L30">
-        <v>0.100678</v>
+        <v>9.6218999999999999E-2</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -1905,25 +1905,25 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J31">
-        <v>0.17119799999999999</v>
+        <v>0.165163</v>
       </c>
       <c r="K31">
-        <v>0.14923600000000001</v>
+        <v>0.14302100000000001</v>
       </c>
       <c r="L31">
-        <v>0.12669900000000001</v>
+        <v>0.120853</v>
       </c>
       <c r="M31">
-        <v>0.113861</v>
+        <v>0.108857</v>
       </c>
       <c r="N31">
-        <v>0.101298</v>
+        <v>9.7110000000000002E-2</v>
       </c>
       <c r="O31">
-        <v>0.10156</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.7099000000000005E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -1952,25 +1952,25 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J32">
-        <v>0.147565</v>
+        <v>0.14202999999999999</v>
       </c>
       <c r="K32">
-        <v>0.12912699999999999</v>
+        <v>0.12347</v>
       </c>
       <c r="L32">
-        <v>0.11344799999999999</v>
+        <v>0.108182</v>
       </c>
       <c r="M32">
-        <v>0.101997</v>
+        <v>9.74E-2</v>
       </c>
       <c r="N32">
-        <v>8.8898000000000005E-2</v>
+        <v>8.5029999999999994E-2</v>
       </c>
       <c r="O32">
-        <v>8.9666999999999997E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.5833000000000007E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -1999,25 +1999,25 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J33">
-        <v>0.128381</v>
+        <v>0.122949</v>
       </c>
       <c r="K33">
-        <v>0.116775</v>
+        <v>0.111224</v>
       </c>
       <c r="L33">
-        <v>0.105189</v>
+        <v>0.10001500000000001</v>
       </c>
       <c r="M33">
-        <v>9.6462000000000006E-2</v>
+        <v>9.1939999999999994E-2</v>
       </c>
       <c r="N33">
-        <v>8.6593000000000003E-2</v>
+        <v>8.2780999999999993E-2</v>
       </c>
       <c r="O33">
-        <v>8.7181999999999996E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.3429000000000003E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -2046,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.190801</v>
+        <v>0.18638299999999999</v>
       </c>
       <c r="K34">
-        <v>0.132687</v>
+        <v>0.12883900000000001</v>
       </c>
       <c r="L34">
-        <v>9.7115999999999994E-2</v>
+        <v>9.4034999999999994E-2</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -2093,25 +2093,25 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J35">
-        <v>0.16555900000000001</v>
+        <v>0.16111400000000001</v>
       </c>
       <c r="K35">
-        <v>0.143396</v>
+        <v>0.13872499999999999</v>
       </c>
       <c r="L35">
-        <v>0.122374</v>
+        <v>0.118336</v>
       </c>
       <c r="M35">
-        <v>0.11014599999999999</v>
+        <v>0.106695</v>
       </c>
       <c r="N35">
-        <v>9.7703999999999999E-2</v>
+        <v>9.4779000000000002E-2</v>
       </c>
       <c r="O35">
-        <v>9.7994999999999999E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.4925999999999996E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -2140,25 +2140,25 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J36">
-        <v>0.142399</v>
+        <v>0.138317</v>
       </c>
       <c r="K36">
-        <v>0.123817</v>
+        <v>0.119557</v>
       </c>
       <c r="L36">
-        <v>0.109392</v>
+        <v>0.10575</v>
       </c>
       <c r="M36">
-        <v>9.8579E-2</v>
+        <v>9.5412999999999998E-2</v>
       </c>
       <c r="N36">
-        <v>8.5496000000000003E-2</v>
+        <v>8.2804000000000003E-2</v>
       </c>
       <c r="O36">
-        <v>8.6530999999999997E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.3915000000000003E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -2187,25 +2187,25 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J37">
-        <v>0.12331400000000001</v>
+        <v>0.119308</v>
       </c>
       <c r="K37">
-        <v>0.111581</v>
+        <v>0.10739899999999999</v>
       </c>
       <c r="L37">
-        <v>0.101214</v>
+        <v>9.7633999999999999E-2</v>
       </c>
       <c r="M37">
-        <v>9.3095999999999998E-2</v>
+        <v>8.9981000000000005E-2</v>
       </c>
       <c r="N37">
-        <v>8.3227999999999996E-2</v>
+        <v>8.0574000000000007E-2</v>
       </c>
       <c r="O37">
-        <v>8.4116999999999997E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.1554000000000001E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -2234,13 +2234,13 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.202436</v>
+        <v>0.19409899999999999</v>
       </c>
       <c r="K38">
-        <v>0.14325099999999999</v>
+        <v>0.135741</v>
       </c>
       <c r="L38">
-        <v>0.105948</v>
+        <v>9.9635000000000001E-2</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -2281,25 +2281,25 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J39">
-        <v>0.17601700000000001</v>
+        <v>0.16946</v>
       </c>
       <c r="K39">
-        <v>0.15476000000000001</v>
+        <v>0.14724000000000001</v>
       </c>
       <c r="L39">
-        <v>0.13535</v>
+        <v>0.12617999999999999</v>
       </c>
       <c r="M39">
-        <v>0.119824</v>
+        <v>0.11219899999999999</v>
       </c>
       <c r="N39">
-        <v>0.10471</v>
+        <v>9.8669000000000007E-2</v>
       </c>
       <c r="O39">
-        <v>0.106609</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.100317</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -2328,25 +2328,25 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J40">
-        <v>0.15110799999999999</v>
+        <v>0.14546899999999999</v>
       </c>
       <c r="K40">
-        <v>0.133827</v>
+        <v>0.12714900000000001</v>
       </c>
       <c r="L40">
-        <v>0.12063500000000001</v>
+        <v>0.11248</v>
       </c>
       <c r="M40">
-        <v>0.105522</v>
+        <v>9.8528000000000004E-2</v>
       </c>
       <c r="N40">
-        <v>8.9882000000000004E-2</v>
+        <v>8.4253999999999996E-2</v>
       </c>
       <c r="O40">
-        <v>9.2937000000000006E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.7688000000000002E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -2375,25 +2375,25 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J41">
-        <v>0.131854</v>
+        <v>0.12631800000000001</v>
       </c>
       <c r="K41">
-        <v>0.121374</v>
+        <v>0.11482100000000001</v>
       </c>
       <c r="L41">
-        <v>0.112246</v>
+        <v>0.10423300000000001</v>
       </c>
       <c r="M41">
-        <v>9.9940000000000001E-2</v>
+        <v>9.3060000000000004E-2</v>
       </c>
       <c r="N41">
-        <v>8.7589E-2</v>
+        <v>8.2041000000000003E-2</v>
       </c>
       <c r="O41">
-        <v>9.0389999999999998E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.5246000000000002E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -2422,13 +2422,13 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0.19434299999999999</v>
+        <v>0.188832</v>
       </c>
       <c r="K42">
-        <v>0.135738</v>
+        <v>0.130853</v>
       </c>
       <c r="L42">
-        <v>9.9332000000000004E-2</v>
+        <v>9.5334000000000002E-2</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -2440,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -2469,25 +2469,25 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J43">
-        <v>0.16553699999999999</v>
+        <v>0.161438</v>
       </c>
       <c r="K43">
-        <v>0.14607899999999999</v>
+        <v>0.14094400000000001</v>
       </c>
       <c r="L43">
-        <v>0.12669900000000001</v>
+        <v>0.120853</v>
       </c>
       <c r="M43">
-        <v>0.113861</v>
+        <v>0.108857</v>
       </c>
       <c r="N43">
-        <v>0.101298</v>
+        <v>9.7110000000000002E-2</v>
       </c>
       <c r="O43">
-        <v>0.100184</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.6193000000000001E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -2516,25 +2516,25 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J44">
-        <v>0.14175499999999999</v>
+        <v>0.138209</v>
       </c>
       <c r="K44">
-        <v>0.12603900000000001</v>
+        <v>0.121438</v>
       </c>
       <c r="L44">
-        <v>0.11344799999999999</v>
+        <v>0.108182</v>
       </c>
       <c r="M44">
-        <v>0.101997</v>
+        <v>9.74E-2</v>
       </c>
       <c r="N44">
-        <v>8.8898000000000005E-2</v>
+        <v>8.5029999999999994E-2</v>
       </c>
       <c r="O44">
-        <v>8.8173000000000001E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.4849999999999995E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -2563,25 +2563,25 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J45">
-        <v>0.12267400000000001</v>
+        <v>0.11919299999999999</v>
       </c>
       <c r="K45">
-        <v>0.11374099999999999</v>
+        <v>0.109226</v>
       </c>
       <c r="L45">
-        <v>0.105189</v>
+        <v>0.10001500000000001</v>
       </c>
       <c r="M45">
-        <v>9.6462000000000006E-2</v>
+        <v>9.1939999999999994E-2</v>
       </c>
       <c r="N45">
-        <v>8.6593000000000003E-2</v>
+        <v>8.2780999999999993E-2</v>
       </c>
       <c r="O45">
-        <v>8.5724999999999996E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.2469000000000001E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -2610,13 +2610,13 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0.189855</v>
+        <v>0.185784</v>
       </c>
       <c r="K46">
-        <v>0.131914</v>
+        <v>0.12837000000000001</v>
       </c>
       <c r="L46">
-        <v>9.6434000000000006E-2</v>
+        <v>9.3614000000000003E-2</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -2628,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -2657,25 +2657,25 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J47">
-        <v>0.16291600000000001</v>
+        <v>0.159633</v>
       </c>
       <c r="K47">
-        <v>0.142238</v>
+        <v>0.13814000000000001</v>
       </c>
       <c r="L47">
-        <v>0.122374</v>
+        <v>0.118336</v>
       </c>
       <c r="M47">
-        <v>0.11014599999999999</v>
+        <v>0.106695</v>
       </c>
       <c r="N47">
-        <v>9.7703999999999999E-2</v>
+        <v>9.4779000000000002E-2</v>
       </c>
       <c r="O47">
-        <v>9.7321000000000005E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.4518000000000005E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -2704,25 +2704,25 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J48">
-        <v>0.139788</v>
+        <v>0.136911</v>
       </c>
       <c r="K48">
-        <v>0.122798</v>
+        <v>0.11909599999999999</v>
       </c>
       <c r="L48">
-        <v>0.109392</v>
+        <v>0.10575</v>
       </c>
       <c r="M48">
-        <v>9.8579E-2</v>
+        <v>9.5412999999999998E-2</v>
       </c>
       <c r="N48">
-        <v>8.5496000000000003E-2</v>
+        <v>8.2804000000000003E-2</v>
       </c>
       <c r="O48">
-        <v>8.5809999999999997E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.3488000000000007E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -2751,22 +2751,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J49">
-        <v>0.120754</v>
+        <v>0.11792999999999999</v>
       </c>
       <c r="K49">
-        <v>0.110583</v>
+        <v>0.106948</v>
       </c>
       <c r="L49">
-        <v>0.101214</v>
+        <v>9.7633999999999999E-2</v>
       </c>
       <c r="M49">
-        <v>9.3095999999999998E-2</v>
+        <v>8.9981000000000005E-2</v>
       </c>
       <c r="N49">
-        <v>8.3227999999999996E-2</v>
+        <v>8.0574000000000007E-2</v>
       </c>
       <c r="O49">
-        <v>8.3419999999999994E-2</v>
+        <v>8.1143999999999994E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\PRECIOS CALCULADORA GALP LEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90338A4C-DA7C-475B-B4F2-DAC47C1C5292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E2323D-351D-4F24-BE76-E2A24D042827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3350A494-7D0F-4E24-96BD-512094F7438F}"/>
   </bookViews>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.20242099999999999</v>
+        <v>0.20991599999999999</v>
       </c>
       <c r="K2">
-        <v>0.14300499999999999</v>
+        <v>0.14949999999999999</v>
       </c>
       <c r="L2">
-        <v>0.105286</v>
+        <v>0.110661</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -589,22 +589,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J3">
-        <v>0.18978200000000001</v>
+        <v>0.20216000000000001</v>
       </c>
       <c r="K3">
-        <v>0.159742</v>
+        <v>0.16967599999999999</v>
       </c>
       <c r="L3">
-        <v>0.12617999999999999</v>
+        <v>0.13053999999999999</v>
       </c>
       <c r="M3">
-        <v>0.11219899999999999</v>
+        <v>0.11547399999999999</v>
       </c>
       <c r="N3">
-        <v>9.8669000000000007E-2</v>
+        <v>0.101407</v>
       </c>
       <c r="O3">
-        <v>0.106113</v>
+        <v>0.111527</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -636,22 +636,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J4">
-        <v>0.16514200000000001</v>
+        <v>0.17671899999999999</v>
       </c>
       <c r="K4">
-        <v>0.13853099999999999</v>
+        <v>0.14755399999999999</v>
       </c>
       <c r="L4">
-        <v>0.11248</v>
+        <v>0.11654200000000001</v>
       </c>
       <c r="M4">
-        <v>9.8528000000000004E-2</v>
+        <v>0.101077</v>
       </c>
       <c r="N4">
-        <v>8.4253999999999996E-2</v>
+        <v>8.6197999999999997E-2</v>
       </c>
       <c r="O4">
-        <v>9.3326000000000006E-2</v>
+        <v>9.8197000000000007E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -683,22 +683,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J5">
-        <v>0.145596</v>
+        <v>0.15695300000000001</v>
       </c>
       <c r="K5">
-        <v>0.125967</v>
+        <v>0.13481899999999999</v>
       </c>
       <c r="L5">
-        <v>0.10423300000000001</v>
+        <v>0.108221</v>
       </c>
       <c r="M5">
-        <v>9.3060000000000004E-2</v>
+        <v>9.5566999999999999E-2</v>
       </c>
       <c r="N5">
-        <v>8.2041000000000003E-2</v>
+        <v>8.3958000000000005E-2</v>
       </c>
       <c r="O5">
-        <v>9.0729000000000004E-2</v>
+        <v>9.5492999999999995E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.19381399999999999</v>
+        <v>0.201547</v>
       </c>
       <c r="K6">
-        <v>0.13517100000000001</v>
+        <v>0.14203299999999999</v>
       </c>
       <c r="L6">
-        <v>9.8771999999999999E-2</v>
+        <v>0.10462</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -777,22 +777,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J7">
-        <v>0.174568</v>
+        <v>0.18493100000000001</v>
       </c>
       <c r="K7">
-        <v>0.14862600000000001</v>
+        <v>0.15753900000000001</v>
       </c>
       <c r="L7">
-        <v>0.120853</v>
+        <v>0.12664900000000001</v>
       </c>
       <c r="M7">
-        <v>0.108857</v>
+        <v>0.11393300000000001</v>
       </c>
       <c r="N7">
-        <v>9.7110000000000002E-2</v>
+        <v>0.101727</v>
       </c>
       <c r="O7">
-        <v>9.9725999999999995E-2</v>
+        <v>0.10566200000000001</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -824,22 +824,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J8">
-        <v>0.15120500000000001</v>
+        <v>0.16089100000000001</v>
       </c>
       <c r="K8">
-        <v>0.12854499999999999</v>
+        <v>0.13666500000000001</v>
       </c>
       <c r="L8">
-        <v>0.108182</v>
+        <v>0.11359</v>
       </c>
       <c r="M8">
-        <v>9.74E-2</v>
+        <v>0.10188</v>
       </c>
       <c r="N8">
-        <v>8.5029999999999994E-2</v>
+        <v>8.8973999999999998E-2</v>
       </c>
       <c r="O8">
-        <v>8.8295999999999999E-2</v>
+        <v>9.3623999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -871,22 +871,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J9">
-        <v>0.13192999999999999</v>
+        <v>0.14143</v>
       </c>
       <c r="K9">
-        <v>0.116188</v>
+        <v>0.124156</v>
       </c>
       <c r="L9">
-        <v>0.10001500000000001</v>
+        <v>0.105328</v>
       </c>
       <c r="M9">
-        <v>9.1939999999999994E-2</v>
+        <v>9.6348000000000003E-2</v>
       </c>
       <c r="N9">
-        <v>8.2780999999999993E-2</v>
+        <v>8.6666000000000007E-2</v>
       </c>
       <c r="O9">
-        <v>8.5819000000000006E-2</v>
+        <v>9.1034000000000004E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.18936900000000001</v>
+        <v>0.19622200000000001</v>
       </c>
       <c r="K10">
-        <v>0.131295</v>
+        <v>0.13741999999999999</v>
       </c>
       <c r="L10">
-        <v>9.5598000000000002E-2</v>
+        <v>0.100857</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -965,22 +965,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J11">
-        <v>0.16842799999999999</v>
+        <v>0.17718900000000001</v>
       </c>
       <c r="K11">
-        <v>0.14277500000000001</v>
+        <v>0.15037200000000001</v>
       </c>
       <c r="L11">
-        <v>0.118336</v>
+        <v>0.123739</v>
       </c>
       <c r="M11">
-        <v>0.106695</v>
+        <v>0.11154500000000001</v>
       </c>
       <c r="N11">
-        <v>9.4779000000000002E-2</v>
+        <v>9.9214999999999998E-2</v>
       </c>
       <c r="O11">
-        <v>9.6506999999999996E-2</v>
+        <v>0.101854</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -1012,22 +1012,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J12">
-        <v>0.14538300000000001</v>
+        <v>0.15356500000000001</v>
       </c>
       <c r="K12">
-        <v>0.123139</v>
+        <v>0.13005900000000001</v>
       </c>
       <c r="L12">
-        <v>0.10575</v>
+        <v>0.11077099999999999</v>
       </c>
       <c r="M12">
-        <v>9.5412999999999998E-2</v>
+        <v>9.9727999999999997E-2</v>
       </c>
       <c r="N12">
-        <v>8.2804000000000003E-2</v>
+        <v>8.6619000000000002E-2</v>
       </c>
       <c r="O12">
-        <v>8.5370000000000001E-2</v>
+        <v>9.0151999999999996E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -1059,22 +1059,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J13">
-        <v>0.126219</v>
+        <v>0.134246</v>
       </c>
       <c r="K13">
-        <v>0.11089400000000001</v>
+        <v>0.117686</v>
       </c>
       <c r="L13">
-        <v>9.7633999999999999E-2</v>
+        <v>0.10256700000000001</v>
       </c>
       <c r="M13">
-        <v>8.9981000000000005E-2</v>
+        <v>9.4226000000000004E-2</v>
       </c>
       <c r="N13">
-        <v>8.0574000000000007E-2</v>
+        <v>8.4334000000000006E-2</v>
       </c>
       <c r="O13">
-        <v>8.2960999999999993E-2</v>
+        <v>8.7641999999999998E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.19838900000000001</v>
+        <v>0.20616899999999999</v>
       </c>
       <c r="K14">
-        <v>0.139346</v>
+        <v>0.146067</v>
       </c>
       <c r="L14">
-        <v>0.10248599999999999</v>
+        <v>0.10809199999999999</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1153,22 +1153,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J15">
-        <v>0.18202499999999999</v>
+        <v>0.19605900000000001</v>
       </c>
       <c r="K15">
-        <v>0.15425700000000001</v>
+        <v>0.16501399999999999</v>
       </c>
       <c r="L15">
-        <v>0.12617999999999999</v>
+        <v>0.13053999999999999</v>
       </c>
       <c r="M15">
-        <v>0.11219899999999999</v>
+        <v>0.11547399999999999</v>
       </c>
       <c r="N15">
-        <v>9.8669000000000007E-2</v>
+        <v>0.101407</v>
       </c>
       <c r="O15">
-        <v>0.103224</v>
+        <v>0.10889600000000001</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1200,22 +1200,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J16">
-        <v>0.15790799999999999</v>
+        <v>0.17135600000000001</v>
       </c>
       <c r="K16">
-        <v>0.133632</v>
+        <v>0.14349300000000001</v>
       </c>
       <c r="L16">
-        <v>0.11248</v>
+        <v>0.11654200000000001</v>
       </c>
       <c r="M16">
-        <v>9.8528000000000004E-2</v>
+        <v>0.101077</v>
       </c>
       <c r="N16">
-        <v>8.4253999999999996E-2</v>
+        <v>8.6197999999999997E-2</v>
       </c>
       <c r="O16">
-        <v>9.0617000000000003E-2</v>
+        <v>9.5736000000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -1247,22 +1247,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J17">
-        <v>0.138542</v>
+        <v>0.15173300000000001</v>
       </c>
       <c r="K17">
-        <v>0.121196</v>
+        <v>0.13086999999999999</v>
       </c>
       <c r="L17">
-        <v>0.10423300000000001</v>
+        <v>0.108221</v>
       </c>
       <c r="M17">
-        <v>9.3060000000000004E-2</v>
+        <v>9.5566999999999999E-2</v>
       </c>
       <c r="N17">
-        <v>8.2041000000000003E-2</v>
+        <v>8.3958000000000005E-2</v>
       </c>
       <c r="O17">
-        <v>8.8107000000000005E-2</v>
+        <v>9.3115000000000003E-2</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.19153400000000001</v>
+        <v>0.19941600000000001</v>
       </c>
       <c r="K18">
-        <v>0.13311000000000001</v>
+        <v>0.140097</v>
       </c>
       <c r="L18">
-        <v>9.7152000000000002E-2</v>
+        <v>0.103132</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J19">
-        <v>0.16936000000000001</v>
+        <v>0.18038100000000001</v>
       </c>
       <c r="K19">
-        <v>0.14528099999999999</v>
+        <v>0.15454699999999999</v>
       </c>
       <c r="L19">
-        <v>0.120853</v>
+        <v>0.12664900000000001</v>
       </c>
       <c r="M19">
-        <v>0.108857</v>
+        <v>0.11393300000000001</v>
       </c>
       <c r="N19">
-        <v>9.7110000000000002E-2</v>
+        <v>0.101727</v>
       </c>
       <c r="O19">
-        <v>9.8044999999999993E-2</v>
+        <v>0.104128</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -1388,22 +1388,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J20">
-        <v>0.14613000000000001</v>
+        <v>0.15656400000000001</v>
       </c>
       <c r="K20">
-        <v>0.12549099999999999</v>
+        <v>0.13397300000000001</v>
       </c>
       <c r="L20">
-        <v>0.108182</v>
+        <v>0.11359</v>
       </c>
       <c r="M20">
-        <v>9.74E-2</v>
+        <v>0.10188</v>
       </c>
       <c r="N20">
-        <v>8.5029999999999994E-2</v>
+        <v>8.8973999999999998E-2</v>
       </c>
       <c r="O20">
-        <v>8.6747000000000005E-2</v>
+        <v>9.2216999999999993E-2</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -1435,22 +1435,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J21">
-        <v>0.126972</v>
+        <v>0.137207</v>
       </c>
       <c r="K21">
-        <v>0.113207</v>
+        <v>0.121531</v>
       </c>
       <c r="L21">
-        <v>0.10001500000000001</v>
+        <v>0.105328</v>
       </c>
       <c r="M21">
-        <v>9.1939999999999994E-2</v>
+        <v>9.6348000000000003E-2</v>
       </c>
       <c r="N21">
-        <v>8.2780999999999993E-2</v>
+        <v>8.6666000000000007E-2</v>
       </c>
       <c r="O21">
-        <v>8.4318000000000004E-2</v>
+        <v>8.9672000000000002E-2</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.18775600000000001</v>
+        <v>0.194691</v>
       </c>
       <c r="K22">
-        <v>0.12984599999999999</v>
+        <v>0.13603999999999999</v>
       </c>
       <c r="L22">
-        <v>9.4449000000000005E-2</v>
+        <v>9.9782999999999997E-2</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1529,22 +1529,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J23">
-        <v>0.16456699999999999</v>
+        <v>0.173679</v>
       </c>
       <c r="K23">
-        <v>0.14032700000000001</v>
+        <v>0.14811099999999999</v>
       </c>
       <c r="L23">
-        <v>0.118336</v>
+        <v>0.123739</v>
       </c>
       <c r="M23">
-        <v>0.106695</v>
+        <v>0.11154500000000001</v>
       </c>
       <c r="N23">
-        <v>9.4779000000000002E-2</v>
+        <v>9.9214999999999998E-2</v>
       </c>
       <c r="O23">
-        <v>9.5307000000000003E-2</v>
+        <v>0.10073799999999999</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -1576,22 +1576,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J24">
-        <v>0.141564</v>
+        <v>0.150147</v>
       </c>
       <c r="K24">
-        <v>0.120883</v>
+        <v>0.127996</v>
       </c>
       <c r="L24">
-        <v>0.10575</v>
+        <v>0.11077099999999999</v>
       </c>
       <c r="M24">
-        <v>9.5412999999999998E-2</v>
+        <v>9.9727999999999997E-2</v>
       </c>
       <c r="N24">
-        <v>8.2804000000000003E-2</v>
+        <v>8.6619000000000002E-2</v>
       </c>
       <c r="O24">
-        <v>8.4261000000000003E-2</v>
+        <v>8.9122000000000007E-2</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -1623,22 +1623,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J25">
-        <v>0.122487</v>
+        <v>0.130907</v>
       </c>
       <c r="K25">
-        <v>0.108695</v>
+        <v>0.115675</v>
       </c>
       <c r="L25">
-        <v>9.7633999999999999E-2</v>
+        <v>0.10256700000000001</v>
       </c>
       <c r="M25">
-        <v>8.9981000000000005E-2</v>
+        <v>9.4226000000000004E-2</v>
       </c>
       <c r="N25">
-        <v>8.0574000000000007E-2</v>
+        <v>8.4334000000000006E-2</v>
       </c>
       <c r="O25">
-        <v>8.1886E-2</v>
+        <v>8.6646000000000001E-2</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -1670,13 +1670,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.195629</v>
+        <v>0.201456</v>
       </c>
       <c r="K26">
-        <v>0.137076</v>
+        <v>0.14218900000000001</v>
       </c>
       <c r="L26">
-        <v>0.100743</v>
+        <v>0.105188</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -1717,22 +1717,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J27">
-        <v>0.17407500000000001</v>
+        <v>0.182446</v>
       </c>
       <c r="K27">
-        <v>0.14984800000000001</v>
+        <v>0.15745400000000001</v>
       </c>
       <c r="L27">
-        <v>0.12617999999999999</v>
+        <v>0.13053999999999999</v>
       </c>
       <c r="M27">
-        <v>0.11219899999999999</v>
+        <v>0.11547399999999999</v>
       </c>
       <c r="N27">
-        <v>9.8669000000000007E-2</v>
+        <v>0.101407</v>
       </c>
       <c r="O27">
-        <v>0.10145</v>
+        <v>0.105938</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -1764,22 +1764,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J28">
-        <v>0.15019199999999999</v>
+        <v>0.15814900000000001</v>
       </c>
       <c r="K28">
-        <v>0.129689</v>
+        <v>0.136712</v>
       </c>
       <c r="L28">
-        <v>0.11248</v>
+        <v>0.11654200000000001</v>
       </c>
       <c r="M28">
-        <v>9.8528000000000004E-2</v>
+        <v>0.101077</v>
       </c>
       <c r="N28">
-        <v>8.4253999999999996E-2</v>
+        <v>8.6197999999999997E-2</v>
       </c>
       <c r="O28">
-        <v>8.8914999999999994E-2</v>
+        <v>9.2897999999999994E-2</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -1811,22 +1811,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J29">
-        <v>0.13097300000000001</v>
+        <v>0.13877900000000001</v>
       </c>
       <c r="K29">
-        <v>0.117325</v>
+        <v>0.12421599999999999</v>
       </c>
       <c r="L29">
-        <v>0.10423300000000001</v>
+        <v>0.108221</v>
       </c>
       <c r="M29">
-        <v>9.3060000000000004E-2</v>
+        <v>9.5566999999999999E-2</v>
       </c>
       <c r="N29">
-        <v>8.2041000000000003E-2</v>
+        <v>8.3958000000000005E-2</v>
       </c>
       <c r="O29">
-        <v>8.6445999999999995E-2</v>
+        <v>9.0343999999999994E-2</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.19006400000000001</v>
+        <v>0.196854</v>
       </c>
       <c r="K30">
-        <v>0.13192499999999999</v>
+        <v>0.138015</v>
       </c>
       <c r="L30">
-        <v>9.6218999999999999E-2</v>
+        <v>0.101538</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -1905,22 +1905,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J31">
-        <v>0.165163</v>
+        <v>0.17300599999999999</v>
       </c>
       <c r="K31">
-        <v>0.14302100000000001</v>
+        <v>0.15054200000000001</v>
       </c>
       <c r="L31">
-        <v>0.120853</v>
+        <v>0.12664900000000001</v>
       </c>
       <c r="M31">
-        <v>0.108857</v>
+        <v>0.11393300000000001</v>
       </c>
       <c r="N31">
-        <v>9.7110000000000002E-2</v>
+        <v>0.101727</v>
       </c>
       <c r="O31">
-        <v>9.7099000000000005E-2</v>
+        <v>0.102511</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -1952,22 +1952,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J32">
-        <v>0.14202999999999999</v>
+        <v>0.14938299999999999</v>
       </c>
       <c r="K32">
-        <v>0.12347</v>
+        <v>0.130384</v>
       </c>
       <c r="L32">
-        <v>0.108182</v>
+        <v>0.11359</v>
       </c>
       <c r="M32">
-        <v>9.74E-2</v>
+        <v>0.10188</v>
       </c>
       <c r="N32">
-        <v>8.5029999999999994E-2</v>
+        <v>8.8973999999999998E-2</v>
       </c>
       <c r="O32">
-        <v>8.5833000000000007E-2</v>
+        <v>9.0659000000000003E-2</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -1999,22 +1999,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J33">
-        <v>0.122949</v>
+        <v>0.130162</v>
       </c>
       <c r="K33">
-        <v>0.111224</v>
+        <v>0.118009</v>
       </c>
       <c r="L33">
-        <v>0.10001500000000001</v>
+        <v>0.105328</v>
       </c>
       <c r="M33">
-        <v>9.1939999999999994E-2</v>
+        <v>9.6348000000000003E-2</v>
       </c>
       <c r="N33">
-        <v>8.2780999999999993E-2</v>
+        <v>8.6666000000000007E-2</v>
       </c>
       <c r="O33">
-        <v>8.3429000000000003E-2</v>
+        <v>8.8151999999999994E-2</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -2046,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.18638299999999999</v>
+        <v>0.192581</v>
       </c>
       <c r="K34">
-        <v>0.12883900000000001</v>
+        <v>0.134434</v>
       </c>
       <c r="L34">
-        <v>9.4034999999999994E-2</v>
+        <v>9.8959000000000005E-2</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2093,22 +2093,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J35">
-        <v>0.16111400000000001</v>
+        <v>0.16814100000000001</v>
       </c>
       <c r="K35">
-        <v>0.13872499999999999</v>
+        <v>0.145394</v>
       </c>
       <c r="L35">
-        <v>0.118336</v>
+        <v>0.123739</v>
       </c>
       <c r="M35">
-        <v>0.106695</v>
+        <v>0.11154500000000001</v>
       </c>
       <c r="N35">
-        <v>9.4779000000000002E-2</v>
+        <v>9.9214999999999998E-2</v>
       </c>
       <c r="O35">
-        <v>9.4925999999999996E-2</v>
+        <v>9.9940000000000001E-2</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -2140,22 +2140,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J36">
-        <v>0.138317</v>
+        <v>0.14488999999999999</v>
       </c>
       <c r="K36">
-        <v>0.119557</v>
+        <v>0.12567600000000001</v>
       </c>
       <c r="L36">
-        <v>0.10575</v>
+        <v>0.11077099999999999</v>
       </c>
       <c r="M36">
-        <v>9.5412999999999998E-2</v>
+        <v>9.9727999999999997E-2</v>
       </c>
       <c r="N36">
-        <v>8.2804000000000003E-2</v>
+        <v>8.6619000000000002E-2</v>
       </c>
       <c r="O36">
-        <v>8.3915000000000003E-2</v>
+        <v>8.8378999999999999E-2</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -2187,22 +2187,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J37">
-        <v>0.119308</v>
+        <v>0.12575600000000001</v>
       </c>
       <c r="K37">
-        <v>0.10739899999999999</v>
+        <v>0.113404</v>
       </c>
       <c r="L37">
-        <v>9.7633999999999999E-2</v>
+        <v>0.10256700000000001</v>
       </c>
       <c r="M37">
-        <v>8.9981000000000005E-2</v>
+        <v>9.4226000000000004E-2</v>
       </c>
       <c r="N37">
-        <v>8.0574000000000007E-2</v>
+        <v>8.4334000000000006E-2</v>
       </c>
       <c r="O37">
-        <v>8.1554000000000001E-2</v>
+        <v>8.5926000000000002E-2</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -2234,13 +2234,13 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.19409899999999999</v>
+        <v>0.19941600000000001</v>
       </c>
       <c r="K38">
-        <v>0.135741</v>
+        <v>0.14041000000000001</v>
       </c>
       <c r="L38">
-        <v>9.9635000000000001E-2</v>
+        <v>0.103713</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2281,22 +2281,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J39">
-        <v>0.16946</v>
+        <v>0.17629300000000001</v>
       </c>
       <c r="K39">
-        <v>0.14724000000000001</v>
+        <v>0.15398000000000001</v>
       </c>
       <c r="L39">
-        <v>0.12617999999999999</v>
+        <v>0.13053999999999999</v>
       </c>
       <c r="M39">
-        <v>0.11219899999999999</v>
+        <v>0.11547399999999999</v>
       </c>
       <c r="N39">
-        <v>9.8669000000000007E-2</v>
+        <v>0.101407</v>
       </c>
       <c r="O39">
-        <v>0.100317</v>
+        <v>0.10442899999999999</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -2328,22 +2328,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J40">
-        <v>0.14546899999999999</v>
+        <v>0.15184700000000001</v>
       </c>
       <c r="K40">
-        <v>0.12714900000000001</v>
+        <v>0.133324</v>
       </c>
       <c r="L40">
-        <v>0.11248</v>
+        <v>0.11654200000000001</v>
       </c>
       <c r="M40">
-        <v>9.8528000000000004E-2</v>
+        <v>0.101077</v>
       </c>
       <c r="N40">
-        <v>8.4253999999999996E-2</v>
+        <v>8.6197999999999997E-2</v>
       </c>
       <c r="O40">
-        <v>8.7688000000000002E-2</v>
+        <v>9.1262999999999997E-2</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -2375,22 +2375,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J41">
-        <v>0.12631800000000001</v>
+        <v>0.132574</v>
       </c>
       <c r="K41">
-        <v>0.11482100000000001</v>
+        <v>0.120879</v>
       </c>
       <c r="L41">
-        <v>0.10423300000000001</v>
+        <v>0.108221</v>
       </c>
       <c r="M41">
-        <v>9.3060000000000004E-2</v>
+        <v>9.5566999999999999E-2</v>
       </c>
       <c r="N41">
-        <v>8.2041000000000003E-2</v>
+        <v>8.3958000000000005E-2</v>
       </c>
       <c r="O41">
-        <v>8.5246000000000002E-2</v>
+        <v>8.8746000000000005E-2</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -2422,13 +2422,13 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0.188832</v>
+        <v>0.195243</v>
       </c>
       <c r="K42">
-        <v>0.130853</v>
+        <v>0.13661300000000001</v>
       </c>
       <c r="L42">
-        <v>9.5334000000000002E-2</v>
+        <v>0.100381</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -2469,22 +2469,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J43">
-        <v>0.161438</v>
+        <v>0.168133</v>
       </c>
       <c r="K43">
-        <v>0.14094400000000001</v>
+        <v>0.14782500000000001</v>
       </c>
       <c r="L43">
-        <v>0.120853</v>
+        <v>0.12664900000000001</v>
       </c>
       <c r="M43">
-        <v>0.108857</v>
+        <v>0.11393300000000001</v>
       </c>
       <c r="N43">
-        <v>9.7110000000000002E-2</v>
+        <v>0.101727</v>
       </c>
       <c r="O43">
-        <v>9.6193000000000001E-2</v>
+        <v>0.101326</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -2516,22 +2516,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J44">
-        <v>0.138209</v>
+        <v>0.14438400000000001</v>
       </c>
       <c r="K44">
-        <v>0.121438</v>
+        <v>0.12772600000000001</v>
       </c>
       <c r="L44">
-        <v>0.108182</v>
+        <v>0.11359</v>
       </c>
       <c r="M44">
-        <v>9.74E-2</v>
+        <v>0.10188</v>
       </c>
       <c r="N44">
-        <v>8.5029999999999994E-2</v>
+        <v>8.8973999999999998E-2</v>
       </c>
       <c r="O44">
-        <v>8.4849999999999995E-2</v>
+        <v>8.9373999999999995E-2</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -2563,22 +2563,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J45">
-        <v>0.11919299999999999</v>
+        <v>0.12525</v>
       </c>
       <c r="K45">
-        <v>0.109226</v>
+        <v>0.115396</v>
       </c>
       <c r="L45">
-        <v>0.10001500000000001</v>
+        <v>0.105328</v>
       </c>
       <c r="M45">
-        <v>9.1939999999999994E-2</v>
+        <v>9.6348000000000003E-2</v>
       </c>
       <c r="N45">
-        <v>8.2780999999999993E-2</v>
+        <v>8.6666000000000007E-2</v>
       </c>
       <c r="O45">
-        <v>8.2469000000000001E-2</v>
+        <v>8.6898000000000003E-2</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -2610,13 +2610,13 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0.185784</v>
+        <v>0.19175300000000001</v>
       </c>
       <c r="K46">
-        <v>0.12837000000000001</v>
+        <v>0.133767</v>
       </c>
       <c r="L46">
-        <v>9.3614000000000003E-2</v>
+        <v>9.8371E-2</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -2657,22 +2657,22 @@
         <v>1.5536399999999999</v>
       </c>
       <c r="J47">
-        <v>0.159633</v>
+        <v>0.16597300000000001</v>
       </c>
       <c r="K47">
-        <v>0.13814000000000001</v>
+        <v>0.14446500000000001</v>
       </c>
       <c r="L47">
-        <v>0.118336</v>
+        <v>0.123739</v>
       </c>
       <c r="M47">
-        <v>0.106695</v>
+        <v>0.11154500000000001</v>
       </c>
       <c r="N47">
-        <v>9.4779000000000002E-2</v>
+        <v>9.9214999999999998E-2</v>
       </c>
       <c r="O47">
-        <v>9.4518000000000005E-2</v>
+        <v>9.9364999999999995E-2</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -2704,22 +2704,22 @@
         <v>0.96789999999999998</v>
       </c>
       <c r="J48">
-        <v>0.136911</v>
+        <v>0.142786</v>
       </c>
       <c r="K48">
-        <v>0.11909599999999999</v>
+        <v>0.124887</v>
       </c>
       <c r="L48">
-        <v>0.10575</v>
+        <v>0.11077099999999999</v>
       </c>
       <c r="M48">
-        <v>9.5412999999999998E-2</v>
+        <v>9.9727999999999997E-2</v>
       </c>
       <c r="N48">
-        <v>8.2804000000000003E-2</v>
+        <v>8.6619000000000002E-2</v>
       </c>
       <c r="O48">
-        <v>8.3488000000000007E-2</v>
+        <v>8.7770000000000001E-2</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -2751,22 +2751,22 @@
         <v>0.61592999999999998</v>
       </c>
       <c r="J49">
-        <v>0.11792999999999999</v>
+        <v>0.123694</v>
       </c>
       <c r="K49">
-        <v>0.106948</v>
+        <v>0.112631</v>
       </c>
       <c r="L49">
-        <v>9.7633999999999999E-2</v>
+        <v>0.10256700000000001</v>
       </c>
       <c r="M49">
-        <v>8.9981000000000005E-2</v>
+        <v>9.4226000000000004E-2</v>
       </c>
       <c r="N49">
-        <v>8.0574000000000007E-2</v>
+        <v>8.4334000000000006E-2</v>
       </c>
       <c r="O49">
-        <v>8.1143999999999994E-2</v>
+        <v>8.5336999999999996E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\PRECIOS CALCULADORA GALP LEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E2323D-351D-4F24-BE76-E2A24D042827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2D38BB-00B6-4A51-8802-29DFB6782CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3350A494-7D0F-4E24-96BD-512094F7438F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3350A494-7D0F-4E24-96BD-512094F7438F}"/>
   </bookViews>
   <sheets>
     <sheet name="data2" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>6.2TD</t>
-  </si>
-  <si>
-    <t>DICIEMBRE</t>
   </si>
   <si>
     <t>PotenciaP1</t>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>MARZO</t>
+  </si>
+  <si>
+    <t>ABRIL</t>
   </si>
 </sst>
 </file>
@@ -456,17 +456,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAC917C-D324-4D6B-8FB1-5CF7F1023A32}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:O2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="10" max="15" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="10" max="15" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,45 +477,45 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -524,10 +524,10 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>25.391660000000002</v>
+        <v>26.93055</v>
       </c>
       <c r="E2">
-        <v>0.96884999999999999</v>
+        <v>0.69759000000000004</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.20991599999999999</v>
+        <v>0.23694200000000001</v>
       </c>
       <c r="K2">
-        <v>0.14949999999999999</v>
+        <v>0.15950600000000001</v>
       </c>
       <c r="L2">
-        <v>0.110661</v>
+        <v>0.11823699999999999</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -560,9 +560,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -571,45 +571,45 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>15.713050000000001</v>
+        <v>19.6585</v>
       </c>
       <c r="E3">
-        <v>9.5470400000000009</v>
+        <v>10.25165</v>
       </c>
       <c r="F3">
-        <v>4.6582100000000004</v>
+        <v>4.2625400000000004</v>
       </c>
       <c r="G3">
-        <v>4.1425599999999996</v>
+        <v>3.6815500000000001</v>
       </c>
       <c r="H3">
-        <v>2.2852100000000002</v>
+        <v>2.3281700000000001</v>
       </c>
       <c r="I3">
-        <v>1.5536399999999999</v>
+        <v>1.35639</v>
       </c>
       <c r="J3">
-        <v>0.20216000000000001</v>
+        <v>0.22475800000000001</v>
       </c>
       <c r="K3">
-        <v>0.16967599999999999</v>
+        <v>0.184639</v>
       </c>
       <c r="L3">
-        <v>0.13053999999999999</v>
+        <v>0.14192099999999999</v>
       </c>
       <c r="M3">
-        <v>0.11547399999999999</v>
+        <v>0.12432699999999999</v>
       </c>
       <c r="N3">
-        <v>0.101407</v>
+        <v>0.111495</v>
       </c>
       <c r="O3">
-        <v>0.111527</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.11934699999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -618,45 +618,45 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>24.41441</v>
+        <v>28.791869999999999</v>
       </c>
       <c r="E4">
-        <v>14.692909999999999</v>
+        <v>15.077640000000001</v>
       </c>
       <c r="F4">
-        <v>11.32864</v>
+        <v>6.5591699999999999</v>
       </c>
       <c r="G4">
-        <v>9.2507599999999996</v>
+        <v>5.1720899999999999</v>
       </c>
       <c r="H4">
-        <v>1.72753</v>
+        <v>1.9328099999999999</v>
       </c>
       <c r="I4">
-        <v>0.96789999999999998</v>
+        <v>0.91608999999999996</v>
       </c>
       <c r="J4">
-        <v>0.17671899999999999</v>
+        <v>0.19575799999999999</v>
       </c>
       <c r="K4">
-        <v>0.14755399999999999</v>
+        <v>0.15967100000000001</v>
       </c>
       <c r="L4">
-        <v>0.11654200000000001</v>
+        <v>0.12606800000000001</v>
       </c>
       <c r="M4">
-        <v>0.101077</v>
+        <v>0.108419</v>
       </c>
       <c r="N4">
-        <v>8.6197999999999997E-2</v>
+        <v>9.4646999999999995E-2</v>
       </c>
       <c r="O4">
-        <v>9.8197000000000007E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.104868</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -665,45 +665,45 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>12.287599999999999</v>
+        <v>13.200060000000001</v>
       </c>
       <c r="E5">
-        <v>9.88476</v>
+        <v>10.931800000000001</v>
       </c>
       <c r="F5">
-        <v>6.4391999999999996</v>
+        <v>3.57544</v>
       </c>
       <c r="G5">
-        <v>5.49465</v>
+        <v>2.60595</v>
       </c>
       <c r="H5">
-        <v>1.0620000000000001</v>
+        <v>1.1532</v>
       </c>
       <c r="I5">
-        <v>0.61592999999999998</v>
+        <v>0.55403999999999998</v>
       </c>
       <c r="J5">
-        <v>0.15695300000000001</v>
+        <v>0.171211</v>
       </c>
       <c r="K5">
-        <v>0.13481899999999999</v>
+        <v>0.145172</v>
       </c>
       <c r="L5">
-        <v>0.108221</v>
+        <v>0.117891</v>
       </c>
       <c r="M5">
-        <v>9.5566999999999999E-2</v>
+        <v>0.10338</v>
       </c>
       <c r="N5">
-        <v>8.3958000000000005E-2</v>
+        <v>9.2092999999999994E-2</v>
       </c>
       <c r="O5">
-        <v>9.5492999999999995E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.10197199999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>24</v>
@@ -712,10 +712,10 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>25.391660000000002</v>
+        <v>26.93055</v>
       </c>
       <c r="E6">
-        <v>0.96884999999999999</v>
+        <v>0.69759000000000004</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.201547</v>
+        <v>0.22633500000000001</v>
       </c>
       <c r="K6">
-        <v>0.14203299999999999</v>
+        <v>0.150505</v>
       </c>
       <c r="L6">
-        <v>0.10462</v>
+        <v>0.11125599999999999</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -748,9 +748,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>24</v>
@@ -759,45 +759,45 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>15.713050000000001</v>
+        <v>19.6585</v>
       </c>
       <c r="E7">
-        <v>9.5470400000000009</v>
+        <v>10.25165</v>
       </c>
       <c r="F7">
-        <v>4.6582100000000004</v>
+        <v>4.2625400000000004</v>
       </c>
       <c r="G7">
-        <v>4.1425599999999996</v>
+        <v>3.6815500000000001</v>
       </c>
       <c r="H7">
-        <v>2.2852100000000002</v>
+        <v>2.3281700000000001</v>
       </c>
       <c r="I7">
-        <v>1.5536399999999999</v>
+        <v>1.35639</v>
       </c>
       <c r="J7">
-        <v>0.18493100000000001</v>
+        <v>0.20561199999999999</v>
       </c>
       <c r="K7">
-        <v>0.15753900000000001</v>
+        <v>0.17100599999999999</v>
       </c>
       <c r="L7">
-        <v>0.12664900000000001</v>
+        <v>0.136125</v>
       </c>
       <c r="M7">
-        <v>0.11393300000000001</v>
+        <v>0.121143</v>
       </c>
       <c r="N7">
-        <v>0.101727</v>
+        <v>0.11038000000000001</v>
       </c>
       <c r="O7">
-        <v>0.10566200000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.112581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>24</v>
@@ -806,45 +806,45 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>24.41441</v>
+        <v>28.791869999999999</v>
       </c>
       <c r="E8">
-        <v>14.692909999999999</v>
+        <v>15.077640000000001</v>
       </c>
       <c r="F8">
-        <v>11.32864</v>
+        <v>6.5591699999999999</v>
       </c>
       <c r="G8">
-        <v>9.2507599999999996</v>
+        <v>5.1720899999999999</v>
       </c>
       <c r="H8">
-        <v>1.72753</v>
+        <v>1.9328099999999999</v>
       </c>
       <c r="I8">
-        <v>0.96789999999999998</v>
+        <v>0.91608999999999996</v>
       </c>
       <c r="J8">
-        <v>0.16089100000000001</v>
+        <v>0.17791599999999999</v>
       </c>
       <c r="K8">
-        <v>0.13666500000000001</v>
+        <v>0.1474</v>
       </c>
       <c r="L8">
-        <v>0.11359</v>
+        <v>0.121351</v>
       </c>
       <c r="M8">
-        <v>0.10188</v>
+        <v>0.107831</v>
       </c>
       <c r="N8">
-        <v>8.8973999999999998E-2</v>
+        <v>9.6293000000000004E-2</v>
       </c>
       <c r="O8">
-        <v>9.3623999999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.9507999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>24</v>
@@ -853,45 +853,45 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>12.287599999999999</v>
+        <v>13.200060000000001</v>
       </c>
       <c r="E9">
-        <v>9.88476</v>
+        <v>10.931800000000001</v>
       </c>
       <c r="F9">
-        <v>6.4391999999999996</v>
+        <v>3.57544</v>
       </c>
       <c r="G9">
-        <v>5.49465</v>
+        <v>2.60595</v>
       </c>
       <c r="H9">
-        <v>1.0620000000000001</v>
+        <v>1.1532</v>
       </c>
       <c r="I9">
-        <v>0.61592999999999998</v>
+        <v>0.55403999999999998</v>
       </c>
       <c r="J9">
-        <v>0.14143</v>
+        <v>0.1537</v>
       </c>
       <c r="K9">
-        <v>0.124156</v>
+        <v>0.13313900000000001</v>
       </c>
       <c r="L9">
-        <v>0.105328</v>
+        <v>0.113259</v>
       </c>
       <c r="M9">
-        <v>9.6348000000000003E-2</v>
+        <v>0.10278900000000001</v>
       </c>
       <c r="N9">
-        <v>8.6666000000000007E-2</v>
+        <v>9.3684000000000003E-2</v>
       </c>
       <c r="O9">
-        <v>9.1034000000000004E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.6735000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>36</v>
@@ -900,10 +900,10 @@
         <v>3</v>
       </c>
       <c r="D10">
-        <v>25.391660000000002</v>
+        <v>26.93055</v>
       </c>
       <c r="E10">
-        <v>0.96884999999999999</v>
+        <v>0.69759000000000004</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.19622200000000001</v>
+        <v>0.218773</v>
       </c>
       <c r="K10">
-        <v>0.13741999999999999</v>
+        <v>0.14396700000000001</v>
       </c>
       <c r="L10">
-        <v>0.100857</v>
+        <v>0.106349</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -936,9 +936,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>36</v>
@@ -947,45 +947,45 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <v>15.713050000000001</v>
+        <v>19.6585</v>
       </c>
       <c r="E11">
-        <v>9.5470400000000009</v>
+        <v>10.25165</v>
       </c>
       <c r="F11">
-        <v>4.6582100000000004</v>
+        <v>4.2625400000000004</v>
       </c>
       <c r="G11">
-        <v>4.1425599999999996</v>
+        <v>3.6815500000000001</v>
       </c>
       <c r="H11">
-        <v>2.2852100000000002</v>
+        <v>2.3281700000000001</v>
       </c>
       <c r="I11">
-        <v>1.5536399999999999</v>
+        <v>1.35639</v>
       </c>
       <c r="J11">
-        <v>0.17718900000000001</v>
+        <v>0.19611400000000001</v>
       </c>
       <c r="K11">
-        <v>0.15037200000000001</v>
+        <v>0.16328799999999999</v>
       </c>
       <c r="L11">
-        <v>0.123739</v>
+        <v>0.13034999999999999</v>
       </c>
       <c r="M11">
-        <v>0.11154500000000001</v>
+        <v>0.116511</v>
       </c>
       <c r="N11">
-        <v>9.9214999999999998E-2</v>
+        <v>0.106756</v>
       </c>
       <c r="O11">
-        <v>0.101854</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.10773099999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>36</v>
@@ -994,45 +994,45 @@
         <v>5</v>
       </c>
       <c r="D12">
-        <v>24.41441</v>
+        <v>28.791869999999999</v>
       </c>
       <c r="E12">
-        <v>14.692909999999999</v>
+        <v>15.077640000000001</v>
       </c>
       <c r="F12">
-        <v>11.32864</v>
+        <v>6.5591699999999999</v>
       </c>
       <c r="G12">
-        <v>9.2507599999999996</v>
+        <v>5.1720899999999999</v>
       </c>
       <c r="H12">
-        <v>1.72753</v>
+        <v>1.9328099999999999</v>
       </c>
       <c r="I12">
-        <v>0.96789999999999998</v>
+        <v>0.91608999999999996</v>
       </c>
       <c r="J12">
-        <v>0.15356500000000001</v>
+        <v>0.16918</v>
       </c>
       <c r="K12">
-        <v>0.13005900000000001</v>
+        <v>0.14046700000000001</v>
       </c>
       <c r="L12">
-        <v>0.11077099999999999</v>
+        <v>0.116128</v>
       </c>
       <c r="M12">
-        <v>9.9727999999999997E-2</v>
+        <v>0.104266</v>
       </c>
       <c r="N12">
-        <v>8.6619000000000002E-2</v>
+        <v>9.3837000000000004E-2</v>
       </c>
       <c r="O12">
-        <v>9.0151999999999996E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.5500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>36</v>
@@ -1041,43 +1041,43 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>12.287599999999999</v>
+        <v>13.200060000000001</v>
       </c>
       <c r="E13">
-        <v>9.88476</v>
+        <v>10.931800000000001</v>
       </c>
       <c r="F13">
-        <v>6.4391999999999996</v>
+        <v>3.57544</v>
       </c>
       <c r="G13">
-        <v>5.49465</v>
+        <v>2.60595</v>
       </c>
       <c r="H13">
-        <v>1.0620000000000001</v>
+        <v>1.1532</v>
       </c>
       <c r="I13">
-        <v>0.61592999999999998</v>
+        <v>0.55403999999999998</v>
       </c>
       <c r="J13">
-        <v>0.134246</v>
+        <v>0.14513300000000001</v>
       </c>
       <c r="K13">
-        <v>0.117686</v>
+        <v>0.12635099999999999</v>
       </c>
       <c r="L13">
-        <v>0.10256700000000001</v>
+        <v>0.108136</v>
       </c>
       <c r="M13">
-        <v>9.4226000000000004E-2</v>
+        <v>9.9275000000000002E-2</v>
       </c>
       <c r="N13">
-        <v>8.4334000000000006E-2</v>
+        <v>9.1243000000000005E-2</v>
       </c>
       <c r="O13">
-        <v>8.7641999999999998E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.2816999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1088,10 +1088,10 @@
         <v>3</v>
       </c>
       <c r="D14">
-        <v>25.391660000000002</v>
+        <v>26.93055</v>
       </c>
       <c r="E14">
-        <v>0.96884999999999999</v>
+        <v>0.69759000000000004</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.20616899999999999</v>
+        <v>0.22971</v>
       </c>
       <c r="K14">
-        <v>0.146067</v>
+        <v>0.15401799999999999</v>
       </c>
       <c r="L14">
-        <v>0.10809199999999999</v>
+        <v>0.115367</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1135,43 +1135,43 @@
         <v>4</v>
       </c>
       <c r="D15">
-        <v>15.713050000000001</v>
+        <v>19.6585</v>
       </c>
       <c r="E15">
-        <v>9.5470400000000009</v>
+        <v>10.25165</v>
       </c>
       <c r="F15">
-        <v>4.6582100000000004</v>
+        <v>4.2625400000000004</v>
       </c>
       <c r="G15">
-        <v>4.1425599999999996</v>
+        <v>3.6815500000000001</v>
       </c>
       <c r="H15">
-        <v>2.2852100000000002</v>
+        <v>2.3281700000000001</v>
       </c>
       <c r="I15">
-        <v>1.5536399999999999</v>
+        <v>1.35639</v>
       </c>
       <c r="J15">
-        <v>0.19605900000000001</v>
+        <v>0.20933399999999999</v>
       </c>
       <c r="K15">
-        <v>0.16501399999999999</v>
+        <v>0.17629300000000001</v>
       </c>
       <c r="L15">
-        <v>0.13053999999999999</v>
+        <v>0.14192099999999999</v>
       </c>
       <c r="M15">
-        <v>0.11547399999999999</v>
+        <v>0.12432699999999999</v>
       </c>
       <c r="N15">
-        <v>0.101407</v>
+        <v>0.111495</v>
       </c>
       <c r="O15">
-        <v>0.10889600000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.116547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1182,43 +1182,43 @@
         <v>5</v>
       </c>
       <c r="D16">
-        <v>24.41441</v>
+        <v>28.791869999999999</v>
       </c>
       <c r="E16">
-        <v>14.692909999999999</v>
+        <v>15.077640000000001</v>
       </c>
       <c r="F16">
-        <v>11.32864</v>
+        <v>6.5591699999999999</v>
       </c>
       <c r="G16">
-        <v>9.2507599999999996</v>
+        <v>5.1720899999999999</v>
       </c>
       <c r="H16">
-        <v>1.72753</v>
+        <v>1.9328099999999999</v>
       </c>
       <c r="I16">
-        <v>0.96789999999999998</v>
+        <v>0.91608999999999996</v>
       </c>
       <c r="J16">
-        <v>0.17135600000000001</v>
+        <v>0.18135200000000001</v>
       </c>
       <c r="K16">
-        <v>0.14349300000000001</v>
+        <v>0.152591</v>
       </c>
       <c r="L16">
-        <v>0.11654200000000001</v>
+        <v>0.12606800000000001</v>
       </c>
       <c r="M16">
-        <v>0.101077</v>
+        <v>0.108419</v>
       </c>
       <c r="N16">
-        <v>8.6197999999999997E-2</v>
+        <v>9.4646999999999995E-2</v>
       </c>
       <c r="O16">
-        <v>9.5736000000000002E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.102217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1229,43 +1229,43 @@
         <v>6</v>
       </c>
       <c r="D17">
-        <v>12.287599999999999</v>
+        <v>13.200060000000001</v>
       </c>
       <c r="E17">
-        <v>9.88476</v>
+        <v>10.931800000000001</v>
       </c>
       <c r="F17">
-        <v>6.4391999999999996</v>
+        <v>3.57544</v>
       </c>
       <c r="G17">
-        <v>5.49465</v>
+        <v>2.60595</v>
       </c>
       <c r="H17">
-        <v>1.0620000000000001</v>
+        <v>1.1532</v>
       </c>
       <c r="I17">
-        <v>0.61592999999999998</v>
+        <v>0.55403999999999998</v>
       </c>
       <c r="J17">
-        <v>0.15173300000000001</v>
+        <v>0.15710099999999999</v>
       </c>
       <c r="K17">
-        <v>0.13086999999999999</v>
+        <v>0.138235</v>
       </c>
       <c r="L17">
-        <v>0.108221</v>
+        <v>0.117891</v>
       </c>
       <c r="M17">
-        <v>9.5566999999999999E-2</v>
+        <v>0.10338</v>
       </c>
       <c r="N17">
-        <v>8.3958000000000005E-2</v>
+        <v>9.2092999999999994E-2</v>
       </c>
       <c r="O17">
-        <v>9.3115000000000003E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.9399000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1276,10 +1276,10 @@
         <v>3</v>
       </c>
       <c r="D18">
-        <v>25.391660000000002</v>
+        <v>26.93055</v>
       </c>
       <c r="E18">
-        <v>0.96884999999999999</v>
+        <v>0.69759000000000004</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.19941600000000001</v>
+        <v>0.222331</v>
       </c>
       <c r="K18">
-        <v>0.140097</v>
+        <v>0.14744699999999999</v>
       </c>
       <c r="L18">
-        <v>0.103132</v>
+        <v>0.10958</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1323,43 +1323,43 @@
         <v>4</v>
       </c>
       <c r="D19">
-        <v>15.713050000000001</v>
+        <v>19.6585</v>
       </c>
       <c r="E19">
-        <v>9.5470400000000009</v>
+        <v>10.25165</v>
       </c>
       <c r="F19">
-        <v>4.6582100000000004</v>
+        <v>4.2625400000000004</v>
       </c>
       <c r="G19">
-        <v>4.1425599999999996</v>
+        <v>3.6815500000000001</v>
       </c>
       <c r="H19">
-        <v>2.2852100000000002</v>
+        <v>2.3281700000000001</v>
       </c>
       <c r="I19">
-        <v>1.5536399999999999</v>
+        <v>1.35639</v>
       </c>
       <c r="J19">
-        <v>0.18038100000000001</v>
+        <v>0.195718</v>
       </c>
       <c r="K19">
-        <v>0.15454699999999999</v>
+        <v>0.165907</v>
       </c>
       <c r="L19">
-        <v>0.12664900000000001</v>
+        <v>0.136125</v>
       </c>
       <c r="M19">
-        <v>0.11393300000000001</v>
+        <v>0.121143</v>
       </c>
       <c r="N19">
-        <v>0.101727</v>
+        <v>0.11038000000000001</v>
       </c>
       <c r="O19">
-        <v>0.104128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.110942</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1370,43 +1370,43 @@
         <v>5</v>
       </c>
       <c r="D20">
-        <v>24.41441</v>
+        <v>28.791869999999999</v>
       </c>
       <c r="E20">
-        <v>14.692909999999999</v>
+        <v>15.077640000000001</v>
       </c>
       <c r="F20">
-        <v>11.32864</v>
+        <v>6.5591699999999999</v>
       </c>
       <c r="G20">
-        <v>9.2507599999999996</v>
+        <v>5.1720899999999999</v>
       </c>
       <c r="H20">
-        <v>1.72753</v>
+        <v>1.9328099999999999</v>
       </c>
       <c r="I20">
-        <v>0.96789999999999998</v>
+        <v>0.91608999999999996</v>
       </c>
       <c r="J20">
-        <v>0.15656400000000001</v>
+        <v>0.16853699999999999</v>
       </c>
       <c r="K20">
-        <v>0.13397300000000001</v>
+        <v>0.143012</v>
       </c>
       <c r="L20">
-        <v>0.11359</v>
+        <v>0.121351</v>
       </c>
       <c r="M20">
-        <v>0.10188</v>
+        <v>0.107831</v>
       </c>
       <c r="N20">
-        <v>8.8973999999999998E-2</v>
+        <v>9.6293000000000004E-2</v>
       </c>
       <c r="O20">
-        <v>9.2216999999999993E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.7975999999999994E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1417,43 +1417,43 @@
         <v>6</v>
       </c>
       <c r="D21">
-        <v>12.287599999999999</v>
+        <v>13.200060000000001</v>
       </c>
       <c r="E21">
-        <v>9.88476</v>
+        <v>10.931800000000001</v>
       </c>
       <c r="F21">
-        <v>6.4391999999999996</v>
+        <v>3.57544</v>
       </c>
       <c r="G21">
-        <v>5.49465</v>
+        <v>2.60595</v>
       </c>
       <c r="H21">
-        <v>1.0620000000000001</v>
+        <v>1.1532</v>
       </c>
       <c r="I21">
-        <v>0.61592999999999998</v>
+        <v>0.55403999999999998</v>
       </c>
       <c r="J21">
-        <v>0.137207</v>
+        <v>0.14451</v>
       </c>
       <c r="K21">
-        <v>0.121531</v>
+        <v>0.12883800000000001</v>
       </c>
       <c r="L21">
-        <v>0.105328</v>
+        <v>0.113259</v>
       </c>
       <c r="M21">
-        <v>9.6348000000000003E-2</v>
+        <v>0.10278900000000001</v>
       </c>
       <c r="N21">
-        <v>8.6666000000000007E-2</v>
+        <v>9.3684000000000003E-2</v>
       </c>
       <c r="O21">
-        <v>8.9672000000000002E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.5247999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1464,10 +1464,10 @@
         <v>3</v>
       </c>
       <c r="D22">
-        <v>25.391660000000002</v>
+        <v>26.93055</v>
       </c>
       <c r="E22">
-        <v>0.96884999999999999</v>
+        <v>0.69759000000000004</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.194691</v>
+        <v>0.21586</v>
       </c>
       <c r="K22">
-        <v>0.13603999999999999</v>
+        <v>0.141733</v>
       </c>
       <c r="L22">
-        <v>9.9782999999999997E-2</v>
+        <v>0.105085</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1511,43 +1511,43 @@
         <v>4</v>
       </c>
       <c r="D23">
-        <v>15.713050000000001</v>
+        <v>19.6585</v>
       </c>
       <c r="E23">
-        <v>9.5470400000000009</v>
+        <v>10.25165</v>
       </c>
       <c r="F23">
-        <v>4.6582100000000004</v>
+        <v>4.2625400000000004</v>
       </c>
       <c r="G23">
-        <v>4.1425599999999996</v>
+        <v>3.6815500000000001</v>
       </c>
       <c r="H23">
-        <v>2.2852100000000002</v>
+        <v>2.3281700000000001</v>
       </c>
       <c r="I23">
-        <v>1.5536399999999999</v>
+        <v>1.35639</v>
       </c>
       <c r="J23">
-        <v>0.173679</v>
+        <v>0.188226</v>
       </c>
       <c r="K23">
-        <v>0.14811099999999999</v>
+        <v>0.15937899999999999</v>
       </c>
       <c r="L23">
-        <v>0.123739</v>
+        <v>0.13034999999999999</v>
       </c>
       <c r="M23">
-        <v>0.11154500000000001</v>
+        <v>0.116511</v>
       </c>
       <c r="N23">
-        <v>9.9214999999999998E-2</v>
+        <v>0.106756</v>
       </c>
       <c r="O23">
-        <v>0.10073799999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.106491</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1558,43 +1558,43 @@
         <v>5</v>
       </c>
       <c r="D24">
-        <v>24.41441</v>
+        <v>28.791869999999999</v>
       </c>
       <c r="E24">
-        <v>14.692909999999999</v>
+        <v>15.077640000000001</v>
       </c>
       <c r="F24">
-        <v>11.32864</v>
+        <v>6.5591699999999999</v>
       </c>
       <c r="G24">
-        <v>9.2507599999999996</v>
+        <v>5.1720899999999999</v>
       </c>
       <c r="H24">
-        <v>1.72753</v>
+        <v>1.9328099999999999</v>
       </c>
       <c r="I24">
-        <v>0.96789999999999998</v>
+        <v>0.91608999999999996</v>
       </c>
       <c r="J24">
-        <v>0.150147</v>
+        <v>0.161663</v>
       </c>
       <c r="K24">
-        <v>0.127996</v>
+        <v>0.13709199999999999</v>
       </c>
       <c r="L24">
-        <v>0.11077099999999999</v>
+        <v>0.116128</v>
       </c>
       <c r="M24">
-        <v>9.9727999999999997E-2</v>
+        <v>0.104266</v>
       </c>
       <c r="N24">
-        <v>8.6619000000000002E-2</v>
+        <v>9.3837000000000004E-2</v>
       </c>
       <c r="O24">
-        <v>8.9122000000000007E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.4341999999999995E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1605,43 +1605,43 @@
         <v>6</v>
       </c>
       <c r="D25">
-        <v>12.287599999999999</v>
+        <v>13.200060000000001</v>
       </c>
       <c r="E25">
-        <v>9.88476</v>
+        <v>10.931800000000001</v>
       </c>
       <c r="F25">
-        <v>6.4391999999999996</v>
+        <v>3.57544</v>
       </c>
       <c r="G25">
-        <v>5.49465</v>
+        <v>2.60595</v>
       </c>
       <c r="H25">
-        <v>1.0620000000000001</v>
+        <v>1.1532</v>
       </c>
       <c r="I25">
-        <v>0.61592999999999998</v>
+        <v>0.55403999999999998</v>
       </c>
       <c r="J25">
-        <v>0.130907</v>
+        <v>0.137768</v>
       </c>
       <c r="K25">
-        <v>0.115675</v>
+        <v>0.123046</v>
       </c>
       <c r="L25">
-        <v>0.10256700000000001</v>
+        <v>0.108136</v>
       </c>
       <c r="M25">
-        <v>9.4226000000000004E-2</v>
+        <v>9.9275000000000002E-2</v>
       </c>
       <c r="N25">
-        <v>8.4334000000000006E-2</v>
+        <v>9.1243000000000005E-2</v>
       </c>
       <c r="O25">
-        <v>8.6646000000000001E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.1691999999999996E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1652,10 +1652,10 @@
         <v>3</v>
       </c>
       <c r="D26">
-        <v>25.391660000000002</v>
+        <v>26.93055</v>
       </c>
       <c r="E26">
-        <v>0.96884999999999999</v>
+        <v>0.69759000000000004</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1670,13 +1670,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.201456</v>
+        <v>0.22622900000000001</v>
       </c>
       <c r="K26">
-        <v>0.14218900000000001</v>
+        <v>0.15101000000000001</v>
       </c>
       <c r="L26">
-        <v>0.105188</v>
+        <v>0.112858</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1699,43 +1699,43 @@
         <v>4</v>
       </c>
       <c r="D27">
-        <v>15.713050000000001</v>
+        <v>19.6585</v>
       </c>
       <c r="E27">
-        <v>9.5470400000000009</v>
+        <v>10.25165</v>
       </c>
       <c r="F27">
-        <v>4.6582100000000004</v>
+        <v>4.2625400000000004</v>
       </c>
       <c r="G27">
-        <v>4.1425599999999996</v>
+        <v>3.6815500000000001</v>
       </c>
       <c r="H27">
-        <v>2.2852100000000002</v>
+        <v>2.3281700000000001</v>
       </c>
       <c r="I27">
-        <v>1.5536399999999999</v>
+        <v>1.35639</v>
       </c>
       <c r="J27">
-        <v>0.182446</v>
+        <v>0.19883700000000001</v>
       </c>
       <c r="K27">
-        <v>0.15745400000000001</v>
+        <v>0.17036999999999999</v>
       </c>
       <c r="L27">
-        <v>0.13053999999999999</v>
+        <v>0.14192099999999999</v>
       </c>
       <c r="M27">
-        <v>0.11547399999999999</v>
+        <v>0.12432699999999999</v>
       </c>
       <c r="N27">
-        <v>0.101407</v>
+        <v>0.111495</v>
       </c>
       <c r="O27">
-        <v>0.105938</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.113982</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1746,43 +1746,43 @@
         <v>5</v>
       </c>
       <c r="D28">
-        <v>24.41441</v>
+        <v>28.791869999999999</v>
       </c>
       <c r="E28">
-        <v>14.692909999999999</v>
+        <v>15.077640000000001</v>
       </c>
       <c r="F28">
-        <v>11.32864</v>
+        <v>6.5591699999999999</v>
       </c>
       <c r="G28">
-        <v>9.2507599999999996</v>
+        <v>5.1720899999999999</v>
       </c>
       <c r="H28">
-        <v>1.72753</v>
+        <v>1.9328099999999999</v>
       </c>
       <c r="I28">
-        <v>0.96789999999999998</v>
+        <v>0.91608999999999996</v>
       </c>
       <c r="J28">
-        <v>0.15814900000000001</v>
+        <v>0.17058400000000001</v>
       </c>
       <c r="K28">
-        <v>0.136712</v>
+        <v>0.14680599999999999</v>
       </c>
       <c r="L28">
-        <v>0.11654200000000001</v>
+        <v>0.12606800000000001</v>
       </c>
       <c r="M28">
-        <v>0.101077</v>
+        <v>0.108419</v>
       </c>
       <c r="N28">
-        <v>8.6197999999999997E-2</v>
+        <v>9.4646999999999995E-2</v>
       </c>
       <c r="O28">
-        <v>9.2897999999999994E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.9432999999999994E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1793,43 +1793,43 @@
         <v>6</v>
       </c>
       <c r="D29">
-        <v>12.287599999999999</v>
+        <v>13.200060000000001</v>
       </c>
       <c r="E29">
-        <v>9.88476</v>
+        <v>10.931800000000001</v>
       </c>
       <c r="F29">
-        <v>6.4391999999999996</v>
+        <v>3.57544</v>
       </c>
       <c r="G29">
-        <v>5.49465</v>
+        <v>2.60595</v>
       </c>
       <c r="H29">
-        <v>1.0620000000000001</v>
+        <v>1.1532</v>
       </c>
       <c r="I29">
-        <v>0.61592999999999998</v>
+        <v>0.55403999999999998</v>
       </c>
       <c r="J29">
-        <v>0.13877900000000001</v>
+        <v>0.146512</v>
       </c>
       <c r="K29">
-        <v>0.12421599999999999</v>
+        <v>0.132546</v>
       </c>
       <c r="L29">
-        <v>0.108221</v>
+        <v>0.117891</v>
       </c>
       <c r="M29">
-        <v>9.5566999999999999E-2</v>
+        <v>0.10338</v>
       </c>
       <c r="N29">
-        <v>8.3958000000000005E-2</v>
+        <v>9.2092999999999994E-2</v>
       </c>
       <c r="O29">
-        <v>9.0343999999999994E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.6679000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -1840,10 +1840,10 @@
         <v>3</v>
       </c>
       <c r="D30">
-        <v>25.391660000000002</v>
+        <v>26.93055</v>
       </c>
       <c r="E30">
-        <v>0.96884999999999999</v>
+        <v>0.69759000000000004</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.196854</v>
+        <v>0.22017600000000001</v>
       </c>
       <c r="K30">
-        <v>0.138015</v>
+        <v>0.145588</v>
       </c>
       <c r="L30">
-        <v>0.101538</v>
+        <v>0.108033</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -1887,43 +1887,43 @@
         <v>4</v>
       </c>
       <c r="D31">
-        <v>15.713050000000001</v>
+        <v>19.6585</v>
       </c>
       <c r="E31">
-        <v>9.5470400000000009</v>
+        <v>10.25165</v>
       </c>
       <c r="F31">
-        <v>4.6582100000000004</v>
+        <v>4.2625400000000004</v>
       </c>
       <c r="G31">
-        <v>4.1425599999999996</v>
+        <v>3.6815500000000001</v>
       </c>
       <c r="H31">
-        <v>2.2852100000000002</v>
+        <v>2.3281700000000001</v>
       </c>
       <c r="I31">
-        <v>1.5536399999999999</v>
+        <v>1.35639</v>
       </c>
       <c r="J31">
-        <v>0.17300599999999999</v>
+        <v>0.18920200000000001</v>
       </c>
       <c r="K31">
-        <v>0.15054200000000001</v>
+        <v>0.162272</v>
       </c>
       <c r="L31">
-        <v>0.12664900000000001</v>
+        <v>0.136125</v>
       </c>
       <c r="M31">
-        <v>0.11393300000000001</v>
+        <v>0.121143</v>
       </c>
       <c r="N31">
-        <v>0.101727</v>
+        <v>0.11038000000000001</v>
       </c>
       <c r="O31">
-        <v>0.102511</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.109359</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -1934,43 +1934,43 @@
         <v>5</v>
       </c>
       <c r="D32">
-        <v>24.41441</v>
+        <v>28.791869999999999</v>
       </c>
       <c r="E32">
-        <v>14.692909999999999</v>
+        <v>15.077640000000001</v>
       </c>
       <c r="F32">
-        <v>11.32864</v>
+        <v>6.5591699999999999</v>
       </c>
       <c r="G32">
-        <v>9.2507599999999996</v>
+        <v>5.1720899999999999</v>
       </c>
       <c r="H32">
-        <v>1.72753</v>
+        <v>1.9328099999999999</v>
       </c>
       <c r="I32">
-        <v>0.96789999999999998</v>
+        <v>0.91608999999999996</v>
       </c>
       <c r="J32">
-        <v>0.14938299999999999</v>
+        <v>0.16184899999999999</v>
       </c>
       <c r="K32">
-        <v>0.130384</v>
+        <v>0.139457</v>
       </c>
       <c r="L32">
-        <v>0.11359</v>
+        <v>0.121351</v>
       </c>
       <c r="M32">
-        <v>0.10188</v>
+        <v>0.107831</v>
       </c>
       <c r="N32">
-        <v>8.8973999999999998E-2</v>
+        <v>9.6293000000000004E-2</v>
       </c>
       <c r="O32">
-        <v>9.0659000000000003E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.6259999999999998E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -1981,43 +1981,43 @@
         <v>6</v>
       </c>
       <c r="D33">
-        <v>12.287599999999999</v>
+        <v>13.200060000000001</v>
       </c>
       <c r="E33">
-        <v>9.88476</v>
+        <v>10.931800000000001</v>
       </c>
       <c r="F33">
-        <v>6.4391999999999996</v>
+        <v>3.57544</v>
       </c>
       <c r="G33">
-        <v>5.49465</v>
+        <v>2.60595</v>
       </c>
       <c r="H33">
-        <v>1.0620000000000001</v>
+        <v>1.1532</v>
       </c>
       <c r="I33">
-        <v>0.61592999999999998</v>
+        <v>0.55403999999999998</v>
       </c>
       <c r="J33">
-        <v>0.130162</v>
+        <v>0.13794000000000001</v>
       </c>
       <c r="K33">
-        <v>0.118009</v>
+        <v>0.12534600000000001</v>
       </c>
       <c r="L33">
-        <v>0.105328</v>
+        <v>0.113259</v>
       </c>
       <c r="M33">
-        <v>9.6348000000000003E-2</v>
+        <v>0.10278900000000001</v>
       </c>
       <c r="N33">
-        <v>8.6666000000000007E-2</v>
+        <v>9.3684000000000003E-2</v>
       </c>
       <c r="O33">
-        <v>8.8151999999999994E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.3572000000000002E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -2028,10 +2028,10 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <v>25.391660000000002</v>
+        <v>26.93055</v>
       </c>
       <c r="E34">
-        <v>0.96884999999999999</v>
+        <v>0.69759000000000004</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2046,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.192581</v>
+        <v>0.21453700000000001</v>
       </c>
       <c r="K34">
-        <v>0.134434</v>
+        <v>0.140649</v>
       </c>
       <c r="L34">
-        <v>9.8959000000000005E-2</v>
+        <v>0.10414</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -2075,43 +2075,43 @@
         <v>4</v>
       </c>
       <c r="D35">
-        <v>15.713050000000001</v>
+        <v>19.6585</v>
       </c>
       <c r="E35">
-        <v>9.5470400000000009</v>
+        <v>10.25165</v>
       </c>
       <c r="F35">
-        <v>4.6582100000000004</v>
+        <v>4.2625400000000004</v>
       </c>
       <c r="G35">
-        <v>4.1425599999999996</v>
+        <v>3.6815500000000001</v>
       </c>
       <c r="H35">
-        <v>2.2852100000000002</v>
+        <v>2.3281700000000001</v>
       </c>
       <c r="I35">
-        <v>1.5536399999999999</v>
+        <v>1.35639</v>
       </c>
       <c r="J35">
-        <v>0.16814100000000001</v>
+        <v>0.184396</v>
       </c>
       <c r="K35">
-        <v>0.145394</v>
+        <v>0.157668</v>
       </c>
       <c r="L35">
-        <v>0.123739</v>
+        <v>0.13034999999999999</v>
       </c>
       <c r="M35">
-        <v>0.11154500000000001</v>
+        <v>0.116511</v>
       </c>
       <c r="N35">
-        <v>9.9214999999999998E-2</v>
+        <v>0.106756</v>
       </c>
       <c r="O35">
-        <v>9.9940000000000001E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.10555100000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -2122,43 +2122,43 @@
         <v>5</v>
       </c>
       <c r="D36">
-        <v>24.41441</v>
+        <v>28.791869999999999</v>
       </c>
       <c r="E36">
-        <v>14.692909999999999</v>
+        <v>15.077640000000001</v>
       </c>
       <c r="F36">
-        <v>11.32864</v>
+        <v>6.5591699999999999</v>
       </c>
       <c r="G36">
-        <v>9.2507599999999996</v>
+        <v>5.1720899999999999</v>
       </c>
       <c r="H36">
-        <v>1.72753</v>
+        <v>1.9328099999999999</v>
       </c>
       <c r="I36">
-        <v>0.96789999999999998</v>
+        <v>0.91608999999999996</v>
       </c>
       <c r="J36">
-        <v>0.14488999999999999</v>
+        <v>0.157859</v>
       </c>
       <c r="K36">
-        <v>0.12567600000000001</v>
+        <v>0.13555300000000001</v>
       </c>
       <c r="L36">
-        <v>0.11077099999999999</v>
+        <v>0.116128</v>
       </c>
       <c r="M36">
-        <v>9.9727999999999997E-2</v>
+        <v>0.104266</v>
       </c>
       <c r="N36">
-        <v>8.6619000000000002E-2</v>
+        <v>9.3837000000000004E-2</v>
       </c>
       <c r="O36">
-        <v>8.8378999999999999E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.3348E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -2169,43 +2169,43 @@
         <v>6</v>
       </c>
       <c r="D37">
-        <v>12.287599999999999</v>
+        <v>13.200060000000001</v>
       </c>
       <c r="E37">
-        <v>9.88476</v>
+        <v>10.931800000000001</v>
       </c>
       <c r="F37">
-        <v>6.4391999999999996</v>
+        <v>3.57544</v>
       </c>
       <c r="G37">
-        <v>5.49465</v>
+        <v>2.60595</v>
       </c>
       <c r="H37">
-        <v>1.0620000000000001</v>
+        <v>1.1532</v>
       </c>
       <c r="I37">
-        <v>0.61592999999999998</v>
+        <v>0.55403999999999998</v>
       </c>
       <c r="J37">
-        <v>0.12575600000000001</v>
+        <v>0.13403599999999999</v>
       </c>
       <c r="K37">
-        <v>0.113404</v>
+        <v>0.12153899999999999</v>
       </c>
       <c r="L37">
-        <v>0.10256700000000001</v>
+        <v>0.108136</v>
       </c>
       <c r="M37">
-        <v>9.4226000000000004E-2</v>
+        <v>9.9275000000000002E-2</v>
       </c>
       <c r="N37">
-        <v>8.4334000000000006E-2</v>
+        <v>9.1243000000000005E-2</v>
       </c>
       <c r="O37">
-        <v>8.5926000000000002E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.0727000000000002E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -2216,10 +2216,10 @@
         <v>3</v>
       </c>
       <c r="D38">
-        <v>25.391660000000002</v>
+        <v>26.93055</v>
       </c>
       <c r="E38">
-        <v>0.96884999999999999</v>
+        <v>0.69759000000000004</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2234,13 +2234,13 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.19941600000000001</v>
+        <v>0.22642399999999999</v>
       </c>
       <c r="K38">
-        <v>0.14041000000000001</v>
+        <v>0.151084</v>
       </c>
       <c r="L38">
-        <v>0.103713</v>
+        <v>0.113055</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -2263,43 +2263,43 @@
         <v>4</v>
       </c>
       <c r="D39">
-        <v>15.713050000000001</v>
+        <v>19.6585</v>
       </c>
       <c r="E39">
-        <v>9.5470400000000009</v>
+        <v>10.25165</v>
       </c>
       <c r="F39">
-        <v>4.6582100000000004</v>
+        <v>4.2625400000000004</v>
       </c>
       <c r="G39">
-        <v>4.1425599999999996</v>
+        <v>3.6815500000000001</v>
       </c>
       <c r="H39">
-        <v>2.2852100000000002</v>
+        <v>2.3281700000000001</v>
       </c>
       <c r="I39">
-        <v>1.5536399999999999</v>
+        <v>1.35639</v>
       </c>
       <c r="J39">
-        <v>0.17629300000000001</v>
+        <v>0.19883700000000001</v>
       </c>
       <c r="K39">
-        <v>0.15398000000000001</v>
+        <v>0.17071</v>
       </c>
       <c r="L39">
-        <v>0.13053999999999999</v>
+        <v>0.14200499999999999</v>
       </c>
       <c r="M39">
-        <v>0.11547399999999999</v>
+        <v>0.12432699999999999</v>
       </c>
       <c r="N39">
-        <v>0.101407</v>
+        <v>0.111495</v>
       </c>
       <c r="O39">
-        <v>0.10442899999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.114192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -2310,43 +2310,43 @@
         <v>5</v>
       </c>
       <c r="D40">
-        <v>24.41441</v>
+        <v>28.791869999999999</v>
       </c>
       <c r="E40">
-        <v>14.692909999999999</v>
+        <v>15.077640000000001</v>
       </c>
       <c r="F40">
-        <v>11.32864</v>
+        <v>6.5591699999999999</v>
       </c>
       <c r="G40">
-        <v>9.2507599999999996</v>
+        <v>5.1720899999999999</v>
       </c>
       <c r="H40">
-        <v>1.72753</v>
+        <v>1.9328099999999999</v>
       </c>
       <c r="I40">
-        <v>0.96789999999999998</v>
+        <v>0.91608999999999996</v>
       </c>
       <c r="J40">
-        <v>0.15184700000000001</v>
+        <v>0.17058400000000001</v>
       </c>
       <c r="K40">
-        <v>0.133324</v>
+        <v>0.14713799999999999</v>
       </c>
       <c r="L40">
-        <v>0.11654200000000001</v>
+        <v>0.126167</v>
       </c>
       <c r="M40">
-        <v>0.101077</v>
+        <v>0.108419</v>
       </c>
       <c r="N40">
-        <v>8.6197999999999997E-2</v>
+        <v>9.4646999999999995E-2</v>
       </c>
       <c r="O40">
-        <v>9.1262999999999997E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.9697999999999995E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -2357,43 +2357,43 @@
         <v>6</v>
       </c>
       <c r="D41">
-        <v>12.287599999999999</v>
+        <v>13.200060000000001</v>
       </c>
       <c r="E41">
-        <v>9.88476</v>
+        <v>10.931800000000001</v>
       </c>
       <c r="F41">
-        <v>6.4391999999999996</v>
+        <v>3.57544</v>
       </c>
       <c r="G41">
-        <v>5.49465</v>
+        <v>2.60595</v>
       </c>
       <c r="H41">
-        <v>1.0620000000000001</v>
+        <v>1.1532</v>
       </c>
       <c r="I41">
-        <v>0.61592999999999998</v>
+        <v>0.55403999999999998</v>
       </c>
       <c r="J41">
-        <v>0.132574</v>
+        <v>0.146512</v>
       </c>
       <c r="K41">
-        <v>0.120879</v>
+        <v>0.13289300000000001</v>
       </c>
       <c r="L41">
-        <v>0.108221</v>
+        <v>0.11798699999999999</v>
       </c>
       <c r="M41">
-        <v>9.5566999999999999E-2</v>
+        <v>0.10338</v>
       </c>
       <c r="N41">
-        <v>8.3958000000000005E-2</v>
+        <v>9.2092999999999994E-2</v>
       </c>
       <c r="O41">
-        <v>8.8746000000000005E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.6937999999999996E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -2404,10 +2404,10 @@
         <v>3</v>
       </c>
       <c r="D42">
-        <v>25.391660000000002</v>
+        <v>26.93055</v>
       </c>
       <c r="E42">
-        <v>0.96884999999999999</v>
+        <v>0.69759000000000004</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2422,13 +2422,13 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0.195243</v>
+        <v>0.219724</v>
       </c>
       <c r="K42">
-        <v>0.13661300000000001</v>
+        <v>0.145203</v>
       </c>
       <c r="L42">
-        <v>0.100381</v>
+        <v>0.107887</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -2440,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -2451,43 +2451,43 @@
         <v>4</v>
       </c>
       <c r="D43">
-        <v>15.713050000000001</v>
+        <v>19.6585</v>
       </c>
       <c r="E43">
-        <v>9.5470400000000009</v>
+        <v>10.25165</v>
       </c>
       <c r="F43">
-        <v>4.6582100000000004</v>
+        <v>4.2625400000000004</v>
       </c>
       <c r="G43">
-        <v>4.1425599999999996</v>
+        <v>3.6815500000000001</v>
       </c>
       <c r="H43">
-        <v>2.2852100000000002</v>
+        <v>2.3281700000000001</v>
       </c>
       <c r="I43">
-        <v>1.5536399999999999</v>
+        <v>1.35639</v>
       </c>
       <c r="J43">
-        <v>0.168133</v>
+        <v>0.18920200000000001</v>
       </c>
       <c r="K43">
-        <v>0.14782500000000001</v>
+        <v>0.16100800000000001</v>
       </c>
       <c r="L43">
-        <v>0.12664900000000001</v>
+        <v>0.135488</v>
       </c>
       <c r="M43">
-        <v>0.11393300000000001</v>
+        <v>0.121143</v>
       </c>
       <c r="N43">
-        <v>0.101727</v>
+        <v>0.11038000000000001</v>
       </c>
       <c r="O43">
-        <v>0.101326</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.109197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -2498,43 +2498,43 @@
         <v>5</v>
       </c>
       <c r="D44">
-        <v>24.41441</v>
+        <v>28.791869999999999</v>
       </c>
       <c r="E44">
-        <v>14.692909999999999</v>
+        <v>15.077640000000001</v>
       </c>
       <c r="F44">
-        <v>11.32864</v>
+        <v>6.5591699999999999</v>
       </c>
       <c r="G44">
-        <v>9.2507599999999996</v>
+        <v>5.1720899999999999</v>
       </c>
       <c r="H44">
-        <v>1.72753</v>
+        <v>1.9328099999999999</v>
       </c>
       <c r="I44">
-        <v>0.96789999999999998</v>
+        <v>0.91608999999999996</v>
       </c>
       <c r="J44">
-        <v>0.14438400000000001</v>
+        <v>0.16184899999999999</v>
       </c>
       <c r="K44">
-        <v>0.12772600000000001</v>
+        <v>0.13827999999999999</v>
       </c>
       <c r="L44">
-        <v>0.11359</v>
+        <v>0.12049600000000001</v>
       </c>
       <c r="M44">
-        <v>0.10188</v>
+        <v>0.107831</v>
       </c>
       <c r="N44">
-        <v>8.8973999999999998E-2</v>
+        <v>9.6293000000000004E-2</v>
       </c>
       <c r="O44">
-        <v>8.9373999999999995E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.6110000000000001E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -2545,43 +2545,43 @@
         <v>6</v>
       </c>
       <c r="D45">
-        <v>12.287599999999999</v>
+        <v>13.200060000000001</v>
       </c>
       <c r="E45">
-        <v>9.88476</v>
+        <v>10.931800000000001</v>
       </c>
       <c r="F45">
-        <v>6.4391999999999996</v>
+        <v>3.57544</v>
       </c>
       <c r="G45">
-        <v>5.49465</v>
+        <v>2.60595</v>
       </c>
       <c r="H45">
-        <v>1.0620000000000001</v>
+        <v>1.1532</v>
       </c>
       <c r="I45">
-        <v>0.61592999999999998</v>
+        <v>0.55403999999999998</v>
       </c>
       <c r="J45">
-        <v>0.12525</v>
+        <v>0.13794000000000001</v>
       </c>
       <c r="K45">
-        <v>0.115396</v>
+        <v>0.12421500000000001</v>
       </c>
       <c r="L45">
-        <v>0.105328</v>
+        <v>0.112428</v>
       </c>
       <c r="M45">
-        <v>9.6348000000000003E-2</v>
+        <v>0.10278900000000001</v>
       </c>
       <c r="N45">
-        <v>8.6666000000000007E-2</v>
+        <v>9.3684000000000003E-2</v>
       </c>
       <c r="O45">
-        <v>8.6898000000000003E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.3423999999999993E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -2592,10 +2592,10 @@
         <v>3</v>
       </c>
       <c r="D46">
-        <v>25.391660000000002</v>
+        <v>26.93055</v>
       </c>
       <c r="E46">
-        <v>0.96884999999999999</v>
+        <v>0.69759000000000004</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2610,13 +2610,13 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0.19175300000000001</v>
+        <v>0.21402099999999999</v>
       </c>
       <c r="K46">
-        <v>0.133767</v>
+        <v>0.14064699999999999</v>
       </c>
       <c r="L46">
-        <v>9.8371E-2</v>
+        <v>0.104294</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -2628,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -2639,43 +2639,43 @@
         <v>4</v>
       </c>
       <c r="D47">
-        <v>15.713050000000001</v>
+        <v>19.6585</v>
       </c>
       <c r="E47">
-        <v>9.5470400000000009</v>
+        <v>10.25165</v>
       </c>
       <c r="F47">
-        <v>4.6582100000000004</v>
+        <v>4.2625400000000004</v>
       </c>
       <c r="G47">
-        <v>4.1425599999999996</v>
+        <v>3.6815500000000001</v>
       </c>
       <c r="H47">
-        <v>2.2852100000000002</v>
+        <v>2.3281700000000001</v>
       </c>
       <c r="I47">
-        <v>1.5536399999999999</v>
+        <v>1.35639</v>
       </c>
       <c r="J47">
-        <v>0.16597300000000001</v>
+        <v>0.184396</v>
       </c>
       <c r="K47">
-        <v>0.14446500000000001</v>
+        <v>0.15715899999999999</v>
       </c>
       <c r="L47">
-        <v>0.123739</v>
+        <v>0.130527</v>
       </c>
       <c r="M47">
-        <v>0.11154500000000001</v>
+        <v>0.116511</v>
       </c>
       <c r="N47">
-        <v>9.9214999999999998E-2</v>
+        <v>0.106756</v>
       </c>
       <c r="O47">
-        <v>9.9364999999999995E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.105687</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -2686,43 +2686,43 @@
         <v>5</v>
       </c>
       <c r="D48">
-        <v>24.41441</v>
+        <v>28.791869999999999</v>
       </c>
       <c r="E48">
-        <v>14.692909999999999</v>
+        <v>15.077640000000001</v>
       </c>
       <c r="F48">
-        <v>11.32864</v>
+        <v>6.5591699999999999</v>
       </c>
       <c r="G48">
-        <v>9.2507599999999996</v>
+        <v>5.1720899999999999</v>
       </c>
       <c r="H48">
-        <v>1.72753</v>
+        <v>1.9328099999999999</v>
       </c>
       <c r="I48">
-        <v>0.96789999999999998</v>
+        <v>0.91608999999999996</v>
       </c>
       <c r="J48">
-        <v>0.142786</v>
+        <v>0.157859</v>
       </c>
       <c r="K48">
-        <v>0.124887</v>
+        <v>0.135022</v>
       </c>
       <c r="L48">
-        <v>0.11077099999999999</v>
+        <v>0.116509</v>
       </c>
       <c r="M48">
-        <v>9.9727999999999997E-2</v>
+        <v>0.104266</v>
       </c>
       <c r="N48">
-        <v>8.6619000000000002E-2</v>
+        <v>9.3837000000000004E-2</v>
       </c>
       <c r="O48">
-        <v>8.7770000000000001E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.3584000000000001E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -2733,40 +2733,40 @@
         <v>6</v>
       </c>
       <c r="D49">
-        <v>12.287599999999999</v>
+        <v>13.200060000000001</v>
       </c>
       <c r="E49">
-        <v>9.88476</v>
+        <v>10.931800000000001</v>
       </c>
       <c r="F49">
-        <v>6.4391999999999996</v>
+        <v>3.57544</v>
       </c>
       <c r="G49">
-        <v>5.49465</v>
+        <v>2.60595</v>
       </c>
       <c r="H49">
-        <v>1.0620000000000001</v>
+        <v>1.1532</v>
       </c>
       <c r="I49">
-        <v>0.61592999999999998</v>
+        <v>0.55403999999999998</v>
       </c>
       <c r="J49">
-        <v>0.123694</v>
+        <v>0.13403599999999999</v>
       </c>
       <c r="K49">
-        <v>0.112631</v>
+        <v>0.121027</v>
       </c>
       <c r="L49">
-        <v>0.10256700000000001</v>
+        <v>0.108532</v>
       </c>
       <c r="M49">
-        <v>9.4226000000000004E-2</v>
+        <v>9.9275000000000002E-2</v>
       </c>
       <c r="N49">
-        <v>8.4334000000000006E-2</v>
+        <v>9.1243000000000005E-2</v>
       </c>
       <c r="O49">
-        <v>8.5336999999999996E-2</v>
+        <v>9.0966000000000005E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\PRECIOS CALCULADORA GALP LEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2D38BB-00B6-4A51-8802-29DFB6782CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95654573-C056-45DA-96D5-88D8854ACC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3350A494-7D0F-4E24-96BD-512094F7438F}"/>
   </bookViews>
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAC917C-D324-4D6B-8FB1-5CF7F1023A32}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="R42" sqref="R42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.23694200000000001</v>
+        <v>0.23630000000000001</v>
       </c>
       <c r="K2">
-        <v>0.15950600000000001</v>
+        <v>0.15918299999999999</v>
       </c>
       <c r="L2">
-        <v>0.11823699999999999</v>
+        <v>0.118225</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -589,22 +589,22 @@
         <v>1.35639</v>
       </c>
       <c r="J3">
-        <v>0.22475800000000001</v>
+        <v>0.222917</v>
       </c>
       <c r="K3">
-        <v>0.184639</v>
+        <v>0.18371000000000001</v>
       </c>
       <c r="L3">
-        <v>0.14192099999999999</v>
+        <v>0.142261</v>
       </c>
       <c r="M3">
-        <v>0.12432699999999999</v>
+        <v>0.124668</v>
       </c>
       <c r="N3">
-        <v>0.111495</v>
+        <v>0.111558</v>
       </c>
       <c r="O3">
-        <v>0.11934699999999999</v>
+        <v>0.119341</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -636,22 +636,22 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J4">
-        <v>0.19575799999999999</v>
+        <v>0.19400400000000001</v>
       </c>
       <c r="K4">
-        <v>0.15967100000000001</v>
+        <v>0.15887399999999999</v>
       </c>
       <c r="L4">
-        <v>0.12606800000000001</v>
+        <v>0.12620899999999999</v>
       </c>
       <c r="M4">
-        <v>0.108419</v>
+        <v>0.108695</v>
       </c>
       <c r="N4">
-        <v>9.4646999999999995E-2</v>
+        <v>9.4713000000000006E-2</v>
       </c>
       <c r="O4">
-        <v>0.104868</v>
+        <v>0.104799</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -683,22 +683,22 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J5">
-        <v>0.171211</v>
+        <v>0.169491</v>
       </c>
       <c r="K5">
-        <v>0.145172</v>
+        <v>0.14438799999999999</v>
       </c>
       <c r="L5">
-        <v>0.117891</v>
+        <v>0.118038</v>
       </c>
       <c r="M5">
-        <v>0.10338</v>
+        <v>0.10365099999999999</v>
       </c>
       <c r="N5">
-        <v>9.2092999999999994E-2</v>
+        <v>9.2157000000000003E-2</v>
       </c>
       <c r="O5">
-        <v>0.10197199999999999</v>
+        <v>0.10190399999999999</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.22633500000000001</v>
+        <v>0.22548399999999999</v>
       </c>
       <c r="K6">
-        <v>0.150505</v>
+        <v>0.149557</v>
       </c>
       <c r="L6">
-        <v>0.11125599999999999</v>
+        <v>0.110732</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -777,22 +777,22 @@
         <v>1.35639</v>
       </c>
       <c r="J7">
-        <v>0.20561199999999999</v>
+        <v>0.20626</v>
       </c>
       <c r="K7">
-        <v>0.17100599999999999</v>
+        <v>0.173234</v>
       </c>
       <c r="L7">
-        <v>0.136125</v>
+        <v>0.135329</v>
       </c>
       <c r="M7">
-        <v>0.121143</v>
+        <v>0.11831800000000001</v>
       </c>
       <c r="N7">
-        <v>0.11038000000000001</v>
+        <v>0.106516</v>
       </c>
       <c r="O7">
-        <v>0.112581</v>
+        <v>0.111917</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -824,22 +824,22 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J8">
-        <v>0.17791599999999999</v>
+        <v>0.178623</v>
       </c>
       <c r="K8">
-        <v>0.1474</v>
+        <v>0.149618</v>
       </c>
       <c r="L8">
-        <v>0.121351</v>
+        <v>0.120355</v>
       </c>
       <c r="M8">
-        <v>0.107831</v>
+        <v>0.103743</v>
       </c>
       <c r="N8">
-        <v>9.6293000000000004E-2</v>
+        <v>9.1175999999999993E-2</v>
       </c>
       <c r="O8">
-        <v>9.9507999999999999E-2</v>
+        <v>9.8504999999999995E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -871,22 +871,22 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J9">
-        <v>0.1537</v>
+        <v>0.154389</v>
       </c>
       <c r="K9">
-        <v>0.13313900000000001</v>
+        <v>0.13531299999999999</v>
       </c>
       <c r="L9">
-        <v>0.113259</v>
+        <v>0.112287</v>
       </c>
       <c r="M9">
-        <v>0.10278900000000001</v>
+        <v>9.8771999999999999E-2</v>
       </c>
       <c r="N9">
-        <v>9.3684000000000003E-2</v>
+        <v>8.8649000000000006E-2</v>
       </c>
       <c r="O9">
-        <v>9.6735000000000002E-2</v>
+        <v>9.5749000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.218773</v>
+        <v>0.21704499999999999</v>
       </c>
       <c r="K10">
-        <v>0.14396700000000001</v>
+        <v>0.14224999999999999</v>
       </c>
       <c r="L10">
-        <v>0.106349</v>
+        <v>0.105113</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -965,22 +965,22 @@
         <v>1.35639</v>
       </c>
       <c r="J11">
-        <v>0.19611400000000001</v>
+        <v>0.19562399999999999</v>
       </c>
       <c r="K11">
-        <v>0.16328799999999999</v>
+        <v>0.16387599999999999</v>
       </c>
       <c r="L11">
-        <v>0.13034999999999999</v>
+        <v>0.12862899999999999</v>
       </c>
       <c r="M11">
-        <v>0.116511</v>
+        <v>0.113597</v>
       </c>
       <c r="N11">
-        <v>0.106756</v>
+        <v>0.103182</v>
       </c>
       <c r="O11">
-        <v>0.10773099999999999</v>
+        <v>0.10638499999999999</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1012,22 +1012,22 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J12">
-        <v>0.16918</v>
+        <v>0.168854</v>
       </c>
       <c r="K12">
-        <v>0.14046700000000001</v>
+        <v>0.141153</v>
       </c>
       <c r="L12">
-        <v>0.116128</v>
+        <v>0.114314</v>
       </c>
       <c r="M12">
-        <v>0.104266</v>
+        <v>0.10058</v>
       </c>
       <c r="N12">
-        <v>9.3837000000000004E-2</v>
+        <v>8.9505000000000001E-2</v>
       </c>
       <c r="O12">
-        <v>9.5500000000000002E-2</v>
+        <v>9.4023999999999996E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1059,22 +1059,22 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J13">
-        <v>0.14513300000000001</v>
+        <v>0.144811</v>
       </c>
       <c r="K13">
-        <v>0.12635099999999999</v>
+        <v>0.127021</v>
       </c>
       <c r="L13">
-        <v>0.108136</v>
+        <v>0.106361</v>
       </c>
       <c r="M13">
-        <v>9.9275000000000002E-2</v>
+        <v>9.5651E-2</v>
       </c>
       <c r="N13">
-        <v>9.1243000000000005E-2</v>
+        <v>8.6980000000000002E-2</v>
       </c>
       <c r="O13">
-        <v>9.2816999999999997E-2</v>
+        <v>9.1370000000000007E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.22971</v>
+        <v>0.23011999999999999</v>
       </c>
       <c r="K14">
-        <v>0.15401799999999999</v>
+        <v>0.154528</v>
       </c>
       <c r="L14">
-        <v>0.115367</v>
+        <v>0.11600199999999999</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1153,22 +1153,22 @@
         <v>1.35639</v>
       </c>
       <c r="J15">
-        <v>0.20933399999999999</v>
+        <v>0.21030599999999999</v>
       </c>
       <c r="K15">
-        <v>0.17629300000000001</v>
+        <v>0.17701900000000001</v>
       </c>
       <c r="L15">
-        <v>0.14192099999999999</v>
+        <v>0.142261</v>
       </c>
       <c r="M15">
-        <v>0.12432699999999999</v>
+        <v>0.124668</v>
       </c>
       <c r="N15">
-        <v>0.111495</v>
+        <v>0.111558</v>
       </c>
       <c r="O15">
-        <v>0.116547</v>
+        <v>0.117202</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1200,22 +1200,22 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J16">
-        <v>0.18135200000000001</v>
+        <v>0.18232300000000001</v>
       </c>
       <c r="K16">
-        <v>0.152591</v>
+        <v>0.15329200000000001</v>
       </c>
       <c r="L16">
-        <v>0.12606800000000001</v>
+        <v>0.12620899999999999</v>
       </c>
       <c r="M16">
-        <v>0.108419</v>
+        <v>0.108695</v>
       </c>
       <c r="N16">
-        <v>9.4646999999999995E-2</v>
+        <v>9.4713000000000006E-2</v>
       </c>
       <c r="O16">
-        <v>0.102217</v>
+        <v>0.10277600000000001</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1247,22 +1247,22 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J17">
-        <v>0.15710099999999999</v>
+        <v>0.158052</v>
       </c>
       <c r="K17">
-        <v>0.138235</v>
+        <v>0.13892099999999999</v>
       </c>
       <c r="L17">
-        <v>0.117891</v>
+        <v>0.118038</v>
       </c>
       <c r="M17">
-        <v>0.10338</v>
+        <v>0.10365099999999999</v>
       </c>
       <c r="N17">
-        <v>9.2092999999999994E-2</v>
+        <v>9.2157000000000003E-2</v>
       </c>
       <c r="O17">
-        <v>9.9399000000000001E-2</v>
+        <v>9.9944000000000005E-2</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.222331</v>
+        <v>0.221999</v>
       </c>
       <c r="K18">
-        <v>0.14744699999999999</v>
+        <v>0.146893</v>
       </c>
       <c r="L18">
-        <v>0.10958</v>
+        <v>0.10936</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>1.35639</v>
       </c>
       <c r="J19">
-        <v>0.195718</v>
+        <v>0.19805800000000001</v>
       </c>
       <c r="K19">
-        <v>0.165907</v>
+        <v>0.169178</v>
       </c>
       <c r="L19">
-        <v>0.136125</v>
+        <v>0.135329</v>
       </c>
       <c r="M19">
-        <v>0.121143</v>
+        <v>0.11831800000000001</v>
       </c>
       <c r="N19">
-        <v>0.11038000000000001</v>
+        <v>0.106516</v>
       </c>
       <c r="O19">
-        <v>0.110942</v>
+        <v>0.110583</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1388,22 +1388,22 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J20">
-        <v>0.16853699999999999</v>
+        <v>0.170908</v>
       </c>
       <c r="K20">
-        <v>0.143012</v>
+        <v>0.14618800000000001</v>
       </c>
       <c r="L20">
-        <v>0.121351</v>
+        <v>0.120355</v>
       </c>
       <c r="M20">
-        <v>0.107831</v>
+        <v>0.103743</v>
       </c>
       <c r="N20">
-        <v>9.6293000000000004E-2</v>
+        <v>9.1175999999999993E-2</v>
       </c>
       <c r="O20">
-        <v>9.7975999999999994E-2</v>
+        <v>9.7249000000000002E-2</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1435,22 +1435,22 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J21">
-        <v>0.14451</v>
+        <v>0.14683099999999999</v>
       </c>
       <c r="K21">
-        <v>0.12883800000000001</v>
+        <v>0.13195200000000001</v>
       </c>
       <c r="L21">
-        <v>0.113259</v>
+        <v>0.112287</v>
       </c>
       <c r="M21">
-        <v>0.10278900000000001</v>
+        <v>9.8771999999999999E-2</v>
       </c>
       <c r="N21">
-        <v>9.3684000000000003E-2</v>
+        <v>8.8649000000000006E-2</v>
       </c>
       <c r="O21">
-        <v>9.5247999999999999E-2</v>
+        <v>9.4533000000000006E-2</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.21586</v>
+        <v>0.21446399999999999</v>
       </c>
       <c r="K22">
-        <v>0.141733</v>
+        <v>0.140263</v>
       </c>
       <c r="L22">
-        <v>0.105085</v>
+        <v>0.10403800000000001</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1529,22 +1529,22 @@
         <v>1.35639</v>
       </c>
       <c r="J23">
-        <v>0.188226</v>
+        <v>0.188863</v>
       </c>
       <c r="K23">
-        <v>0.15937899999999999</v>
+        <v>0.160611</v>
       </c>
       <c r="L23">
-        <v>0.13034999999999999</v>
+        <v>0.12862899999999999</v>
       </c>
       <c r="M23">
-        <v>0.116511</v>
+        <v>0.113597</v>
       </c>
       <c r="N23">
-        <v>0.106756</v>
+        <v>0.103182</v>
       </c>
       <c r="O23">
-        <v>0.106491</v>
+        <v>0.105335</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1576,22 +1576,22 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J24">
-        <v>0.161663</v>
+        <v>0.16245000000000001</v>
       </c>
       <c r="K24">
-        <v>0.13709199999999999</v>
+        <v>0.13836699999999999</v>
       </c>
       <c r="L24">
-        <v>0.116128</v>
+        <v>0.114314</v>
       </c>
       <c r="M24">
-        <v>0.104266</v>
+        <v>0.10058</v>
       </c>
       <c r="N24">
-        <v>9.3837000000000004E-2</v>
+        <v>8.9505000000000001E-2</v>
       </c>
       <c r="O24">
-        <v>9.4341999999999995E-2</v>
+        <v>9.3043000000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1623,22 +1623,22 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J25">
-        <v>0.137768</v>
+        <v>0.13853399999999999</v>
       </c>
       <c r="K25">
-        <v>0.123046</v>
+        <v>0.124293</v>
       </c>
       <c r="L25">
-        <v>0.108136</v>
+        <v>0.106361</v>
       </c>
       <c r="M25">
-        <v>9.9275000000000002E-2</v>
+        <v>9.5651E-2</v>
       </c>
       <c r="N25">
-        <v>9.1243000000000005E-2</v>
+        <v>8.6980000000000002E-2</v>
       </c>
       <c r="O25">
-        <v>9.1691999999999996E-2</v>
+        <v>9.0416999999999997E-2</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1670,13 +1670,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.22622900000000001</v>
+        <v>0.227854</v>
       </c>
       <c r="K26">
-        <v>0.15101000000000001</v>
+        <v>0.15255299999999999</v>
       </c>
       <c r="L26">
-        <v>0.112858</v>
+        <v>0.11436300000000001</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -1717,22 +1717,22 @@
         <v>1.35639</v>
       </c>
       <c r="J27">
-        <v>0.19883700000000001</v>
+        <v>0.20347199999999999</v>
       </c>
       <c r="K27">
-        <v>0.17036999999999999</v>
+        <v>0.17315900000000001</v>
       </c>
       <c r="L27">
-        <v>0.14192099999999999</v>
+        <v>0.142261</v>
       </c>
       <c r="M27">
-        <v>0.12432699999999999</v>
+        <v>0.124668</v>
       </c>
       <c r="N27">
-        <v>0.111495</v>
+        <v>0.111558</v>
       </c>
       <c r="O27">
-        <v>0.113982</v>
+        <v>0.115526</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -1764,22 +1764,22 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J28">
-        <v>0.17058400000000001</v>
+        <v>0.17532400000000001</v>
       </c>
       <c r="K28">
-        <v>0.14680599999999999</v>
+        <v>0.149529</v>
       </c>
       <c r="L28">
-        <v>0.12606800000000001</v>
+        <v>0.12620899999999999</v>
       </c>
       <c r="M28">
-        <v>0.108419</v>
+        <v>0.108695</v>
       </c>
       <c r="N28">
-        <v>9.4646999999999995E-2</v>
+        <v>9.4713000000000006E-2</v>
       </c>
       <c r="O28">
-        <v>9.9432999999999994E-2</v>
+        <v>0.10095899999999999</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -1811,22 +1811,22 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J29">
-        <v>0.146512</v>
+        <v>0.15115799999999999</v>
       </c>
       <c r="K29">
-        <v>0.132546</v>
+        <v>0.135214</v>
       </c>
       <c r="L29">
-        <v>0.117891</v>
+        <v>0.118038</v>
       </c>
       <c r="M29">
-        <v>0.10338</v>
+        <v>0.10365099999999999</v>
       </c>
       <c r="N29">
-        <v>9.2092999999999994E-2</v>
+        <v>9.2157000000000003E-2</v>
       </c>
       <c r="O29">
-        <v>9.6679000000000001E-2</v>
+        <v>9.8169000000000006E-2</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.22017600000000001</v>
+        <v>0.21995200000000001</v>
       </c>
       <c r="K30">
-        <v>0.145588</v>
+        <v>0.14511099999999999</v>
       </c>
       <c r="L30">
-        <v>0.108033</v>
+        <v>0.107888</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -1905,22 +1905,22 @@
         <v>1.35639</v>
       </c>
       <c r="J31">
-        <v>0.18920200000000001</v>
+        <v>0.19186700000000001</v>
       </c>
       <c r="K31">
-        <v>0.162272</v>
+        <v>0.16572500000000001</v>
       </c>
       <c r="L31">
-        <v>0.136125</v>
+        <v>0.135329</v>
       </c>
       <c r="M31">
-        <v>0.121143</v>
+        <v>0.11831800000000001</v>
       </c>
       <c r="N31">
-        <v>0.11038000000000001</v>
+        <v>0.106516</v>
       </c>
       <c r="O31">
-        <v>0.109359</v>
+        <v>0.10907799999999999</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -1952,22 +1952,22 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J32">
-        <v>0.16184899999999999</v>
+        <v>0.164553</v>
       </c>
       <c r="K32">
-        <v>0.139457</v>
+        <v>0.14281099999999999</v>
       </c>
       <c r="L32">
-        <v>0.121351</v>
+        <v>0.120355</v>
       </c>
       <c r="M32">
-        <v>0.107831</v>
+        <v>0.103743</v>
       </c>
       <c r="N32">
-        <v>9.6293000000000004E-2</v>
+        <v>9.1175999999999993E-2</v>
       </c>
       <c r="O32">
-        <v>9.6259999999999998E-2</v>
+        <v>9.5616000000000007E-2</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -1999,22 +1999,22 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J33">
-        <v>0.13794000000000001</v>
+        <v>0.14058899999999999</v>
       </c>
       <c r="K33">
-        <v>0.12534600000000001</v>
+        <v>0.128634</v>
       </c>
       <c r="L33">
-        <v>0.113259</v>
+        <v>0.112287</v>
       </c>
       <c r="M33">
-        <v>0.10278900000000001</v>
+        <v>9.8771999999999999E-2</v>
       </c>
       <c r="N33">
-        <v>9.3684000000000003E-2</v>
+        <v>8.8649000000000006E-2</v>
       </c>
       <c r="O33">
-        <v>9.3572000000000002E-2</v>
+        <v>9.2937000000000006E-2</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2046,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.21453700000000001</v>
+        <v>0.21327299999999999</v>
       </c>
       <c r="K34">
-        <v>0.140649</v>
+        <v>0.13927999999999999</v>
       </c>
       <c r="L34">
-        <v>0.10414</v>
+        <v>0.103186</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2093,22 +2093,22 @@
         <v>1.35639</v>
       </c>
       <c r="J35">
-        <v>0.184396</v>
+        <v>0.18564600000000001</v>
       </c>
       <c r="K35">
-        <v>0.157668</v>
+        <v>0.159251</v>
       </c>
       <c r="L35">
-        <v>0.13034999999999999</v>
+        <v>0.12862899999999999</v>
       </c>
       <c r="M35">
-        <v>0.116511</v>
+        <v>0.113597</v>
       </c>
       <c r="N35">
-        <v>0.106756</v>
+        <v>0.103182</v>
       </c>
       <c r="O35">
-        <v>0.10555100000000001</v>
+        <v>0.104493</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2140,22 +2140,22 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J36">
-        <v>0.157859</v>
+        <v>0.159302</v>
       </c>
       <c r="K36">
-        <v>0.13555300000000001</v>
+        <v>0.137181</v>
       </c>
       <c r="L36">
-        <v>0.116128</v>
+        <v>0.114314</v>
       </c>
       <c r="M36">
-        <v>0.104266</v>
+        <v>0.10058</v>
       </c>
       <c r="N36">
-        <v>9.3837000000000004E-2</v>
+        <v>8.9505000000000001E-2</v>
       </c>
       <c r="O36">
-        <v>9.3348E-2</v>
+        <v>9.2145000000000005E-2</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2187,22 +2187,22 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J37">
-        <v>0.13403599999999999</v>
+        <v>0.13544800000000001</v>
       </c>
       <c r="K37">
-        <v>0.12153899999999999</v>
+        <v>0.12313300000000001</v>
       </c>
       <c r="L37">
-        <v>0.108136</v>
+        <v>0.106361</v>
       </c>
       <c r="M37">
-        <v>9.9275000000000002E-2</v>
+        <v>9.5651E-2</v>
       </c>
       <c r="N37">
-        <v>9.1243000000000005E-2</v>
+        <v>8.6980000000000002E-2</v>
       </c>
       <c r="O37">
-        <v>9.0727000000000002E-2</v>
+        <v>8.9546000000000001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2234,13 +2234,13 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.22642399999999999</v>
+        <v>0.228988</v>
       </c>
       <c r="K38">
-        <v>0.151084</v>
+        <v>0.15318200000000001</v>
       </c>
       <c r="L38">
-        <v>0.113055</v>
+        <v>0.115091</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2281,22 +2281,22 @@
         <v>1.35639</v>
       </c>
       <c r="J39">
-        <v>0.19883700000000001</v>
+        <v>0.20347199999999999</v>
       </c>
       <c r="K39">
-        <v>0.17071</v>
+        <v>0.17590600000000001</v>
       </c>
       <c r="L39">
-        <v>0.14200499999999999</v>
+        <v>0.14327599999999999</v>
       </c>
       <c r="M39">
-        <v>0.12432699999999999</v>
+        <v>0.124668</v>
       </c>
       <c r="N39">
-        <v>0.111495</v>
+        <v>0.111558</v>
       </c>
       <c r="O39">
-        <v>0.114192</v>
+        <v>0.116317</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2328,22 +2328,22 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J40">
-        <v>0.17058400000000001</v>
+        <v>0.17532400000000001</v>
       </c>
       <c r="K40">
-        <v>0.14713799999999999</v>
+        <v>0.152118</v>
       </c>
       <c r="L40">
-        <v>0.126167</v>
+        <v>0.12748499999999999</v>
       </c>
       <c r="M40">
-        <v>0.108419</v>
+        <v>0.108695</v>
       </c>
       <c r="N40">
-        <v>9.4646999999999995E-2</v>
+        <v>9.4713000000000006E-2</v>
       </c>
       <c r="O40">
-        <v>9.9697999999999995E-2</v>
+        <v>0.101837</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -2375,22 +2375,22 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J41">
-        <v>0.146512</v>
+        <v>0.15115799999999999</v>
       </c>
       <c r="K41">
-        <v>0.13289300000000001</v>
+        <v>0.13777600000000001</v>
       </c>
       <c r="L41">
-        <v>0.11798699999999999</v>
+        <v>0.119294</v>
       </c>
       <c r="M41">
-        <v>0.10338</v>
+        <v>0.10365099999999999</v>
       </c>
       <c r="N41">
-        <v>9.2092999999999994E-2</v>
+        <v>9.2157000000000003E-2</v>
       </c>
       <c r="O41">
-        <v>9.6937999999999996E-2</v>
+        <v>9.9026000000000003E-2</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -2422,13 +2422,13 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0.219724</v>
+        <v>0.21937599999999999</v>
       </c>
       <c r="K42">
-        <v>0.145203</v>
+        <v>0.14469399999999999</v>
       </c>
       <c r="L42">
-        <v>0.107887</v>
+        <v>0.107687</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -2469,22 +2469,22 @@
         <v>1.35639</v>
       </c>
       <c r="J43">
-        <v>0.18920200000000001</v>
+        <v>0.19186700000000001</v>
       </c>
       <c r="K43">
-        <v>0.16100800000000001</v>
+        <v>0.16411100000000001</v>
       </c>
       <c r="L43">
-        <v>0.135488</v>
+        <v>0.134631</v>
       </c>
       <c r="M43">
-        <v>0.121143</v>
+        <v>0.11831800000000001</v>
       </c>
       <c r="N43">
-        <v>0.11038000000000001</v>
+        <v>0.106516</v>
       </c>
       <c r="O43">
-        <v>0.109197</v>
+        <v>0.10885</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -2516,22 +2516,22 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J44">
-        <v>0.16184899999999999</v>
+        <v>0.164553</v>
       </c>
       <c r="K44">
-        <v>0.13827999999999999</v>
+        <v>0.14129700000000001</v>
       </c>
       <c r="L44">
-        <v>0.12049600000000001</v>
+        <v>0.119433</v>
       </c>
       <c r="M44">
-        <v>0.107831</v>
+        <v>0.103743</v>
       </c>
       <c r="N44">
-        <v>9.6293000000000004E-2</v>
+        <v>9.1175999999999993E-2</v>
       </c>
       <c r="O44">
-        <v>9.6110000000000001E-2</v>
+        <v>9.5396999999999996E-2</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -2563,22 +2563,22 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J45">
-        <v>0.13794000000000001</v>
+        <v>0.14058899999999999</v>
       </c>
       <c r="K45">
-        <v>0.12421500000000001</v>
+        <v>0.12717200000000001</v>
       </c>
       <c r="L45">
-        <v>0.112428</v>
+        <v>0.111392</v>
       </c>
       <c r="M45">
-        <v>0.10278900000000001</v>
+        <v>9.8771999999999999E-2</v>
       </c>
       <c r="N45">
-        <v>9.3684000000000003E-2</v>
+        <v>8.8649000000000006E-2</v>
       </c>
       <c r="O45">
-        <v>9.3423999999999993E-2</v>
+        <v>9.2720999999999998E-2</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -2610,13 +2610,13 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0.21402099999999999</v>
+        <v>0.21274999999999999</v>
       </c>
       <c r="K46">
-        <v>0.14064699999999999</v>
+        <v>0.13933799999999999</v>
       </c>
       <c r="L46">
-        <v>0.104294</v>
+        <v>0.10333299999999999</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -2657,22 +2657,22 @@
         <v>1.35639</v>
       </c>
       <c r="J47">
-        <v>0.184396</v>
+        <v>0.18564600000000001</v>
       </c>
       <c r="K47">
-        <v>0.15715899999999999</v>
+        <v>0.15892999999999999</v>
       </c>
       <c r="L47">
-        <v>0.130527</v>
+        <v>0.12887499999999999</v>
       </c>
       <c r="M47">
-        <v>0.116511</v>
+        <v>0.113597</v>
       </c>
       <c r="N47">
-        <v>0.106756</v>
+        <v>0.103182</v>
       </c>
       <c r="O47">
-        <v>0.105687</v>
+        <v>0.104616</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -2704,22 +2704,22 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J48">
-        <v>0.157859</v>
+        <v>0.159302</v>
       </c>
       <c r="K48">
-        <v>0.135022</v>
+        <v>0.13683999999999999</v>
       </c>
       <c r="L48">
-        <v>0.116509</v>
+        <v>0.11477800000000001</v>
       </c>
       <c r="M48">
-        <v>0.104266</v>
+        <v>0.10058</v>
       </c>
       <c r="N48">
-        <v>9.3837000000000004E-2</v>
+        <v>8.9505000000000001E-2</v>
       </c>
       <c r="O48">
-        <v>9.3584000000000001E-2</v>
+        <v>9.2357999999999996E-2</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -2751,22 +2751,22 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J49">
-        <v>0.13403599999999999</v>
+        <v>0.13544800000000001</v>
       </c>
       <c r="K49">
-        <v>0.121027</v>
+        <v>0.122807</v>
       </c>
       <c r="L49">
-        <v>0.108532</v>
+        <v>0.106837</v>
       </c>
       <c r="M49">
-        <v>9.9275000000000002E-2</v>
+        <v>9.5651E-2</v>
       </c>
       <c r="N49">
-        <v>9.1243000000000005E-2</v>
+        <v>8.6980000000000002E-2</v>
       </c>
       <c r="O49">
-        <v>9.0966000000000005E-2</v>
+        <v>8.9761999999999995E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\PRECIOS CALCULADORA GALP LEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95654573-C056-45DA-96D5-88D8854ACC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3918C7-597B-45D1-AADC-AAC6BE7CB8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3350A494-7D0F-4E24-96BD-512094F7438F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3350A494-7D0F-4E24-96BD-512094F7438F}"/>
   </bookViews>
   <sheets>
     <sheet name="data2" sheetId="1" r:id="rId1"/>
@@ -457,16 +457,16 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="M2" sqref="M2:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="10" max="15" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="10" max="15" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +513,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.23630000000000001</v>
+        <v>0.23564099999999999</v>
       </c>
       <c r="K2">
-        <v>0.15918299999999999</v>
+        <v>0.15890599999999999</v>
       </c>
       <c r="L2">
-        <v>0.118225</v>
+        <v>0.118158</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -589,25 +589,25 @@
         <v>1.35639</v>
       </c>
       <c r="J3">
-        <v>0.222917</v>
+        <v>0.21881900000000001</v>
       </c>
       <c r="K3">
-        <v>0.18371000000000001</v>
+        <v>0.18071799999999999</v>
       </c>
       <c r="L3">
-        <v>0.142261</v>
+        <v>0.14382900000000001</v>
       </c>
       <c r="M3">
-        <v>0.124668</v>
+        <v>0.12675700000000001</v>
       </c>
       <c r="N3">
-        <v>0.111558</v>
+        <v>0.113511</v>
       </c>
       <c r="O3">
-        <v>0.119341</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.119264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -636,25 +636,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J4">
-        <v>0.19400400000000001</v>
+        <v>0.18985199999999999</v>
       </c>
       <c r="K4">
-        <v>0.15887399999999999</v>
+        <v>0.15604100000000001</v>
       </c>
       <c r="L4">
-        <v>0.12620899999999999</v>
+        <v>0.12745799999999999</v>
       </c>
       <c r="M4">
-        <v>0.108695</v>
+        <v>0.110726</v>
       </c>
       <c r="N4">
-        <v>9.4713000000000006E-2</v>
+        <v>9.6606999999999998E-2</v>
       </c>
       <c r="O4">
-        <v>0.104799</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.104518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -683,25 +683,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J5">
-        <v>0.169491</v>
+        <v>0.16541900000000001</v>
       </c>
       <c r="K5">
-        <v>0.14438799999999999</v>
+        <v>0.14161099999999999</v>
       </c>
       <c r="L5">
-        <v>0.118038</v>
+        <v>0.119269</v>
       </c>
       <c r="M5">
-        <v>0.10365099999999999</v>
+        <v>0.10565099999999999</v>
       </c>
       <c r="N5">
-        <v>9.2157000000000003E-2</v>
+        <v>9.4023999999999996E-2</v>
       </c>
       <c r="O5">
-        <v>0.10190399999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.101634</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.22548399999999999</v>
+        <v>0.22515499999999999</v>
       </c>
       <c r="K6">
-        <v>0.149557</v>
+        <v>0.14941699999999999</v>
       </c>
       <c r="L6">
-        <v>0.110732</v>
+        <v>0.11070000000000001</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -777,25 +777,25 @@
         <v>1.35639</v>
       </c>
       <c r="J7">
-        <v>0.20626</v>
+        <v>0.20411199999999999</v>
       </c>
       <c r="K7">
-        <v>0.173234</v>
+        <v>0.171736</v>
       </c>
       <c r="L7">
-        <v>0.135329</v>
+        <v>0.136078</v>
       </c>
       <c r="M7">
-        <v>0.11831800000000001</v>
+        <v>0.119306</v>
       </c>
       <c r="N7">
-        <v>0.106516</v>
+        <v>0.107433</v>
       </c>
       <c r="O7">
-        <v>0.111917</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.111877</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -824,25 +824,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J8">
-        <v>0.178623</v>
+        <v>0.176424</v>
       </c>
       <c r="K8">
-        <v>0.149618</v>
+        <v>0.14819199999999999</v>
       </c>
       <c r="L8">
-        <v>0.120355</v>
+        <v>0.12094299999999999</v>
       </c>
       <c r="M8">
-        <v>0.103743</v>
+        <v>0.10467600000000001</v>
       </c>
       <c r="N8">
-        <v>9.1175999999999993E-2</v>
+        <v>9.2034000000000005E-2</v>
       </c>
       <c r="O8">
-        <v>9.8504999999999995E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.8352999999999996E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -871,25 +871,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J9">
-        <v>0.154389</v>
+        <v>0.15223300000000001</v>
       </c>
       <c r="K9">
-        <v>0.13531299999999999</v>
+        <v>0.13391600000000001</v>
       </c>
       <c r="L9">
-        <v>0.112287</v>
+        <v>0.112867</v>
       </c>
       <c r="M9">
-        <v>9.8771999999999999E-2</v>
+        <v>9.9690000000000001E-2</v>
       </c>
       <c r="N9">
-        <v>8.8649000000000006E-2</v>
+        <v>8.9494000000000004E-2</v>
       </c>
       <c r="O9">
-        <v>9.5749000000000001E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.5603999999999995E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.21704499999999999</v>
+        <v>0.21706500000000001</v>
       </c>
       <c r="K10">
-        <v>0.14224999999999999</v>
+        <v>0.14238100000000001</v>
       </c>
       <c r="L10">
-        <v>0.105113</v>
+        <v>0.105291</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -965,25 +965,25 @@
         <v>1.35639</v>
       </c>
       <c r="J11">
-        <v>0.19562399999999999</v>
+        <v>0.19423399999999999</v>
       </c>
       <c r="K11">
-        <v>0.16387599999999999</v>
+        <v>0.16304299999999999</v>
       </c>
       <c r="L11">
-        <v>0.12862899999999999</v>
+        <v>0.12937199999999999</v>
       </c>
       <c r="M11">
-        <v>0.113597</v>
+        <v>0.11448899999999999</v>
       </c>
       <c r="N11">
-        <v>0.103182</v>
+        <v>0.104019</v>
       </c>
       <c r="O11">
-        <v>0.10638499999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.106563</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1012,25 +1012,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J12">
-        <v>0.168854</v>
+        <v>0.167406</v>
       </c>
       <c r="K12">
-        <v>0.141153</v>
+        <v>0.14035900000000001</v>
       </c>
       <c r="L12">
-        <v>0.114314</v>
+        <v>0.11493299999999999</v>
       </c>
       <c r="M12">
-        <v>0.10058</v>
+        <v>0.10142</v>
       </c>
       <c r="N12">
-        <v>8.9505000000000001E-2</v>
+        <v>9.0283000000000002E-2</v>
       </c>
       <c r="O12">
-        <v>9.4023999999999996E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.4102000000000005E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1059,25 +1059,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J13">
-        <v>0.144811</v>
+        <v>0.14338999999999999</v>
       </c>
       <c r="K13">
-        <v>0.127021</v>
+        <v>0.12624299999999999</v>
       </c>
       <c r="L13">
-        <v>0.106361</v>
+        <v>0.10697</v>
       </c>
       <c r="M13">
-        <v>9.5651E-2</v>
+        <v>9.6477999999999994E-2</v>
       </c>
       <c r="N13">
-        <v>8.6980000000000002E-2</v>
+        <v>8.7748000000000007E-2</v>
       </c>
       <c r="O13">
-        <v>9.1370000000000007E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.1447000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.23011999999999999</v>
+        <v>0.230711</v>
       </c>
       <c r="K14">
-        <v>0.154528</v>
+        <v>0.15529999999999999</v>
       </c>
       <c r="L14">
-        <v>0.11600199999999999</v>
+        <v>0.116701</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1153,25 +1153,25 @@
         <v>1.35639</v>
       </c>
       <c r="J15">
-        <v>0.21030599999999999</v>
+        <v>0.20910300000000001</v>
       </c>
       <c r="K15">
-        <v>0.17701900000000001</v>
+        <v>0.17571800000000001</v>
       </c>
       <c r="L15">
-        <v>0.142261</v>
+        <v>0.14382900000000001</v>
       </c>
       <c r="M15">
-        <v>0.124668</v>
+        <v>0.12675700000000001</v>
       </c>
       <c r="N15">
-        <v>0.111558</v>
+        <v>0.113511</v>
       </c>
       <c r="O15">
-        <v>0.117202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.117905</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1200,25 +1200,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J16">
-        <v>0.18232300000000001</v>
+        <v>0.180893</v>
       </c>
       <c r="K16">
-        <v>0.15329200000000001</v>
+        <v>0.15196100000000001</v>
       </c>
       <c r="L16">
-        <v>0.12620899999999999</v>
+        <v>0.12745799999999999</v>
       </c>
       <c r="M16">
-        <v>0.108695</v>
+        <v>0.110726</v>
       </c>
       <c r="N16">
-        <v>9.4713000000000006E-2</v>
+        <v>9.6606999999999998E-2</v>
       </c>
       <c r="O16">
-        <v>0.10277600000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.103225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1247,25 +1247,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J17">
-        <v>0.158052</v>
+        <v>0.15665000000000001</v>
       </c>
       <c r="K17">
-        <v>0.13892099999999999</v>
+        <v>0.13761599999999999</v>
       </c>
       <c r="L17">
-        <v>0.118038</v>
+        <v>0.119269</v>
       </c>
       <c r="M17">
-        <v>0.10365099999999999</v>
+        <v>0.10565099999999999</v>
       </c>
       <c r="N17">
-        <v>9.2157000000000003E-2</v>
+        <v>9.4023999999999996E-2</v>
       </c>
       <c r="O17">
-        <v>9.9944000000000005E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.100387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.221999</v>
+        <v>0.22230800000000001</v>
       </c>
       <c r="K18">
-        <v>0.146893</v>
+        <v>0.147282</v>
       </c>
       <c r="L18">
-        <v>0.10936</v>
+        <v>0.109712</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1341,25 +1341,25 @@
         <v>1.35639</v>
       </c>
       <c r="J19">
-        <v>0.19805800000000001</v>
+        <v>0.19758300000000001</v>
       </c>
       <c r="K19">
-        <v>0.169178</v>
+        <v>0.168623</v>
       </c>
       <c r="L19">
-        <v>0.135329</v>
+        <v>0.136078</v>
       </c>
       <c r="M19">
-        <v>0.11831800000000001</v>
+        <v>0.119306</v>
       </c>
       <c r="N19">
-        <v>0.106516</v>
+        <v>0.107433</v>
       </c>
       <c r="O19">
-        <v>0.110583</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.110933</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1388,25 +1388,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J20">
-        <v>0.170908</v>
+        <v>0.17031099999999999</v>
       </c>
       <c r="K20">
-        <v>0.14618800000000001</v>
+        <v>0.14560999999999999</v>
       </c>
       <c r="L20">
-        <v>0.120355</v>
+        <v>0.12094299999999999</v>
       </c>
       <c r="M20">
-        <v>0.103743</v>
+        <v>0.10467600000000001</v>
       </c>
       <c r="N20">
-        <v>9.1175999999999993E-2</v>
+        <v>9.2034000000000005E-2</v>
       </c>
       <c r="O20">
-        <v>9.7249000000000002E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.7465999999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1435,25 +1435,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J21">
-        <v>0.14683099999999999</v>
+        <v>0.14624699999999999</v>
       </c>
       <c r="K21">
-        <v>0.13195200000000001</v>
+        <v>0.131385</v>
       </c>
       <c r="L21">
-        <v>0.112287</v>
+        <v>0.112867</v>
       </c>
       <c r="M21">
-        <v>9.8771999999999999E-2</v>
+        <v>9.9690000000000001E-2</v>
       </c>
       <c r="N21">
-        <v>8.8649000000000006E-2</v>
+        <v>8.9494000000000004E-2</v>
       </c>
       <c r="O21">
-        <v>9.4533000000000006E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.4746999999999998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.21446399999999999</v>
+        <v>0.21492800000000001</v>
       </c>
       <c r="K22">
-        <v>0.140263</v>
+        <v>0.14076</v>
       </c>
       <c r="L22">
-        <v>0.10403800000000001</v>
+        <v>0.10448399999999999</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1529,25 +1529,25 @@
         <v>1.35639</v>
       </c>
       <c r="J23">
-        <v>0.188863</v>
+        <v>0.18873799999999999</v>
       </c>
       <c r="K23">
-        <v>0.160611</v>
+        <v>0.160466</v>
       </c>
       <c r="L23">
-        <v>0.12862899999999999</v>
+        <v>0.12937199999999999</v>
       </c>
       <c r="M23">
-        <v>0.113597</v>
+        <v>0.11448899999999999</v>
       </c>
       <c r="N23">
-        <v>0.103182</v>
+        <v>0.104019</v>
       </c>
       <c r="O23">
-        <v>0.105335</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.10578600000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1576,25 +1576,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J24">
-        <v>0.16245000000000001</v>
+        <v>0.16222</v>
       </c>
       <c r="K24">
-        <v>0.13836699999999999</v>
+        <v>0.13818900000000001</v>
       </c>
       <c r="L24">
-        <v>0.114314</v>
+        <v>0.11493299999999999</v>
       </c>
       <c r="M24">
-        <v>0.10058</v>
+        <v>0.10142</v>
       </c>
       <c r="N24">
-        <v>8.9505000000000001E-2</v>
+        <v>9.0283000000000002E-2</v>
       </c>
       <c r="O24">
-        <v>9.3043000000000001E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.3381000000000006E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1623,25 +1623,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J25">
-        <v>0.13853399999999999</v>
+        <v>0.13830899999999999</v>
       </c>
       <c r="K25">
-        <v>0.124293</v>
+        <v>0.12411899999999999</v>
       </c>
       <c r="L25">
-        <v>0.106361</v>
+        <v>0.10697</v>
       </c>
       <c r="M25">
-        <v>9.5651E-2</v>
+        <v>9.6477999999999994E-2</v>
       </c>
       <c r="N25">
-        <v>8.6980000000000002E-2</v>
+        <v>8.7748000000000007E-2</v>
       </c>
       <c r="O25">
-        <v>9.0416999999999997E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.0747999999999995E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1670,13 +1670,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.227854</v>
+        <v>0.229236</v>
       </c>
       <c r="K26">
-        <v>0.15255299999999999</v>
+        <v>0.15401100000000001</v>
       </c>
       <c r="L26">
-        <v>0.11436300000000001</v>
+        <v>0.115632</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1717,25 +1717,25 @@
         <v>1.35639</v>
       </c>
       <c r="J27">
-        <v>0.20347199999999999</v>
+        <v>0.204654</v>
       </c>
       <c r="K27">
-        <v>0.17315900000000001</v>
+        <v>0.173203</v>
       </c>
       <c r="L27">
-        <v>0.142261</v>
+        <v>0.14382900000000001</v>
       </c>
       <c r="M27">
-        <v>0.124668</v>
+        <v>0.12675700000000001</v>
       </c>
       <c r="N27">
-        <v>0.111558</v>
+        <v>0.113511</v>
       </c>
       <c r="O27">
-        <v>0.115526</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.116812</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1764,25 +1764,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J28">
-        <v>0.17532400000000001</v>
+        <v>0.176346</v>
       </c>
       <c r="K28">
-        <v>0.149529</v>
+        <v>0.14951400000000001</v>
       </c>
       <c r="L28">
-        <v>0.12620899999999999</v>
+        <v>0.12745799999999999</v>
       </c>
       <c r="M28">
-        <v>0.108695</v>
+        <v>0.110726</v>
       </c>
       <c r="N28">
-        <v>9.4713000000000006E-2</v>
+        <v>9.6606999999999998E-2</v>
       </c>
       <c r="O28">
-        <v>0.10095899999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.10204199999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1811,25 +1811,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J29">
-        <v>0.15115799999999999</v>
+        <v>0.15216199999999999</v>
       </c>
       <c r="K29">
-        <v>0.135214</v>
+        <v>0.13520099999999999</v>
       </c>
       <c r="L29">
-        <v>0.118038</v>
+        <v>0.119269</v>
       </c>
       <c r="M29">
-        <v>0.10365099999999999</v>
+        <v>0.10565099999999999</v>
       </c>
       <c r="N29">
-        <v>9.2157000000000003E-2</v>
+        <v>9.4023999999999996E-2</v>
       </c>
       <c r="O29">
-        <v>9.8169000000000006E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.9231E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.21995200000000001</v>
+        <v>0.22068099999999999</v>
       </c>
       <c r="K30">
-        <v>0.14511099999999999</v>
+        <v>0.145867</v>
       </c>
       <c r="L30">
-        <v>0.107888</v>
+        <v>0.108542</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -1905,25 +1905,25 @@
         <v>1.35639</v>
       </c>
       <c r="J31">
-        <v>0.19186700000000001</v>
+        <v>0.192663</v>
       </c>
       <c r="K31">
-        <v>0.16572500000000001</v>
+        <v>0.16588</v>
       </c>
       <c r="L31">
-        <v>0.135329</v>
+        <v>0.136078</v>
       </c>
       <c r="M31">
-        <v>0.11831800000000001</v>
+        <v>0.119306</v>
       </c>
       <c r="N31">
-        <v>0.106516</v>
+        <v>0.107433</v>
       </c>
       <c r="O31">
-        <v>0.10907799999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.109737</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -1952,25 +1952,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J32">
-        <v>0.164553</v>
+        <v>0.16526399999999999</v>
       </c>
       <c r="K32">
-        <v>0.14281099999999999</v>
+        <v>0.142926</v>
       </c>
       <c r="L32">
-        <v>0.120355</v>
+        <v>0.12094299999999999</v>
       </c>
       <c r="M32">
-        <v>0.103743</v>
+        <v>0.10467600000000001</v>
       </c>
       <c r="N32">
-        <v>9.1175999999999993E-2</v>
+        <v>9.2034000000000005E-2</v>
       </c>
       <c r="O32">
-        <v>9.5616000000000007E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.6169000000000004E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -1999,25 +1999,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J33">
-        <v>0.14058899999999999</v>
+        <v>0.141287</v>
       </c>
       <c r="K33">
-        <v>0.128634</v>
+        <v>0.128748</v>
       </c>
       <c r="L33">
-        <v>0.112287</v>
+        <v>0.112867</v>
       </c>
       <c r="M33">
-        <v>9.8771999999999999E-2</v>
+        <v>9.9690000000000001E-2</v>
       </c>
       <c r="N33">
-        <v>8.8649000000000006E-2</v>
+        <v>8.9494000000000004E-2</v>
       </c>
       <c r="O33">
-        <v>9.2937000000000006E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.3479000000000007E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -2046,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.21327299999999999</v>
+        <v>0.21401999999999999</v>
       </c>
       <c r="K34">
-        <v>0.13927999999999999</v>
+        <v>0.14002700000000001</v>
       </c>
       <c r="L34">
-        <v>0.103186</v>
+        <v>0.103838</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -2093,25 +2093,25 @@
         <v>1.35639</v>
       </c>
       <c r="J35">
-        <v>0.18564600000000001</v>
+        <v>0.18643399999999999</v>
       </c>
       <c r="K35">
-        <v>0.159251</v>
+        <v>0.15958</v>
       </c>
       <c r="L35">
-        <v>0.12862899999999999</v>
+        <v>0.12937199999999999</v>
       </c>
       <c r="M35">
-        <v>0.113597</v>
+        <v>0.11448899999999999</v>
       </c>
       <c r="N35">
-        <v>0.103182</v>
+        <v>0.104019</v>
       </c>
       <c r="O35">
-        <v>0.104493</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.105154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -2140,25 +2140,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J36">
-        <v>0.159302</v>
+        <v>0.16001299999999999</v>
       </c>
       <c r="K36">
-        <v>0.137181</v>
+        <v>0.137465</v>
       </c>
       <c r="L36">
-        <v>0.114314</v>
+        <v>0.11493299999999999</v>
       </c>
       <c r="M36">
-        <v>0.10058</v>
+        <v>0.10142</v>
       </c>
       <c r="N36">
-        <v>8.9505000000000001E-2</v>
+        <v>9.0283000000000002E-2</v>
       </c>
       <c r="O36">
-        <v>9.2145000000000005E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.2712000000000003E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -2187,25 +2187,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J37">
-        <v>0.13544800000000001</v>
+        <v>0.13614599999999999</v>
       </c>
       <c r="K37">
-        <v>0.12313300000000001</v>
+        <v>0.12341199999999999</v>
       </c>
       <c r="L37">
-        <v>0.106361</v>
+        <v>0.10697</v>
       </c>
       <c r="M37">
-        <v>9.5651E-2</v>
+        <v>9.6477999999999994E-2</v>
       </c>
       <c r="N37">
-        <v>8.6980000000000002E-2</v>
+        <v>8.7748000000000007E-2</v>
       </c>
       <c r="O37">
-        <v>8.9546000000000001E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.0102000000000002E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -2234,13 +2234,13 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.228988</v>
+        <v>0.230767</v>
       </c>
       <c r="K38">
-        <v>0.15318200000000001</v>
+        <v>0.154888</v>
       </c>
       <c r="L38">
-        <v>0.115091</v>
+        <v>0.116609</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -2281,25 +2281,25 @@
         <v>1.35639</v>
       </c>
       <c r="J39">
-        <v>0.20347199999999999</v>
+        <v>0.204654</v>
       </c>
       <c r="K39">
-        <v>0.17590600000000001</v>
+        <v>0.176983</v>
       </c>
       <c r="L39">
-        <v>0.14327599999999999</v>
+        <v>0.14525099999999999</v>
       </c>
       <c r="M39">
-        <v>0.124668</v>
+        <v>0.12675700000000001</v>
       </c>
       <c r="N39">
-        <v>0.111558</v>
+        <v>0.113511</v>
       </c>
       <c r="O39">
-        <v>0.116317</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.11787</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -2328,25 +2328,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J40">
-        <v>0.17532400000000001</v>
+        <v>0.176346</v>
       </c>
       <c r="K40">
-        <v>0.152118</v>
+        <v>0.15307200000000001</v>
       </c>
       <c r="L40">
-        <v>0.12748499999999999</v>
+        <v>0.12925500000000001</v>
       </c>
       <c r="M40">
-        <v>0.108695</v>
+        <v>0.110726</v>
       </c>
       <c r="N40">
-        <v>9.4713000000000006E-2</v>
+        <v>9.6606999999999998E-2</v>
       </c>
       <c r="O40">
-        <v>0.101837</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.10320500000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -2375,25 +2375,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J41">
-        <v>0.15115799999999999</v>
+        <v>0.15216199999999999</v>
       </c>
       <c r="K41">
-        <v>0.13777600000000001</v>
+        <v>0.138713</v>
       </c>
       <c r="L41">
-        <v>0.119294</v>
+        <v>0.121034</v>
       </c>
       <c r="M41">
-        <v>0.10365099999999999</v>
+        <v>0.10565099999999999</v>
       </c>
       <c r="N41">
-        <v>9.2157000000000003E-2</v>
+        <v>9.4023999999999996E-2</v>
       </c>
       <c r="O41">
-        <v>9.9026000000000003E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.100367</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -2422,13 +2422,13 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0.21937599999999999</v>
+        <v>0.220334</v>
       </c>
       <c r="K42">
-        <v>0.14469399999999999</v>
+        <v>0.145591</v>
       </c>
       <c r="L42">
-        <v>0.107687</v>
+        <v>0.10848099999999999</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -2440,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -2469,25 +2469,25 @@
         <v>1.35639</v>
       </c>
       <c r="J43">
-        <v>0.19186700000000001</v>
+        <v>0.192663</v>
       </c>
       <c r="K43">
-        <v>0.16411100000000001</v>
+        <v>0.164856</v>
       </c>
       <c r="L43">
-        <v>0.134631</v>
+        <v>0.13561100000000001</v>
       </c>
       <c r="M43">
-        <v>0.11831800000000001</v>
+        <v>0.119306</v>
       </c>
       <c r="N43">
-        <v>0.106516</v>
+        <v>0.107433</v>
       </c>
       <c r="O43">
-        <v>0.10885</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.10965900000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -2516,25 +2516,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J44">
-        <v>0.164553</v>
+        <v>0.16526399999999999</v>
       </c>
       <c r="K44">
-        <v>0.14129700000000001</v>
+        <v>0.14196500000000001</v>
       </c>
       <c r="L44">
-        <v>0.119433</v>
+        <v>0.12031600000000001</v>
       </c>
       <c r="M44">
-        <v>0.103743</v>
+        <v>0.10467600000000001</v>
       </c>
       <c r="N44">
-        <v>9.1175999999999993E-2</v>
+        <v>9.2034000000000005E-2</v>
       </c>
       <c r="O44">
-        <v>9.5396999999999996E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.6109E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -2563,25 +2563,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J45">
-        <v>0.14058899999999999</v>
+        <v>0.141287</v>
       </c>
       <c r="K45">
-        <v>0.12717200000000001</v>
+        <v>0.127827</v>
       </c>
       <c r="L45">
-        <v>0.111392</v>
+        <v>0.11226</v>
       </c>
       <c r="M45">
-        <v>9.8771999999999999E-2</v>
+        <v>9.9690000000000001E-2</v>
       </c>
       <c r="N45">
-        <v>8.8649000000000006E-2</v>
+        <v>8.9494000000000004E-2</v>
       </c>
       <c r="O45">
-        <v>9.2720999999999998E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.3419000000000002E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -2610,13 +2610,13 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0.21274999999999999</v>
+        <v>0.21365600000000001</v>
       </c>
       <c r="K46">
-        <v>0.13933799999999999</v>
+        <v>0.14018600000000001</v>
       </c>
       <c r="L46">
-        <v>0.10333299999999999</v>
+        <v>0.104085</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -2628,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -2657,25 +2657,25 @@
         <v>1.35639</v>
       </c>
       <c r="J47">
-        <v>0.18564600000000001</v>
+        <v>0.18643399999999999</v>
       </c>
       <c r="K47">
-        <v>0.15892999999999999</v>
+        <v>0.15967899999999999</v>
       </c>
       <c r="L47">
-        <v>0.12887499999999999</v>
+        <v>0.129778</v>
       </c>
       <c r="M47">
-        <v>0.113597</v>
+        <v>0.11448899999999999</v>
       </c>
       <c r="N47">
-        <v>0.103182</v>
+        <v>0.104019</v>
       </c>
       <c r="O47">
-        <v>0.104616</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.10538500000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -2704,25 +2704,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J48">
-        <v>0.159302</v>
+        <v>0.16001299999999999</v>
       </c>
       <c r="K48">
-        <v>0.13683999999999999</v>
+        <v>0.137517</v>
       </c>
       <c r="L48">
-        <v>0.11477800000000001</v>
+        <v>0.115603</v>
       </c>
       <c r="M48">
-        <v>0.10058</v>
+        <v>0.10142</v>
       </c>
       <c r="N48">
-        <v>8.9505000000000001E-2</v>
+        <v>9.0283000000000002E-2</v>
       </c>
       <c r="O48">
-        <v>9.2357999999999996E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.3040999999999999E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -2751,22 +2751,22 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J49">
-        <v>0.13544800000000001</v>
+        <v>0.13614599999999999</v>
       </c>
       <c r="K49">
-        <v>0.122807</v>
+        <v>0.123471</v>
       </c>
       <c r="L49">
-        <v>0.106837</v>
+        <v>0.10764700000000001</v>
       </c>
       <c r="M49">
-        <v>9.5651E-2</v>
+        <v>9.6477999999999994E-2</v>
       </c>
       <c r="N49">
-        <v>8.6980000000000002E-2</v>
+        <v>8.7748000000000007E-2</v>
       </c>
       <c r="O49">
-        <v>8.9761999999999995E-2</v>
+        <v>9.0430999999999997E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\PRECIOS CALCULADORA GALP LEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3918C7-597B-45D1-AADC-AAC6BE7CB8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4C64AD-7B94-4411-BAFD-BE8835C2C12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3350A494-7D0F-4E24-96BD-512094F7438F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3350A494-7D0F-4E24-96BD-512094F7438F}"/>
   </bookViews>
   <sheets>
     <sheet name="data2" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="22">
   <si>
     <t>MES</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>TerminoVariableP6</t>
-  </si>
-  <si>
-    <t>ENERO</t>
   </si>
   <si>
     <t>FEBRERO</t>
@@ -454,19 +451,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAC917C-D324-4D6B-8FB1-5CF7F1023A32}">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:O2"/>
+      <selection activeCell="A2" sqref="A2:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="10" max="15" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="10" max="15" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +510,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -542,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.23564099999999999</v>
+        <v>0.22870099999999999</v>
       </c>
       <c r="K2">
-        <v>0.15890599999999999</v>
+        <v>0.15334800000000001</v>
       </c>
       <c r="L2">
-        <v>0.118158</v>
+        <v>0.115188</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -560,7 +557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -589,25 +586,25 @@
         <v>1.35639</v>
       </c>
       <c r="J3">
-        <v>0.21881900000000001</v>
+        <v>0.20508999999999999</v>
       </c>
       <c r="K3">
-        <v>0.18071799999999999</v>
+        <v>0.17169200000000001</v>
       </c>
       <c r="L3">
-        <v>0.14382900000000001</v>
+        <v>0.14233399999999999</v>
       </c>
       <c r="M3">
-        <v>0.12675700000000001</v>
+        <v>0.124832</v>
       </c>
       <c r="N3">
-        <v>0.113511</v>
+        <v>0.111001</v>
       </c>
       <c r="O3">
-        <v>0.119264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.116235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -636,25 +633,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J4">
-        <v>0.18985199999999999</v>
+        <v>0.17653199999999999</v>
       </c>
       <c r="K4">
-        <v>0.15604100000000001</v>
+        <v>0.147731</v>
       </c>
       <c r="L4">
-        <v>0.12745799999999999</v>
+        <v>0.12579599999999999</v>
       </c>
       <c r="M4">
-        <v>0.110726</v>
+        <v>0.109018</v>
       </c>
       <c r="N4">
-        <v>9.6606999999999998E-2</v>
+        <v>9.4593999999999998E-2</v>
       </c>
       <c r="O4">
-        <v>0.104518</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.1017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -683,25 +680,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J5">
-        <v>0.16541900000000001</v>
+        <v>0.15234200000000001</v>
       </c>
       <c r="K5">
-        <v>0.14161099999999999</v>
+        <v>0.13345000000000001</v>
       </c>
       <c r="L5">
-        <v>0.119269</v>
+        <v>0.11763800000000001</v>
       </c>
       <c r="M5">
-        <v>0.10565099999999999</v>
+        <v>0.10397000000000001</v>
       </c>
       <c r="N5">
-        <v>9.4023999999999996E-2</v>
+        <v>9.2040999999999998E-2</v>
       </c>
       <c r="O5">
-        <v>0.101634</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.8877999999999994E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -730,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.22515499999999999</v>
+        <v>0.218358</v>
       </c>
       <c r="K6">
-        <v>0.14941699999999999</v>
+        <v>0.14358899999999999</v>
       </c>
       <c r="L6">
-        <v>0.11070000000000001</v>
+        <v>0.106595</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -748,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -777,25 +774,25 @@
         <v>1.35639</v>
       </c>
       <c r="J7">
-        <v>0.20411199999999999</v>
+        <v>0.19317400000000001</v>
       </c>
       <c r="K7">
-        <v>0.171736</v>
+        <v>0.164218</v>
       </c>
       <c r="L7">
-        <v>0.136078</v>
+        <v>0.132886</v>
       </c>
       <c r="M7">
-        <v>0.119306</v>
+        <v>0.115291</v>
       </c>
       <c r="N7">
-        <v>0.107433</v>
+        <v>0.102771</v>
       </c>
       <c r="O7">
-        <v>0.111877</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.107616</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -824,25 +821,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J8">
-        <v>0.176424</v>
+        <v>0.16575799999999999</v>
       </c>
       <c r="K8">
-        <v>0.14819199999999999</v>
+        <v>0.14120099999999999</v>
       </c>
       <c r="L8">
-        <v>0.12094299999999999</v>
+        <v>0.117714</v>
       </c>
       <c r="M8">
-        <v>0.10467600000000001</v>
+        <v>0.10057000000000001</v>
       </c>
       <c r="N8">
-        <v>9.2034000000000005E-2</v>
+        <v>8.7516999999999998E-2</v>
       </c>
       <c r="O8">
-        <v>9.8352999999999996E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.4279000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -871,25 +868,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J9">
-        <v>0.15223300000000001</v>
+        <v>0.14177200000000001</v>
       </c>
       <c r="K9">
-        <v>0.13391600000000001</v>
+        <v>0.127053</v>
       </c>
       <c r="L9">
-        <v>0.112867</v>
+        <v>0.109695</v>
       </c>
       <c r="M9">
-        <v>9.9690000000000001E-2</v>
+        <v>9.5653000000000002E-2</v>
       </c>
       <c r="N9">
-        <v>8.9494000000000004E-2</v>
+        <v>8.5044999999999996E-2</v>
       </c>
       <c r="O9">
-        <v>9.5603999999999995E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.1616000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -918,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.21706500000000001</v>
+        <v>0.21246200000000001</v>
       </c>
       <c r="K10">
-        <v>0.14238100000000001</v>
+        <v>0.138486</v>
       </c>
       <c r="L10">
-        <v>0.105291</v>
+        <v>0.102502</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -936,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -965,25 +962,25 @@
         <v>1.35639</v>
       </c>
       <c r="J11">
-        <v>0.19423399999999999</v>
+        <v>0.187278</v>
       </c>
       <c r="K11">
-        <v>0.16304299999999999</v>
+        <v>0.15857399999999999</v>
       </c>
       <c r="L11">
-        <v>0.12937199999999999</v>
+        <v>0.12718399999999999</v>
       </c>
       <c r="M11">
-        <v>0.11448899999999999</v>
+        <v>0.11172899999999999</v>
       </c>
       <c r="N11">
-        <v>0.104019</v>
+        <v>0.100797</v>
       </c>
       <c r="O11">
-        <v>0.106563</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.10369100000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1012,25 +1009,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J12">
-        <v>0.167406</v>
+        <v>0.160831</v>
       </c>
       <c r="K12">
-        <v>0.14035900000000001</v>
+        <v>0.13639799999999999</v>
       </c>
       <c r="L12">
-        <v>0.11493299999999999</v>
+        <v>0.112735</v>
       </c>
       <c r="M12">
-        <v>0.10142</v>
+        <v>9.8607E-2</v>
       </c>
       <c r="N12">
-        <v>9.0283000000000002E-2</v>
+        <v>8.7169999999999997E-2</v>
       </c>
       <c r="O12">
-        <v>9.4102000000000005E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.1399999999999995E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1059,25 +1056,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J13">
-        <v>0.14338999999999999</v>
+        <v>0.13694700000000001</v>
       </c>
       <c r="K13">
-        <v>0.12624299999999999</v>
+        <v>0.122361</v>
       </c>
       <c r="L13">
-        <v>0.10697</v>
+        <v>0.10481</v>
       </c>
       <c r="M13">
-        <v>9.6477999999999994E-2</v>
+        <v>9.3711000000000003E-2</v>
       </c>
       <c r="N13">
-        <v>8.7748000000000007E-2</v>
+        <v>8.4681000000000006E-2</v>
       </c>
       <c r="O13">
-        <v>9.1447000000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <v>8.8807999999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1106,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.230711</v>
+        <v>0.226773</v>
       </c>
       <c r="K14">
-        <v>0.15529999999999999</v>
+        <v>0.15184900000000001</v>
       </c>
       <c r="L14">
-        <v>0.116701</v>
+        <v>0.113799</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1124,7 +1121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1153,25 +1150,25 @@
         <v>1.35639</v>
       </c>
       <c r="J15">
-        <v>0.20910300000000001</v>
+        <v>0.20191700000000001</v>
       </c>
       <c r="K15">
-        <v>0.17571800000000001</v>
+        <v>0.17027999999999999</v>
       </c>
       <c r="L15">
-        <v>0.14382900000000001</v>
+        <v>0.14233399999999999</v>
       </c>
       <c r="M15">
-        <v>0.12675700000000001</v>
+        <v>0.124832</v>
       </c>
       <c r="N15">
-        <v>0.113511</v>
+        <v>0.111001</v>
       </c>
       <c r="O15">
-        <v>0.117905</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.114879</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1200,25 +1197,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J16">
-        <v>0.180893</v>
+        <v>0.17360700000000001</v>
       </c>
       <c r="K16">
-        <v>0.15196100000000001</v>
+        <v>0.146678</v>
       </c>
       <c r="L16">
-        <v>0.12745799999999999</v>
+        <v>0.12579599999999999</v>
       </c>
       <c r="M16">
-        <v>0.110726</v>
+        <v>0.109018</v>
       </c>
       <c r="N16">
-        <v>9.6606999999999998E-2</v>
+        <v>9.4593999999999998E-2</v>
       </c>
       <c r="O16">
-        <v>0.103225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.100229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1247,25 +1244,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J17">
-        <v>0.15665000000000001</v>
+        <v>0.149477</v>
       </c>
       <c r="K17">
-        <v>0.13761599999999999</v>
+        <v>0.13241800000000001</v>
       </c>
       <c r="L17">
-        <v>0.119269</v>
+        <v>0.11763800000000001</v>
       </c>
       <c r="M17">
-        <v>0.10565099999999999</v>
+        <v>0.10397000000000001</v>
       </c>
       <c r="N17">
-        <v>9.4023999999999996E-2</v>
+        <v>9.2040999999999998E-2</v>
       </c>
       <c r="O17">
-        <v>0.100387</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.7457000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1294,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.22230800000000001</v>
+        <v>0.21703600000000001</v>
       </c>
       <c r="K18">
-        <v>0.147282</v>
+        <v>0.142509</v>
       </c>
       <c r="L18">
-        <v>0.109712</v>
+        <v>0.10563500000000001</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1312,7 +1309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1341,25 +1338,25 @@
         <v>1.35639</v>
       </c>
       <c r="J19">
-        <v>0.19758300000000001</v>
+        <v>0.19028500000000001</v>
       </c>
       <c r="K19">
-        <v>0.168623</v>
+        <v>0.163017</v>
       </c>
       <c r="L19">
-        <v>0.136078</v>
+        <v>0.132886</v>
       </c>
       <c r="M19">
-        <v>0.119306</v>
+        <v>0.115291</v>
       </c>
       <c r="N19">
-        <v>0.107433</v>
+        <v>0.102771</v>
       </c>
       <c r="O19">
-        <v>0.110933</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.106667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1388,25 +1385,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J20">
-        <v>0.17031099999999999</v>
+        <v>0.162967</v>
       </c>
       <c r="K20">
-        <v>0.14560999999999999</v>
+        <v>0.14019799999999999</v>
       </c>
       <c r="L20">
-        <v>0.12094299999999999</v>
+        <v>0.117714</v>
       </c>
       <c r="M20">
-        <v>0.10467600000000001</v>
+        <v>0.10057000000000001</v>
       </c>
       <c r="N20">
-        <v>9.2034000000000005E-2</v>
+        <v>8.7516999999999998E-2</v>
       </c>
       <c r="O20">
-        <v>9.7465999999999997E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.3254000000000004E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1435,25 +1432,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J21">
-        <v>0.14624699999999999</v>
+        <v>0.13903499999999999</v>
       </c>
       <c r="K21">
-        <v>0.131385</v>
+        <v>0.12607199999999999</v>
       </c>
       <c r="L21">
-        <v>0.112867</v>
+        <v>0.109695</v>
       </c>
       <c r="M21">
-        <v>9.9690000000000001E-2</v>
+        <v>9.5653000000000002E-2</v>
       </c>
       <c r="N21">
-        <v>8.9494000000000004E-2</v>
+        <v>8.5044999999999996E-2</v>
       </c>
       <c r="O21">
-        <v>9.4746999999999998E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.0624999999999997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1482,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.21492800000000001</v>
+        <v>0.211398</v>
       </c>
       <c r="K22">
-        <v>0.14076</v>
+        <v>0.13761499999999999</v>
       </c>
       <c r="L22">
-        <v>0.10448399999999999</v>
+        <v>0.101743</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1500,7 +1497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1529,25 +1526,25 @@
         <v>1.35639</v>
       </c>
       <c r="J23">
-        <v>0.18873799999999999</v>
+        <v>0.18452199999999999</v>
       </c>
       <c r="K23">
-        <v>0.160466</v>
+        <v>0.15742500000000001</v>
       </c>
       <c r="L23">
-        <v>0.12937199999999999</v>
+        <v>0.12718399999999999</v>
       </c>
       <c r="M23">
-        <v>0.11448899999999999</v>
+        <v>0.11172899999999999</v>
       </c>
       <c r="N23">
-        <v>0.104019</v>
+        <v>0.100797</v>
       </c>
       <c r="O23">
-        <v>0.10578600000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.102941</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1576,25 +1573,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J24">
-        <v>0.16222</v>
+        <v>0.15814800000000001</v>
       </c>
       <c r="K24">
-        <v>0.13818900000000001</v>
+        <v>0.135412</v>
       </c>
       <c r="L24">
-        <v>0.11493299999999999</v>
+        <v>0.112735</v>
       </c>
       <c r="M24">
-        <v>0.10142</v>
+        <v>9.8607E-2</v>
       </c>
       <c r="N24">
-        <v>9.0283000000000002E-2</v>
+        <v>8.7169999999999997E-2</v>
       </c>
       <c r="O24">
-        <v>9.3381000000000006E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.06E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1623,25 +1620,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J25">
-        <v>0.13830899999999999</v>
+        <v>0.13431699999999999</v>
       </c>
       <c r="K25">
-        <v>0.12411899999999999</v>
+        <v>0.121397</v>
       </c>
       <c r="L25">
-        <v>0.10697</v>
+        <v>0.10481</v>
       </c>
       <c r="M25">
-        <v>9.6477999999999994E-2</v>
+        <v>9.3711000000000003E-2</v>
       </c>
       <c r="N25">
-        <v>8.7748000000000007E-2</v>
+        <v>8.4681000000000006E-2</v>
       </c>
       <c r="O25">
-        <v>9.0747999999999995E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+        <v>8.8031999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1670,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.229236</v>
+        <v>0.22822999999999999</v>
       </c>
       <c r="K26">
-        <v>0.15401100000000001</v>
+        <v>0.15268100000000001</v>
       </c>
       <c r="L26">
-        <v>0.115632</v>
+        <v>0.114734</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -1688,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1717,25 +1714,25 @@
         <v>1.35639</v>
       </c>
       <c r="J27">
-        <v>0.204654</v>
+        <v>0.20191700000000001</v>
       </c>
       <c r="K27">
-        <v>0.173203</v>
+        <v>0.173875</v>
       </c>
       <c r="L27">
-        <v>0.14382900000000001</v>
+        <v>0.143679</v>
       </c>
       <c r="M27">
-        <v>0.12675700000000001</v>
+        <v>0.124832</v>
       </c>
       <c r="N27">
-        <v>0.113511</v>
+        <v>0.111001</v>
       </c>
       <c r="O27">
-        <v>0.116812</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.11589099999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1764,25 +1761,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J28">
-        <v>0.176346</v>
+        <v>0.17360700000000001</v>
       </c>
       <c r="K28">
-        <v>0.14951400000000001</v>
+        <v>0.15006</v>
       </c>
       <c r="L28">
-        <v>0.12745799999999999</v>
+        <v>0.127494</v>
       </c>
       <c r="M28">
-        <v>0.110726</v>
+        <v>0.109018</v>
       </c>
       <c r="N28">
-        <v>9.6606999999999998E-2</v>
+        <v>9.4593999999999998E-2</v>
       </c>
       <c r="O28">
-        <v>0.10204199999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.101343</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1811,25 +1808,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J29">
-        <v>0.15216199999999999</v>
+        <v>0.149477</v>
       </c>
       <c r="K29">
-        <v>0.13520099999999999</v>
+        <v>0.13575799999999999</v>
       </c>
       <c r="L29">
-        <v>0.119269</v>
+        <v>0.119306</v>
       </c>
       <c r="M29">
-        <v>0.10565099999999999</v>
+        <v>0.10397000000000001</v>
       </c>
       <c r="N29">
-        <v>9.4023999999999996E-2</v>
+        <v>9.2040999999999998E-2</v>
       </c>
       <c r="O29">
-        <v>9.9231E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.8544999999999994E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -1858,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.22068099999999999</v>
+        <v>0.21679999999999999</v>
       </c>
       <c r="K30">
-        <v>0.145867</v>
+        <v>0.14230599999999999</v>
       </c>
       <c r="L30">
-        <v>0.108542</v>
+        <v>0.105625</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -1876,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -1905,25 +1902,25 @@
         <v>1.35639</v>
       </c>
       <c r="J31">
-        <v>0.192663</v>
+        <v>0.19028500000000001</v>
       </c>
       <c r="K31">
-        <v>0.16588</v>
+        <v>0.162273</v>
       </c>
       <c r="L31">
-        <v>0.136078</v>
+        <v>0.13253499999999999</v>
       </c>
       <c r="M31">
-        <v>0.119306</v>
+        <v>0.115291</v>
       </c>
       <c r="N31">
-        <v>0.107433</v>
+        <v>0.102771</v>
       </c>
       <c r="O31">
-        <v>0.109737</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.10664700000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -1952,25 +1949,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J32">
-        <v>0.16526399999999999</v>
+        <v>0.162967</v>
       </c>
       <c r="K32">
-        <v>0.142926</v>
+        <v>0.13950399999999999</v>
       </c>
       <c r="L32">
-        <v>0.12094299999999999</v>
+        <v>0.117241</v>
       </c>
       <c r="M32">
-        <v>0.10467600000000001</v>
+        <v>0.10057000000000001</v>
       </c>
       <c r="N32">
-        <v>9.2034000000000005E-2</v>
+        <v>8.7516999999999998E-2</v>
       </c>
       <c r="O32">
-        <v>9.6169000000000004E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.3254000000000004E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -1999,25 +1996,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J33">
-        <v>0.141287</v>
+        <v>0.13903499999999999</v>
       </c>
       <c r="K33">
-        <v>0.128748</v>
+        <v>0.125413</v>
       </c>
       <c r="L33">
-        <v>0.112867</v>
+        <v>0.109237</v>
       </c>
       <c r="M33">
-        <v>9.9690000000000001E-2</v>
+        <v>9.5653000000000002E-2</v>
       </c>
       <c r="N33">
-        <v>8.9494000000000004E-2</v>
+        <v>8.5044999999999996E-2</v>
       </c>
       <c r="O33">
-        <v>9.3479000000000007E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.0622999999999995E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -2046,13 +2043,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.21401999999999999</v>
+        <v>0.21105099999999999</v>
       </c>
       <c r="K34">
-        <v>0.14002700000000001</v>
+        <v>0.13777500000000001</v>
       </c>
       <c r="L34">
-        <v>0.103838</v>
+        <v>0.10198699999999999</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2064,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -2093,25 +2090,25 @@
         <v>1.35639</v>
       </c>
       <c r="J35">
-        <v>0.18643399999999999</v>
+        <v>0.18452199999999999</v>
       </c>
       <c r="K35">
-        <v>0.15958</v>
+        <v>0.157584</v>
       </c>
       <c r="L35">
-        <v>0.12937199999999999</v>
+        <v>0.12759400000000001</v>
       </c>
       <c r="M35">
-        <v>0.11448899999999999</v>
+        <v>0.11172899999999999</v>
       </c>
       <c r="N35">
-        <v>0.104019</v>
+        <v>0.100797</v>
       </c>
       <c r="O35">
-        <v>0.105154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.10317</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -2140,25 +2137,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J36">
-        <v>0.16001299999999999</v>
+        <v>0.15814800000000001</v>
       </c>
       <c r="K36">
-        <v>0.137465</v>
+        <v>0.135514</v>
       </c>
       <c r="L36">
-        <v>0.11493299999999999</v>
+        <v>0.113398</v>
       </c>
       <c r="M36">
-        <v>0.10142</v>
+        <v>9.8607E-2</v>
       </c>
       <c r="N36">
-        <v>9.0283000000000002E-2</v>
+        <v>8.7169999999999997E-2</v>
       </c>
       <c r="O36">
-        <v>9.2712000000000003E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.0919E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -2187,586 +2184,22 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J37">
-        <v>0.13614599999999999</v>
+        <v>0.13431699999999999</v>
       </c>
       <c r="K37">
-        <v>0.12341199999999999</v>
+        <v>0.121505</v>
       </c>
       <c r="L37">
-        <v>0.10697</v>
+        <v>0.10548</v>
       </c>
       <c r="M37">
-        <v>9.6477999999999994E-2</v>
+        <v>9.3711000000000003E-2</v>
       </c>
       <c r="N37">
-        <v>8.7748000000000007E-2</v>
+        <v>8.4681000000000006E-2</v>
       </c>
       <c r="O37">
-        <v>9.0102000000000002E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38">
-        <v>12</v>
-      </c>
-      <c r="C38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38">
-        <v>26.93055</v>
-      </c>
-      <c r="E38">
-        <v>0.69759000000000004</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0.230767</v>
-      </c>
-      <c r="K38">
-        <v>0.154888</v>
-      </c>
-      <c r="L38">
-        <v>0.116609</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39">
-        <v>12</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39">
-        <v>19.6585</v>
-      </c>
-      <c r="E39">
-        <v>10.25165</v>
-      </c>
-      <c r="F39">
-        <v>4.2625400000000004</v>
-      </c>
-      <c r="G39">
-        <v>3.6815500000000001</v>
-      </c>
-      <c r="H39">
-        <v>2.3281700000000001</v>
-      </c>
-      <c r="I39">
-        <v>1.35639</v>
-      </c>
-      <c r="J39">
-        <v>0.204654</v>
-      </c>
-      <c r="K39">
-        <v>0.176983</v>
-      </c>
-      <c r="L39">
-        <v>0.14525099999999999</v>
-      </c>
-      <c r="M39">
-        <v>0.12675700000000001</v>
-      </c>
-      <c r="N39">
-        <v>0.113511</v>
-      </c>
-      <c r="O39">
-        <v>0.11787</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40">
-        <v>12</v>
-      </c>
-      <c r="C40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40">
-        <v>28.791869999999999</v>
-      </c>
-      <c r="E40">
-        <v>15.077640000000001</v>
-      </c>
-      <c r="F40">
-        <v>6.5591699999999999</v>
-      </c>
-      <c r="G40">
-        <v>5.1720899999999999</v>
-      </c>
-      <c r="H40">
-        <v>1.9328099999999999</v>
-      </c>
-      <c r="I40">
-        <v>0.91608999999999996</v>
-      </c>
-      <c r="J40">
-        <v>0.176346</v>
-      </c>
-      <c r="K40">
-        <v>0.15307200000000001</v>
-      </c>
-      <c r="L40">
-        <v>0.12925500000000001</v>
-      </c>
-      <c r="M40">
-        <v>0.110726</v>
-      </c>
-      <c r="N40">
-        <v>9.6606999999999998E-2</v>
-      </c>
-      <c r="O40">
-        <v>0.10320500000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41">
-        <v>12</v>
-      </c>
-      <c r="C41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41">
-        <v>13.200060000000001</v>
-      </c>
-      <c r="E41">
-        <v>10.931800000000001</v>
-      </c>
-      <c r="F41">
-        <v>3.57544</v>
-      </c>
-      <c r="G41">
-        <v>2.60595</v>
-      </c>
-      <c r="H41">
-        <v>1.1532</v>
-      </c>
-      <c r="I41">
-        <v>0.55403999999999998</v>
-      </c>
-      <c r="J41">
-        <v>0.15216199999999999</v>
-      </c>
-      <c r="K41">
-        <v>0.138713</v>
-      </c>
-      <c r="L41">
-        <v>0.121034</v>
-      </c>
-      <c r="M41">
-        <v>0.10565099999999999</v>
-      </c>
-      <c r="N41">
-        <v>9.4023999999999996E-2</v>
-      </c>
-      <c r="O41">
-        <v>0.100367</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42">
-        <v>24</v>
-      </c>
-      <c r="C42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42">
-        <v>26.93055</v>
-      </c>
-      <c r="E42">
-        <v>0.69759000000000004</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0.220334</v>
-      </c>
-      <c r="K42">
-        <v>0.145591</v>
-      </c>
-      <c r="L42">
-        <v>0.10848099999999999</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43">
-        <v>24</v>
-      </c>
-      <c r="C43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43">
-        <v>19.6585</v>
-      </c>
-      <c r="E43">
-        <v>10.25165</v>
-      </c>
-      <c r="F43">
-        <v>4.2625400000000004</v>
-      </c>
-      <c r="G43">
-        <v>3.6815500000000001</v>
-      </c>
-      <c r="H43">
-        <v>2.3281700000000001</v>
-      </c>
-      <c r="I43">
-        <v>1.35639</v>
-      </c>
-      <c r="J43">
-        <v>0.192663</v>
-      </c>
-      <c r="K43">
-        <v>0.164856</v>
-      </c>
-      <c r="L43">
-        <v>0.13561100000000001</v>
-      </c>
-      <c r="M43">
-        <v>0.119306</v>
-      </c>
-      <c r="N43">
-        <v>0.107433</v>
-      </c>
-      <c r="O43">
-        <v>0.10965900000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44">
-        <v>24</v>
-      </c>
-      <c r="C44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44">
-        <v>28.791869999999999</v>
-      </c>
-      <c r="E44">
-        <v>15.077640000000001</v>
-      </c>
-      <c r="F44">
-        <v>6.5591699999999999</v>
-      </c>
-      <c r="G44">
-        <v>5.1720899999999999</v>
-      </c>
-      <c r="H44">
-        <v>1.9328099999999999</v>
-      </c>
-      <c r="I44">
-        <v>0.91608999999999996</v>
-      </c>
-      <c r="J44">
-        <v>0.16526399999999999</v>
-      </c>
-      <c r="K44">
-        <v>0.14196500000000001</v>
-      </c>
-      <c r="L44">
-        <v>0.12031600000000001</v>
-      </c>
-      <c r="M44">
-        <v>0.10467600000000001</v>
-      </c>
-      <c r="N44">
-        <v>9.2034000000000005E-2</v>
-      </c>
-      <c r="O44">
-        <v>9.6109E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45">
-        <v>24</v>
-      </c>
-      <c r="C45" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45">
-        <v>13.200060000000001</v>
-      </c>
-      <c r="E45">
-        <v>10.931800000000001</v>
-      </c>
-      <c r="F45">
-        <v>3.57544</v>
-      </c>
-      <c r="G45">
-        <v>2.60595</v>
-      </c>
-      <c r="H45">
-        <v>1.1532</v>
-      </c>
-      <c r="I45">
-        <v>0.55403999999999998</v>
-      </c>
-      <c r="J45">
-        <v>0.141287</v>
-      </c>
-      <c r="K45">
-        <v>0.127827</v>
-      </c>
-      <c r="L45">
-        <v>0.11226</v>
-      </c>
-      <c r="M45">
-        <v>9.9690000000000001E-2</v>
-      </c>
-      <c r="N45">
-        <v>8.9494000000000004E-2</v>
-      </c>
-      <c r="O45">
-        <v>9.3419000000000002E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46">
-        <v>36</v>
-      </c>
-      <c r="C46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46">
-        <v>26.93055</v>
-      </c>
-      <c r="E46">
-        <v>0.69759000000000004</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0.21365600000000001</v>
-      </c>
-      <c r="K46">
-        <v>0.14018600000000001</v>
-      </c>
-      <c r="L46">
-        <v>0.104085</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47">
-        <v>36</v>
-      </c>
-      <c r="C47" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47">
-        <v>19.6585</v>
-      </c>
-      <c r="E47">
-        <v>10.25165</v>
-      </c>
-      <c r="F47">
-        <v>4.2625400000000004</v>
-      </c>
-      <c r="G47">
-        <v>3.6815500000000001</v>
-      </c>
-      <c r="H47">
-        <v>2.3281700000000001</v>
-      </c>
-      <c r="I47">
-        <v>1.35639</v>
-      </c>
-      <c r="J47">
-        <v>0.18643399999999999</v>
-      </c>
-      <c r="K47">
-        <v>0.15967899999999999</v>
-      </c>
-      <c r="L47">
-        <v>0.129778</v>
-      </c>
-      <c r="M47">
-        <v>0.11448899999999999</v>
-      </c>
-      <c r="N47">
-        <v>0.104019</v>
-      </c>
-      <c r="O47">
-        <v>0.10538500000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48">
-        <v>36</v>
-      </c>
-      <c r="C48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48">
-        <v>28.791869999999999</v>
-      </c>
-      <c r="E48">
-        <v>15.077640000000001</v>
-      </c>
-      <c r="F48">
-        <v>6.5591699999999999</v>
-      </c>
-      <c r="G48">
-        <v>5.1720899999999999</v>
-      </c>
-      <c r="H48">
-        <v>1.9328099999999999</v>
-      </c>
-      <c r="I48">
-        <v>0.91608999999999996</v>
-      </c>
-      <c r="J48">
-        <v>0.16001299999999999</v>
-      </c>
-      <c r="K48">
-        <v>0.137517</v>
-      </c>
-      <c r="L48">
-        <v>0.115603</v>
-      </c>
-      <c r="M48">
-        <v>0.10142</v>
-      </c>
-      <c r="N48">
-        <v>9.0283000000000002E-2</v>
-      </c>
-      <c r="O48">
-        <v>9.3040999999999999E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49">
-        <v>36</v>
-      </c>
-      <c r="C49" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49">
-        <v>13.200060000000001</v>
-      </c>
-      <c r="E49">
-        <v>10.931800000000001</v>
-      </c>
-      <c r="F49">
-        <v>3.57544</v>
-      </c>
-      <c r="G49">
-        <v>2.60595</v>
-      </c>
-      <c r="H49">
-        <v>1.1532</v>
-      </c>
-      <c r="I49">
-        <v>0.55403999999999998</v>
-      </c>
-      <c r="J49">
-        <v>0.13614599999999999</v>
-      </c>
-      <c r="K49">
-        <v>0.123471</v>
-      </c>
-      <c r="L49">
-        <v>0.10764700000000001</v>
-      </c>
-      <c r="M49">
-        <v>9.6477999999999994E-2</v>
-      </c>
-      <c r="N49">
-        <v>8.7748000000000007E-2</v>
-      </c>
-      <c r="O49">
-        <v>9.0430999999999997E-2</v>
+        <v>8.8352E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\PRECIOS CALCULADORA GALP LEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4C64AD-7B94-4411-BAFD-BE8835C2C12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E204ED-8D09-4A33-9A40-3B404BFA157C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3350A494-7D0F-4E24-96BD-512094F7438F}"/>
+    <workbookView xWindow="28680" yWindow="-1245" windowWidth="29040" windowHeight="15720" xr2:uid="{3350A494-7D0F-4E24-96BD-512094F7438F}"/>
   </bookViews>
   <sheets>
     <sheet name="data2" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="23">
   <si>
     <t>MES</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>ABRIL</t>
+  </si>
+  <si>
+    <t>MAYO</t>
   </si>
 </sst>
 </file>
@@ -451,19 +454,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAC917C-D324-4D6B-8FB1-5CF7F1023A32}">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD13"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="10" max="15" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="10" max="15" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +513,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -539,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.22870099999999999</v>
+        <v>0.23644499999999999</v>
       </c>
       <c r="K2">
-        <v>0.15334800000000001</v>
+        <v>0.16050400000000001</v>
       </c>
       <c r="L2">
-        <v>0.115188</v>
+        <v>0.121124</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -557,7 +560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -586,25 +589,25 @@
         <v>1.35639</v>
       </c>
       <c r="J3">
-        <v>0.20508999999999999</v>
+        <v>0.21551799999999999</v>
       </c>
       <c r="K3">
-        <v>0.17169200000000001</v>
+        <v>0.179703</v>
       </c>
       <c r="L3">
-        <v>0.14233399999999999</v>
+        <v>0.153196</v>
       </c>
       <c r="M3">
-        <v>0.124832</v>
+        <v>0.12954199999999999</v>
       </c>
       <c r="N3">
-        <v>0.111001</v>
+        <v>0.109474</v>
       </c>
       <c r="O3">
-        <v>0.116235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.12222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -633,25 +636,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J4">
-        <v>0.17653199999999999</v>
+        <v>0.18654000000000001</v>
       </c>
       <c r="K4">
-        <v>0.147731</v>
+        <v>0.155222</v>
       </c>
       <c r="L4">
-        <v>0.12579599999999999</v>
+        <v>0.136097</v>
       </c>
       <c r="M4">
-        <v>0.109018</v>
+        <v>0.112091</v>
       </c>
       <c r="N4">
-        <v>9.4593999999999998E-2</v>
+        <v>9.1206999999999996E-2</v>
       </c>
       <c r="O4">
-        <v>0.1017</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.10679</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -680,25 +683,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J5">
-        <v>0.15234200000000001</v>
+        <v>0.162162</v>
       </c>
       <c r="K5">
-        <v>0.13345000000000001</v>
+        <v>0.14080100000000001</v>
       </c>
       <c r="L5">
-        <v>0.11763800000000001</v>
+        <v>0.12776899999999999</v>
       </c>
       <c r="M5">
-        <v>0.10397000000000001</v>
+        <v>0.106999</v>
       </c>
       <c r="N5">
-        <v>9.2040999999999998E-2</v>
+        <v>8.8705999999999993E-2</v>
       </c>
       <c r="O5">
-        <v>9.8877999999999994E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.103862</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -727,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.218358</v>
+        <v>0.22244800000000001</v>
       </c>
       <c r="K6">
-        <v>0.14358899999999999</v>
+        <v>0.14735999999999999</v>
       </c>
       <c r="L6">
-        <v>0.106595</v>
+        <v>0.109708</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -745,7 +748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -774,25 +777,25 @@
         <v>1.35639</v>
       </c>
       <c r="J7">
-        <v>0.19317400000000001</v>
+        <v>0.19939799999999999</v>
       </c>
       <c r="K7">
-        <v>0.164218</v>
+        <v>0.16870499999999999</v>
       </c>
       <c r="L7">
-        <v>0.132886</v>
+        <v>0.13822599999999999</v>
       </c>
       <c r="M7">
-        <v>0.115291</v>
+        <v>0.11753</v>
       </c>
       <c r="N7">
-        <v>0.102771</v>
+        <v>0.101747</v>
       </c>
       <c r="O7">
-        <v>0.107616</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.11074100000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -821,25 +824,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J8">
-        <v>0.16575799999999999</v>
+        <v>0.17177500000000001</v>
       </c>
       <c r="K8">
-        <v>0.14120099999999999</v>
+        <v>0.14540700000000001</v>
       </c>
       <c r="L8">
-        <v>0.117714</v>
+        <v>0.122724</v>
       </c>
       <c r="M8">
-        <v>0.10057000000000001</v>
+        <v>0.101863</v>
       </c>
       <c r="N8">
-        <v>8.7516999999999998E-2</v>
+        <v>8.5434999999999997E-2</v>
       </c>
       <c r="O8">
-        <v>9.4279000000000002E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.6914E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -868,25 +871,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J9">
-        <v>0.14177200000000001</v>
+        <v>0.147675</v>
       </c>
       <c r="K9">
-        <v>0.127053</v>
+        <v>0.13117999999999999</v>
       </c>
       <c r="L9">
-        <v>0.109695</v>
+        <v>0.114621</v>
       </c>
       <c r="M9">
-        <v>9.5653000000000002E-2</v>
+        <v>9.6928E-2</v>
       </c>
       <c r="N9">
-        <v>8.5044999999999996E-2</v>
+        <v>8.2994999999999999E-2</v>
       </c>
       <c r="O9">
-        <v>9.1616000000000003E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.4198000000000004E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -915,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.21246200000000001</v>
+        <v>0.21576400000000001</v>
       </c>
       <c r="K10">
-        <v>0.138486</v>
+        <v>0.14152600000000001</v>
       </c>
       <c r="L10">
-        <v>0.102502</v>
+        <v>0.10503899999999999</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -933,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -962,25 +965,25 @@
         <v>1.35639</v>
       </c>
       <c r="J11">
-        <v>0.187278</v>
+        <v>0.19252</v>
       </c>
       <c r="K11">
-        <v>0.15857399999999999</v>
+        <v>0.16226499999999999</v>
       </c>
       <c r="L11">
-        <v>0.12718399999999999</v>
+        <v>0.13115199999999999</v>
       </c>
       <c r="M11">
-        <v>0.11172899999999999</v>
+        <v>0.11364299999999999</v>
       </c>
       <c r="N11">
-        <v>0.100797</v>
+        <v>0.100496</v>
       </c>
       <c r="O11">
-        <v>0.10369100000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.106249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1009,25 +1012,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J12">
-        <v>0.160831</v>
+        <v>0.16594300000000001</v>
       </c>
       <c r="K12">
-        <v>0.13639799999999999</v>
+        <v>0.13986000000000001</v>
       </c>
       <c r="L12">
-        <v>0.112735</v>
+        <v>0.11644500000000001</v>
       </c>
       <c r="M12">
-        <v>9.8607E-2</v>
+        <v>9.9857000000000001E-2</v>
       </c>
       <c r="N12">
-        <v>8.7169999999999997E-2</v>
+        <v>8.6122000000000004E-2</v>
       </c>
       <c r="O12">
-        <v>9.1399999999999995E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.3588000000000005E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1056,25 +1059,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J13">
-        <v>0.13694700000000001</v>
+        <v>0.14196300000000001</v>
       </c>
       <c r="K13">
-        <v>0.122361</v>
+        <v>0.12576000000000001</v>
       </c>
       <c r="L13">
-        <v>0.10481</v>
+        <v>0.108459</v>
       </c>
       <c r="M13">
-        <v>9.3711000000000003E-2</v>
+        <v>9.4945000000000002E-2</v>
       </c>
       <c r="N13">
-        <v>8.4681000000000006E-2</v>
+        <v>8.3650000000000002E-2</v>
       </c>
       <c r="O13">
-        <v>8.8807999999999998E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.0951000000000004E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1103,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.226773</v>
+        <v>0.23200699999999999</v>
       </c>
       <c r="K14">
-        <v>0.15184900000000001</v>
+        <v>0.15684000000000001</v>
       </c>
       <c r="L14">
-        <v>0.113799</v>
+        <v>0.11791</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1121,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1150,25 +1153,25 @@
         <v>1.35639</v>
       </c>
       <c r="J15">
-        <v>0.20191700000000001</v>
+        <v>0.205424</v>
       </c>
       <c r="K15">
-        <v>0.17027999999999999</v>
+        <v>0.17419299999999999</v>
       </c>
       <c r="L15">
-        <v>0.14233399999999999</v>
+        <v>0.153196</v>
       </c>
       <c r="M15">
-        <v>0.124832</v>
+        <v>0.12954199999999999</v>
       </c>
       <c r="N15">
-        <v>0.111001</v>
+        <v>0.109474</v>
       </c>
       <c r="O15">
-        <v>0.114879</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.119001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1197,25 +1200,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J16">
-        <v>0.17360700000000001</v>
+        <v>0.17662600000000001</v>
       </c>
       <c r="K16">
-        <v>0.146678</v>
+        <v>0.15020600000000001</v>
       </c>
       <c r="L16">
-        <v>0.12579599999999999</v>
+        <v>0.136097</v>
       </c>
       <c r="M16">
-        <v>0.109018</v>
+        <v>0.112091</v>
       </c>
       <c r="N16">
-        <v>9.4593999999999998E-2</v>
+        <v>9.1206999999999996E-2</v>
       </c>
       <c r="O16">
-        <v>0.100229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.103281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1244,25 +1247,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J17">
-        <v>0.149477</v>
+        <v>0.15244099999999999</v>
       </c>
       <c r="K17">
-        <v>0.13241800000000001</v>
+        <v>0.135882</v>
       </c>
       <c r="L17">
-        <v>0.11763800000000001</v>
+        <v>0.12776899999999999</v>
       </c>
       <c r="M17">
-        <v>0.10397000000000001</v>
+        <v>0.106999</v>
       </c>
       <c r="N17">
-        <v>9.2040999999999998E-2</v>
+        <v>8.8705999999999993E-2</v>
       </c>
       <c r="O17">
-        <v>9.7457000000000002E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.100452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1291,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.21703600000000001</v>
+        <v>0.21974199999999999</v>
       </c>
       <c r="K18">
-        <v>0.142509</v>
+        <v>0.14508099999999999</v>
       </c>
       <c r="L18">
-        <v>0.10563500000000001</v>
+        <v>0.10775</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1309,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1338,25 +1341,25 @@
         <v>1.35639</v>
       </c>
       <c r="J19">
-        <v>0.19028500000000001</v>
+        <v>0.192575</v>
       </c>
       <c r="K19">
-        <v>0.163017</v>
+        <v>0.16523099999999999</v>
       </c>
       <c r="L19">
-        <v>0.132886</v>
+        <v>0.13822599999999999</v>
       </c>
       <c r="M19">
-        <v>0.115291</v>
+        <v>0.11753</v>
       </c>
       <c r="N19">
-        <v>0.102771</v>
+        <v>0.101747</v>
       </c>
       <c r="O19">
-        <v>0.106667</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.10877299999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1385,25 +1388,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J20">
-        <v>0.162967</v>
+        <v>0.16498199999999999</v>
       </c>
       <c r="K20">
-        <v>0.14019799999999999</v>
+        <v>0.14219399999999999</v>
       </c>
       <c r="L20">
-        <v>0.117714</v>
+        <v>0.122724</v>
       </c>
       <c r="M20">
-        <v>0.10057000000000001</v>
+        <v>0.101863</v>
       </c>
       <c r="N20">
-        <v>8.7516999999999998E-2</v>
+        <v>8.5434999999999997E-2</v>
       </c>
       <c r="O20">
-        <v>9.3254000000000004E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.4777E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1432,25 +1435,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J21">
-        <v>0.13903499999999999</v>
+        <v>0.141013</v>
       </c>
       <c r="K21">
-        <v>0.12607199999999999</v>
+        <v>0.12803100000000001</v>
       </c>
       <c r="L21">
-        <v>0.109695</v>
+        <v>0.114621</v>
       </c>
       <c r="M21">
-        <v>9.5653000000000002E-2</v>
+        <v>9.6928E-2</v>
       </c>
       <c r="N21">
-        <v>8.5044999999999996E-2</v>
+        <v>8.2994999999999999E-2</v>
       </c>
       <c r="O21">
-        <v>9.0624999999999997E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.2119999999999994E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1479,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.211398</v>
+        <v>0.21371399999999999</v>
       </c>
       <c r="K22">
-        <v>0.13761499999999999</v>
+        <v>0.13980300000000001</v>
       </c>
       <c r="L22">
-        <v>0.101743</v>
+        <v>0.103572</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1497,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1526,25 +1529,25 @@
         <v>1.35639</v>
       </c>
       <c r="J23">
-        <v>0.18452199999999999</v>
+        <v>0.186609</v>
       </c>
       <c r="K23">
-        <v>0.15742500000000001</v>
+        <v>0.15942300000000001</v>
       </c>
       <c r="L23">
-        <v>0.12718399999999999</v>
+        <v>0.13115199999999999</v>
       </c>
       <c r="M23">
-        <v>0.11172899999999999</v>
+        <v>0.11364299999999999</v>
       </c>
       <c r="N23">
-        <v>0.100797</v>
+        <v>0.100496</v>
       </c>
       <c r="O23">
-        <v>0.102941</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.10477300000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1573,25 +1576,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J24">
-        <v>0.15814800000000001</v>
+        <v>0.16000800000000001</v>
       </c>
       <c r="K24">
-        <v>0.135412</v>
+        <v>0.13722300000000001</v>
       </c>
       <c r="L24">
-        <v>0.112735</v>
+        <v>0.11644500000000001</v>
       </c>
       <c r="M24">
-        <v>9.8607E-2</v>
+        <v>9.9857000000000001E-2</v>
       </c>
       <c r="N24">
-        <v>8.7169999999999997E-2</v>
+        <v>8.6122000000000004E-2</v>
       </c>
       <c r="O24">
-        <v>9.06E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.1991000000000003E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1620,25 +1623,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J25">
-        <v>0.13431699999999999</v>
+        <v>0.13614299999999999</v>
       </c>
       <c r="K25">
-        <v>0.121397</v>
+        <v>0.12317500000000001</v>
       </c>
       <c r="L25">
-        <v>0.10481</v>
+        <v>0.108459</v>
       </c>
       <c r="M25">
-        <v>9.3711000000000003E-2</v>
+        <v>9.4945000000000002E-2</v>
       </c>
       <c r="N25">
-        <v>8.4681000000000006E-2</v>
+        <v>8.3650000000000002E-2</v>
       </c>
       <c r="O25">
-        <v>8.8031999999999999E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.9398000000000005E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1667,13 +1670,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.22822999999999999</v>
+        <v>0.233214</v>
       </c>
       <c r="K26">
-        <v>0.15268100000000001</v>
+        <v>0.15751200000000001</v>
       </c>
       <c r="L26">
-        <v>0.114734</v>
+        <v>0.11872099999999999</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -1685,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1714,25 +1717,25 @@
         <v>1.35639</v>
       </c>
       <c r="J27">
-        <v>0.20191700000000001</v>
+        <v>0.205424</v>
       </c>
       <c r="K27">
-        <v>0.173875</v>
+        <v>0.177152</v>
       </c>
       <c r="L27">
-        <v>0.143679</v>
+        <v>0.154249</v>
       </c>
       <c r="M27">
-        <v>0.124832</v>
+        <v>0.12954199999999999</v>
       </c>
       <c r="N27">
-        <v>0.111001</v>
+        <v>0.109474</v>
       </c>
       <c r="O27">
-        <v>0.11589099999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.119877</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1761,25 +1764,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J28">
-        <v>0.17360700000000001</v>
+        <v>0.17662600000000001</v>
       </c>
       <c r="K28">
-        <v>0.15006</v>
+        <v>0.15298999999999999</v>
       </c>
       <c r="L28">
-        <v>0.127494</v>
+        <v>0.13741</v>
       </c>
       <c r="M28">
-        <v>0.109018</v>
+        <v>0.112091</v>
       </c>
       <c r="N28">
-        <v>9.4593999999999998E-2</v>
+        <v>9.1206999999999996E-2</v>
       </c>
       <c r="O28">
-        <v>0.101343</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.104251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1808,25 +1811,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J29">
-        <v>0.149477</v>
+        <v>0.15244099999999999</v>
       </c>
       <c r="K29">
-        <v>0.13575799999999999</v>
+        <v>0.13863500000000001</v>
       </c>
       <c r="L29">
-        <v>0.119306</v>
+        <v>0.12906000000000001</v>
       </c>
       <c r="M29">
-        <v>0.10397000000000001</v>
+        <v>0.106999</v>
       </c>
       <c r="N29">
-        <v>9.2040999999999998E-2</v>
+        <v>8.8705999999999993E-2</v>
       </c>
       <c r="O29">
-        <v>9.8544999999999994E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.101399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -1855,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.21679999999999999</v>
+        <v>0.21948400000000001</v>
       </c>
       <c r="K30">
-        <v>0.14230599999999999</v>
+        <v>0.14486299999999999</v>
       </c>
       <c r="L30">
-        <v>0.105625</v>
+        <v>0.107734</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -1873,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -1902,25 +1905,25 @@
         <v>1.35639</v>
       </c>
       <c r="J31">
-        <v>0.19028500000000001</v>
+        <v>0.192575</v>
       </c>
       <c r="K31">
-        <v>0.162273</v>
+        <v>0.164434</v>
       </c>
       <c r="L31">
-        <v>0.13253499999999999</v>
+        <v>0.13783699999999999</v>
       </c>
       <c r="M31">
-        <v>0.115291</v>
+        <v>0.11753</v>
       </c>
       <c r="N31">
-        <v>0.102771</v>
+        <v>0.101747</v>
       </c>
       <c r="O31">
-        <v>0.10664700000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.10874499999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -1949,25 +1952,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J32">
-        <v>0.162967</v>
+        <v>0.16498199999999999</v>
       </c>
       <c r="K32">
-        <v>0.13950399999999999</v>
+        <v>0.14144899999999999</v>
       </c>
       <c r="L32">
-        <v>0.117241</v>
+        <v>0.122197</v>
       </c>
       <c r="M32">
-        <v>0.10057000000000001</v>
+        <v>0.101863</v>
       </c>
       <c r="N32">
-        <v>8.7516999999999998E-2</v>
+        <v>8.5434999999999997E-2</v>
       </c>
       <c r="O32">
-        <v>9.3254000000000004E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.4767000000000004E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -1996,25 +1999,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J33">
-        <v>0.13903499999999999</v>
+        <v>0.141013</v>
       </c>
       <c r="K33">
-        <v>0.125413</v>
+        <v>0.12732199999999999</v>
       </c>
       <c r="L33">
-        <v>0.109237</v>
+        <v>0.11411200000000001</v>
       </c>
       <c r="M33">
-        <v>9.5653000000000002E-2</v>
+        <v>9.6928E-2</v>
       </c>
       <c r="N33">
-        <v>8.5044999999999996E-2</v>
+        <v>8.2994999999999999E-2</v>
       </c>
       <c r="O33">
-        <v>9.0622999999999995E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.2108999999999996E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -2043,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.21105099999999999</v>
+        <v>0.213368</v>
       </c>
       <c r="K34">
-        <v>0.13777500000000001</v>
+        <v>0.13997299999999999</v>
       </c>
       <c r="L34">
-        <v>0.10198699999999999</v>
+        <v>0.103827</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2061,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -2090,25 +2093,25 @@
         <v>1.35639</v>
       </c>
       <c r="J35">
-        <v>0.18452199999999999</v>
+        <v>0.186609</v>
       </c>
       <c r="K35">
-        <v>0.157584</v>
+        <v>0.159582</v>
       </c>
       <c r="L35">
-        <v>0.12759400000000001</v>
+        <v>0.13164300000000001</v>
       </c>
       <c r="M35">
-        <v>0.11172899999999999</v>
+        <v>0.11364299999999999</v>
       </c>
       <c r="N35">
-        <v>0.100797</v>
+        <v>0.100496</v>
       </c>
       <c r="O35">
-        <v>0.10317</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.10501199999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -2137,25 +2140,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J36">
-        <v>0.15814800000000001</v>
+        <v>0.16000800000000001</v>
       </c>
       <c r="K36">
-        <v>0.135514</v>
+        <v>0.137321</v>
       </c>
       <c r="L36">
-        <v>0.113398</v>
+        <v>0.11722</v>
       </c>
       <c r="M36">
-        <v>9.8607E-2</v>
+        <v>9.9857000000000001E-2</v>
       </c>
       <c r="N36">
-        <v>8.7169999999999997E-2</v>
+        <v>8.6122000000000004E-2</v>
       </c>
       <c r="O36">
-        <v>9.0919E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.2314999999999994E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -2184,22 +2187,586 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J37">
-        <v>0.13431699999999999</v>
+        <v>0.13614299999999999</v>
       </c>
       <c r="K37">
-        <v>0.121505</v>
+        <v>0.12328</v>
       </c>
       <c r="L37">
-        <v>0.10548</v>
+        <v>0.109239</v>
       </c>
       <c r="M37">
-        <v>9.3711000000000003E-2</v>
+        <v>9.4945000000000002E-2</v>
       </c>
       <c r="N37">
-        <v>8.4681000000000006E-2</v>
+        <v>8.3650000000000002E-2</v>
       </c>
       <c r="O37">
-        <v>8.8352E-2</v>
+        <v>8.9721999999999996E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>26.93055</v>
+      </c>
+      <c r="E38">
+        <v>0.69759000000000004</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0.232791</v>
+      </c>
+      <c r="K38">
+        <v>0.157107</v>
+      </c>
+      <c r="L38">
+        <v>0.118353</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>19.6585</v>
+      </c>
+      <c r="E39">
+        <v>10.25165</v>
+      </c>
+      <c r="F39">
+        <v>4.2625400000000004</v>
+      </c>
+      <c r="G39">
+        <v>3.6815500000000001</v>
+      </c>
+      <c r="H39">
+        <v>2.3281700000000001</v>
+      </c>
+      <c r="I39">
+        <v>1.35639</v>
+      </c>
+      <c r="J39">
+        <v>0.205424</v>
+      </c>
+      <c r="K39">
+        <v>0.177152</v>
+      </c>
+      <c r="L39">
+        <v>0.154249</v>
+      </c>
+      <c r="M39">
+        <v>0.128778</v>
+      </c>
+      <c r="N39">
+        <v>0.10812099999999999</v>
+      </c>
+      <c r="O39">
+        <v>0.11948499999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>28.791869999999999</v>
+      </c>
+      <c r="E40">
+        <v>15.077640000000001</v>
+      </c>
+      <c r="F40">
+        <v>6.5591699999999999</v>
+      </c>
+      <c r="G40">
+        <v>5.1720899999999999</v>
+      </c>
+      <c r="H40">
+        <v>1.9328099999999999</v>
+      </c>
+      <c r="I40">
+        <v>0.91608999999999996</v>
+      </c>
+      <c r="J40">
+        <v>0.17662600000000001</v>
+      </c>
+      <c r="K40">
+        <v>0.15298999999999999</v>
+      </c>
+      <c r="L40">
+        <v>0.13741</v>
+      </c>
+      <c r="M40">
+        <v>0.111038</v>
+      </c>
+      <c r="N40">
+        <v>8.9574000000000001E-2</v>
+      </c>
+      <c r="O40">
+        <v>0.1038</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>13.200060000000001</v>
+      </c>
+      <c r="E41">
+        <v>10.931800000000001</v>
+      </c>
+      <c r="F41">
+        <v>3.57544</v>
+      </c>
+      <c r="G41">
+        <v>2.60595</v>
+      </c>
+      <c r="H41">
+        <v>1.1532</v>
+      </c>
+      <c r="I41">
+        <v>0.55403999999999998</v>
+      </c>
+      <c r="J41">
+        <v>0.15244099999999999</v>
+      </c>
+      <c r="K41">
+        <v>0.13863500000000001</v>
+      </c>
+      <c r="L41">
+        <v>0.12906000000000001</v>
+      </c>
+      <c r="M41">
+        <v>0.105957</v>
+      </c>
+      <c r="N41">
+        <v>8.7082000000000007E-2</v>
+      </c>
+      <c r="O41">
+        <v>0.10095899999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42">
+        <v>24</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>26.93055</v>
+      </c>
+      <c r="E42">
+        <v>0.69759000000000004</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0.220114</v>
+      </c>
+      <c r="K42">
+        <v>0.14546200000000001</v>
+      </c>
+      <c r="L42">
+        <v>0.10823199999999999</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>19.6585</v>
+      </c>
+      <c r="E43">
+        <v>10.25165</v>
+      </c>
+      <c r="F43">
+        <v>4.2625400000000004</v>
+      </c>
+      <c r="G43">
+        <v>3.6815500000000001</v>
+      </c>
+      <c r="H43">
+        <v>2.3281700000000001</v>
+      </c>
+      <c r="I43">
+        <v>1.35639</v>
+      </c>
+      <c r="J43">
+        <v>0.192575</v>
+      </c>
+      <c r="K43">
+        <v>0.164434</v>
+      </c>
+      <c r="L43">
+        <v>0.13783699999999999</v>
+      </c>
+      <c r="M43">
+        <v>0.11867900000000001</v>
+      </c>
+      <c r="N43">
+        <v>0.103822</v>
+      </c>
+      <c r="O43">
+        <v>0.109282</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>28.791869999999999</v>
+      </c>
+      <c r="E44">
+        <v>15.077640000000001</v>
+      </c>
+      <c r="F44">
+        <v>6.5591699999999999</v>
+      </c>
+      <c r="G44">
+        <v>5.1720899999999999</v>
+      </c>
+      <c r="H44">
+        <v>1.9328099999999999</v>
+      </c>
+      <c r="I44">
+        <v>0.91608999999999996</v>
+      </c>
+      <c r="J44">
+        <v>0.16498199999999999</v>
+      </c>
+      <c r="K44">
+        <v>0.14144899999999999</v>
+      </c>
+      <c r="L44">
+        <v>0.122197</v>
+      </c>
+      <c r="M44">
+        <v>0.103384</v>
+      </c>
+      <c r="N44">
+        <v>8.7914000000000006E-2</v>
+      </c>
+      <c r="O44">
+        <v>9.5380000000000006E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <v>24</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>13.200060000000001</v>
+      </c>
+      <c r="E45">
+        <v>10.931800000000001</v>
+      </c>
+      <c r="F45">
+        <v>3.57544</v>
+      </c>
+      <c r="G45">
+        <v>2.60595</v>
+      </c>
+      <c r="H45">
+        <v>1.1532</v>
+      </c>
+      <c r="I45">
+        <v>0.55403999999999998</v>
+      </c>
+      <c r="J45">
+        <v>0.141013</v>
+      </c>
+      <c r="K45">
+        <v>0.12732199999999999</v>
+      </c>
+      <c r="L45">
+        <v>0.11411200000000001</v>
+      </c>
+      <c r="M45">
+        <v>9.8410999999999998E-2</v>
+      </c>
+      <c r="N45">
+        <v>8.5411000000000001E-2</v>
+      </c>
+      <c r="O45">
+        <v>9.2706999999999998E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <v>36</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>26.93055</v>
+      </c>
+      <c r="E46">
+        <v>0.69759000000000004</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0.214144</v>
+      </c>
+      <c r="K46">
+        <v>0.14067299999999999</v>
+      </c>
+      <c r="L46">
+        <v>0.10430300000000001</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47">
+        <v>36</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>19.6585</v>
+      </c>
+      <c r="E47">
+        <v>10.25165</v>
+      </c>
+      <c r="F47">
+        <v>4.2625400000000004</v>
+      </c>
+      <c r="G47">
+        <v>3.6815500000000001</v>
+      </c>
+      <c r="H47">
+        <v>2.3281700000000001</v>
+      </c>
+      <c r="I47">
+        <v>1.35639</v>
+      </c>
+      <c r="J47">
+        <v>0.186609</v>
+      </c>
+      <c r="K47">
+        <v>0.159582</v>
+      </c>
+      <c r="L47">
+        <v>0.13164300000000001</v>
+      </c>
+      <c r="M47">
+        <v>0.114764</v>
+      </c>
+      <c r="N47">
+        <v>0.10233</v>
+      </c>
+      <c r="O47">
+        <v>0.105473</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48">
+        <v>36</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>28.791869999999999</v>
+      </c>
+      <c r="E48">
+        <v>15.077640000000001</v>
+      </c>
+      <c r="F48">
+        <v>6.5591699999999999</v>
+      </c>
+      <c r="G48">
+        <v>5.1720899999999999</v>
+      </c>
+      <c r="H48">
+        <v>1.9328099999999999</v>
+      </c>
+      <c r="I48">
+        <v>0.91608999999999996</v>
+      </c>
+      <c r="J48">
+        <v>0.16000800000000001</v>
+      </c>
+      <c r="K48">
+        <v>0.137321</v>
+      </c>
+      <c r="L48">
+        <v>0.11722</v>
+      </c>
+      <c r="M48">
+        <v>0.10102800000000001</v>
+      </c>
+      <c r="N48">
+        <v>8.7704000000000004E-2</v>
+      </c>
+      <c r="O48">
+        <v>9.2865000000000003E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49">
+        <v>36</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>13.200060000000001</v>
+      </c>
+      <c r="E49">
+        <v>10.931800000000001</v>
+      </c>
+      <c r="F49">
+        <v>3.57544</v>
+      </c>
+      <c r="G49">
+        <v>2.60595</v>
+      </c>
+      <c r="H49">
+        <v>1.1532</v>
+      </c>
+      <c r="I49">
+        <v>0.55403999999999998</v>
+      </c>
+      <c r="J49">
+        <v>0.13614299999999999</v>
+      </c>
+      <c r="K49">
+        <v>0.12328</v>
+      </c>
+      <c r="L49">
+        <v>0.109239</v>
+      </c>
+      <c r="M49">
+        <v>9.6106999999999998E-2</v>
+      </c>
+      <c r="N49">
+        <v>8.5219000000000003E-2</v>
+      </c>
+      <c r="O49">
+        <v>9.0267E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\PRECIOS CALCULADORA GALP LEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E204ED-8D09-4A33-9A40-3B404BFA157C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0646F2D-D735-4C81-B389-68E7BD600444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1245" windowWidth="29040" windowHeight="15720" xr2:uid="{3350A494-7D0F-4E24-96BD-512094F7438F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3350A494-7D0F-4E24-96BD-512094F7438F}"/>
   </bookViews>
   <sheets>
     <sheet name="data2" sheetId="1" r:id="rId1"/>
@@ -457,16 +457,16 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="M2" sqref="M2:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="10" max="15" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="10" max="15" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +513,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.23644499999999999</v>
+        <v>0.236986</v>
       </c>
       <c r="K2">
-        <v>0.16050400000000001</v>
+        <v>0.16105700000000001</v>
       </c>
       <c r="L2">
-        <v>0.121124</v>
+        <v>0.12158099999999999</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -589,25 +589,25 @@
         <v>1.35639</v>
       </c>
       <c r="J3">
-        <v>0.21551799999999999</v>
+        <v>0.21379200000000001</v>
       </c>
       <c r="K3">
-        <v>0.179703</v>
+        <v>0.17777499999999999</v>
       </c>
       <c r="L3">
-        <v>0.153196</v>
+        <v>0.155165</v>
       </c>
       <c r="M3">
-        <v>0.12954199999999999</v>
+        <v>0.132462</v>
       </c>
       <c r="N3">
-        <v>0.109474</v>
+        <v>0.112085</v>
       </c>
       <c r="O3">
-        <v>0.12222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.122637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -636,25 +636,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J4">
-        <v>0.18654000000000001</v>
+        <v>0.184312</v>
       </c>
       <c r="K4">
-        <v>0.155222</v>
+        <v>0.152979</v>
       </c>
       <c r="L4">
-        <v>0.136097</v>
+        <v>0.13736100000000001</v>
       </c>
       <c r="M4">
-        <v>0.112091</v>
+        <v>0.114201</v>
       </c>
       <c r="N4">
-        <v>9.1206999999999996E-2</v>
+        <v>9.2600000000000002E-2</v>
       </c>
       <c r="O4">
-        <v>0.10679</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.106603</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -683,25 +683,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J5">
-        <v>0.162162</v>
+        <v>0.15997700000000001</v>
       </c>
       <c r="K5">
-        <v>0.14080100000000001</v>
+        <v>0.138601</v>
       </c>
       <c r="L5">
-        <v>0.12776899999999999</v>
+        <v>0.12900900000000001</v>
       </c>
       <c r="M5">
-        <v>0.106999</v>
+        <v>0.10907699999999999</v>
       </c>
       <c r="N5">
-        <v>8.8705999999999993E-2</v>
+        <v>9.0081999999999995E-2</v>
       </c>
       <c r="O5">
-        <v>0.103862</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.103685</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.22244800000000001</v>
+        <v>0.224518</v>
       </c>
       <c r="K6">
-        <v>0.14735999999999999</v>
+        <v>0.14956700000000001</v>
       </c>
       <c r="L6">
-        <v>0.109708</v>
+        <v>0.11155</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -777,25 +777,25 @@
         <v>1.35639</v>
       </c>
       <c r="J7">
-        <v>0.19939799999999999</v>
+        <v>0.20066500000000001</v>
       </c>
       <c r="K7">
-        <v>0.16870499999999999</v>
+        <v>0.16800999999999999</v>
       </c>
       <c r="L7">
-        <v>0.13822599999999999</v>
+        <v>0.141571</v>
       </c>
       <c r="M7">
-        <v>0.11753</v>
+        <v>0.121472</v>
       </c>
       <c r="N7">
-        <v>0.101747</v>
+        <v>0.104826</v>
       </c>
       <c r="O7">
-        <v>0.11074100000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.11257399999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -824,25 +824,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J8">
-        <v>0.17177500000000001</v>
+        <v>0.172512</v>
       </c>
       <c r="K8">
-        <v>0.14540700000000001</v>
+        <v>0.14439199999999999</v>
       </c>
       <c r="L8">
-        <v>0.122724</v>
+        <v>0.12538299999999999</v>
       </c>
       <c r="M8">
-        <v>0.101863</v>
+        <v>0.104879</v>
       </c>
       <c r="N8">
-        <v>8.5434999999999997E-2</v>
+        <v>8.7100999999999998E-2</v>
       </c>
       <c r="O8">
-        <v>9.6914E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.8069000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -871,25 +871,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J9">
-        <v>0.147675</v>
+        <v>0.148399</v>
       </c>
       <c r="K9">
-        <v>0.13117999999999999</v>
+        <v>0.130186</v>
       </c>
       <c r="L9">
-        <v>0.114621</v>
+        <v>0.117231</v>
       </c>
       <c r="M9">
-        <v>9.6928E-2</v>
+        <v>9.9899000000000002E-2</v>
       </c>
       <c r="N9">
-        <v>8.2994999999999999E-2</v>
+        <v>8.4642999999999996E-2</v>
       </c>
       <c r="O9">
-        <v>9.4198000000000004E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.5336000000000004E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.21576400000000001</v>
+        <v>0.216747</v>
       </c>
       <c r="K10">
-        <v>0.14152600000000001</v>
+        <v>0.14277599999999999</v>
       </c>
       <c r="L10">
-        <v>0.10503899999999999</v>
+        <v>0.10603799999999999</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -965,25 +965,25 @@
         <v>1.35639</v>
       </c>
       <c r="J11">
-        <v>0.19252</v>
+        <v>0.19336</v>
       </c>
       <c r="K11">
-        <v>0.16226499999999999</v>
+        <v>0.160548</v>
       </c>
       <c r="L11">
-        <v>0.13115199999999999</v>
+        <v>0.13358200000000001</v>
       </c>
       <c r="M11">
-        <v>0.11364299999999999</v>
+        <v>0.11622200000000001</v>
       </c>
       <c r="N11">
-        <v>0.100496</v>
+        <v>0.10181</v>
       </c>
       <c r="O11">
-        <v>0.106249</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.107227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1012,25 +1012,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J12">
-        <v>0.16594300000000001</v>
+        <v>0.16638800000000001</v>
       </c>
       <c r="K12">
-        <v>0.13986000000000001</v>
+        <v>0.13794899999999999</v>
       </c>
       <c r="L12">
-        <v>0.11644500000000001</v>
+        <v>0.118337</v>
       </c>
       <c r="M12">
-        <v>9.9857000000000001E-2</v>
+        <v>0.10163700000000001</v>
       </c>
       <c r="N12">
-        <v>8.6122000000000004E-2</v>
+        <v>8.6176000000000003E-2</v>
       </c>
       <c r="O12">
-        <v>9.3588000000000005E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.4045000000000004E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1059,25 +1059,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J13">
-        <v>0.14196300000000001</v>
+        <v>0.1424</v>
       </c>
       <c r="K13">
-        <v>0.12576000000000001</v>
+        <v>0.12388299999999999</v>
       </c>
       <c r="L13">
-        <v>0.108459</v>
+        <v>0.110316</v>
       </c>
       <c r="M13">
-        <v>9.4945000000000002E-2</v>
+        <v>9.6699999999999994E-2</v>
       </c>
       <c r="N13">
-        <v>8.3650000000000002E-2</v>
+        <v>8.3710999999999994E-2</v>
       </c>
       <c r="O13">
-        <v>9.0951000000000004E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.1406000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.23200699999999999</v>
+        <v>0.23486299999999999</v>
       </c>
       <c r="K14">
-        <v>0.15684000000000001</v>
+        <v>0.15942600000000001</v>
       </c>
       <c r="L14">
-        <v>0.11791</v>
+        <v>0.12003900000000001</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1153,25 +1153,25 @@
         <v>1.35639</v>
       </c>
       <c r="J15">
-        <v>0.205424</v>
+        <v>0.21019299999999999</v>
       </c>
       <c r="K15">
-        <v>0.17419299999999999</v>
+        <v>0.175876</v>
       </c>
       <c r="L15">
-        <v>0.153196</v>
+        <v>0.155165</v>
       </c>
       <c r="M15">
-        <v>0.12954199999999999</v>
+        <v>0.132462</v>
       </c>
       <c r="N15">
-        <v>0.109474</v>
+        <v>0.112085</v>
       </c>
       <c r="O15">
-        <v>0.119001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.121124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1200,25 +1200,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J16">
-        <v>0.17662600000000001</v>
+        <v>0.18091499999999999</v>
       </c>
       <c r="K16">
-        <v>0.15020600000000001</v>
+        <v>0.151422</v>
       </c>
       <c r="L16">
-        <v>0.136097</v>
+        <v>0.13736100000000001</v>
       </c>
       <c r="M16">
-        <v>0.112091</v>
+        <v>0.114201</v>
       </c>
       <c r="N16">
-        <v>9.1206999999999996E-2</v>
+        <v>9.2600000000000002E-2</v>
       </c>
       <c r="O16">
-        <v>0.103281</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.104906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1247,25 +1247,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J17">
-        <v>0.15244099999999999</v>
+        <v>0.15664900000000001</v>
       </c>
       <c r="K17">
-        <v>0.135882</v>
+        <v>0.137077</v>
       </c>
       <c r="L17">
-        <v>0.12776899999999999</v>
+        <v>0.12900900000000001</v>
       </c>
       <c r="M17">
-        <v>0.106999</v>
+        <v>0.10907699999999999</v>
       </c>
       <c r="N17">
-        <v>8.8705999999999993E-2</v>
+        <v>9.0081999999999995E-2</v>
       </c>
       <c r="O17">
-        <v>0.100452</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.102046</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.21974199999999999</v>
+        <v>0.223024</v>
       </c>
       <c r="K18">
-        <v>0.14508099999999999</v>
+        <v>0.148367</v>
       </c>
       <c r="L18">
-        <v>0.10775</v>
+        <v>0.110471</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1341,25 +1341,25 @@
         <v>1.35639</v>
       </c>
       <c r="J19">
-        <v>0.192575</v>
+        <v>0.19742999999999999</v>
       </c>
       <c r="K19">
-        <v>0.16523099999999999</v>
+        <v>0.16641500000000001</v>
       </c>
       <c r="L19">
-        <v>0.13822599999999999</v>
+        <v>0.141571</v>
       </c>
       <c r="M19">
-        <v>0.11753</v>
+        <v>0.121472</v>
       </c>
       <c r="N19">
-        <v>0.101747</v>
+        <v>0.104826</v>
       </c>
       <c r="O19">
-        <v>0.10877299999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.111501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1388,25 +1388,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J20">
-        <v>0.16498199999999999</v>
+        <v>0.16935800000000001</v>
       </c>
       <c r="K20">
-        <v>0.14219399999999999</v>
+        <v>0.14299000000000001</v>
       </c>
       <c r="L20">
-        <v>0.122724</v>
+        <v>0.12538299999999999</v>
       </c>
       <c r="M20">
-        <v>0.101863</v>
+        <v>0.104879</v>
       </c>
       <c r="N20">
-        <v>8.5434999999999997E-2</v>
+        <v>8.7100999999999998E-2</v>
       </c>
       <c r="O20">
-        <v>9.4777E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.6888000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1435,25 +1435,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J21">
-        <v>0.141013</v>
+        <v>0.14530599999999999</v>
       </c>
       <c r="K21">
-        <v>0.12803100000000001</v>
+        <v>0.12881300000000001</v>
       </c>
       <c r="L21">
-        <v>0.114621</v>
+        <v>0.117231</v>
       </c>
       <c r="M21">
-        <v>9.6928E-2</v>
+        <v>9.9899000000000002E-2</v>
       </c>
       <c r="N21">
-        <v>8.2994999999999999E-2</v>
+        <v>8.4642999999999996E-2</v>
       </c>
       <c r="O21">
-        <v>9.2119999999999994E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.4191999999999998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.21371399999999999</v>
+        <v>0.21551899999999999</v>
       </c>
       <c r="K22">
-        <v>0.13980300000000001</v>
+        <v>0.14177999999999999</v>
       </c>
       <c r="L22">
-        <v>0.103572</v>
+        <v>0.10516499999999999</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1529,25 +1529,25 @@
         <v>1.35639</v>
       </c>
       <c r="J23">
-        <v>0.186609</v>
+        <v>0.190215</v>
       </c>
       <c r="K23">
-        <v>0.15942300000000001</v>
+        <v>0.159025</v>
       </c>
       <c r="L23">
-        <v>0.13115199999999999</v>
+        <v>0.13358200000000001</v>
       </c>
       <c r="M23">
-        <v>0.11364299999999999</v>
+        <v>0.11622200000000001</v>
       </c>
       <c r="N23">
-        <v>0.100496</v>
+        <v>0.10181</v>
       </c>
       <c r="O23">
-        <v>0.10477300000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.10635799999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1576,25 +1576,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J24">
-        <v>0.16000800000000001</v>
+        <v>0.163301</v>
       </c>
       <c r="K24">
-        <v>0.13722300000000001</v>
+        <v>0.13658400000000001</v>
       </c>
       <c r="L24">
-        <v>0.11644500000000001</v>
+        <v>0.118337</v>
       </c>
       <c r="M24">
-        <v>9.9857000000000001E-2</v>
+        <v>0.10163700000000001</v>
       </c>
       <c r="N24">
-        <v>8.6122000000000004E-2</v>
+        <v>8.6176000000000003E-2</v>
       </c>
       <c r="O24">
-        <v>9.1991000000000003E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.3102000000000004E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1623,25 +1623,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J25">
-        <v>0.13614299999999999</v>
+        <v>0.139374</v>
       </c>
       <c r="K25">
-        <v>0.12317500000000001</v>
+        <v>0.122547</v>
       </c>
       <c r="L25">
-        <v>0.108459</v>
+        <v>0.110316</v>
       </c>
       <c r="M25">
-        <v>9.4945000000000002E-2</v>
+        <v>9.6699999999999994E-2</v>
       </c>
       <c r="N25">
-        <v>8.3650000000000002E-2</v>
+        <v>8.3710999999999994E-2</v>
       </c>
       <c r="O25">
-        <v>8.9398000000000005E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.0492000000000003E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1670,13 +1670,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.233214</v>
+        <v>0.23530100000000001</v>
       </c>
       <c r="K26">
-        <v>0.15751200000000001</v>
+        <v>0.15967500000000001</v>
       </c>
       <c r="L26">
-        <v>0.11872099999999999</v>
+        <v>0.120459</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1717,25 +1717,25 @@
         <v>1.35639</v>
       </c>
       <c r="J27">
-        <v>0.205424</v>
+        <v>0.21019299999999999</v>
       </c>
       <c r="K27">
-        <v>0.177152</v>
+        <v>0.17686399999999999</v>
       </c>
       <c r="L27">
-        <v>0.154249</v>
+        <v>0.155505</v>
       </c>
       <c r="M27">
-        <v>0.12954199999999999</v>
+        <v>0.132462</v>
       </c>
       <c r="N27">
-        <v>0.109474</v>
+        <v>0.112085</v>
       </c>
       <c r="O27">
-        <v>0.119877</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.12156500000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1764,25 +1764,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J28">
-        <v>0.17662600000000001</v>
+        <v>0.18091499999999999</v>
       </c>
       <c r="K28">
-        <v>0.15298999999999999</v>
+        <v>0.15235199999999999</v>
       </c>
       <c r="L28">
-        <v>0.13741</v>
+        <v>0.13777900000000001</v>
       </c>
       <c r="M28">
-        <v>0.112091</v>
+        <v>0.114201</v>
       </c>
       <c r="N28">
-        <v>9.1206999999999996E-2</v>
+        <v>9.2600000000000002E-2</v>
       </c>
       <c r="O28">
-        <v>0.104251</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.105422</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1811,25 +1811,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J29">
-        <v>0.15244099999999999</v>
+        <v>0.15664900000000001</v>
       </c>
       <c r="K29">
-        <v>0.13863500000000001</v>
+        <v>0.13800799999999999</v>
       </c>
       <c r="L29">
-        <v>0.12906000000000001</v>
+        <v>0.129417</v>
       </c>
       <c r="M29">
-        <v>0.106999</v>
+        <v>0.10907699999999999</v>
       </c>
       <c r="N29">
-        <v>8.8705999999999993E-2</v>
+        <v>9.0081999999999995E-2</v>
       </c>
       <c r="O29">
-        <v>0.101399</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.10255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.21948400000000001</v>
+        <v>0.22242100000000001</v>
       </c>
       <c r="K30">
-        <v>0.14486299999999999</v>
+        <v>0.147868</v>
       </c>
       <c r="L30">
-        <v>0.107734</v>
+        <v>0.11029600000000001</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -1905,25 +1905,25 @@
         <v>1.35639</v>
       </c>
       <c r="J31">
-        <v>0.192575</v>
+        <v>0.19742999999999999</v>
       </c>
       <c r="K31">
-        <v>0.164434</v>
+        <v>0.164747</v>
       </c>
       <c r="L31">
-        <v>0.13783699999999999</v>
+        <v>0.140739</v>
       </c>
       <c r="M31">
-        <v>0.11753</v>
+        <v>0.121472</v>
       </c>
       <c r="N31">
-        <v>0.101747</v>
+        <v>0.104826</v>
       </c>
       <c r="O31">
-        <v>0.10874499999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.111294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -1952,25 +1952,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J32">
-        <v>0.16498199999999999</v>
+        <v>0.16935800000000001</v>
       </c>
       <c r="K32">
-        <v>0.14144899999999999</v>
+        <v>0.14141899999999999</v>
       </c>
       <c r="L32">
-        <v>0.122197</v>
+        <v>0.124268</v>
       </c>
       <c r="M32">
-        <v>0.101863</v>
+        <v>0.104879</v>
       </c>
       <c r="N32">
-        <v>8.5434999999999997E-2</v>
+        <v>8.7100999999999998E-2</v>
       </c>
       <c r="O32">
-        <v>9.4767000000000004E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.6687999999999996E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -1999,25 +1999,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J33">
-        <v>0.141013</v>
+        <v>0.14530599999999999</v>
       </c>
       <c r="K33">
-        <v>0.12732199999999999</v>
+        <v>0.12729199999999999</v>
       </c>
       <c r="L33">
-        <v>0.11411200000000001</v>
+        <v>0.116144</v>
       </c>
       <c r="M33">
-        <v>9.6928E-2</v>
+        <v>9.9899000000000002E-2</v>
       </c>
       <c r="N33">
-        <v>8.2994999999999999E-2</v>
+        <v>8.4642999999999996E-2</v>
       </c>
       <c r="O33">
-        <v>9.2108999999999996E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.3995999999999996E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -2046,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.213368</v>
+        <v>0.21531</v>
       </c>
       <c r="K34">
-        <v>0.13997299999999999</v>
+        <v>0.142014</v>
       </c>
       <c r="L34">
-        <v>0.103827</v>
+        <v>0.10552</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -2093,25 +2093,25 @@
         <v>1.35639</v>
       </c>
       <c r="J35">
-        <v>0.186609</v>
+        <v>0.190215</v>
       </c>
       <c r="K35">
-        <v>0.159582</v>
+        <v>0.15941900000000001</v>
       </c>
       <c r="L35">
-        <v>0.13164300000000001</v>
+        <v>0.13419700000000001</v>
       </c>
       <c r="M35">
-        <v>0.11364299999999999</v>
+        <v>0.11622200000000001</v>
       </c>
       <c r="N35">
-        <v>0.100496</v>
+        <v>0.10181</v>
       </c>
       <c r="O35">
-        <v>0.10501199999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.10670300000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -2140,25 +2140,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J36">
-        <v>0.16000800000000001</v>
+        <v>0.163301</v>
       </c>
       <c r="K36">
-        <v>0.137321</v>
+        <v>0.136882</v>
       </c>
       <c r="L36">
-        <v>0.11722</v>
+        <v>0.119257</v>
       </c>
       <c r="M36">
-        <v>9.9857000000000001E-2</v>
+        <v>0.10163700000000001</v>
       </c>
       <c r="N36">
-        <v>8.6122000000000004E-2</v>
+        <v>8.6176000000000003E-2</v>
       </c>
       <c r="O36">
-        <v>9.2314999999999994E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.3533000000000005E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -2187,25 +2187,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J37">
-        <v>0.13614299999999999</v>
+        <v>0.139374</v>
       </c>
       <c r="K37">
-        <v>0.12328</v>
+        <v>0.122848</v>
       </c>
       <c r="L37">
-        <v>0.109239</v>
+        <v>0.111239</v>
       </c>
       <c r="M37">
-        <v>9.4945000000000002E-2</v>
+        <v>9.6699999999999994E-2</v>
       </c>
       <c r="N37">
-        <v>8.3650000000000002E-2</v>
+        <v>8.3710999999999994E-2</v>
       </c>
       <c r="O37">
-        <v>8.9721999999999996E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.0921000000000002E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -2234,13 +2234,13 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.232791</v>
+        <v>0.23464099999999999</v>
       </c>
       <c r="K38">
-        <v>0.157107</v>
+        <v>0.159053</v>
       </c>
       <c r="L38">
-        <v>0.118353</v>
+        <v>0.119906</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -2281,25 +2281,25 @@
         <v>1.35639</v>
       </c>
       <c r="J39">
-        <v>0.205424</v>
+        <v>0.21019299999999999</v>
       </c>
       <c r="K39">
-        <v>0.177152</v>
+        <v>0.17686399999999999</v>
       </c>
       <c r="L39">
-        <v>0.154249</v>
+        <v>0.155505</v>
       </c>
       <c r="M39">
-        <v>0.128778</v>
+        <v>0.13127900000000001</v>
       </c>
       <c r="N39">
-        <v>0.10812099999999999</v>
+        <v>0.10999200000000001</v>
       </c>
       <c r="O39">
-        <v>0.11948499999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.120978</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -2328,25 +2328,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J40">
-        <v>0.17662600000000001</v>
+        <v>0.18091499999999999</v>
       </c>
       <c r="K40">
-        <v>0.15298999999999999</v>
+        <v>0.15235199999999999</v>
       </c>
       <c r="L40">
-        <v>0.13741</v>
+        <v>0.13777900000000001</v>
       </c>
       <c r="M40">
-        <v>0.111038</v>
+        <v>0.112579</v>
       </c>
       <c r="N40">
-        <v>8.9574000000000001E-2</v>
+        <v>9.0065999999999993E-2</v>
       </c>
       <c r="O40">
-        <v>0.1038</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.10474600000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -2375,25 +2375,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J41">
-        <v>0.15244099999999999</v>
+        <v>0.15664900000000001</v>
       </c>
       <c r="K41">
-        <v>0.13863500000000001</v>
+        <v>0.13800799999999999</v>
       </c>
       <c r="L41">
-        <v>0.12906000000000001</v>
+        <v>0.129417</v>
       </c>
       <c r="M41">
-        <v>0.105957</v>
+        <v>0.107478</v>
       </c>
       <c r="N41">
-        <v>8.7082000000000007E-2</v>
+        <v>8.7573999999999999E-2</v>
       </c>
       <c r="O41">
-        <v>0.10095899999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.10188899999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -2422,13 +2422,13 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0.220114</v>
+        <v>0.22267799999999999</v>
       </c>
       <c r="K42">
-        <v>0.14546200000000001</v>
+        <v>0.14811199999999999</v>
       </c>
       <c r="L42">
-        <v>0.10823199999999999</v>
+        <v>0.110498</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -2440,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -2469,25 +2469,25 @@
         <v>1.35639</v>
       </c>
       <c r="J43">
-        <v>0.192575</v>
+        <v>0.19742999999999999</v>
       </c>
       <c r="K43">
-        <v>0.164434</v>
+        <v>0.164747</v>
       </c>
       <c r="L43">
-        <v>0.13783699999999999</v>
+        <v>0.140739</v>
       </c>
       <c r="M43">
-        <v>0.11867900000000001</v>
+        <v>0.121957</v>
       </c>
       <c r="N43">
-        <v>0.103822</v>
+        <v>0.10570300000000001</v>
       </c>
       <c r="O43">
-        <v>0.109282</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.111515</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -2516,25 +2516,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J44">
-        <v>0.16498199999999999</v>
+        <v>0.16935800000000001</v>
       </c>
       <c r="K44">
-        <v>0.14144899999999999</v>
+        <v>0.14141899999999999</v>
       </c>
       <c r="L44">
-        <v>0.122197</v>
+        <v>0.124268</v>
       </c>
       <c r="M44">
-        <v>0.103384</v>
+        <v>0.105503</v>
       </c>
       <c r="N44">
-        <v>8.7914000000000006E-2</v>
+        <v>8.8135000000000005E-2</v>
       </c>
       <c r="O44">
-        <v>9.5380000000000006E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.6940999999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -2563,25 +2563,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J45">
-        <v>0.141013</v>
+        <v>0.14530599999999999</v>
       </c>
       <c r="K45">
-        <v>0.12732199999999999</v>
+        <v>0.12729199999999999</v>
       </c>
       <c r="L45">
-        <v>0.11411200000000001</v>
+        <v>0.116144</v>
       </c>
       <c r="M45">
-        <v>9.8410999999999998E-2</v>
+        <v>0.100503</v>
       </c>
       <c r="N45">
-        <v>8.5411000000000001E-2</v>
+        <v>8.5639999999999994E-2</v>
       </c>
       <c r="O45">
-        <v>9.2706999999999998E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.4241000000000005E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -2610,13 +2610,13 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0.214144</v>
+        <v>0.21622</v>
       </c>
       <c r="K46">
-        <v>0.14067299999999999</v>
+        <v>0.14283999999999999</v>
       </c>
       <c r="L46">
-        <v>0.10430300000000001</v>
+        <v>0.106102</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -2628,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -2657,25 +2657,25 @@
         <v>1.35639</v>
       </c>
       <c r="J47">
-        <v>0.186609</v>
+        <v>0.190215</v>
       </c>
       <c r="K47">
-        <v>0.159582</v>
+        <v>0.15941900000000001</v>
       </c>
       <c r="L47">
-        <v>0.13164300000000001</v>
+        <v>0.13419700000000001</v>
       </c>
       <c r="M47">
-        <v>0.114764</v>
+        <v>0.117613</v>
       </c>
       <c r="N47">
-        <v>0.10233</v>
+        <v>0.10405200000000001</v>
       </c>
       <c r="O47">
-        <v>0.105473</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.107275</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -2704,25 +2704,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J48">
-        <v>0.16000800000000001</v>
+        <v>0.163301</v>
       </c>
       <c r="K48">
-        <v>0.137321</v>
+        <v>0.136882</v>
       </c>
       <c r="L48">
-        <v>0.11722</v>
+        <v>0.119257</v>
       </c>
       <c r="M48">
-        <v>0.10102800000000001</v>
+        <v>0.103126</v>
       </c>
       <c r="N48">
-        <v>8.7704000000000004E-2</v>
+        <v>8.8106000000000004E-2</v>
       </c>
       <c r="O48">
-        <v>9.2865000000000003E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.4201999999999994E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -2751,22 +2751,22 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J49">
-        <v>0.13614299999999999</v>
+        <v>0.139374</v>
       </c>
       <c r="K49">
-        <v>0.12328</v>
+        <v>0.122848</v>
       </c>
       <c r="L49">
-        <v>0.109239</v>
+        <v>0.111239</v>
       </c>
       <c r="M49">
-        <v>9.6106999999999998E-2</v>
+        <v>9.8175999999999999E-2</v>
       </c>
       <c r="N49">
-        <v>8.5219000000000003E-2</v>
+        <v>8.5625000000000007E-2</v>
       </c>
       <c r="O49">
-        <v>9.0267E-2</v>
+        <v>9.1581999999999997E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\PRECIOS CALCULADORA GALP LEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0646F2D-D735-4C81-B389-68E7BD600444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5E2618-1C9E-42A1-95B5-970E319791F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3350A494-7D0F-4E24-96BD-512094F7438F}"/>
+    <workbookView xWindow="28680" yWindow="-1245" windowWidth="29040" windowHeight="15720" xr2:uid="{3350A494-7D0F-4E24-96BD-512094F7438F}"/>
   </bookViews>
   <sheets>
     <sheet name="data2" sheetId="1" r:id="rId1"/>
@@ -460,13 +460,13 @@
       <selection activeCell="M2" sqref="M2:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="10" max="15" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="10" max="15" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +513,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.236986</v>
+        <v>0.22572900000000001</v>
       </c>
       <c r="K2">
-        <v>0.16105700000000001</v>
+        <v>0.14936099999999999</v>
       </c>
       <c r="L2">
-        <v>0.12158099999999999</v>
+        <v>0.11230800000000001</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -589,25 +589,25 @@
         <v>1.35639</v>
       </c>
       <c r="J3">
-        <v>0.21379200000000001</v>
+        <v>0.200626</v>
       </c>
       <c r="K3">
-        <v>0.17777499999999999</v>
+        <v>0.168573</v>
       </c>
       <c r="L3">
-        <v>0.155165</v>
+        <v>0.14141799999999999</v>
       </c>
       <c r="M3">
-        <v>0.132462</v>
+        <v>0.11788700000000001</v>
       </c>
       <c r="N3">
-        <v>0.112085</v>
+        <v>0.100741</v>
       </c>
       <c r="O3">
-        <v>0.122637</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.113646</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -636,25 +636,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J4">
-        <v>0.184312</v>
+        <v>0.17505200000000001</v>
       </c>
       <c r="K4">
-        <v>0.152979</v>
+        <v>0.14722199999999999</v>
       </c>
       <c r="L4">
-        <v>0.13736100000000001</v>
+        <v>0.12831799999999999</v>
       </c>
       <c r="M4">
-        <v>0.114201</v>
+        <v>0.10864600000000001</v>
       </c>
       <c r="N4">
-        <v>9.2600000000000002E-2</v>
+        <v>9.1364000000000001E-2</v>
       </c>
       <c r="O4">
-        <v>0.106603</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.10377599999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -683,25 +683,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J5">
-        <v>0.15997700000000001</v>
+        <v>0.151393</v>
       </c>
       <c r="K5">
-        <v>0.138601</v>
+        <v>0.133493</v>
       </c>
       <c r="L5">
-        <v>0.12900900000000001</v>
+        <v>0.120438</v>
       </c>
       <c r="M5">
-        <v>0.10907699999999999</v>
+        <v>0.10390000000000001</v>
       </c>
       <c r="N5">
-        <v>9.0081999999999995E-2</v>
+        <v>8.9333999999999997E-2</v>
       </c>
       <c r="O5">
-        <v>0.103685</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.100675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.224518</v>
+        <v>0.21476400000000001</v>
       </c>
       <c r="K6">
-        <v>0.14956700000000001</v>
+        <v>0.139348</v>
       </c>
       <c r="L6">
-        <v>0.11155</v>
+        <v>0.10366300000000001</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -777,25 +777,25 @@
         <v>1.35639</v>
       </c>
       <c r="J7">
-        <v>0.20066500000000001</v>
+        <v>0.18898400000000001</v>
       </c>
       <c r="K7">
-        <v>0.16800999999999999</v>
+        <v>0.15974099999999999</v>
       </c>
       <c r="L7">
-        <v>0.141571</v>
+        <v>0.13067500000000001</v>
       </c>
       <c r="M7">
-        <v>0.121472</v>
+        <v>0.108306</v>
       </c>
       <c r="N7">
-        <v>0.104826</v>
+        <v>9.3316999999999997E-2</v>
       </c>
       <c r="O7">
-        <v>0.11257399999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.104883</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -824,25 +824,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J8">
-        <v>0.172512</v>
+        <v>0.164217</v>
       </c>
       <c r="K8">
-        <v>0.14439199999999999</v>
+        <v>0.13911899999999999</v>
       </c>
       <c r="L8">
-        <v>0.12538299999999999</v>
+        <v>0.118004</v>
       </c>
       <c r="M8">
-        <v>0.104879</v>
+        <v>9.9520999999999998E-2</v>
       </c>
       <c r="N8">
-        <v>8.7100999999999998E-2</v>
+        <v>8.4534999999999999E-2</v>
       </c>
       <c r="O8">
-        <v>9.8069000000000003E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.5582E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -871,25 +871,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J9">
-        <v>0.148399</v>
+        <v>0.14072799999999999</v>
       </c>
       <c r="K9">
-        <v>0.130186</v>
+        <v>0.12551000000000001</v>
       </c>
       <c r="L9">
-        <v>0.117231</v>
+        <v>0.110268</v>
       </c>
       <c r="M9">
-        <v>9.9899000000000002E-2</v>
+        <v>9.4895999999999994E-2</v>
       </c>
       <c r="N9">
-        <v>8.4642999999999996E-2</v>
+        <v>8.2563999999999999E-2</v>
       </c>
       <c r="O9">
-        <v>9.5336000000000004E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.2677999999999996E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.216747</v>
+        <v>0.20779300000000001</v>
       </c>
       <c r="K10">
-        <v>0.14277599999999999</v>
+        <v>0.13337599999999999</v>
       </c>
       <c r="L10">
-        <v>0.10603799999999999</v>
+        <v>9.8666000000000004E-2</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -965,25 +965,25 @@
         <v>1.35639</v>
       </c>
       <c r="J11">
-        <v>0.19336</v>
+        <v>0.17966799999999999</v>
       </c>
       <c r="K11">
-        <v>0.160548</v>
+        <v>0.15084900000000001</v>
       </c>
       <c r="L11">
-        <v>0.13358200000000001</v>
+        <v>0.124151</v>
       </c>
       <c r="M11">
-        <v>0.11622200000000001</v>
+        <v>0.105457</v>
       </c>
       <c r="N11">
-        <v>0.10181</v>
+        <v>9.2543E-2</v>
       </c>
       <c r="O11">
-        <v>0.107227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.9876000000000006E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1012,25 +1012,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J12">
-        <v>0.16638800000000001</v>
+        <v>0.15559000000000001</v>
       </c>
       <c r="K12">
-        <v>0.13794899999999999</v>
+        <v>0.130965</v>
       </c>
       <c r="L12">
-        <v>0.118337</v>
+        <v>0.112092</v>
       </c>
       <c r="M12">
-        <v>0.10163700000000001</v>
+        <v>9.7214999999999996E-2</v>
       </c>
       <c r="N12">
-        <v>8.6176000000000003E-2</v>
+        <v>8.4209999999999993E-2</v>
       </c>
       <c r="O12">
-        <v>9.4045000000000004E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.1315999999999994E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1059,25 +1059,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J13">
-        <v>0.1424</v>
+        <v>0.13222900000000001</v>
       </c>
       <c r="K13">
-        <v>0.12388299999999999</v>
+        <v>0.11747199999999999</v>
       </c>
       <c r="L13">
-        <v>0.110316</v>
+        <v>0.104444</v>
       </c>
       <c r="M13">
-        <v>9.6699999999999994E-2</v>
+        <v>9.2619000000000007E-2</v>
       </c>
       <c r="N13">
-        <v>8.3710999999999994E-2</v>
+        <v>8.2239999999999994E-2</v>
       </c>
       <c r="O13">
-        <v>9.1406000000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.8514999999999996E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.23486299999999999</v>
+        <v>0.22411</v>
       </c>
       <c r="K14">
-        <v>0.15942600000000001</v>
+        <v>0.148173</v>
       </c>
       <c r="L14">
-        <v>0.12003900000000001</v>
+        <v>0.111165</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1153,25 +1153,25 @@
         <v>1.35639</v>
       </c>
       <c r="J15">
-        <v>0.21019299999999999</v>
+        <v>0.19750100000000001</v>
       </c>
       <c r="K15">
-        <v>0.175876</v>
+        <v>0.16752400000000001</v>
       </c>
       <c r="L15">
-        <v>0.155165</v>
+        <v>0.14141799999999999</v>
       </c>
       <c r="M15">
-        <v>0.132462</v>
+        <v>0.11788700000000001</v>
       </c>
       <c r="N15">
-        <v>0.112085</v>
+        <v>0.100741</v>
       </c>
       <c r="O15">
-        <v>0.121124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.112278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1200,25 +1200,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J16">
-        <v>0.18091499999999999</v>
+        <v>0.17210600000000001</v>
       </c>
       <c r="K16">
-        <v>0.151422</v>
+        <v>0.14650099999999999</v>
       </c>
       <c r="L16">
-        <v>0.13736100000000001</v>
+        <v>0.12831799999999999</v>
       </c>
       <c r="M16">
-        <v>0.114201</v>
+        <v>0.10864600000000001</v>
       </c>
       <c r="N16">
-        <v>9.2600000000000002E-2</v>
+        <v>9.1364000000000001E-2</v>
       </c>
       <c r="O16">
-        <v>0.104906</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.102729</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1247,25 +1247,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J17">
-        <v>0.15664900000000001</v>
+        <v>0.148505</v>
       </c>
       <c r="K17">
-        <v>0.137077</v>
+        <v>0.13279299999999999</v>
       </c>
       <c r="L17">
-        <v>0.12900900000000001</v>
+        <v>0.120438</v>
       </c>
       <c r="M17">
-        <v>0.10907699999999999</v>
+        <v>0.10390000000000001</v>
       </c>
       <c r="N17">
-        <v>9.0081999999999995E-2</v>
+        <v>8.9333999999999997E-2</v>
       </c>
       <c r="O17">
-        <v>0.102046</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.9675E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.223024</v>
+        <v>0.21364</v>
       </c>
       <c r="K18">
-        <v>0.148367</v>
+        <v>0.13848099999999999</v>
       </c>
       <c r="L18">
-        <v>0.110471</v>
+        <v>0.102883</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1341,25 +1341,25 @@
         <v>1.35639</v>
       </c>
       <c r="J19">
-        <v>0.19742999999999999</v>
+        <v>0.1862</v>
       </c>
       <c r="K19">
-        <v>0.16641500000000001</v>
+        <v>0.15870600000000001</v>
       </c>
       <c r="L19">
-        <v>0.141571</v>
+        <v>0.13067500000000001</v>
       </c>
       <c r="M19">
-        <v>0.121472</v>
+        <v>0.108306</v>
       </c>
       <c r="N19">
-        <v>0.104826</v>
+        <v>9.3316999999999997E-2</v>
       </c>
       <c r="O19">
-        <v>0.111501</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.103931</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1388,25 +1388,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J20">
-        <v>0.16935800000000001</v>
+        <v>0.16158400000000001</v>
       </c>
       <c r="K20">
-        <v>0.14299000000000001</v>
+        <v>0.13824600000000001</v>
       </c>
       <c r="L20">
-        <v>0.12538299999999999</v>
+        <v>0.118004</v>
       </c>
       <c r="M20">
-        <v>0.104879</v>
+        <v>9.9520999999999998E-2</v>
       </c>
       <c r="N20">
-        <v>8.7100999999999998E-2</v>
+        <v>8.4534999999999999E-2</v>
       </c>
       <c r="O20">
-        <v>9.6888000000000002E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.4803999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1435,25 +1435,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J21">
-        <v>0.14530599999999999</v>
+        <v>0.13814100000000001</v>
       </c>
       <c r="K21">
-        <v>0.12881300000000001</v>
+        <v>0.124655</v>
       </c>
       <c r="L21">
-        <v>0.117231</v>
+        <v>0.110268</v>
       </c>
       <c r="M21">
-        <v>9.9899000000000002E-2</v>
+        <v>9.4895999999999994E-2</v>
       </c>
       <c r="N21">
-        <v>8.4642999999999996E-2</v>
+        <v>8.2563999999999999E-2</v>
       </c>
       <c r="O21">
-        <v>9.4191999999999998E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.1928999999999997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.21551899999999999</v>
+        <v>0.20691300000000001</v>
       </c>
       <c r="K22">
-        <v>0.14177999999999999</v>
+        <v>0.132691</v>
       </c>
       <c r="L22">
-        <v>0.10516499999999999</v>
+        <v>9.8064999999999999E-2</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1529,25 +1529,25 @@
         <v>1.35639</v>
       </c>
       <c r="J23">
-        <v>0.190215</v>
+        <v>0.17716299999999999</v>
       </c>
       <c r="K23">
-        <v>0.159025</v>
+        <v>0.14982200000000001</v>
       </c>
       <c r="L23">
-        <v>0.13358200000000001</v>
+        <v>0.124151</v>
       </c>
       <c r="M23">
-        <v>0.11622200000000001</v>
+        <v>0.105457</v>
       </c>
       <c r="N23">
-        <v>0.10181</v>
+        <v>9.2543E-2</v>
       </c>
       <c r="O23">
-        <v>0.10635799999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.9137000000000003E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1576,25 +1576,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J24">
-        <v>0.163301</v>
+        <v>0.153223</v>
       </c>
       <c r="K24">
-        <v>0.13658400000000001</v>
+        <v>0.13004299999999999</v>
       </c>
       <c r="L24">
-        <v>0.118337</v>
+        <v>0.112092</v>
       </c>
       <c r="M24">
-        <v>0.10163700000000001</v>
+        <v>9.7214999999999996E-2</v>
       </c>
       <c r="N24">
-        <v>8.6176000000000003E-2</v>
+        <v>8.4209999999999993E-2</v>
       </c>
       <c r="O24">
-        <v>9.3102000000000004E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.0707999999999997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1623,25 +1623,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J25">
-        <v>0.139374</v>
+        <v>0.12990199999999999</v>
       </c>
       <c r="K25">
-        <v>0.122547</v>
+        <v>0.116567</v>
       </c>
       <c r="L25">
-        <v>0.110316</v>
+        <v>0.104444</v>
       </c>
       <c r="M25">
-        <v>9.6699999999999994E-2</v>
+        <v>9.2619000000000007E-2</v>
       </c>
       <c r="N25">
-        <v>8.3710999999999994E-2</v>
+        <v>8.2239999999999994E-2</v>
       </c>
       <c r="O25">
-        <v>9.0492000000000003E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.7928999999999993E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1670,13 +1670,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.23530100000000001</v>
+        <v>0.224436</v>
       </c>
       <c r="K26">
-        <v>0.15967500000000001</v>
+        <v>0.148344</v>
       </c>
       <c r="L26">
-        <v>0.120459</v>
+        <v>0.111467</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1717,25 +1717,25 @@
         <v>1.35639</v>
       </c>
       <c r="J27">
-        <v>0.21019299999999999</v>
+        <v>0.19750100000000001</v>
       </c>
       <c r="K27">
-        <v>0.17686399999999999</v>
+        <v>0.16814200000000001</v>
       </c>
       <c r="L27">
-        <v>0.155505</v>
+        <v>0.14169799999999999</v>
       </c>
       <c r="M27">
-        <v>0.132462</v>
+        <v>0.11788700000000001</v>
       </c>
       <c r="N27">
-        <v>0.112085</v>
+        <v>0.100741</v>
       </c>
       <c r="O27">
-        <v>0.12156500000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.112648</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1764,25 +1764,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J28">
-        <v>0.18091499999999999</v>
+        <v>0.17210600000000001</v>
       </c>
       <c r="K28">
-        <v>0.15235199999999999</v>
+        <v>0.14710200000000001</v>
       </c>
       <c r="L28">
-        <v>0.13777900000000001</v>
+        <v>0.128584</v>
       </c>
       <c r="M28">
-        <v>0.114201</v>
+        <v>0.10864600000000001</v>
       </c>
       <c r="N28">
-        <v>9.2600000000000002E-2</v>
+        <v>9.1364000000000001E-2</v>
       </c>
       <c r="O28">
-        <v>0.105422</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.103001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1811,25 +1811,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J29">
-        <v>0.15664900000000001</v>
+        <v>0.148505</v>
       </c>
       <c r="K29">
-        <v>0.13800799999999999</v>
+        <v>0.133386</v>
       </c>
       <c r="L29">
-        <v>0.129417</v>
+        <v>0.120698</v>
       </c>
       <c r="M29">
-        <v>0.10907699999999999</v>
+        <v>0.10390000000000001</v>
       </c>
       <c r="N29">
-        <v>9.0081999999999995E-2</v>
+        <v>8.9333999999999997E-2</v>
       </c>
       <c r="O29">
-        <v>0.10255</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.9941000000000002E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.22242100000000001</v>
+        <v>0.212973</v>
       </c>
       <c r="K30">
-        <v>0.147868</v>
+        <v>0.13794999999999999</v>
       </c>
       <c r="L30">
-        <v>0.11029600000000001</v>
+        <v>0.102642</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -1905,25 +1905,25 @@
         <v>1.35639</v>
       </c>
       <c r="J31">
-        <v>0.19742999999999999</v>
+        <v>0.1862</v>
       </c>
       <c r="K31">
-        <v>0.164747</v>
+        <v>0.156914</v>
       </c>
       <c r="L31">
-        <v>0.140739</v>
+        <v>0.12960099999999999</v>
       </c>
       <c r="M31">
-        <v>0.121472</v>
+        <v>0.108306</v>
       </c>
       <c r="N31">
-        <v>0.104826</v>
+        <v>9.3316999999999997E-2</v>
       </c>
       <c r="O31">
-        <v>0.111294</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.103614</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -1952,25 +1952,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J32">
-        <v>0.16935800000000001</v>
+        <v>0.16158400000000001</v>
       </c>
       <c r="K32">
-        <v>0.14141899999999999</v>
+        <v>0.13674</v>
       </c>
       <c r="L32">
-        <v>0.124268</v>
+        <v>0.117024</v>
       </c>
       <c r="M32">
-        <v>0.104879</v>
+        <v>9.9520999999999998E-2</v>
       </c>
       <c r="N32">
-        <v>8.7100999999999998E-2</v>
+        <v>8.4534999999999999E-2</v>
       </c>
       <c r="O32">
-        <v>9.6687999999999996E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.4518000000000005E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -1999,25 +1999,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J33">
-        <v>0.14530599999999999</v>
+        <v>0.13814100000000001</v>
       </c>
       <c r="K33">
-        <v>0.12729199999999999</v>
+        <v>0.123171</v>
       </c>
       <c r="L33">
-        <v>0.116144</v>
+        <v>0.109304</v>
       </c>
       <c r="M33">
-        <v>9.9899000000000002E-2</v>
+        <v>9.4895999999999994E-2</v>
       </c>
       <c r="N33">
-        <v>8.4642999999999996E-2</v>
+        <v>8.2563999999999999E-2</v>
       </c>
       <c r="O33">
-        <v>9.3995999999999996E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.1651999999999997E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -2046,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.21531</v>
+        <v>0.20621600000000001</v>
       </c>
       <c r="K34">
-        <v>0.142014</v>
+        <v>0.13215299999999999</v>
       </c>
       <c r="L34">
-        <v>0.10552</v>
+        <v>9.7782999999999995E-2</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -2093,25 +2093,25 @@
         <v>1.35639</v>
       </c>
       <c r="J35">
-        <v>0.190215</v>
+        <v>0.17716299999999999</v>
       </c>
       <c r="K35">
-        <v>0.15941900000000001</v>
+        <v>0.148036</v>
       </c>
       <c r="L35">
-        <v>0.13419700000000001</v>
+        <v>0.123084</v>
       </c>
       <c r="M35">
-        <v>0.11622200000000001</v>
+        <v>0.105457</v>
       </c>
       <c r="N35">
-        <v>0.10181</v>
+        <v>9.2543E-2</v>
       </c>
       <c r="O35">
-        <v>0.10670300000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.8770999999999998E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -2140,25 +2140,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J36">
-        <v>0.163301</v>
+        <v>0.153223</v>
       </c>
       <c r="K36">
-        <v>0.136882</v>
+        <v>0.12852</v>
       </c>
       <c r="L36">
-        <v>0.119257</v>
+        <v>0.11111600000000001</v>
       </c>
       <c r="M36">
-        <v>0.10163700000000001</v>
+        <v>9.7214999999999996E-2</v>
       </c>
       <c r="N36">
-        <v>8.6176000000000003E-2</v>
+        <v>8.4209999999999993E-2</v>
       </c>
       <c r="O36">
-        <v>9.3533000000000005E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.0386999999999995E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -2187,25 +2187,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J37">
-        <v>0.139374</v>
+        <v>0.12990199999999999</v>
       </c>
       <c r="K37">
-        <v>0.122848</v>
+        <v>0.115066</v>
       </c>
       <c r="L37">
-        <v>0.111239</v>
+        <v>0.10348400000000001</v>
       </c>
       <c r="M37">
-        <v>9.6699999999999994E-2</v>
+        <v>9.2619000000000007E-2</v>
       </c>
       <c r="N37">
-        <v>8.3710999999999994E-2</v>
+        <v>8.2239999999999994E-2</v>
       </c>
       <c r="O37">
-        <v>9.0921000000000002E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.7615999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -2234,13 +2234,13 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.23464099999999999</v>
+        <v>0.223245</v>
       </c>
       <c r="K38">
-        <v>0.159053</v>
+        <v>0.147179</v>
       </c>
       <c r="L38">
-        <v>0.119906</v>
+        <v>0.11043799999999999</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -2281,25 +2281,25 @@
         <v>1.35639</v>
       </c>
       <c r="J39">
-        <v>0.21019299999999999</v>
+        <v>0.19750100000000001</v>
       </c>
       <c r="K39">
-        <v>0.17686399999999999</v>
+        <v>0.16814200000000001</v>
       </c>
       <c r="L39">
-        <v>0.155505</v>
+        <v>0.14169799999999999</v>
       </c>
       <c r="M39">
-        <v>0.13127900000000001</v>
+        <v>0.115297</v>
       </c>
       <c r="N39">
-        <v>0.10999200000000001</v>
+        <v>9.6507999999999997E-2</v>
       </c>
       <c r="O39">
-        <v>0.120978</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.11154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -2328,25 +2328,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J40">
-        <v>0.18091499999999999</v>
+        <v>0.17210600000000001</v>
       </c>
       <c r="K40">
-        <v>0.15235199999999999</v>
+        <v>0.14710200000000001</v>
       </c>
       <c r="L40">
-        <v>0.13777900000000001</v>
+        <v>0.128584</v>
       </c>
       <c r="M40">
-        <v>0.112579</v>
+        <v>0.10610899999999999</v>
       </c>
       <c r="N40">
-        <v>9.0065999999999993E-2</v>
+        <v>8.7280999999999997E-2</v>
       </c>
       <c r="O40">
-        <v>0.10474600000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.10182099999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -2375,25 +2375,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J41">
-        <v>0.15664900000000001</v>
+        <v>0.148505</v>
       </c>
       <c r="K41">
-        <v>0.13800799999999999</v>
+        <v>0.133386</v>
       </c>
       <c r="L41">
-        <v>0.129417</v>
+        <v>0.120698</v>
       </c>
       <c r="M41">
-        <v>0.107478</v>
+        <v>0.101399</v>
       </c>
       <c r="N41">
-        <v>8.7573999999999999E-2</v>
+        <v>8.5289000000000004E-2</v>
       </c>
       <c r="O41">
-        <v>0.10188899999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.8789000000000002E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -2422,13 +2422,13 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0.22267799999999999</v>
+        <v>0.21317900000000001</v>
       </c>
       <c r="K42">
-        <v>0.14811199999999999</v>
+        <v>0.138159</v>
       </c>
       <c r="L42">
-        <v>0.110498</v>
+        <v>0.10281</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -2440,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -2469,25 +2469,25 @@
         <v>1.35639</v>
       </c>
       <c r="J43">
-        <v>0.19742999999999999</v>
+        <v>0.1862</v>
       </c>
       <c r="K43">
-        <v>0.164747</v>
+        <v>0.156914</v>
       </c>
       <c r="L43">
-        <v>0.140739</v>
+        <v>0.12960099999999999</v>
       </c>
       <c r="M43">
-        <v>0.121957</v>
+        <v>0.108761</v>
       </c>
       <c r="N43">
-        <v>0.10570300000000001</v>
+        <v>9.4098000000000001E-2</v>
       </c>
       <c r="O43">
-        <v>0.111515</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.1038</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -2516,25 +2516,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J44">
-        <v>0.16935800000000001</v>
+        <v>0.16158400000000001</v>
       </c>
       <c r="K44">
-        <v>0.14141899999999999</v>
+        <v>0.13674</v>
       </c>
       <c r="L44">
-        <v>0.124268</v>
+        <v>0.117024</v>
       </c>
       <c r="M44">
-        <v>0.105503</v>
+        <v>9.9965999999999999E-2</v>
       </c>
       <c r="N44">
-        <v>8.8135000000000005E-2</v>
+        <v>8.5279999999999995E-2</v>
       </c>
       <c r="O44">
-        <v>9.6940999999999999E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.4719999999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -2563,25 +2563,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J45">
-        <v>0.14530599999999999</v>
+        <v>0.13814100000000001</v>
       </c>
       <c r="K45">
-        <v>0.12729199999999999</v>
+        <v>0.123171</v>
       </c>
       <c r="L45">
-        <v>0.116144</v>
+        <v>0.109304</v>
       </c>
       <c r="M45">
-        <v>0.100503</v>
+        <v>9.5334000000000002E-2</v>
       </c>
       <c r="N45">
-        <v>8.5639999999999994E-2</v>
+        <v>8.3301E-2</v>
       </c>
       <c r="O45">
-        <v>9.4241000000000005E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.1849E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -2610,13 +2610,13 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0.21622</v>
+        <v>0.20627999999999999</v>
       </c>
       <c r="K46">
-        <v>0.14283999999999999</v>
+        <v>0.132214</v>
       </c>
       <c r="L46">
-        <v>0.106102</v>
+        <v>9.7691E-2</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -2628,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -2657,25 +2657,25 @@
         <v>1.35639</v>
       </c>
       <c r="J47">
-        <v>0.190215</v>
+        <v>0.17716299999999999</v>
       </c>
       <c r="K47">
-        <v>0.15941900000000001</v>
+        <v>0.148036</v>
       </c>
       <c r="L47">
-        <v>0.13419700000000001</v>
+        <v>0.123084</v>
       </c>
       <c r="M47">
-        <v>0.117613</v>
+        <v>0.10556500000000001</v>
       </c>
       <c r="N47">
-        <v>0.10405200000000001</v>
+        <v>9.2706999999999998E-2</v>
       </c>
       <c r="O47">
-        <v>0.107275</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.8687999999999998E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -2704,25 +2704,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J48">
-        <v>0.163301</v>
+        <v>0.153223</v>
       </c>
       <c r="K48">
-        <v>0.136882</v>
+        <v>0.12852</v>
       </c>
       <c r="L48">
-        <v>0.119257</v>
+        <v>0.11111600000000001</v>
       </c>
       <c r="M48">
-        <v>0.103126</v>
+        <v>9.7308000000000006E-2</v>
       </c>
       <c r="N48">
-        <v>8.8106000000000004E-2</v>
+        <v>8.4349999999999994E-2</v>
       </c>
       <c r="O48">
-        <v>9.4201999999999994E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.0322E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -2751,22 +2751,22 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J49">
-        <v>0.139374</v>
+        <v>0.12990199999999999</v>
       </c>
       <c r="K49">
-        <v>0.122848</v>
+        <v>0.115066</v>
       </c>
       <c r="L49">
-        <v>0.111239</v>
+        <v>0.10348400000000001</v>
       </c>
       <c r="M49">
-        <v>9.8175999999999999E-2</v>
+        <v>9.2711000000000002E-2</v>
       </c>
       <c r="N49">
-        <v>8.5625000000000007E-2</v>
+        <v>8.2378999999999994E-2</v>
       </c>
       <c r="O49">
-        <v>9.1581999999999997E-2</v>
+        <v>8.7553000000000006E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\PRECIOS CALCULADORA GALP LEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5E2618-1C9E-42A1-95B5-970E319791F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FC9D71-1CAE-4B25-8345-40D106D82102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1245" windowWidth="29040" windowHeight="15720" xr2:uid="{3350A494-7D0F-4E24-96BD-512094F7438F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3350A494-7D0F-4E24-96BD-512094F7438F}"/>
   </bookViews>
   <sheets>
     <sheet name="data2" sheetId="1" r:id="rId1"/>
@@ -457,16 +457,16 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:O2"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="10" max="15" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="10" max="15" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +513,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.22572900000000001</v>
+        <v>0.22208800000000001</v>
       </c>
       <c r="K2">
-        <v>0.14936099999999999</v>
+        <v>0.145731</v>
       </c>
       <c r="L2">
-        <v>0.11230800000000001</v>
+        <v>0.109046</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -589,25 +589,25 @@
         <v>1.35639</v>
       </c>
       <c r="J3">
-        <v>0.200626</v>
+        <v>0.19958600000000001</v>
       </c>
       <c r="K3">
-        <v>0.168573</v>
+        <v>0.167323</v>
       </c>
       <c r="L3">
-        <v>0.14141799999999999</v>
+        <v>0.13551099999999999</v>
       </c>
       <c r="M3">
-        <v>0.11788700000000001</v>
+        <v>0.112777</v>
       </c>
       <c r="N3">
-        <v>0.100741</v>
+        <v>9.7504999999999994E-2</v>
       </c>
       <c r="O3">
-        <v>0.113646</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.110568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -636,25 +636,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J4">
-        <v>0.17505200000000001</v>
+        <v>0.17410800000000001</v>
       </c>
       <c r="K4">
-        <v>0.14722199999999999</v>
+        <v>0.146091</v>
       </c>
       <c r="L4">
-        <v>0.12831799999999999</v>
+        <v>0.12259200000000001</v>
       </c>
       <c r="M4">
-        <v>0.10864600000000001</v>
+        <v>0.103698</v>
       </c>
       <c r="N4">
-        <v>9.1364000000000001E-2</v>
+        <v>8.8333999999999996E-2</v>
       </c>
       <c r="O4">
-        <v>0.10377599999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.100746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -683,25 +683,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J5">
-        <v>0.151393</v>
+        <v>0.15046100000000001</v>
       </c>
       <c r="K5">
-        <v>0.133493</v>
+        <v>0.13237599999999999</v>
       </c>
       <c r="L5">
-        <v>0.120438</v>
+        <v>0.11479</v>
       </c>
       <c r="M5">
-        <v>0.10390000000000001</v>
+        <v>9.9016999999999994E-2</v>
       </c>
       <c r="N5">
-        <v>8.9333999999999997E-2</v>
+        <v>8.6330000000000004E-2</v>
       </c>
       <c r="O5">
-        <v>0.100675</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.7708000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.21476400000000001</v>
+        <v>0.21210599999999999</v>
       </c>
       <c r="K6">
-        <v>0.139348</v>
+        <v>0.136792</v>
       </c>
       <c r="L6">
-        <v>0.10366300000000001</v>
+        <v>0.101395</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -777,25 +777,25 @@
         <v>1.35639</v>
       </c>
       <c r="J7">
-        <v>0.18898400000000001</v>
+        <v>0.187722</v>
       </c>
       <c r="K7">
-        <v>0.15974099999999999</v>
+        <v>0.158106</v>
       </c>
       <c r="L7">
-        <v>0.13067500000000001</v>
+        <v>0.12682399999999999</v>
       </c>
       <c r="M7">
-        <v>0.108306</v>
+        <v>0.105264</v>
       </c>
       <c r="N7">
-        <v>9.3316999999999997E-2</v>
+        <v>9.1441999999999996E-2</v>
       </c>
       <c r="O7">
-        <v>0.104883</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.10268099999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -824,25 +824,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J8">
-        <v>0.164217</v>
+        <v>0.163049</v>
       </c>
       <c r="K8">
-        <v>0.13911899999999999</v>
+        <v>0.13763700000000001</v>
       </c>
       <c r="L8">
-        <v>0.118004</v>
+        <v>0.114326</v>
       </c>
       <c r="M8">
-        <v>9.9520999999999998E-2</v>
+        <v>9.6604999999999996E-2</v>
       </c>
       <c r="N8">
-        <v>8.4534999999999999E-2</v>
+        <v>8.2789000000000001E-2</v>
       </c>
       <c r="O8">
-        <v>9.5582E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.3468999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -871,25 +871,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J9">
-        <v>0.14072799999999999</v>
+        <v>0.139575</v>
       </c>
       <c r="K9">
-        <v>0.12551000000000001</v>
+        <v>0.12404800000000001</v>
       </c>
       <c r="L9">
-        <v>0.110268</v>
+        <v>0.106642</v>
       </c>
       <c r="M9">
-        <v>9.4895999999999994E-2</v>
+        <v>9.2018000000000003E-2</v>
       </c>
       <c r="N9">
-        <v>8.2563999999999999E-2</v>
+        <v>8.0833000000000002E-2</v>
       </c>
       <c r="O9">
-        <v>9.2677999999999996E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.0609999999999996E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.20779300000000001</v>
+        <v>0.20569699999999999</v>
       </c>
       <c r="K10">
-        <v>0.13337599999999999</v>
+        <v>0.13137399999999999</v>
       </c>
       <c r="L10">
-        <v>9.8666000000000004E-2</v>
+        <v>9.6886E-2</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -965,25 +965,25 @@
         <v>1.35639</v>
       </c>
       <c r="J11">
-        <v>0.17966799999999999</v>
+        <v>0.17852899999999999</v>
       </c>
       <c r="K11">
-        <v>0.15084900000000001</v>
+        <v>0.14946000000000001</v>
       </c>
       <c r="L11">
-        <v>0.124151</v>
+        <v>0.12130299999999999</v>
       </c>
       <c r="M11">
-        <v>0.105457</v>
+        <v>0.103141</v>
       </c>
       <c r="N11">
-        <v>9.2543E-2</v>
+        <v>9.1020000000000004E-2</v>
       </c>
       <c r="O11">
-        <v>9.9876000000000006E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.8133999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1012,25 +1012,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J12">
-        <v>0.15559000000000001</v>
+        <v>0.15453600000000001</v>
       </c>
       <c r="K12">
-        <v>0.130965</v>
+        <v>0.12969900000000001</v>
       </c>
       <c r="L12">
-        <v>0.112092</v>
+        <v>0.109374</v>
       </c>
       <c r="M12">
-        <v>9.7214999999999996E-2</v>
+        <v>9.4994999999999996E-2</v>
       </c>
       <c r="N12">
-        <v>8.4209999999999993E-2</v>
+        <v>8.2790000000000002E-2</v>
       </c>
       <c r="O12">
-        <v>9.1315999999999994E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>8.9649000000000006E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1059,25 +1059,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J13">
-        <v>0.13222900000000001</v>
+        <v>0.13119</v>
       </c>
       <c r="K13">
-        <v>0.11747199999999999</v>
+        <v>0.11622399999999999</v>
       </c>
       <c r="L13">
-        <v>0.104444</v>
+        <v>0.10176399999999999</v>
       </c>
       <c r="M13">
-        <v>9.2619000000000007E-2</v>
+        <v>9.0427999999999994E-2</v>
       </c>
       <c r="N13">
-        <v>8.2239999999999994E-2</v>
+        <v>8.0833000000000002E-2</v>
       </c>
       <c r="O13">
-        <v>8.8514999999999996E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <v>8.6884000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.22411</v>
+        <v>0.21911700000000001</v>
       </c>
       <c r="K14">
-        <v>0.148173</v>
+        <v>0.14338500000000001</v>
       </c>
       <c r="L14">
-        <v>0.111165</v>
+        <v>0.106973</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1153,25 +1153,25 @@
         <v>1.35639</v>
       </c>
       <c r="J15">
-        <v>0.19750100000000001</v>
+        <v>0.19230700000000001</v>
       </c>
       <c r="K15">
-        <v>0.16752400000000001</v>
+        <v>0.16409499999999999</v>
       </c>
       <c r="L15">
-        <v>0.14141799999999999</v>
+        <v>0.13551099999999999</v>
       </c>
       <c r="M15">
-        <v>0.11788700000000001</v>
+        <v>0.112777</v>
       </c>
       <c r="N15">
-        <v>0.100741</v>
+        <v>9.7504999999999994E-2</v>
       </c>
       <c r="O15">
-        <v>0.112278</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.108028</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1200,25 +1200,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J16">
-        <v>0.17210600000000001</v>
+        <v>0.167214</v>
       </c>
       <c r="K16">
-        <v>0.14650099999999999</v>
+        <v>0.14321800000000001</v>
       </c>
       <c r="L16">
-        <v>0.12831799999999999</v>
+        <v>0.12259200000000001</v>
       </c>
       <c r="M16">
-        <v>0.10864600000000001</v>
+        <v>0.103698</v>
       </c>
       <c r="N16">
-        <v>9.1364000000000001E-2</v>
+        <v>8.8333999999999996E-2</v>
       </c>
       <c r="O16">
-        <v>0.102729</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.8614999999999994E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1247,25 +1247,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J17">
-        <v>0.148505</v>
+        <v>0.14368600000000001</v>
       </c>
       <c r="K17">
-        <v>0.13279299999999999</v>
+        <v>0.129556</v>
       </c>
       <c r="L17">
-        <v>0.120438</v>
+        <v>0.11479</v>
       </c>
       <c r="M17">
-        <v>0.10390000000000001</v>
+        <v>9.9016999999999994E-2</v>
       </c>
       <c r="N17">
-        <v>8.9333999999999997E-2</v>
+        <v>8.6330000000000004E-2</v>
       </c>
       <c r="O17">
-        <v>9.9675E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.5652000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.21364</v>
+        <v>0.210336</v>
       </c>
       <c r="K18">
-        <v>0.13848099999999999</v>
+        <v>0.135376</v>
       </c>
       <c r="L18">
-        <v>0.102883</v>
+        <v>0.100174</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1341,25 +1341,25 @@
         <v>1.35639</v>
       </c>
       <c r="J19">
-        <v>0.1862</v>
+        <v>0.18282799999999999</v>
       </c>
       <c r="K19">
-        <v>0.15870600000000001</v>
+        <v>0.155969</v>
       </c>
       <c r="L19">
-        <v>0.13067500000000001</v>
+        <v>0.12682399999999999</v>
       </c>
       <c r="M19">
-        <v>0.108306</v>
+        <v>0.105264</v>
       </c>
       <c r="N19">
-        <v>9.3316999999999997E-2</v>
+        <v>9.1441999999999996E-2</v>
       </c>
       <c r="O19">
-        <v>0.103931</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.101169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1388,25 +1388,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J20">
-        <v>0.16158400000000001</v>
+        <v>0.15840899999999999</v>
       </c>
       <c r="K20">
-        <v>0.13824600000000001</v>
+        <v>0.13567299999999999</v>
       </c>
       <c r="L20">
-        <v>0.118004</v>
+        <v>0.114326</v>
       </c>
       <c r="M20">
-        <v>9.9520999999999998E-2</v>
+        <v>9.6604999999999996E-2</v>
       </c>
       <c r="N20">
-        <v>8.4534999999999999E-2</v>
+        <v>8.2789000000000001E-2</v>
       </c>
       <c r="O20">
-        <v>9.4803999999999999E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.2176999999999995E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1435,25 +1435,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J21">
-        <v>0.13814100000000001</v>
+        <v>0.13501299999999999</v>
       </c>
       <c r="K21">
-        <v>0.124655</v>
+        <v>0.12211900000000001</v>
       </c>
       <c r="L21">
-        <v>0.110268</v>
+        <v>0.106642</v>
       </c>
       <c r="M21">
-        <v>9.4895999999999994E-2</v>
+        <v>9.2018000000000003E-2</v>
       </c>
       <c r="N21">
-        <v>8.2563999999999999E-2</v>
+        <v>8.0833000000000002E-2</v>
       </c>
       <c r="O21">
-        <v>9.1928999999999997E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+        <v>8.9360999999999996E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.20691300000000001</v>
+        <v>0.204397</v>
       </c>
       <c r="K22">
-        <v>0.132691</v>
+        <v>0.130333</v>
       </c>
       <c r="L22">
-        <v>9.8064999999999999E-2</v>
+        <v>9.5998E-2</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1529,25 +1529,25 @@
         <v>1.35639</v>
       </c>
       <c r="J23">
-        <v>0.17716299999999999</v>
+        <v>0.174627</v>
       </c>
       <c r="K23">
-        <v>0.14982200000000001</v>
+        <v>0.14771000000000001</v>
       </c>
       <c r="L23">
-        <v>0.124151</v>
+        <v>0.12130299999999999</v>
       </c>
       <c r="M23">
-        <v>0.105457</v>
+        <v>0.103141</v>
       </c>
       <c r="N23">
-        <v>9.2543E-2</v>
+        <v>9.1020000000000004E-2</v>
       </c>
       <c r="O23">
-        <v>9.9137000000000003E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.7031000000000006E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1576,25 +1576,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J24">
-        <v>0.153223</v>
+        <v>0.150839</v>
       </c>
       <c r="K24">
-        <v>0.13004299999999999</v>
+        <v>0.12806400000000001</v>
       </c>
       <c r="L24">
-        <v>0.112092</v>
+        <v>0.109374</v>
       </c>
       <c r="M24">
-        <v>9.7214999999999996E-2</v>
+        <v>9.4994999999999996E-2</v>
       </c>
       <c r="N24">
-        <v>8.4209999999999993E-2</v>
+        <v>8.2790000000000002E-2</v>
       </c>
       <c r="O24">
-        <v>9.0707999999999997E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+        <v>8.8707999999999995E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1623,25 +1623,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J25">
-        <v>0.12990199999999999</v>
+        <v>0.127554</v>
       </c>
       <c r="K25">
-        <v>0.116567</v>
+        <v>0.114616</v>
       </c>
       <c r="L25">
-        <v>0.104444</v>
+        <v>0.10176399999999999</v>
       </c>
       <c r="M25">
-        <v>9.2619000000000007E-2</v>
+        <v>9.0427999999999994E-2</v>
       </c>
       <c r="N25">
-        <v>8.2239999999999994E-2</v>
+        <v>8.0833000000000002E-2</v>
       </c>
       <c r="O25">
-        <v>8.7928999999999993E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+        <v>8.5973999999999995E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1670,13 +1670,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.224436</v>
+        <v>0.218913</v>
       </c>
       <c r="K26">
-        <v>0.148344</v>
+        <v>0.143176</v>
       </c>
       <c r="L26">
-        <v>0.111467</v>
+        <v>0.106957</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1717,25 +1717,25 @@
         <v>1.35639</v>
       </c>
       <c r="J27">
-        <v>0.19750100000000001</v>
+        <v>0.19230700000000001</v>
       </c>
       <c r="K27">
-        <v>0.16814200000000001</v>
+        <v>0.16339400000000001</v>
       </c>
       <c r="L27">
-        <v>0.14169799999999999</v>
+        <v>0.135049</v>
       </c>
       <c r="M27">
-        <v>0.11788700000000001</v>
+        <v>0.112777</v>
       </c>
       <c r="N27">
-        <v>0.100741</v>
+        <v>9.7504999999999994E-2</v>
       </c>
       <c r="O27">
-        <v>0.112648</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.108002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1764,25 +1764,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J28">
-        <v>0.17210600000000001</v>
+        <v>0.167214</v>
       </c>
       <c r="K28">
-        <v>0.14710200000000001</v>
+        <v>0.142674</v>
       </c>
       <c r="L28">
-        <v>0.128584</v>
+        <v>0.122181</v>
       </c>
       <c r="M28">
-        <v>0.10864600000000001</v>
+        <v>0.103698</v>
       </c>
       <c r="N28">
-        <v>9.1364000000000001E-2</v>
+        <v>8.8333999999999996E-2</v>
       </c>
       <c r="O28">
-        <v>0.103001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.8565E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1811,25 +1811,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J29">
-        <v>0.148505</v>
+        <v>0.14368600000000001</v>
       </c>
       <c r="K29">
-        <v>0.133386</v>
+        <v>0.12902</v>
       </c>
       <c r="L29">
-        <v>0.120698</v>
+        <v>0.114385</v>
       </c>
       <c r="M29">
-        <v>0.10390000000000001</v>
+        <v>9.9016999999999994E-2</v>
       </c>
       <c r="N29">
-        <v>8.9333999999999997E-2</v>
+        <v>8.6330000000000004E-2</v>
       </c>
       <c r="O29">
-        <v>9.9941000000000002E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.5603999999999995E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.212973</v>
+        <v>0.209561</v>
       </c>
       <c r="K30">
-        <v>0.13794999999999999</v>
+        <v>0.134768</v>
       </c>
       <c r="L30">
-        <v>0.102642</v>
+        <v>9.9858000000000002E-2</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -1905,25 +1905,25 @@
         <v>1.35639</v>
       </c>
       <c r="J31">
-        <v>0.1862</v>
+        <v>0.18282799999999999</v>
       </c>
       <c r="K31">
-        <v>0.156914</v>
+        <v>0.15390999999999999</v>
       </c>
       <c r="L31">
-        <v>0.12960099999999999</v>
+        <v>0.125608</v>
       </c>
       <c r="M31">
-        <v>0.108306</v>
+        <v>0.105264</v>
       </c>
       <c r="N31">
-        <v>9.3316999999999997E-2</v>
+        <v>9.1441999999999996E-2</v>
       </c>
       <c r="O31">
-        <v>0.103614</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.100759</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -1952,25 +1952,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J32">
-        <v>0.16158400000000001</v>
+        <v>0.15840899999999999</v>
       </c>
       <c r="K32">
-        <v>0.13674</v>
+        <v>0.133936</v>
       </c>
       <c r="L32">
-        <v>0.117024</v>
+        <v>0.113216</v>
       </c>
       <c r="M32">
-        <v>9.9520999999999998E-2</v>
+        <v>9.6604999999999996E-2</v>
       </c>
       <c r="N32">
-        <v>8.4534999999999999E-2</v>
+        <v>8.2789000000000001E-2</v>
       </c>
       <c r="O32">
-        <v>9.4518000000000005E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.1818999999999998E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -1999,25 +1999,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J33">
-        <v>0.13814100000000001</v>
+        <v>0.13501299999999999</v>
       </c>
       <c r="K33">
-        <v>0.123171</v>
+        <v>0.120406</v>
       </c>
       <c r="L33">
-        <v>0.109304</v>
+        <v>0.10555</v>
       </c>
       <c r="M33">
-        <v>9.4895999999999994E-2</v>
+        <v>9.2018000000000003E-2</v>
       </c>
       <c r="N33">
-        <v>8.2563999999999999E-2</v>
+        <v>8.0833000000000002E-2</v>
       </c>
       <c r="O33">
-        <v>9.1651999999999997E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+        <v>8.9011999999999994E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -2046,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.20621600000000001</v>
+        <v>0.20363600000000001</v>
       </c>
       <c r="K34">
-        <v>0.13215299999999999</v>
+        <v>0.129749</v>
       </c>
       <c r="L34">
-        <v>9.7782999999999995E-2</v>
+        <v>9.5672999999999994E-2</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -2093,25 +2093,25 @@
         <v>1.35639</v>
       </c>
       <c r="J35">
-        <v>0.17716299999999999</v>
+        <v>0.174627</v>
       </c>
       <c r="K35">
-        <v>0.148036</v>
+        <v>0.14576700000000001</v>
       </c>
       <c r="L35">
-        <v>0.123084</v>
+        <v>0.12015199999999999</v>
       </c>
       <c r="M35">
-        <v>0.105457</v>
+        <v>0.103141</v>
       </c>
       <c r="N35">
-        <v>9.2543E-2</v>
+        <v>9.1020000000000004E-2</v>
       </c>
       <c r="O35">
-        <v>9.8770999999999998E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.6610000000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -2140,25 +2140,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J36">
-        <v>0.153223</v>
+        <v>0.150839</v>
       </c>
       <c r="K36">
-        <v>0.12852</v>
+        <v>0.12640399999999999</v>
       </c>
       <c r="L36">
-        <v>0.11111600000000001</v>
+        <v>0.10832</v>
       </c>
       <c r="M36">
-        <v>9.7214999999999996E-2</v>
+        <v>9.4994999999999996E-2</v>
       </c>
       <c r="N36">
-        <v>8.4209999999999993E-2</v>
+        <v>8.2790000000000002E-2</v>
       </c>
       <c r="O36">
-        <v>9.0386999999999995E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+        <v>8.8343000000000005E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -2187,25 +2187,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J37">
-        <v>0.12990199999999999</v>
+        <v>0.127554</v>
       </c>
       <c r="K37">
-        <v>0.115066</v>
+        <v>0.112979</v>
       </c>
       <c r="L37">
-        <v>0.10348400000000001</v>
+        <v>0.100728</v>
       </c>
       <c r="M37">
-        <v>9.2619000000000007E-2</v>
+        <v>9.0427999999999994E-2</v>
       </c>
       <c r="N37">
-        <v>8.2239999999999994E-2</v>
+        <v>8.0833000000000002E-2</v>
       </c>
       <c r="O37">
-        <v>8.7615999999999999E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+        <v>8.5618E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -2234,13 +2234,13 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.223245</v>
+        <v>0.21796299999999999</v>
       </c>
       <c r="K38">
-        <v>0.147179</v>
+        <v>0.14224500000000001</v>
       </c>
       <c r="L38">
-        <v>0.11043799999999999</v>
+        <v>0.10613</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -2281,25 +2281,25 @@
         <v>1.35639</v>
       </c>
       <c r="J39">
-        <v>0.19750100000000001</v>
+        <v>0.19230700000000001</v>
       </c>
       <c r="K39">
-        <v>0.16814200000000001</v>
+        <v>0.16339400000000001</v>
       </c>
       <c r="L39">
-        <v>0.14169799999999999</v>
+        <v>0.135049</v>
       </c>
       <c r="M39">
-        <v>0.115297</v>
+        <v>0.110708</v>
       </c>
       <c r="N39">
-        <v>9.6507999999999997E-2</v>
+        <v>9.4120999999999996E-2</v>
       </c>
       <c r="O39">
-        <v>0.11154</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.107111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -2328,25 +2328,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J40">
-        <v>0.17210600000000001</v>
+        <v>0.167214</v>
       </c>
       <c r="K40">
-        <v>0.14710200000000001</v>
+        <v>0.142674</v>
       </c>
       <c r="L40">
-        <v>0.128584</v>
+        <v>0.122181</v>
       </c>
       <c r="M40">
-        <v>0.10610899999999999</v>
+        <v>0.101672</v>
       </c>
       <c r="N40">
-        <v>8.7280999999999997E-2</v>
+        <v>8.5071999999999995E-2</v>
       </c>
       <c r="O40">
-        <v>0.10182099999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.7614999999999993E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -2375,25 +2375,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J41">
-        <v>0.148505</v>
+        <v>0.14368600000000001</v>
       </c>
       <c r="K41">
-        <v>0.133386</v>
+        <v>0.12902</v>
       </c>
       <c r="L41">
-        <v>0.120698</v>
+        <v>0.114385</v>
       </c>
       <c r="M41">
-        <v>0.101399</v>
+        <v>9.7019999999999995E-2</v>
       </c>
       <c r="N41">
-        <v>8.5289000000000004E-2</v>
+        <v>8.3099000000000006E-2</v>
       </c>
       <c r="O41">
-        <v>9.8789000000000002E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.4676999999999997E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -2422,13 +2422,13 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0.21317900000000001</v>
+        <v>0.20986199999999999</v>
       </c>
       <c r="K42">
-        <v>0.138159</v>
+        <v>0.13506899999999999</v>
       </c>
       <c r="L42">
-        <v>0.10281</v>
+        <v>0.100105</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -2440,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -2469,25 +2469,25 @@
         <v>1.35639</v>
       </c>
       <c r="J43">
-        <v>0.1862</v>
+        <v>0.18282799999999999</v>
       </c>
       <c r="K43">
-        <v>0.156914</v>
+        <v>0.15390999999999999</v>
       </c>
       <c r="L43">
-        <v>0.12960099999999999</v>
+        <v>0.125608</v>
       </c>
       <c r="M43">
-        <v>0.108761</v>
+        <v>0.105924</v>
       </c>
       <c r="N43">
-        <v>9.4098000000000001E-2</v>
+        <v>9.2563999999999994E-2</v>
       </c>
       <c r="O43">
-        <v>0.1038</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.10102999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -2516,25 +2516,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J44">
-        <v>0.16158400000000001</v>
+        <v>0.15840899999999999</v>
       </c>
       <c r="K44">
-        <v>0.13674</v>
+        <v>0.133936</v>
       </c>
       <c r="L44">
-        <v>0.117024</v>
+        <v>0.113216</v>
       </c>
       <c r="M44">
-        <v>9.9965999999999999E-2</v>
+        <v>9.7251000000000004E-2</v>
       </c>
       <c r="N44">
-        <v>8.5279999999999995E-2</v>
+        <v>8.3862999999999993E-2</v>
       </c>
       <c r="O44">
-        <v>9.4719999999999999E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.2110999999999998E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -2563,25 +2563,25 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J45">
-        <v>0.13814100000000001</v>
+        <v>0.13501299999999999</v>
       </c>
       <c r="K45">
-        <v>0.123171</v>
+        <v>0.120406</v>
       </c>
       <c r="L45">
-        <v>0.109304</v>
+        <v>0.10555</v>
       </c>
       <c r="M45">
-        <v>9.5334000000000002E-2</v>
+        <v>9.2655000000000001E-2</v>
       </c>
       <c r="N45">
-        <v>8.3301E-2</v>
+        <v>8.1896999999999998E-2</v>
       </c>
       <c r="O45">
-        <v>9.1849E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+        <v>8.9297000000000001E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -2610,13 +2610,13 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0.20627999999999999</v>
+        <v>0.203765</v>
       </c>
       <c r="K46">
-        <v>0.132214</v>
+        <v>0.12987499999999999</v>
       </c>
       <c r="L46">
-        <v>9.7691E-2</v>
+        <v>9.5643000000000006E-2</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -2628,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -2657,25 +2657,25 @@
         <v>1.35639</v>
       </c>
       <c r="J47">
-        <v>0.17716299999999999</v>
+        <v>0.174627</v>
       </c>
       <c r="K47">
-        <v>0.148036</v>
+        <v>0.14576700000000001</v>
       </c>
       <c r="L47">
-        <v>0.123084</v>
+        <v>0.12015199999999999</v>
       </c>
       <c r="M47">
-        <v>0.10556500000000001</v>
+        <v>0.103391</v>
       </c>
       <c r="N47">
-        <v>9.2706999999999998E-2</v>
+        <v>9.1429999999999997E-2</v>
       </c>
       <c r="O47">
-        <v>9.8687999999999998E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+        <v>9.6593999999999999E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -2704,25 +2704,25 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J48">
-        <v>0.153223</v>
+        <v>0.150839</v>
       </c>
       <c r="K48">
-        <v>0.12852</v>
+        <v>0.12640399999999999</v>
       </c>
       <c r="L48">
-        <v>0.11111600000000001</v>
+        <v>0.10832</v>
       </c>
       <c r="M48">
-        <v>9.7308000000000006E-2</v>
+        <v>9.5228999999999994E-2</v>
       </c>
       <c r="N48">
-        <v>8.4349999999999994E-2</v>
+        <v>8.3168000000000006E-2</v>
       </c>
       <c r="O48">
-        <v>9.0322E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+        <v>8.8348999999999997E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -2751,22 +2751,22 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J49">
-        <v>0.12990199999999999</v>
+        <v>0.127554</v>
       </c>
       <c r="K49">
-        <v>0.115066</v>
+        <v>0.112979</v>
       </c>
       <c r="L49">
-        <v>0.10348400000000001</v>
+        <v>0.100728</v>
       </c>
       <c r="M49">
-        <v>9.2711000000000002E-2</v>
+        <v>9.0659000000000003E-2</v>
       </c>
       <c r="N49">
-        <v>8.2378999999999994E-2</v>
+        <v>8.1208000000000002E-2</v>
       </c>
       <c r="O49">
-        <v>8.7553000000000006E-2</v>
+        <v>8.5624000000000006E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\PRECIOS CALCULADORA GALP LEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FC9D71-1CAE-4B25-8345-40D106D82102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0001659-2F29-4508-9FC7-93AE68077DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3350A494-7D0F-4E24-96BD-512094F7438F}"/>
   </bookViews>
@@ -84,9 +84,6 @@
     <t>TerminoVariableP6</t>
   </si>
   <si>
-    <t>FEBRERO</t>
-  </si>
-  <si>
     <t>MARZO</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>MAYO</t>
+  </si>
+  <si>
+    <t>JUNIO</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.22208800000000001</v>
+        <v>0.21848799999999999</v>
       </c>
       <c r="K2">
-        <v>0.145731</v>
+        <v>0.14177500000000001</v>
       </c>
       <c r="L2">
-        <v>0.109046</v>
+        <v>0.105532</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -589,22 +589,22 @@
         <v>1.35639</v>
       </c>
       <c r="J3">
-        <v>0.19958600000000001</v>
+        <v>0.19175200000000001</v>
       </c>
       <c r="K3">
-        <v>0.167323</v>
+        <v>0.16139500000000001</v>
       </c>
       <c r="L3">
-        <v>0.13551099999999999</v>
+        <v>0.13250300000000001</v>
       </c>
       <c r="M3">
-        <v>0.112777</v>
+        <v>0.111746</v>
       </c>
       <c r="N3">
-        <v>9.7504999999999994E-2</v>
+        <v>9.6148999999999998E-2</v>
       </c>
       <c r="O3">
-        <v>0.110568</v>
+        <v>0.106599</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -636,22 +636,22 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J4">
-        <v>0.17410800000000001</v>
+        <v>0.166771</v>
       </c>
       <c r="K4">
-        <v>0.146091</v>
+        <v>0.141675</v>
       </c>
       <c r="L4">
-        <v>0.12259200000000001</v>
+        <v>0.119863</v>
       </c>
       <c r="M4">
-        <v>0.103698</v>
+        <v>0.10281800000000001</v>
       </c>
       <c r="N4">
-        <v>8.8333999999999996E-2</v>
+        <v>8.7125999999999995E-2</v>
       </c>
       <c r="O4">
-        <v>0.100746</v>
+        <v>9.7470000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -683,22 +683,22 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J5">
-        <v>0.15046100000000001</v>
+        <v>0.14324899999999999</v>
       </c>
       <c r="K5">
-        <v>0.13237599999999999</v>
+        <v>0.12803600000000001</v>
       </c>
       <c r="L5">
-        <v>0.11479</v>
+        <v>0.112072</v>
       </c>
       <c r="M5">
-        <v>9.9016999999999994E-2</v>
+        <v>9.8150000000000001E-2</v>
       </c>
       <c r="N5">
-        <v>8.6330000000000004E-2</v>
+        <v>8.5133E-2</v>
       </c>
       <c r="O5">
-        <v>9.7708000000000003E-2</v>
+        <v>9.4520000000000007E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.21210599999999999</v>
+        <v>0.209311</v>
       </c>
       <c r="K6">
-        <v>0.136792</v>
+        <v>0.13397500000000001</v>
       </c>
       <c r="L6">
-        <v>0.101395</v>
+        <v>9.9035999999999999E-2</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -777,22 +777,22 @@
         <v>1.35639</v>
       </c>
       <c r="J7">
-        <v>0.187722</v>
+        <v>0.18245700000000001</v>
       </c>
       <c r="K7">
-        <v>0.158106</v>
+        <v>0.15356600000000001</v>
       </c>
       <c r="L7">
-        <v>0.12682399999999999</v>
+        <v>0.12446</v>
       </c>
       <c r="M7">
-        <v>0.105264</v>
+        <v>0.10427</v>
       </c>
       <c r="N7">
-        <v>9.1441999999999996E-2</v>
+        <v>9.0348999999999999E-2</v>
       </c>
       <c r="O7">
-        <v>0.10268099999999999</v>
+        <v>0.100025</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -824,22 +824,22 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J8">
-        <v>0.163049</v>
+        <v>0.15813099999999999</v>
       </c>
       <c r="K8">
-        <v>0.13763700000000001</v>
+        <v>0.13400799999999999</v>
       </c>
       <c r="L8">
-        <v>0.114326</v>
+        <v>0.112167</v>
       </c>
       <c r="M8">
-        <v>9.6604999999999996E-2</v>
+        <v>9.5716999999999997E-2</v>
       </c>
       <c r="N8">
-        <v>8.2789000000000001E-2</v>
+        <v>8.1803000000000001E-2</v>
       </c>
       <c r="O8">
-        <v>9.3468999999999997E-2</v>
+        <v>9.1205999999999995E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -871,22 +871,22 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J9">
-        <v>0.139575</v>
+        <v>0.134739</v>
       </c>
       <c r="K9">
-        <v>0.12404800000000001</v>
+        <v>0.120478</v>
       </c>
       <c r="L9">
-        <v>0.106642</v>
+        <v>0.104501</v>
       </c>
       <c r="M9">
-        <v>9.2018000000000003E-2</v>
+        <v>9.1143000000000002E-2</v>
       </c>
       <c r="N9">
-        <v>8.0833000000000002E-2</v>
+        <v>7.9855999999999996E-2</v>
       </c>
       <c r="O9">
-        <v>9.0609999999999996E-2</v>
+        <v>8.8405999999999998E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.20569699999999999</v>
+        <v>0.20405699999999999</v>
       </c>
       <c r="K10">
-        <v>0.13137399999999999</v>
+        <v>0.129743</v>
       </c>
       <c r="L10">
-        <v>9.6886E-2</v>
+        <v>9.5577999999999996E-2</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -965,22 +965,22 @@
         <v>1.35639</v>
       </c>
       <c r="J11">
-        <v>0.17852899999999999</v>
+        <v>0.17485000000000001</v>
       </c>
       <c r="K11">
-        <v>0.14946000000000001</v>
+        <v>0.14643400000000001</v>
       </c>
       <c r="L11">
-        <v>0.12130299999999999</v>
+        <v>0.120028</v>
       </c>
       <c r="M11">
-        <v>0.103141</v>
+        <v>0.10289</v>
       </c>
       <c r="N11">
-        <v>9.1020000000000004E-2</v>
+        <v>9.0658000000000002E-2</v>
       </c>
       <c r="O11">
-        <v>9.8133999999999999E-2</v>
+        <v>9.6596000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1012,22 +1012,22 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J12">
-        <v>0.15453600000000001</v>
+        <v>0.15109400000000001</v>
       </c>
       <c r="K12">
-        <v>0.12969900000000001</v>
+        <v>0.127245</v>
       </c>
       <c r="L12">
-        <v>0.109374</v>
+        <v>0.108211</v>
       </c>
       <c r="M12">
-        <v>9.4994999999999996E-2</v>
+        <v>9.4797999999999993E-2</v>
       </c>
       <c r="N12">
-        <v>8.2790000000000002E-2</v>
+        <v>8.2479999999999998E-2</v>
       </c>
       <c r="O12">
-        <v>8.9649000000000006E-2</v>
+        <v>8.8364999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1059,22 +1059,22 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J13">
-        <v>0.13119</v>
+        <v>0.127805</v>
       </c>
       <c r="K13">
-        <v>0.11622399999999999</v>
+        <v>0.11380899999999999</v>
       </c>
       <c r="L13">
-        <v>0.10176399999999999</v>
+        <v>0.10061</v>
       </c>
       <c r="M13">
-        <v>9.0427999999999994E-2</v>
+        <v>9.0233999999999995E-2</v>
       </c>
       <c r="N13">
-        <v>8.0833000000000002E-2</v>
+        <v>8.0526E-2</v>
       </c>
       <c r="O13">
-        <v>8.6884000000000003E-2</v>
+        <v>8.5635000000000003E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.21911700000000001</v>
+        <v>0.217914</v>
       </c>
       <c r="K14">
-        <v>0.14338500000000001</v>
+        <v>0.14233599999999999</v>
       </c>
       <c r="L14">
-        <v>0.106973</v>
+        <v>0.106225</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1153,22 +1153,22 @@
         <v>1.35639</v>
       </c>
       <c r="J15">
-        <v>0.19230700000000001</v>
+        <v>0.19175200000000001</v>
       </c>
       <c r="K15">
-        <v>0.16409499999999999</v>
+        <v>0.16267799999999999</v>
       </c>
       <c r="L15">
-        <v>0.13551099999999999</v>
+        <v>0.134439</v>
       </c>
       <c r="M15">
-        <v>0.112777</v>
+        <v>0.111746</v>
       </c>
       <c r="N15">
-        <v>9.7504999999999994E-2</v>
+        <v>9.6148999999999998E-2</v>
       </c>
       <c r="O15">
-        <v>0.108028</v>
+        <v>0.107318</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1200,22 +1200,22 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J16">
-        <v>0.167214</v>
+        <v>0.166771</v>
       </c>
       <c r="K16">
-        <v>0.14321800000000001</v>
+        <v>0.142039</v>
       </c>
       <c r="L16">
-        <v>0.12259200000000001</v>
+        <v>0.121695</v>
       </c>
       <c r="M16">
-        <v>0.103698</v>
+        <v>0.10281800000000001</v>
       </c>
       <c r="N16">
-        <v>8.8333999999999996E-2</v>
+        <v>8.7125999999999995E-2</v>
       </c>
       <c r="O16">
-        <v>9.8614999999999994E-2</v>
+        <v>9.7999000000000003E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1247,22 +1247,22 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J17">
-        <v>0.14368600000000001</v>
+        <v>0.14324899999999999</v>
       </c>
       <c r="K17">
-        <v>0.129556</v>
+        <v>0.12839400000000001</v>
       </c>
       <c r="L17">
-        <v>0.11479</v>
+        <v>0.11390599999999999</v>
       </c>
       <c r="M17">
-        <v>9.9016999999999994E-2</v>
+        <v>9.8150000000000001E-2</v>
       </c>
       <c r="N17">
-        <v>8.6330000000000004E-2</v>
+        <v>8.5133E-2</v>
       </c>
       <c r="O17">
-        <v>9.5652000000000001E-2</v>
+        <v>9.5051999999999998E-2</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.210336</v>
+        <v>0.20871500000000001</v>
       </c>
       <c r="K18">
-        <v>0.135376</v>
+        <v>0.13400300000000001</v>
       </c>
       <c r="L18">
-        <v>0.100174</v>
+        <v>9.9170999999999995E-2</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>1.35639</v>
       </c>
       <c r="J19">
-        <v>0.18282799999999999</v>
+        <v>0.18245700000000001</v>
       </c>
       <c r="K19">
-        <v>0.155969</v>
+        <v>0.15345400000000001</v>
       </c>
       <c r="L19">
-        <v>0.12682399999999999</v>
+        <v>0.124876</v>
       </c>
       <c r="M19">
-        <v>0.105264</v>
+        <v>0.10427</v>
       </c>
       <c r="N19">
-        <v>9.1441999999999996E-2</v>
+        <v>9.0348999999999999E-2</v>
       </c>
       <c r="O19">
-        <v>0.101169</v>
+        <v>0.100129</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1388,22 +1388,22 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J20">
-        <v>0.15840899999999999</v>
+        <v>0.15813099999999999</v>
       </c>
       <c r="K20">
-        <v>0.13567299999999999</v>
+        <v>0.13353699999999999</v>
       </c>
       <c r="L20">
-        <v>0.114326</v>
+        <v>0.11257</v>
       </c>
       <c r="M20">
-        <v>9.6604999999999996E-2</v>
+        <v>9.5716999999999997E-2</v>
       </c>
       <c r="N20">
-        <v>8.2789000000000001E-2</v>
+        <v>8.1803000000000001E-2</v>
       </c>
       <c r="O20">
-        <v>9.2176999999999995E-2</v>
+        <v>9.1259999999999994E-2</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1435,22 +1435,22 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J21">
-        <v>0.13501299999999999</v>
+        <v>0.134739</v>
       </c>
       <c r="K21">
-        <v>0.12211900000000001</v>
+        <v>0.12001199999999999</v>
       </c>
       <c r="L21">
-        <v>0.106642</v>
+        <v>0.10491300000000001</v>
       </c>
       <c r="M21">
-        <v>9.2018000000000003E-2</v>
+        <v>9.1143000000000002E-2</v>
       </c>
       <c r="N21">
-        <v>8.0833000000000002E-2</v>
+        <v>7.9855999999999996E-2</v>
       </c>
       <c r="O21">
-        <v>8.9360999999999996E-2</v>
+        <v>8.8466000000000003E-2</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.204397</v>
+        <v>0.203542</v>
       </c>
       <c r="K22">
-        <v>0.130333</v>
+        <v>0.12967000000000001</v>
       </c>
       <c r="L22">
-        <v>9.5998E-2</v>
+        <v>9.5593999999999998E-2</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1529,22 +1529,22 @@
         <v>1.35639</v>
       </c>
       <c r="J23">
-        <v>0.174627</v>
+        <v>0.17485000000000001</v>
       </c>
       <c r="K23">
-        <v>0.14771000000000001</v>
+        <v>0.14590600000000001</v>
       </c>
       <c r="L23">
-        <v>0.12130299999999999</v>
+        <v>0.12010800000000001</v>
       </c>
       <c r="M23">
-        <v>0.103141</v>
+        <v>0.10289</v>
       </c>
       <c r="N23">
-        <v>9.1020000000000004E-2</v>
+        <v>9.0658000000000002E-2</v>
       </c>
       <c r="O23">
-        <v>9.7031000000000006E-2</v>
+        <v>9.6576999999999996E-2</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1576,22 +1576,22 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J24">
-        <v>0.150839</v>
+        <v>0.15109400000000001</v>
       </c>
       <c r="K24">
-        <v>0.12806400000000001</v>
+        <v>0.12655</v>
       </c>
       <c r="L24">
-        <v>0.109374</v>
+        <v>0.108309</v>
       </c>
       <c r="M24">
-        <v>9.4994999999999996E-2</v>
+        <v>9.4797999999999993E-2</v>
       </c>
       <c r="N24">
-        <v>8.2790000000000002E-2</v>
+        <v>8.2479999999999998E-2</v>
       </c>
       <c r="O24">
-        <v>8.8707999999999995E-2</v>
+        <v>8.8336999999999999E-2</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1623,22 +1623,22 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J25">
-        <v>0.127554</v>
+        <v>0.127805</v>
       </c>
       <c r="K25">
-        <v>0.114616</v>
+        <v>0.113123</v>
       </c>
       <c r="L25">
-        <v>0.10176399999999999</v>
+        <v>0.100717</v>
       </c>
       <c r="M25">
-        <v>9.0427999999999994E-2</v>
+        <v>9.0233999999999995E-2</v>
       </c>
       <c r="N25">
-        <v>8.0833000000000002E-2</v>
+        <v>8.0526E-2</v>
       </c>
       <c r="O25">
-        <v>8.5973999999999995E-2</v>
+        <v>8.5611999999999994E-2</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1670,13 +1670,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.218913</v>
+        <v>0.21731800000000001</v>
       </c>
       <c r="K26">
-        <v>0.143176</v>
+        <v>0.14174900000000001</v>
       </c>
       <c r="L26">
-        <v>0.106957</v>
+        <v>0.105693</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -1717,22 +1717,22 @@
         <v>1.35639</v>
       </c>
       <c r="J27">
-        <v>0.19230700000000001</v>
+        <v>0.19175200000000001</v>
       </c>
       <c r="K27">
-        <v>0.16339400000000001</v>
+        <v>0.16267799999999999</v>
       </c>
       <c r="L27">
-        <v>0.135049</v>
+        <v>0.134439</v>
       </c>
       <c r="M27">
-        <v>0.112777</v>
+        <v>0.11043699999999999</v>
       </c>
       <c r="N27">
-        <v>9.7504999999999994E-2</v>
+        <v>9.4006000000000006E-2</v>
       </c>
       <c r="O27">
-        <v>0.108002</v>
+        <v>0.10674500000000001</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -1764,22 +1764,22 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J28">
-        <v>0.167214</v>
+        <v>0.166771</v>
       </c>
       <c r="K28">
-        <v>0.142674</v>
+        <v>0.142039</v>
       </c>
       <c r="L28">
-        <v>0.122181</v>
+        <v>0.121695</v>
       </c>
       <c r="M28">
-        <v>0.103698</v>
+        <v>0.101539</v>
       </c>
       <c r="N28">
-        <v>8.8333999999999996E-2</v>
+        <v>8.5063E-2</v>
       </c>
       <c r="O28">
-        <v>9.8565E-2</v>
+        <v>9.7387000000000001E-2</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -1811,22 +1811,22 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J29">
-        <v>0.14368600000000001</v>
+        <v>0.14324899999999999</v>
       </c>
       <c r="K29">
-        <v>0.12902</v>
+        <v>0.12839400000000001</v>
       </c>
       <c r="L29">
-        <v>0.114385</v>
+        <v>0.11390599999999999</v>
       </c>
       <c r="M29">
-        <v>9.9016999999999994E-2</v>
+        <v>9.6889000000000003E-2</v>
       </c>
       <c r="N29">
-        <v>8.6330000000000004E-2</v>
+        <v>8.3089999999999997E-2</v>
       </c>
       <c r="O29">
-        <v>9.5603999999999995E-2</v>
+        <v>9.4453999999999996E-2</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.209561</v>
+        <v>0.209258</v>
       </c>
       <c r="K30">
-        <v>0.134768</v>
+        <v>0.13453999999999999</v>
       </c>
       <c r="L30">
-        <v>9.9858000000000002E-2</v>
+        <v>9.9621000000000001E-2</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -1905,22 +1905,22 @@
         <v>1.35639</v>
       </c>
       <c r="J31">
-        <v>0.18282799999999999</v>
+        <v>0.18245700000000001</v>
       </c>
       <c r="K31">
-        <v>0.15390999999999999</v>
+        <v>0.15345400000000001</v>
       </c>
       <c r="L31">
-        <v>0.125608</v>
+        <v>0.124876</v>
       </c>
       <c r="M31">
-        <v>0.105264</v>
+        <v>0.105457</v>
       </c>
       <c r="N31">
-        <v>9.1441999999999996E-2</v>
+        <v>9.2343999999999996E-2</v>
       </c>
       <c r="O31">
-        <v>0.100759</v>
+        <v>0.100618</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -1952,22 +1952,22 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J32">
-        <v>0.15840899999999999</v>
+        <v>0.15813099999999999</v>
       </c>
       <c r="K32">
-        <v>0.133936</v>
+        <v>0.13353699999999999</v>
       </c>
       <c r="L32">
-        <v>0.113216</v>
+        <v>0.11257</v>
       </c>
       <c r="M32">
-        <v>9.6604999999999996E-2</v>
+        <v>9.6879999999999994E-2</v>
       </c>
       <c r="N32">
-        <v>8.2789000000000001E-2</v>
+        <v>8.3720000000000003E-2</v>
       </c>
       <c r="O32">
-        <v>9.1818999999999998E-2</v>
+        <v>9.1783000000000003E-2</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -1999,22 +1999,22 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J33">
-        <v>0.13501299999999999</v>
+        <v>0.134739</v>
       </c>
       <c r="K33">
-        <v>0.120406</v>
+        <v>0.12001199999999999</v>
       </c>
       <c r="L33">
-        <v>0.10555</v>
+        <v>0.10491300000000001</v>
       </c>
       <c r="M33">
-        <v>9.2018000000000003E-2</v>
+        <v>9.2287999999999995E-2</v>
       </c>
       <c r="N33">
-        <v>8.0833000000000002E-2</v>
+        <v>8.1755999999999995E-2</v>
       </c>
       <c r="O33">
-        <v>8.9011999999999994E-2</v>
+        <v>8.8977000000000001E-2</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2046,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.20363600000000001</v>
+        <v>0.20382800000000001</v>
       </c>
       <c r="K34">
-        <v>0.129749</v>
+        <v>0.12994800000000001</v>
       </c>
       <c r="L34">
-        <v>9.5672999999999994E-2</v>
+        <v>9.5699999999999993E-2</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2093,22 +2093,22 @@
         <v>1.35639</v>
       </c>
       <c r="J35">
-        <v>0.174627</v>
+        <v>0.17485000000000001</v>
       </c>
       <c r="K35">
-        <v>0.14576700000000001</v>
+        <v>0.14590600000000001</v>
       </c>
       <c r="L35">
-        <v>0.12015199999999999</v>
+        <v>0.12010800000000001</v>
       </c>
       <c r="M35">
-        <v>0.103141</v>
+        <v>0.10348300000000001</v>
       </c>
       <c r="N35">
-        <v>9.1020000000000004E-2</v>
+        <v>9.1643000000000002E-2</v>
       </c>
       <c r="O35">
-        <v>9.6610000000000001E-2</v>
+        <v>9.6706E-2</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2140,22 +2140,22 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J36">
-        <v>0.150839</v>
+        <v>0.15109400000000001</v>
       </c>
       <c r="K36">
-        <v>0.12640399999999999</v>
+        <v>0.12655</v>
       </c>
       <c r="L36">
-        <v>0.10832</v>
+        <v>0.108309</v>
       </c>
       <c r="M36">
-        <v>9.4994999999999996E-2</v>
+        <v>9.5366999999999993E-2</v>
       </c>
       <c r="N36">
-        <v>8.2790000000000002E-2</v>
+        <v>8.3412E-2</v>
       </c>
       <c r="O36">
-        <v>8.8343000000000005E-2</v>
+        <v>8.8495000000000004E-2</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2187,22 +2187,22 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J37">
-        <v>0.127554</v>
+        <v>0.127805</v>
       </c>
       <c r="K37">
-        <v>0.112979</v>
+        <v>0.113123</v>
       </c>
       <c r="L37">
-        <v>0.100728</v>
+        <v>0.100717</v>
       </c>
       <c r="M37">
-        <v>9.0427999999999994E-2</v>
+        <v>9.0796000000000002E-2</v>
       </c>
       <c r="N37">
-        <v>8.0833000000000002E-2</v>
+        <v>8.1449999999999995E-2</v>
       </c>
       <c r="O37">
-        <v>8.5618E-2</v>
+        <v>8.5766999999999996E-2</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2234,13 +2234,13 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.21796299999999999</v>
+        <v>0.21695200000000001</v>
       </c>
       <c r="K38">
-        <v>0.14224500000000001</v>
+        <v>0.14130699999999999</v>
       </c>
       <c r="L38">
-        <v>0.10613</v>
+        <v>0.104819</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2281,22 +2281,22 @@
         <v>1.35639</v>
       </c>
       <c r="J39">
-        <v>0.19230700000000001</v>
+        <v>0.19175200000000001</v>
       </c>
       <c r="K39">
-        <v>0.16339400000000001</v>
+        <v>0.16267799999999999</v>
       </c>
       <c r="L39">
-        <v>0.135049</v>
+        <v>0.134439</v>
       </c>
       <c r="M39">
-        <v>0.110708</v>
+        <v>0.109503</v>
       </c>
       <c r="N39">
-        <v>9.4120999999999996E-2</v>
+        <v>9.2302999999999996E-2</v>
       </c>
       <c r="O39">
-        <v>0.107111</v>
+        <v>0.105929</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2328,22 +2328,22 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J40">
-        <v>0.167214</v>
+        <v>0.166771</v>
       </c>
       <c r="K40">
-        <v>0.142674</v>
+        <v>0.142039</v>
       </c>
       <c r="L40">
-        <v>0.122181</v>
+        <v>0.121695</v>
       </c>
       <c r="M40">
-        <v>0.101672</v>
+        <v>0.10056</v>
       </c>
       <c r="N40">
-        <v>8.5071999999999995E-2</v>
+        <v>8.3311999999999997E-2</v>
       </c>
       <c r="O40">
-        <v>9.7614999999999993E-2</v>
+        <v>9.6532000000000007E-2</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -2375,22 +2375,22 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J41">
-        <v>0.14368600000000001</v>
+        <v>0.14324899999999999</v>
       </c>
       <c r="K41">
-        <v>0.12902</v>
+        <v>0.12839400000000001</v>
       </c>
       <c r="L41">
-        <v>0.114385</v>
+        <v>0.11390599999999999</v>
       </c>
       <c r="M41">
-        <v>9.7019999999999995E-2</v>
+        <v>9.5922999999999994E-2</v>
       </c>
       <c r="N41">
-        <v>8.3099000000000006E-2</v>
+        <v>8.1353999999999996E-2</v>
       </c>
       <c r="O41">
-        <v>9.4676999999999997E-2</v>
+        <v>9.3618000000000007E-2</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -2422,13 +2422,13 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0.20986199999999999</v>
+        <v>0.209894</v>
       </c>
       <c r="K42">
-        <v>0.13506899999999999</v>
+        <v>0.13524800000000001</v>
       </c>
       <c r="L42">
-        <v>0.100105</v>
+        <v>0.10034</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -2469,22 +2469,22 @@
         <v>1.35639</v>
       </c>
       <c r="J43">
-        <v>0.18282799999999999</v>
+        <v>0.18245700000000001</v>
       </c>
       <c r="K43">
-        <v>0.15390999999999999</v>
+        <v>0.15345400000000001</v>
       </c>
       <c r="L43">
-        <v>0.125608</v>
+        <v>0.124876</v>
       </c>
       <c r="M43">
-        <v>0.105924</v>
+        <v>0.106859</v>
       </c>
       <c r="N43">
-        <v>9.2563999999999994E-2</v>
+        <v>9.4743999999999995E-2</v>
       </c>
       <c r="O43">
-        <v>0.10102999999999999</v>
+        <v>0.101345</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -2516,22 +2516,22 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J44">
-        <v>0.15840899999999999</v>
+        <v>0.15813099999999999</v>
       </c>
       <c r="K44">
-        <v>0.133936</v>
+        <v>0.13353699999999999</v>
       </c>
       <c r="L44">
-        <v>0.113216</v>
+        <v>0.11257</v>
       </c>
       <c r="M44">
-        <v>9.7251000000000004E-2</v>
+        <v>9.8313999999999999E-2</v>
       </c>
       <c r="N44">
-        <v>8.3862999999999993E-2</v>
+        <v>8.6143999999999998E-2</v>
       </c>
       <c r="O44">
-        <v>9.2110999999999998E-2</v>
+        <v>9.2580999999999997E-2</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -2563,22 +2563,22 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J45">
-        <v>0.13501299999999999</v>
+        <v>0.134739</v>
       </c>
       <c r="K45">
-        <v>0.120406</v>
+        <v>0.12001199999999999</v>
       </c>
       <c r="L45">
-        <v>0.10555</v>
+        <v>0.10491300000000001</v>
       </c>
       <c r="M45">
-        <v>9.2655000000000001E-2</v>
+        <v>9.3702999999999995E-2</v>
       </c>
       <c r="N45">
-        <v>8.1896999999999998E-2</v>
+        <v>8.4157999999999997E-2</v>
       </c>
       <c r="O45">
-        <v>8.9297000000000001E-2</v>
+        <v>8.9757000000000003E-2</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -2610,13 +2610,13 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0.203765</v>
+        <v>0.20399500000000001</v>
       </c>
       <c r="K46">
-        <v>0.12987499999999999</v>
+        <v>0.13014700000000001</v>
       </c>
       <c r="L46">
-        <v>9.5643000000000006E-2</v>
+        <v>9.5968999999999999E-2</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -2657,22 +2657,22 @@
         <v>1.35639</v>
       </c>
       <c r="J47">
-        <v>0.174627</v>
+        <v>0.17485000000000001</v>
       </c>
       <c r="K47">
-        <v>0.14576700000000001</v>
+        <v>0.14590600000000001</v>
       </c>
       <c r="L47">
-        <v>0.12015199999999999</v>
+        <v>0.12010800000000001</v>
       </c>
       <c r="M47">
-        <v>0.103391</v>
+        <v>0.10388</v>
       </c>
       <c r="N47">
-        <v>9.1429999999999997E-2</v>
+        <v>9.2346999999999999E-2</v>
       </c>
       <c r="O47">
-        <v>9.6593999999999999E-2</v>
+        <v>9.6972000000000003E-2</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -2704,22 +2704,22 @@
         <v>0.91608999999999996</v>
       </c>
       <c r="J48">
-        <v>0.150839</v>
+        <v>0.15109400000000001</v>
       </c>
       <c r="K48">
-        <v>0.12640399999999999</v>
+        <v>0.12655</v>
       </c>
       <c r="L48">
-        <v>0.10832</v>
+        <v>0.108309</v>
       </c>
       <c r="M48">
-        <v>9.5228999999999994E-2</v>
+        <v>9.5778000000000002E-2</v>
       </c>
       <c r="N48">
-        <v>8.3168000000000006E-2</v>
+        <v>8.4140000000000006E-2</v>
       </c>
       <c r="O48">
-        <v>8.8348999999999997E-2</v>
+        <v>8.8779999999999998E-2</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -2751,22 +2751,22 @@
         <v>0.55403999999999998</v>
       </c>
       <c r="J49">
-        <v>0.127554</v>
+        <v>0.127805</v>
       </c>
       <c r="K49">
-        <v>0.112979</v>
+        <v>0.113123</v>
       </c>
       <c r="L49">
-        <v>0.100728</v>
+        <v>0.100717</v>
       </c>
       <c r="M49">
-        <v>9.0659000000000003E-2</v>
+        <v>9.1201000000000004E-2</v>
       </c>
       <c r="N49">
-        <v>8.1208000000000002E-2</v>
+        <v>8.2171999999999995E-2</v>
       </c>
       <c r="O49">
-        <v>8.5624000000000006E-2</v>
+        <v>8.6044999999999996E-2</v>
       </c>
     </row>
   </sheetData>
